--- a/helper/Eikon.xlsx
+++ b/helper/Eikon.xlsx
@@ -1,33 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22913"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\C\Users\Fernando.Cantu\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_EAC31ED032DF0D51EB40A4BDF345FB096841BA13" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="312" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Eikon" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="TRNR_45b48680f2074c1e847365beb09c7c6c_25_1" hidden="1">Eikon!#REF!</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
   <si>
     <t>aGBCUSEX/A</t>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>VALUE</t>
   </si>
   <si>
     <t>aCNFDICU</t>
@@ -42,6 +58,12 @@
     <t>CHT-IDX-HARPX</t>
   </si>
   <si>
+    <t>Trade Close</t>
+  </si>
+  <si>
+    <t>Last Quote Close</t>
+  </si>
+  <si>
     <t>USPMI=ECI</t>
   </si>
   <si>
@@ -54,26 +76,20 @@
     <t>aTHTOURIAR</t>
   </si>
   <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
     <t>Timestamp</t>
   </si>
   <si>
-    <t>Trade Close</t>
+    <t>C-SOPECWLD-MFZ</t>
   </si>
   <si>
-    <t>Last Quote Close</t>
+    <t>SP-TOTM-EIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +152,83 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="pldatasource.rhistoryrtdserver">
+      <tp t="s">
+        <v>Updated at 09:28:16</v>
+        <stp/>
+        <stp>{EEAE09C6-455F-4AE7-B52A-FE7495AA9904}_x0000_</stp>
+        <tr r="AK3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:24:34</v>
+        <stp/>
+        <stp>{08F59E99-0289-438C-AFB5-3F4938BDEEF8}_x0000_</stp>
+        <tr r="Y3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:24:33</v>
+        <stp/>
+        <stp>{84405A58-DA55-4913-834B-ECCB7080814C}_x0000_</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:32:02</v>
+        <stp/>
+        <stp>{82FF288D-5EDE-4B3A-9361-13BCAB1C3452}_x0000_</stp>
+        <tr r="AO3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:24:33</v>
+        <stp/>
+        <stp>{E082D2D3-EAB0-4942-ABCF-135FA257353A}_x0000_</stp>
+        <tr r="Q3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:24:33</v>
+        <stp/>
+        <stp>{E09AD1B9-B2C4-4C66-B760-A7E0A0529FB2}_x0000_</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+    </main>
+    <main first="pldatasource.rhistoryrtdserver">
+      <tp t="s">
+        <v>Updated at 09:24:33</v>
+        <stp/>
+        <stp>{A897A5ED-4342-4E63-89AD-EC3B3A547E29}_x0000_</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:24:33</v>
+        <stp/>
+        <stp>{426907F7-DFC5-4572-8E99-D0D1112BC1CB}_x0000_</stp>
+        <tr r="AC3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:24:35</v>
+        <stp/>
+        <stp>{6571444F-F433-4CFE-A961-7668511C37FF}_x0000_</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:24:34</v>
+        <stp/>
+        <stp>{5B86E031-6B3B-41FC-A68F-5EDD5CCB2309}_x0000_</stp>
+        <tr r="U3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:24:34</v>
+        <stp/>
+        <stp>{56E0054C-21B3-4E2B-A413-6CAEE4621579}_x0000_</stp>
+        <tr r="AG3" s="2"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -434,30 +527,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI225"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AQ244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AQ226" sqref="AQ226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" customWidth="1"/>
-    <col min="25" max="27" width="12.7109375" customWidth="1"/>
-    <col min="29" max="31" width="12.7109375" customWidth="1"/>
-    <col min="33" max="35" width="12.7109375" customWidth="1"/>
+    <col min="1" max="3" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" customWidth="1"/>
+    <col min="25" max="27" width="12.6640625" customWidth="1"/>
+    <col min="29" max="31" width="12.6640625" customWidth="1"/>
+    <col min="33" max="35" width="12.6640625" customWidth="1"/>
+    <col min="37" max="39" width="12.6640625" customWidth="1"/>
+    <col min="41" max="43" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="M1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -472,132 +568,164 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X2" s="4"/>
       <c r="AA2" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE2" s="4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+        <v>12</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>_xll.RHistory(C2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",B4)</f>
-        <v>Offline at 17:29:46</v>
+        <v>Updated at 09:24:35</v>
       </c>
       <c r="E3" t="str">
         <f>_xll.RHistory(G2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",F4)</f>
-        <v>Offline at 17:29:46</v>
+        <v>Updated at 09:24:33</v>
       </c>
       <c r="I3" t="str">
         <f>_xll.RHistory(K2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",J4)</f>
-        <v>Offline at 17:29:46</v>
+        <v>Updated at 09:24:33</v>
       </c>
       <c r="M3" t="str">
         <f>_xll.RHistory(O2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",N4)</f>
-        <v>Offline at 17:29:46</v>
+        <v>Updated at 09:24:33</v>
       </c>
       <c r="Q3" t="str">
         <f>_xll.RHistory(S2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",R4)</f>
-        <v>Offline at 17:29:46</v>
+        <v>Updated at 09:24:33</v>
       </c>
       <c r="U3" t="str">
         <f>_xll.RHistory(W2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",V4)</f>
-        <v>Offline at 17:29:46</v>
+        <v>Updated at 09:24:34</v>
       </c>
       <c r="Y3" t="str">
         <f>_xll.RHistory(AA2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",Z4)</f>
-        <v>Offline at 17:29:46</v>
+        <v>Updated at 09:24:34</v>
       </c>
       <c r="AC3" t="str">
         <f>_xll.RHistory(AE2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AD4)</f>
-        <v>Offline at 17:29:46</v>
+        <v>Updated at 09:24:33</v>
       </c>
       <c r="AG3" t="str">
         <f>_xll.RHistory(AI2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AH4)</f>
-        <v>Offline at 17:29:46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+        <v>Updated at 09:24:34</v>
+      </c>
+      <c r="AK3" t="str">
+        <f>_xll.RHistory(AM2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AL4)</f>
+        <v>Updated at 09:28:16</v>
+      </c>
+      <c r="AO3" t="str">
+        <f>_xll.RHistory(AQ2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AP4)</f>
+        <v>Updated at 09:32:02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="R4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL4" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AM4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>37287</v>
       </c>
@@ -652,8 +780,20 @@
       <c r="AI5">
         <v>940653</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AL5" s="2">
+        <v>42035</v>
+      </c>
+      <c r="AM5">
+        <v>22529.11</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>37287</v>
+      </c>
+      <c r="AQ5">
+        <v>27.31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>37315</v>
       </c>
@@ -708,8 +848,20 @@
       <c r="AI6">
         <v>1008422</v>
       </c>
-    </row>
-    <row r="7" spans="1:35">
+      <c r="AL6" s="2">
+        <v>42063</v>
+      </c>
+      <c r="AM6">
+        <v>22404.75</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>37315</v>
+      </c>
+      <c r="AQ6">
+        <v>27.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>37346</v>
       </c>
@@ -764,8 +916,20 @@
       <c r="AI7">
         <v>967194</v>
       </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AL7" s="2">
+        <v>42094</v>
+      </c>
+      <c r="AM7">
+        <v>23311.13</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>37346</v>
+      </c>
+      <c r="AQ7">
+        <v>27.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>37376</v>
       </c>
@@ -820,8 +984,20 @@
       <c r="AI8">
         <v>855353</v>
       </c>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AL8" s="2">
+        <v>42124</v>
+      </c>
+      <c r="AM8">
+        <v>22250.05</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>37376</v>
+      </c>
+      <c r="AQ8">
+        <v>26.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>37407</v>
       </c>
@@ -876,8 +1052,20 @@
       <c r="AI9">
         <v>811955</v>
       </c>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AL9" s="2">
+        <v>42155</v>
+      </c>
+      <c r="AM9">
+        <v>22596.85</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>37407</v>
+      </c>
+      <c r="AQ9">
+        <v>26.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>37437</v>
       </c>
@@ -932,8 +1120,20 @@
       <c r="AI10">
         <v>779349</v>
       </c>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AL10" s="2">
+        <v>42185</v>
+      </c>
+      <c r="AM10">
+        <v>22762.02</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>37437</v>
+      </c>
+      <c r="AQ10">
+        <v>25.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>37468</v>
       </c>
@@ -988,8 +1188,20 @@
       <c r="AI11">
         <v>885229</v>
       </c>
-    </row>
-    <row r="12" spans="1:35">
+      <c r="AL11" s="2">
+        <v>42216</v>
+      </c>
+      <c r="AM11">
+        <v>22697.72</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>37468</v>
+      </c>
+      <c r="AQ11">
+        <v>25.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>37499</v>
       </c>
@@ -1044,8 +1256,20 @@
       <c r="AI12">
         <v>906804</v>
       </c>
-    </row>
-    <row r="13" spans="1:35">
+      <c r="AL12" s="2">
+        <v>42247</v>
+      </c>
+      <c r="AM12">
+        <v>22493.83</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>37499</v>
+      </c>
+      <c r="AQ12">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>37529</v>
       </c>
@@ -1100,8 +1324,20 @@
       <c r="AI13">
         <v>794898</v>
       </c>
-    </row>
-    <row r="14" spans="1:35">
+      <c r="AL13" s="2">
+        <v>42277</v>
+      </c>
+      <c r="AM13">
+        <v>22138.84</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>37529</v>
+      </c>
+      <c r="AQ13">
+        <v>25.71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>37560</v>
       </c>
@@ -1156,8 +1392,20 @@
       <c r="AI14">
         <v>863389</v>
       </c>
-    </row>
-    <row r="15" spans="1:35">
+      <c r="AL14" s="2">
+        <v>42308</v>
+      </c>
+      <c r="AM14">
+        <v>22406.31</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>37560</v>
+      </c>
+      <c r="AQ14">
+        <v>24.51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>37590</v>
       </c>
@@ -1212,8 +1460,20 @@
       <c r="AI15">
         <v>954194</v>
       </c>
-    </row>
-    <row r="16" spans="1:35">
+      <c r="AL15" s="2">
+        <v>42338</v>
+      </c>
+      <c r="AM15">
+        <v>23027.43</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>37590</v>
+      </c>
+      <c r="AQ15">
+        <v>25.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>37621</v>
       </c>
@@ -1268,8 +1528,20 @@
       <c r="AI16">
         <v>1105536</v>
       </c>
-    </row>
-    <row r="17" spans="2:35">
+      <c r="AL16" s="2">
+        <v>42369</v>
+      </c>
+      <c r="AM16">
+        <v>23151.439999999999</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>37621</v>
+      </c>
+      <c r="AQ16">
+        <v>25.07</v>
+      </c>
+    </row>
+    <row r="17" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>37652</v>
       </c>
@@ -1324,8 +1596,20 @@
       <c r="AI17">
         <v>996260</v>
       </c>
-    </row>
-    <row r="18" spans="2:35">
+      <c r="AL17" s="2">
+        <v>42400</v>
+      </c>
+      <c r="AM17">
+        <v>24818.58</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>37652</v>
+      </c>
+      <c r="AQ17">
+        <v>25.65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>37680</v>
       </c>
@@ -1380,8 +1664,20 @@
       <c r="AI18">
         <v>1010569</v>
       </c>
-    </row>
-    <row r="19" spans="2:35">
+      <c r="AL18" s="2">
+        <v>42429</v>
+      </c>
+      <c r="AM18">
+        <v>24216.54</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>37680</v>
+      </c>
+      <c r="AQ18">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>37711</v>
       </c>
@@ -1436,8 +1732,20 @@
       <c r="AI19">
         <v>861259</v>
       </c>
-    </row>
-    <row r="20" spans="2:35">
+      <c r="AL19" s="2">
+        <v>42460</v>
+      </c>
+      <c r="AM19">
+        <v>24477.13</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>37711</v>
+      </c>
+      <c r="AQ19">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>37741</v>
       </c>
@@ -1492,8 +1800,20 @@
       <c r="AI20">
         <v>470969</v>
       </c>
-    </row>
-    <row r="21" spans="2:35">
+      <c r="AL20" s="2">
+        <v>42490</v>
+      </c>
+      <c r="AM20">
+        <v>23957.83</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>37741</v>
+      </c>
+      <c r="AQ20">
+        <v>27.07</v>
+      </c>
+    </row>
+    <row r="21" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>37772</v>
       </c>
@@ -1548,8 +1868,20 @@
       <c r="AI21">
         <v>404563</v>
       </c>
-    </row>
-    <row r="22" spans="2:35">
+      <c r="AL21" s="2">
+        <v>42521</v>
+      </c>
+      <c r="AM21">
+        <v>23040.49</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>37772</v>
+      </c>
+      <c r="AQ21">
+        <v>27.14</v>
+      </c>
+    </row>
+    <row r="22" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>37802</v>
       </c>
@@ -1604,8 +1936,20 @@
       <c r="AI22">
         <v>591164</v>
       </c>
-    </row>
-    <row r="23" spans="2:35">
+      <c r="AL22" s="2">
+        <v>42551</v>
+      </c>
+      <c r="AM22">
+        <v>23182.83</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>37802</v>
+      </c>
+      <c r="AQ22">
+        <v>25.34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>37833</v>
       </c>
@@ -1660,8 +2004,20 @@
       <c r="AI23">
         <v>840334</v>
       </c>
-    </row>
-    <row r="24" spans="2:35">
+      <c r="AL23" s="2">
+        <v>42582</v>
+      </c>
+      <c r="AM23">
+        <v>23633.63</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>37833</v>
+      </c>
+      <c r="AQ23">
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>37864</v>
       </c>
@@ -1716,8 +2072,20 @@
       <c r="AI24">
         <v>933177</v>
       </c>
-    </row>
-    <row r="25" spans="2:35">
+      <c r="AL24" s="2">
+        <v>42613</v>
+      </c>
+      <c r="AM24">
+        <v>24128.87</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>37864</v>
+      </c>
+      <c r="AQ24">
+        <v>27.04</v>
+      </c>
+    </row>
+    <row r="25" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>37894</v>
       </c>
@@ -1772,8 +2140,20 @@
       <c r="AI25">
         <v>828743</v>
       </c>
-    </row>
-    <row r="26" spans="2:35">
+      <c r="AL25" s="2">
+        <v>42643</v>
+      </c>
+      <c r="AM25">
+        <v>23272.240000000002</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>37894</v>
+      </c>
+      <c r="AQ25">
+        <v>27.66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>37925</v>
       </c>
@@ -1828,8 +2208,20 @@
       <c r="AI26">
         <v>896842</v>
       </c>
-    </row>
-    <row r="27" spans="2:35">
+      <c r="AL26" s="2">
+        <v>42674</v>
+      </c>
+      <c r="AM26">
+        <v>24703.599999999999</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>37925</v>
+      </c>
+      <c r="AQ26">
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>37955</v>
       </c>
@@ -1884,8 +2276,20 @@
       <c r="AI27">
         <v>1065997</v>
       </c>
-    </row>
-    <row r="28" spans="2:35">
+      <c r="AL27" s="2">
+        <v>42704</v>
+      </c>
+      <c r="AM27">
+        <v>24968.09</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>37955</v>
+      </c>
+      <c r="AQ27">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>37986</v>
       </c>
@@ -1940,8 +2344,20 @@
       <c r="AI28">
         <v>1182232</v>
       </c>
-    </row>
-    <row r="29" spans="2:35">
+      <c r="AL28" s="2">
+        <v>42735</v>
+      </c>
+      <c r="AM28">
+        <v>24622.03</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>37986</v>
+      </c>
+      <c r="AQ28">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>38017</v>
       </c>
@@ -1996,8 +2412,20 @@
       <c r="AI29">
         <v>1223335</v>
       </c>
-    </row>
-    <row r="30" spans="2:35">
+      <c r="AL29" s="2">
+        <v>42766</v>
+      </c>
+      <c r="AM29">
+        <v>23386.89</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>38017</v>
+      </c>
+      <c r="AQ29">
+        <v>26.46</v>
+      </c>
+    </row>
+    <row r="30" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>38046</v>
       </c>
@@ -2052,8 +2480,20 @@
       <c r="AI30">
         <v>903359</v>
       </c>
-    </row>
-    <row r="31" spans="2:35">
+      <c r="AL30" s="2">
+        <v>42794</v>
+      </c>
+      <c r="AM30">
+        <v>24484.78</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>38046</v>
+      </c>
+      <c r="AQ30">
+        <v>26.95</v>
+      </c>
+    </row>
+    <row r="31" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>38077</v>
       </c>
@@ -2108,8 +2548,20 @@
       <c r="AI31">
         <v>868587</v>
       </c>
-    </row>
-    <row r="32" spans="2:35">
+      <c r="AL31" s="2">
+        <v>42825</v>
+      </c>
+      <c r="AM31">
+        <v>24127.42</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>38077</v>
+      </c>
+      <c r="AQ31">
+        <v>27.39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>38107</v>
       </c>
@@ -2164,8 +2616,20 @@
       <c r="AI32">
         <v>872803</v>
       </c>
-    </row>
-    <row r="33" spans="2:35">
+      <c r="AL32" s="2">
+        <v>42855</v>
+      </c>
+      <c r="AM32">
+        <v>23373.93</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>38107</v>
+      </c>
+      <c r="AQ32">
+        <v>28.01</v>
+      </c>
+    </row>
+    <row r="33" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>38138</v>
       </c>
@@ -2220,8 +2684,20 @@
       <c r="AI33">
         <v>812077</v>
       </c>
-    </row>
-    <row r="34" spans="2:35">
+      <c r="AL33" s="2">
+        <v>42886</v>
+      </c>
+      <c r="AM33">
+        <v>24700.77</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>38138</v>
+      </c>
+      <c r="AQ33">
+        <v>28.01</v>
+      </c>
+    </row>
+    <row r="34" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>38168</v>
       </c>
@@ -2276,8 +2752,20 @@
       <c r="AI34">
         <v>872709</v>
       </c>
-    </row>
-    <row r="35" spans="2:35">
+      <c r="AL34" s="2">
+        <v>42916</v>
+      </c>
+      <c r="AM34">
+        <v>25065.52</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>38168</v>
+      </c>
+      <c r="AQ34">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="35" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>38199</v>
       </c>
@@ -2332,8 +2820,20 @@
       <c r="AI35">
         <v>1019027</v>
       </c>
-    </row>
-    <row r="36" spans="2:35">
+      <c r="AL35" s="2">
+        <v>42947</v>
+      </c>
+      <c r="AM35">
+        <v>25029.8</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>38199</v>
+      </c>
+      <c r="AQ35">
+        <v>28.98</v>
+      </c>
+    </row>
+    <row r="36" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>38230</v>
       </c>
@@ -2388,8 +2888,20 @@
       <c r="AI36">
         <v>1042294</v>
       </c>
-    </row>
-    <row r="37" spans="2:35">
+      <c r="AL36" s="2">
+        <v>42978</v>
+      </c>
+      <c r="AM36">
+        <v>24260.19</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>38230</v>
+      </c>
+      <c r="AQ36">
+        <v>28.92</v>
+      </c>
+    </row>
+    <row r="37" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>38260</v>
       </c>
@@ -2444,8 +2956,20 @@
       <c r="AI37">
         <v>904642</v>
       </c>
-    </row>
-    <row r="38" spans="2:35">
+      <c r="AL37" s="2">
+        <v>43008</v>
+      </c>
+      <c r="AM37">
+        <v>25158.52</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>38260</v>
+      </c>
+      <c r="AQ37">
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>38291</v>
       </c>
@@ -2500,8 +3024,20 @@
       <c r="AI38">
         <v>974167</v>
       </c>
-    </row>
-    <row r="39" spans="2:35">
+      <c r="AL38" s="2">
+        <v>43039</v>
+      </c>
+      <c r="AM38">
+        <v>24310.79</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>38291</v>
+      </c>
+      <c r="AQ38">
+        <v>28.77</v>
+      </c>
+    </row>
+    <row r="39" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>38321</v>
       </c>
@@ -2556,8 +3092,20 @@
       <c r="AI39">
         <v>1091159</v>
       </c>
-    </row>
-    <row r="40" spans="2:35">
+      <c r="AL39" s="2">
+        <v>43069</v>
+      </c>
+      <c r="AM39">
+        <v>23805.61</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>38321</v>
+      </c>
+      <c r="AQ39">
+        <v>28.59</v>
+      </c>
+    </row>
+    <row r="40" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>38352</v>
       </c>
@@ -2612,8 +3160,20 @@
       <c r="AI40">
         <v>1153254</v>
       </c>
-    </row>
-    <row r="41" spans="2:35">
+      <c r="AL40" s="2">
+        <v>43100</v>
+      </c>
+      <c r="AM40">
+        <v>24029.54</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>38352</v>
+      </c>
+      <c r="AQ40">
+        <v>29.72</v>
+      </c>
+    </row>
+    <row r="41" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>38383</v>
       </c>
@@ -2668,8 +3228,20 @@
       <c r="AI41">
         <v>857266</v>
       </c>
-    </row>
-    <row r="42" spans="2:35">
+      <c r="AL41" s="2">
+        <v>43131</v>
+      </c>
+      <c r="AM41">
+        <v>24203.86</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>38383</v>
+      </c>
+      <c r="AQ41">
+        <v>30.12</v>
+      </c>
+    </row>
+    <row r="42" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>38411</v>
       </c>
@@ -2724,8 +3296,20 @@
       <c r="AI42">
         <v>898488</v>
       </c>
-    </row>
-    <row r="43" spans="2:35">
+      <c r="AL42" s="2">
+        <v>43159</v>
+      </c>
+      <c r="AM42">
+        <v>24328.22</v>
+      </c>
+      <c r="AP42" s="2">
+        <v>38411</v>
+      </c>
+      <c r="AQ42">
+        <v>29.93</v>
+      </c>
+    </row>
+    <row r="43" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>38442</v>
       </c>
@@ -2780,8 +3364,20 @@
       <c r="AI43">
         <v>937687</v>
       </c>
-    </row>
-    <row r="44" spans="2:35">
+      <c r="AL43" s="2">
+        <v>43190</v>
+      </c>
+      <c r="AM43">
+        <v>23987.08</v>
+      </c>
+      <c r="AP43" s="2">
+        <v>38442</v>
+      </c>
+      <c r="AQ43">
+        <v>30.45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>38472</v>
       </c>
@@ -2836,8 +3432,20 @@
       <c r="AI44">
         <v>806809</v>
       </c>
-    </row>
-    <row r="45" spans="2:35">
+      <c r="AL44" s="2">
+        <v>43220</v>
+      </c>
+      <c r="AM44">
+        <v>24588.67</v>
+      </c>
+      <c r="AP44" s="2">
+        <v>38472</v>
+      </c>
+      <c r="AQ44">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="45" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>38503</v>
       </c>
@@ -2892,8 +3500,20 @@
       <c r="AI45">
         <v>811915</v>
       </c>
-    </row>
-    <row r="46" spans="2:35">
+      <c r="AL45" s="2">
+        <v>43251</v>
+      </c>
+      <c r="AM45">
+        <v>23886.35</v>
+      </c>
+      <c r="AP45" s="2">
+        <v>38503</v>
+      </c>
+      <c r="AQ45">
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="46" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>38533</v>
       </c>
@@ -2948,8 +3568,20 @@
       <c r="AI46">
         <v>900815</v>
       </c>
-    </row>
-    <row r="47" spans="2:35">
+      <c r="AL46" s="2">
+        <v>43281</v>
+      </c>
+      <c r="AM46">
+        <v>25295.62</v>
+      </c>
+      <c r="AP46" s="2">
+        <v>38533</v>
+      </c>
+      <c r="AQ46">
+        <v>30.15</v>
+      </c>
+    </row>
+    <row r="47" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>38564</v>
       </c>
@@ -3004,8 +3636,20 @@
       <c r="AI47">
         <v>1036246</v>
       </c>
-    </row>
-    <row r="48" spans="2:35">
+      <c r="AL47" s="2">
+        <v>43312</v>
+      </c>
+      <c r="AM47">
+        <v>23691.200000000001</v>
+      </c>
+      <c r="AP47" s="2">
+        <v>38564</v>
+      </c>
+      <c r="AQ47">
+        <v>30.35</v>
+      </c>
+    </row>
+    <row r="48" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>38595</v>
       </c>
@@ -3060,8 +3704,20 @@
       <c r="AI48">
         <v>1060880</v>
       </c>
-    </row>
-    <row r="49" spans="2:35">
+      <c r="AL48" s="2">
+        <v>43343</v>
+      </c>
+      <c r="AM48">
+        <v>24600.54</v>
+      </c>
+      <c r="AP48" s="2">
+        <v>38595</v>
+      </c>
+      <c r="AQ48">
+        <v>30.46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>38625</v>
       </c>
@@ -3116,8 +3772,20 @@
       <c r="AI49">
         <v>919102</v>
       </c>
-    </row>
-    <row r="50" spans="2:35">
+      <c r="AL49" s="2">
+        <v>43373</v>
+      </c>
+      <c r="AM49">
+        <v>24486.45</v>
+      </c>
+      <c r="AP49" s="2">
+        <v>38625</v>
+      </c>
+      <c r="AQ49">
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="50" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>38656</v>
       </c>
@@ -3172,8 +3840,20 @@
       <c r="AI50">
         <v>1020261</v>
       </c>
-    </row>
-    <row r="51" spans="2:35">
+      <c r="AL50" s="2">
+        <v>43404</v>
+      </c>
+      <c r="AM50">
+        <v>23979.06</v>
+      </c>
+      <c r="AP50" s="2">
+        <v>38656</v>
+      </c>
+      <c r="AQ50">
+        <v>30.76</v>
+      </c>
+    </row>
+    <row r="51" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>38686</v>
       </c>
@@ -3228,8 +3908,20 @@
       <c r="AI51">
         <v>1115294</v>
       </c>
-    </row>
-    <row r="52" spans="2:35">
+      <c r="AL51" s="2">
+        <v>43434</v>
+      </c>
+      <c r="AM51">
+        <v>24083.9</v>
+      </c>
+      <c r="AP51" s="2">
+        <v>38686</v>
+      </c>
+      <c r="AQ51">
+        <v>30.64</v>
+      </c>
+    </row>
+    <row r="52" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>38717</v>
       </c>
@@ -3284,8 +3976,20 @@
       <c r="AI52">
         <v>1202578</v>
       </c>
-    </row>
-    <row r="53" spans="2:35">
+      <c r="AL52" s="2">
+        <v>43465</v>
+      </c>
+      <c r="AM52">
+        <v>23765.81</v>
+      </c>
+      <c r="AP52" s="2">
+        <v>38717</v>
+      </c>
+      <c r="AQ52">
+        <v>30.78</v>
+      </c>
+    </row>
+    <row r="53" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>38748</v>
       </c>
@@ -3340,8 +4044,20 @@
       <c r="AI53">
         <v>1264329</v>
       </c>
-    </row>
-    <row r="54" spans="2:35">
+      <c r="AL53" s="2">
+        <v>43496</v>
+      </c>
+      <c r="AM53">
+        <v>23990.98</v>
+      </c>
+      <c r="AP53" s="2">
+        <v>38748</v>
+      </c>
+      <c r="AQ53">
+        <v>31.03</v>
+      </c>
+    </row>
+    <row r="54" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>38776</v>
       </c>
@@ -3396,8 +4112,20 @@
       <c r="AI54">
         <v>1185261</v>
       </c>
-    </row>
-    <row r="55" spans="2:35">
+      <c r="AL54" s="2">
+        <v>43524</v>
+      </c>
+      <c r="AM54">
+        <v>23979.27</v>
+      </c>
+      <c r="AP54" s="2">
+        <v>38776</v>
+      </c>
+      <c r="AQ54">
+        <v>30.99</v>
+      </c>
+    </row>
+    <row r="55" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>38807</v>
       </c>
@@ -3452,8 +4180,20 @@
       <c r="AI55">
         <v>1178165</v>
       </c>
-    </row>
-    <row r="56" spans="2:35">
+      <c r="AL55" s="2">
+        <v>43555</v>
+      </c>
+      <c r="AM55">
+        <v>23584.65</v>
+      </c>
+      <c r="AP55" s="2">
+        <v>38807</v>
+      </c>
+      <c r="AQ55">
+        <v>31.38</v>
+      </c>
+    </row>
+    <row r="56" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>38837</v>
       </c>
@@ -3508,8 +4248,20 @@
       <c r="AI56">
         <v>1077925</v>
       </c>
-    </row>
-    <row r="57" spans="2:35">
+      <c r="AL56" s="2">
+        <v>43585</v>
+      </c>
+      <c r="AM56">
+        <v>23183.68</v>
+      </c>
+      <c r="AP56" s="2">
+        <v>38837</v>
+      </c>
+      <c r="AQ56">
+        <v>31.03</v>
+      </c>
+    </row>
+    <row r="57" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>38868</v>
       </c>
@@ -3564,8 +4316,20 @@
       <c r="AI57">
         <v>981651</v>
       </c>
-    </row>
-    <row r="58" spans="2:35">
+      <c r="AL57" s="2">
+        <v>43616</v>
+      </c>
+      <c r="AM57">
+        <v>21674.560000000001</v>
+      </c>
+      <c r="AP57" s="2">
+        <v>38868</v>
+      </c>
+      <c r="AQ57">
+        <v>30.98</v>
+      </c>
+    </row>
+    <row r="58" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>38898</v>
       </c>
@@ -3620,8 +4384,20 @@
       <c r="AI58">
         <v>1051930</v>
       </c>
-    </row>
-    <row r="59" spans="2:35">
+      <c r="AL58" s="2">
+        <v>43646</v>
+      </c>
+      <c r="AM58">
+        <v>22976.02</v>
+      </c>
+      <c r="AP58" s="2">
+        <v>38898</v>
+      </c>
+      <c r="AQ58">
+        <v>30.91</v>
+      </c>
+    </row>
+    <row r="59" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>38929</v>
       </c>
@@ -3676,8 +4452,20 @@
       <c r="AI59">
         <v>1163386</v>
       </c>
-    </row>
-    <row r="60" spans="2:35">
+      <c r="AL59" s="2">
+        <v>43677</v>
+      </c>
+      <c r="AM59">
+        <v>21983.67</v>
+      </c>
+      <c r="AP59" s="2">
+        <v>38929</v>
+      </c>
+      <c r="AQ59">
+        <v>30.61</v>
+      </c>
+    </row>
+    <row r="60" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>38960</v>
       </c>
@@ -3732,8 +4520,20 @@
       <c r="AI60">
         <v>1217649</v>
       </c>
-    </row>
-    <row r="61" spans="2:35">
+      <c r="AL60" s="2">
+        <v>43708</v>
+      </c>
+      <c r="AM60">
+        <v>22467.57</v>
+      </c>
+      <c r="AP60" s="2">
+        <v>38960</v>
+      </c>
+      <c r="AQ60">
+        <v>30.64</v>
+      </c>
+    </row>
+    <row r="61" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>38990</v>
       </c>
@@ -3788,8 +4588,20 @@
       <c r="AI61">
         <v>979432</v>
       </c>
-    </row>
-    <row r="62" spans="2:35">
+      <c r="AL61" s="2">
+        <v>43738</v>
+      </c>
+      <c r="AM61">
+        <v>21360.39</v>
+      </c>
+      <c r="AP61" s="2">
+        <v>38990</v>
+      </c>
+      <c r="AQ61">
+        <v>30.47</v>
+      </c>
+    </row>
+    <row r="62" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>39021</v>
       </c>
@@ -3844,8 +4656,20 @@
       <c r="AI62">
         <v>1051528</v>
       </c>
-    </row>
-    <row r="63" spans="2:35">
+      <c r="AL62" s="2">
+        <v>43769</v>
+      </c>
+      <c r="AM62">
+        <v>22499.17</v>
+      </c>
+      <c r="AP62" s="2">
+        <v>39021</v>
+      </c>
+      <c r="AQ62">
+        <v>30.49</v>
+      </c>
+    </row>
+    <row r="63" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>39051</v>
       </c>
@@ -3900,8 +4724,20 @@
       <c r="AI63">
         <v>1236279</v>
       </c>
-    </row>
-    <row r="64" spans="2:35">
+      <c r="AL63" s="2">
+        <v>43799</v>
+      </c>
+      <c r="AM63">
+        <v>23129.91</v>
+      </c>
+      <c r="AP63" s="2">
+        <v>39051</v>
+      </c>
+      <c r="AQ63">
+        <v>30.17</v>
+      </c>
+    </row>
+    <row r="64" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>39082</v>
       </c>
@@ -3956,8 +4792,20 @@
       <c r="AI64">
         <v>1441255</v>
       </c>
-    </row>
-    <row r="65" spans="2:35">
+      <c r="AL64" s="2">
+        <v>43830</v>
+      </c>
+      <c r="AM64">
+        <v>22580.32</v>
+      </c>
+      <c r="AP64" s="2">
+        <v>39082</v>
+      </c>
+      <c r="AQ64">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="65" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>39113</v>
       </c>
@@ -4012,8 +4860,20 @@
       <c r="AI65">
         <v>1313677</v>
       </c>
-    </row>
-    <row r="66" spans="2:35">
+      <c r="AL65" s="2">
+        <v>43861</v>
+      </c>
+      <c r="AM65">
+        <v>22515.52</v>
+      </c>
+      <c r="AP65" s="2">
+        <v>39113</v>
+      </c>
+      <c r="AQ65">
+        <v>30.73</v>
+      </c>
+    </row>
+    <row r="66" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>39141</v>
       </c>
@@ -4068,8 +4928,20 @@
       <c r="AI66">
         <v>1284304</v>
       </c>
-    </row>
-    <row r="67" spans="2:35">
+      <c r="AL66" s="2">
+        <v>43890</v>
+      </c>
+      <c r="AM66">
+        <v>21724.57</v>
+      </c>
+      <c r="AP66" s="2">
+        <v>39141</v>
+      </c>
+      <c r="AQ66">
+        <v>30.83</v>
+      </c>
+    </row>
+    <row r="67" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>39172</v>
       </c>
@@ -4124,8 +4996,20 @@
       <c r="AI67">
         <v>1233108</v>
       </c>
-    </row>
-    <row r="68" spans="2:35">
+      <c r="AL67" s="2">
+        <v>43921</v>
+      </c>
+      <c r="AM67">
+        <v>22066.66</v>
+      </c>
+      <c r="AP67" s="2">
+        <v>39172</v>
+      </c>
+      <c r="AQ67">
+        <v>30.48</v>
+      </c>
+    </row>
+    <row r="68" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>39202</v>
       </c>
@@ -4180,8 +5064,20 @@
       <c r="AI68">
         <v>1101392</v>
       </c>
-    </row>
-    <row r="69" spans="2:35">
+      <c r="AL68" s="2">
+        <v>43951</v>
+      </c>
+      <c r="AM68">
+        <v>24495</v>
+      </c>
+      <c r="AP68" s="2">
+        <v>39202</v>
+      </c>
+      <c r="AQ68">
+        <v>30.24</v>
+      </c>
+    </row>
+    <row r="69" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>39233</v>
       </c>
@@ -4236,8 +5132,20 @@
       <c r="AI69">
         <v>990810</v>
       </c>
-    </row>
-    <row r="70" spans="2:35">
+      <c r="AL69" s="2">
+        <v>43982</v>
+      </c>
+      <c r="AM69">
+        <v>19057.11</v>
+      </c>
+      <c r="AP69" s="2">
+        <v>39233</v>
+      </c>
+      <c r="AQ69">
+        <v>29.86</v>
+      </c>
+    </row>
+    <row r="70" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>39263</v>
       </c>
@@ -4292,8 +5200,20 @@
       <c r="AI70">
         <v>1031461</v>
       </c>
-    </row>
-    <row r="71" spans="2:35">
+      <c r="AL70" s="2">
+        <v>44012</v>
+      </c>
+      <c r="AM70">
+        <v>17021.88</v>
+      </c>
+      <c r="AP70" s="2">
+        <v>39263</v>
+      </c>
+      <c r="AQ70">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>39294</v>
       </c>
@@ -4348,8 +5268,20 @@
       <c r="AI71">
         <v>1165702</v>
       </c>
-    </row>
-    <row r="72" spans="2:35">
+      <c r="AL71" s="2">
+        <v>44043</v>
+      </c>
+      <c r="AM71">
+        <v>16898.349999999999</v>
+      </c>
+      <c r="AP71" s="2">
+        <v>39294</v>
+      </c>
+      <c r="AQ71">
+        <v>29.48</v>
+      </c>
+    </row>
+    <row r="72" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>39325</v>
       </c>
@@ -4404,8 +5336,14 @@
       <c r="AI72">
         <v>1225820</v>
       </c>
-    </row>
-    <row r="73" spans="2:35">
+      <c r="AP72" s="2">
+        <v>39325</v>
+      </c>
+      <c r="AQ72">
+        <v>29.54</v>
+      </c>
+    </row>
+    <row r="73" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>39355</v>
       </c>
@@ -4460,8 +5398,14 @@
       <c r="AI73">
         <v>1059246</v>
       </c>
-    </row>
-    <row r="74" spans="2:35">
+      <c r="AP73" s="2">
+        <v>39355</v>
+      </c>
+      <c r="AQ73">
+        <v>29.59</v>
+      </c>
+    </row>
+    <row r="74" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>39386</v>
       </c>
@@ -4516,8 +5460,14 @@
       <c r="AI74">
         <v>1171039</v>
       </c>
-    </row>
-    <row r="75" spans="2:35">
+      <c r="AP74" s="2">
+        <v>39386</v>
+      </c>
+      <c r="AQ74">
+        <v>29.82</v>
+      </c>
+    </row>
+    <row r="75" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>39416</v>
       </c>
@@ -4572,8 +5522,14 @@
       <c r="AI75">
         <v>1365853</v>
       </c>
-    </row>
-    <row r="76" spans="2:35">
+      <c r="AP75" s="2">
+        <v>39416</v>
+      </c>
+      <c r="AQ75">
+        <v>29.65</v>
+      </c>
+    </row>
+    <row r="76" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>39447</v>
       </c>
@@ -4628,8 +5584,14 @@
       <c r="AI76">
         <v>1521816</v>
       </c>
-    </row>
-    <row r="77" spans="2:35">
+      <c r="AP76" s="2">
+        <v>39447</v>
+      </c>
+      <c r="AQ76">
+        <v>29.52</v>
+      </c>
+    </row>
+    <row r="77" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>39478</v>
       </c>
@@ -4684,8 +5646,14 @@
       <c r="AI77">
         <v>1437686</v>
       </c>
-    </row>
-    <row r="78" spans="2:35">
+      <c r="AP77" s="2">
+        <v>39478</v>
+      </c>
+      <c r="AQ77">
+        <v>29.78</v>
+      </c>
+    </row>
+    <row r="78" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>39507</v>
       </c>
@@ -4740,8 +5708,14 @@
       <c r="AI78">
         <v>1481458</v>
       </c>
-    </row>
-    <row r="79" spans="2:35">
+      <c r="AP78" s="2">
+        <v>39507</v>
+      </c>
+      <c r="AQ78">
+        <v>29.76</v>
+      </c>
+    </row>
+    <row r="79" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>39538</v>
       </c>
@@ -4796,8 +5770,14 @@
       <c r="AI79">
         <v>1407649</v>
       </c>
-    </row>
-    <row r="80" spans="2:35">
+      <c r="AP79" s="2">
+        <v>39538</v>
+      </c>
+      <c r="AQ79">
+        <v>30.41</v>
+      </c>
+    </row>
+    <row r="80" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>39568</v>
       </c>
@@ -4852,8 +5832,14 @@
       <c r="AI80">
         <v>1222253</v>
       </c>
-    </row>
-    <row r="81" spans="2:35">
+      <c r="AP80" s="2">
+        <v>39568</v>
+      </c>
+      <c r="AQ80">
+        <v>30.59</v>
+      </c>
+    </row>
+    <row r="81" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <v>39599</v>
       </c>
@@ -4908,8 +5894,14 @@
       <c r="AI81">
         <v>1172310</v>
       </c>
-    </row>
-    <row r="82" spans="2:35">
+      <c r="AP81" s="2">
+        <v>39599</v>
+      </c>
+      <c r="AQ81">
+        <v>30.44</v>
+      </c>
+    </row>
+    <row r="82" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>39629</v>
       </c>
@@ -4964,8 +5956,14 @@
       <c r="AI82">
         <v>1155004</v>
       </c>
-    </row>
-    <row r="83" spans="2:35">
+      <c r="AP82" s="2">
+        <v>39629</v>
+      </c>
+      <c r="AQ82">
+        <v>31.11</v>
+      </c>
+    </row>
+    <row r="83" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>39660</v>
       </c>
@@ -5020,8 +6018,14 @@
       <c r="AI83">
         <v>1275556.5</v>
       </c>
-    </row>
-    <row r="84" spans="2:35">
+      <c r="AP83" s="2">
+        <v>39660</v>
+      </c>
+      <c r="AQ83">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="84" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
         <v>39691</v>
       </c>
@@ -5076,8 +6080,14 @@
       <c r="AI84">
         <v>1214678</v>
       </c>
-    </row>
-    <row r="85" spans="2:35">
+      <c r="AP84" s="2">
+        <v>39691</v>
+      </c>
+      <c r="AQ84">
+        <v>31.16</v>
+      </c>
+    </row>
+    <row r="85" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B85" s="2">
         <v>39721</v>
       </c>
@@ -5132,8 +6142,14 @@
       <c r="AI85">
         <v>890066</v>
       </c>
-    </row>
-    <row r="86" spans="2:35">
+      <c r="AP85" s="2">
+        <v>39721</v>
+      </c>
+      <c r="AQ85">
+        <v>31.36</v>
+      </c>
+    </row>
+    <row r="86" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B86" s="2">
         <v>39752</v>
       </c>
@@ -5188,8 +6204,14 @@
       <c r="AI86">
         <v>1094452</v>
       </c>
-    </row>
-    <row r="87" spans="2:35">
+      <c r="AP86" s="2">
+        <v>39752</v>
+      </c>
+      <c r="AQ86">
+        <v>31.07</v>
+      </c>
+    </row>
+    <row r="87" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B87" s="2">
         <v>39782</v>
       </c>
@@ -5244,8 +6266,14 @@
       <c r="AI87">
         <v>1076156</v>
       </c>
-    </row>
-    <row r="88" spans="2:35">
+      <c r="AP87" s="2">
+        <v>39782</v>
+      </c>
+      <c r="AQ87">
+        <v>31.42</v>
+      </c>
+    </row>
+    <row r="88" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
         <v>39813</v>
       </c>
@@ -5300,8 +6328,14 @@
       <c r="AI88">
         <v>1156951</v>
       </c>
-    </row>
-    <row r="89" spans="2:35">
+      <c r="AP88" s="2">
+        <v>39813</v>
+      </c>
+      <c r="AQ88">
+        <v>31.49</v>
+      </c>
+    </row>
+    <row r="89" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B89" s="2">
         <v>39844</v>
       </c>
@@ -5356,8 +6390,14 @@
       <c r="AI89">
         <v>1269978</v>
       </c>
-    </row>
-    <row r="90" spans="2:35">
+      <c r="AP89" s="2">
+        <v>39844</v>
+      </c>
+      <c r="AQ89">
+        <v>31.86</v>
+      </c>
+    </row>
+    <row r="90" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
         <v>39872</v>
       </c>
@@ -5412,8 +6452,14 @@
       <c r="AI90">
         <v>1138220</v>
       </c>
-    </row>
-    <row r="91" spans="2:35">
+      <c r="AP90" s="2">
+        <v>39872</v>
+      </c>
+      <c r="AQ90">
+        <v>31.67</v>
+      </c>
+    </row>
+    <row r="91" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
         <v>39903</v>
       </c>
@@ -5468,8 +6514,14 @@
       <c r="AI91">
         <v>1237132</v>
       </c>
-    </row>
-    <row r="92" spans="2:35">
+      <c r="AP91" s="2">
+        <v>39903</v>
+      </c>
+      <c r="AQ91">
+        <v>31.36</v>
+      </c>
+    </row>
+    <row r="92" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B92" s="2">
         <v>39933</v>
       </c>
@@ -5524,8 +6576,14 @@
       <c r="AI92">
         <v>1085293</v>
       </c>
-    </row>
-    <row r="93" spans="2:35">
+      <c r="AP92" s="2">
+        <v>39933</v>
+      </c>
+      <c r="AQ92">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B93" s="2">
         <v>39964</v>
       </c>
@@ -5580,8 +6638,14 @@
       <c r="AI93">
         <v>923918</v>
       </c>
-    </row>
-    <row r="94" spans="2:35">
+      <c r="AP93" s="2">
+        <v>39964</v>
+      </c>
+      <c r="AQ93">
+        <v>30.69</v>
+      </c>
+    </row>
+    <row r="94" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B94" s="2">
         <v>39994</v>
       </c>
@@ -5636,8 +6700,14 @@
       <c r="AI94">
         <v>954772</v>
       </c>
-    </row>
-    <row r="95" spans="2:35">
+      <c r="AP94" s="2">
+        <v>39994</v>
+      </c>
+      <c r="AQ94">
+        <v>30.05</v>
+      </c>
+    </row>
+    <row r="95" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B95" s="2">
         <v>40025</v>
       </c>
@@ -5692,8 +6762,14 @@
       <c r="AI95">
         <v>1094658</v>
       </c>
-    </row>
-    <row r="96" spans="2:35">
+      <c r="AP95" s="2">
+        <v>40025</v>
+      </c>
+      <c r="AQ95">
+        <v>29.08</v>
+      </c>
+    </row>
+    <row r="96" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B96" s="2">
         <v>40056</v>
       </c>
@@ -5748,8 +6824,14 @@
       <c r="AI96">
         <v>1149288</v>
       </c>
-    </row>
-    <row r="97" spans="2:35">
+      <c r="AP96" s="2">
+        <v>40056</v>
+      </c>
+      <c r="AQ96">
+        <v>28.92</v>
+      </c>
+    </row>
+    <row r="97" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B97" s="2">
         <v>40086</v>
       </c>
@@ -5804,8 +6886,14 @@
       <c r="AI97">
         <v>1040538</v>
       </c>
-    </row>
-    <row r="98" spans="2:35">
+      <c r="AP97" s="2">
+        <v>40086</v>
+      </c>
+      <c r="AQ97">
+        <v>28.81</v>
+      </c>
+    </row>
+    <row r="98" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B98" s="2">
         <v>40117</v>
       </c>
@@ -5860,8 +6948,14 @@
       <c r="AI98">
         <v>1209473</v>
       </c>
-    </row>
-    <row r="99" spans="2:35">
+      <c r="AP98" s="2">
+        <v>40117</v>
+      </c>
+      <c r="AQ98">
+        <v>28.96</v>
+      </c>
+    </row>
+    <row r="99" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B99" s="2">
         <v>40147</v>
       </c>
@@ -5916,8 +7010,14 @@
       <c r="AI99">
         <v>1361574</v>
       </c>
-    </row>
-    <row r="100" spans="2:35">
+      <c r="AP99" s="2">
+        <v>40147</v>
+      </c>
+      <c r="AQ99">
+        <v>28.97</v>
+      </c>
+    </row>
+    <row r="100" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B100" s="2">
         <v>40178</v>
       </c>
@@ -5972,8 +7072,14 @@
       <c r="AI100">
         <v>1684997</v>
       </c>
-    </row>
-    <row r="101" spans="2:35">
+      <c r="AP100" s="2">
+        <v>40178</v>
+      </c>
+      <c r="AQ100">
+        <v>29.06</v>
+      </c>
+    </row>
+    <row r="101" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B101" s="2">
         <v>40209</v>
       </c>
@@ -6028,8 +7134,14 @@
       <c r="AI101">
         <v>1605505</v>
       </c>
-    </row>
-    <row r="102" spans="2:35">
+      <c r="AP101" s="2">
+        <v>40209</v>
+      </c>
+      <c r="AQ101">
+        <v>29.29</v>
+      </c>
+    </row>
+    <row r="102" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B102" s="2">
         <v>40237</v>
       </c>
@@ -6084,8 +7196,14 @@
       <c r="AI102">
         <v>1614844</v>
       </c>
-    </row>
-    <row r="103" spans="2:35">
+      <c r="AP102" s="2">
+        <v>40237</v>
+      </c>
+      <c r="AQ102">
+        <v>29.38</v>
+      </c>
+    </row>
+    <row r="103" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B103" s="2">
         <v>40268</v>
       </c>
@@ -6140,8 +7258,14 @@
       <c r="AI103">
         <v>1439401</v>
       </c>
-    </row>
-    <row r="104" spans="2:35">
+      <c r="AP103" s="2">
+        <v>40268</v>
+      </c>
+      <c r="AQ103">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B104" s="2">
         <v>40298</v>
       </c>
@@ -6196,8 +7320,14 @@
       <c r="AI104">
         <v>1108209</v>
       </c>
-    </row>
-    <row r="105" spans="2:35">
+      <c r="AP104" s="2">
+        <v>40298</v>
+      </c>
+      <c r="AQ104">
+        <v>29.44</v>
+      </c>
+    </row>
+    <row r="105" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B105" s="2">
         <v>40329</v>
       </c>
@@ -6252,8 +7382,14 @@
       <c r="AI105">
         <v>826610</v>
       </c>
-    </row>
-    <row r="106" spans="2:35">
+      <c r="AP105" s="2">
+        <v>40329</v>
+      </c>
+      <c r="AQ105">
+        <v>29.48</v>
+      </c>
+    </row>
+    <row r="106" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B106" s="2">
         <v>40359</v>
       </c>
@@ -6308,8 +7444,14 @@
       <c r="AI106">
         <v>964959</v>
       </c>
-    </row>
-    <row r="107" spans="2:35">
+      <c r="AP106" s="2">
+        <v>40359</v>
+      </c>
+      <c r="AQ106">
+        <v>29.45</v>
+      </c>
+    </row>
+    <row r="107" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B107" s="2">
         <v>40390</v>
       </c>
@@ -6364,8 +7506,14 @@
       <c r="AI107">
         <v>1275766</v>
       </c>
-    </row>
-    <row r="108" spans="2:35">
+      <c r="AP107" s="2">
+        <v>40390</v>
+      </c>
+      <c r="AQ107">
+        <v>29.44</v>
+      </c>
+    </row>
+    <row r="108" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B108" s="2">
         <v>40421</v>
       </c>
@@ -6420,8 +7568,14 @@
       <c r="AI108">
         <v>1270883</v>
       </c>
-    </row>
-    <row r="109" spans="2:35">
+      <c r="AP108" s="2">
+        <v>40421</v>
+      </c>
+      <c r="AQ108">
+        <v>29.6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B109" s="2">
         <v>40451</v>
       </c>
@@ -6476,8 +7630,14 @@
       <c r="AI109">
         <v>1214810</v>
       </c>
-    </row>
-    <row r="110" spans="2:35">
+      <c r="AP109" s="2">
+        <v>40451</v>
+      </c>
+      <c r="AQ109">
+        <v>29.67</v>
+      </c>
+    </row>
+    <row r="110" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B110" s="2">
         <v>40482</v>
       </c>
@@ -6532,8 +7692,14 @@
       <c r="AI110">
         <v>1316806</v>
       </c>
-    </row>
-    <row r="111" spans="2:35">
+      <c r="AP110" s="2">
+        <v>40482</v>
+      </c>
+      <c r="AQ110">
+        <v>29.81</v>
+      </c>
+    </row>
+    <row r="111" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B111" s="2">
         <v>40512</v>
       </c>
@@ -6588,8 +7754,14 @@
       <c r="AI111">
         <v>1478856</v>
       </c>
-    </row>
-    <row r="112" spans="2:35">
+      <c r="AP111" s="2">
+        <v>40512</v>
+      </c>
+      <c r="AQ111">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="112" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B112" s="2">
         <v>40543</v>
       </c>
@@ -6644,8 +7816,14 @@
       <c r="AI112">
         <v>1819751</v>
       </c>
-    </row>
-    <row r="113" spans="2:35">
+      <c r="AP112" s="2">
+        <v>40543</v>
+      </c>
+      <c r="AQ112">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="113" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
         <v>40574</v>
       </c>
@@ -6700,8 +7878,14 @@
       <c r="AI113">
         <v>1805947</v>
       </c>
-    </row>
-    <row r="114" spans="2:35">
+      <c r="AP113" s="2">
+        <v>40574</v>
+      </c>
+      <c r="AQ113">
+        <v>30.35</v>
+      </c>
+    </row>
+    <row r="114" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B114" s="2">
         <v>40602</v>
       </c>
@@ -6756,8 +7940,14 @@
       <c r="AI114">
         <v>1802476</v>
       </c>
-    </row>
-    <row r="115" spans="2:35">
+      <c r="AP114" s="2">
+        <v>40602</v>
+      </c>
+      <c r="AQ114">
+        <v>30.31</v>
+      </c>
+    </row>
+    <row r="115" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B115" s="2">
         <v>40633</v>
       </c>
@@ -6812,8 +8002,14 @@
       <c r="AI115">
         <v>1702233</v>
       </c>
-    </row>
-    <row r="116" spans="2:35">
+      <c r="AP115" s="2">
+        <v>40633</v>
+      </c>
+      <c r="AQ115">
+        <v>30.3</v>
+      </c>
+    </row>
+    <row r="116" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B116" s="2">
         <v>40663</v>
       </c>
@@ -6868,8 +8064,14 @@
       <c r="AI116">
         <v>1552337</v>
       </c>
-    </row>
-    <row r="117" spans="2:35">
+      <c r="AP116" s="2">
+        <v>40663</v>
+      </c>
+      <c r="AQ116">
+        <v>29.79</v>
+      </c>
+    </row>
+    <row r="117" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B117" s="2">
         <v>40694</v>
       </c>
@@ -6924,8 +8126,14 @@
       <c r="AI117">
         <v>1407407</v>
       </c>
-    </row>
-    <row r="118" spans="2:35">
+      <c r="AP117" s="2">
+        <v>40694</v>
+      </c>
+      <c r="AQ117">
+        <v>29.93</v>
+      </c>
+    </row>
+    <row r="118" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B118" s="2">
         <v>40724</v>
       </c>
@@ -6980,8 +8188,14 @@
       <c r="AI118">
         <v>1484708</v>
       </c>
-    </row>
-    <row r="119" spans="2:35">
+      <c r="AP118" s="2">
+        <v>40724</v>
+      </c>
+      <c r="AQ118">
+        <v>29.96</v>
+      </c>
+    </row>
+    <row r="119" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B119" s="2">
         <v>40755</v>
       </c>
@@ -7036,8 +8250,14 @@
       <c r="AI119">
         <v>1719538</v>
       </c>
-    </row>
-    <row r="120" spans="2:35">
+      <c r="AP119" s="2">
+        <v>40755</v>
+      </c>
+      <c r="AQ119">
+        <v>30.55</v>
+      </c>
+    </row>
+    <row r="120" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B120" s="2">
         <v>40786</v>
       </c>
@@ -7092,8 +8312,14 @@
       <c r="AI120">
         <v>1726559</v>
       </c>
-    </row>
-    <row r="121" spans="2:35">
+      <c r="AP120" s="2">
+        <v>40786</v>
+      </c>
+      <c r="AQ120">
+        <v>30.08</v>
+      </c>
+    </row>
+    <row r="121" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B121" s="2">
         <v>40816</v>
       </c>
@@ -7148,8 +8374,14 @@
       <c r="AI121">
         <v>1486333</v>
       </c>
-    </row>
-    <row r="122" spans="2:35">
+      <c r="AP121" s="2">
+        <v>40816</v>
+      </c>
+      <c r="AQ121">
+        <v>28.87</v>
+      </c>
+    </row>
+    <row r="122" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B122" s="2">
         <v>40847</v>
       </c>
@@ -7204,8 +8436,14 @@
       <c r="AI122">
         <v>1422210</v>
       </c>
-    </row>
-    <row r="123" spans="2:35">
+      <c r="AP122" s="2">
+        <v>40847</v>
+      </c>
+      <c r="AQ122">
+        <v>28.92</v>
+      </c>
+    </row>
+    <row r="123" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B123" s="2">
         <v>40877</v>
       </c>
@@ -7260,8 +8498,14 @@
       <c r="AI123">
         <v>1291548</v>
       </c>
-    </row>
-    <row r="124" spans="2:35">
+      <c r="AP123" s="2">
+        <v>40877</v>
+      </c>
+      <c r="AQ123">
+        <v>29.01</v>
+      </c>
+    </row>
+    <row r="124" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B124" s="2">
         <v>40908</v>
       </c>
@@ -7316,8 +8560,14 @@
       <c r="AI124">
         <v>1829174</v>
       </c>
-    </row>
-    <row r="125" spans="2:35">
+      <c r="AP124" s="2">
+        <v>40908</v>
+      </c>
+      <c r="AQ124">
+        <v>29.65</v>
+      </c>
+    </row>
+    <row r="125" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B125" s="2">
         <v>40939</v>
       </c>
@@ -7372,8 +8622,14 @@
       <c r="AI125">
         <v>1992158</v>
       </c>
-    </row>
-    <row r="126" spans="2:35">
+      <c r="AP125" s="2">
+        <v>40939</v>
+      </c>
+      <c r="AQ125">
+        <v>29.93</v>
+      </c>
+    </row>
+    <row r="126" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B126" s="2">
         <v>40968</v>
       </c>
@@ -7428,8 +8684,14 @@
       <c r="AI126">
         <v>1853736</v>
       </c>
-    </row>
-    <row r="127" spans="2:35">
+      <c r="AP126" s="2">
+        <v>40968</v>
+      </c>
+      <c r="AQ126">
+        <v>30.02</v>
+      </c>
+    </row>
+    <row r="127" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B127" s="2">
         <v>40999</v>
       </c>
@@ -7484,8 +8746,14 @@
       <c r="AI127">
         <v>1895560</v>
       </c>
-    </row>
-    <row r="128" spans="2:35">
+      <c r="AP127" s="2">
+        <v>40999</v>
+      </c>
+      <c r="AQ127">
+        <v>30.09</v>
+      </c>
+    </row>
+    <row r="128" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B128" s="2">
         <v>41029</v>
       </c>
@@ -7540,8 +8808,14 @@
       <c r="AI128">
         <v>1686268</v>
       </c>
-    </row>
-    <row r="129" spans="2:35">
+      <c r="AP128" s="2">
+        <v>41029</v>
+      </c>
+      <c r="AQ128">
+        <v>29.77</v>
+      </c>
+    </row>
+    <row r="129" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B129" s="2">
         <v>41060</v>
       </c>
@@ -7596,8 +8870,14 @@
       <c r="AI129">
         <v>1546888</v>
       </c>
-    </row>
-    <row r="130" spans="2:35">
+      <c r="AP129" s="2">
+        <v>41060</v>
+      </c>
+      <c r="AQ129">
+        <v>30.63</v>
+      </c>
+    </row>
+    <row r="130" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B130" s="2">
         <v>41090</v>
       </c>
@@ -7652,8 +8932,14 @@
       <c r="AI130">
         <v>1644733</v>
       </c>
-    </row>
-    <row r="131" spans="2:35">
+      <c r="AP130" s="2">
+        <v>41090</v>
+      </c>
+      <c r="AQ130">
+        <v>30.61</v>
+      </c>
+    </row>
+    <row r="131" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B131" s="2">
         <v>41121</v>
       </c>
@@ -7708,8 +8994,14 @@
       <c r="AI131">
         <v>1815714</v>
       </c>
-    </row>
-    <row r="132" spans="2:35">
+      <c r="AP131" s="2">
+        <v>41121</v>
+      </c>
+      <c r="AQ131">
+        <v>30.82</v>
+      </c>
+    </row>
+    <row r="132" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B132" s="2">
         <v>41152</v>
       </c>
@@ -7764,8 +9056,14 @@
       <c r="AI132">
         <v>1926929</v>
       </c>
-    </row>
-    <row r="133" spans="2:35">
+      <c r="AP132" s="2">
+        <v>41152</v>
+      </c>
+      <c r="AQ132">
+        <v>31.11</v>
+      </c>
+    </row>
+    <row r="133" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B133" s="2">
         <v>41182</v>
       </c>
@@ -7820,8 +9118,14 @@
       <c r="AI133">
         <v>1611754</v>
       </c>
-    </row>
-    <row r="134" spans="2:35">
+      <c r="AP133" s="2">
+        <v>41182</v>
+      </c>
+      <c r="AQ133">
+        <v>31.32</v>
+      </c>
+    </row>
+    <row r="134" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B134" s="2">
         <v>41213</v>
       </c>
@@ -7876,8 +9180,14 @@
       <c r="AI134">
         <v>1801147</v>
       </c>
-    </row>
-    <row r="135" spans="2:35">
+      <c r="AP134" s="2">
+        <v>41213</v>
+      </c>
+      <c r="AQ134">
+        <v>31.56</v>
+      </c>
+    </row>
+    <row r="135" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B135" s="2">
         <v>41243</v>
       </c>
@@ -7932,8 +9242,14 @@
       <c r="AI135">
         <v>2143550</v>
       </c>
-    </row>
-    <row r="136" spans="2:35">
+      <c r="AP135" s="2">
+        <v>41243</v>
+      </c>
+      <c r="AQ135">
+        <v>31.16</v>
+      </c>
+    </row>
+    <row r="136" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B136" s="2">
         <v>41274</v>
       </c>
@@ -7988,8 +9304,14 @@
       <c r="AI136">
         <v>2435466</v>
       </c>
-    </row>
-    <row r="137" spans="2:35">
+      <c r="AP136" s="2">
+        <v>41274</v>
+      </c>
+      <c r="AQ136">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="137" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B137" s="2">
         <v>41305</v>
       </c>
@@ -8044,8 +9366,14 @@
       <c r="AI137">
         <v>2318447</v>
       </c>
-    </row>
-    <row r="138" spans="2:35">
+      <c r="AP137" s="2">
+        <v>41305</v>
+      </c>
+      <c r="AQ137">
+        <v>31.14</v>
+      </c>
+    </row>
+    <row r="138" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B138" s="2">
         <v>41333</v>
       </c>
@@ -8100,8 +9428,14 @@
       <c r="AI138">
         <v>2367257</v>
       </c>
-    </row>
-    <row r="139" spans="2:35">
+      <c r="AP138" s="2">
+        <v>41333</v>
+      </c>
+      <c r="AQ138">
+        <v>31.32</v>
+      </c>
+    </row>
+    <row r="139" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B139" s="2">
         <v>41364</v>
       </c>
@@ -8156,8 +9490,14 @@
       <c r="AI139">
         <v>2322200</v>
       </c>
-    </row>
-    <row r="140" spans="2:35">
+      <c r="AP139" s="2">
+        <v>41364</v>
+      </c>
+      <c r="AQ139">
+        <v>31.11</v>
+      </c>
+    </row>
+    <row r="140" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B140" s="2">
         <v>41394</v>
       </c>
@@ -8212,8 +9552,14 @@
       <c r="AI140">
         <v>2057855</v>
       </c>
-    </row>
-    <row r="141" spans="2:35">
+      <c r="AP140" s="2">
+        <v>41394</v>
+      </c>
+      <c r="AQ140">
+        <v>30.65</v>
+      </c>
+    </row>
+    <row r="141" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B141" s="2">
         <v>41425</v>
       </c>
@@ -8268,8 +9614,14 @@
       <c r="AI141">
         <v>1943968</v>
       </c>
-    </row>
-    <row r="142" spans="2:35">
+      <c r="AP141" s="2">
+        <v>41425</v>
+      </c>
+      <c r="AQ141">
+        <v>30.57</v>
+      </c>
+    </row>
+    <row r="142" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B142" s="2">
         <v>41455</v>
       </c>
@@ -8324,8 +9676,14 @@
       <c r="AI142">
         <v>2061782</v>
       </c>
-    </row>
-    <row r="143" spans="2:35">
+      <c r="AP142" s="2">
+        <v>41455</v>
+      </c>
+      <c r="AQ142">
+        <v>30.15</v>
+      </c>
+    </row>
+    <row r="143" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B143" s="2">
         <v>41486</v>
       </c>
@@ -8380,8 +9738,14 @@
       <c r="AI143">
         <v>2149173</v>
       </c>
-    </row>
-    <row r="144" spans="2:35">
+      <c r="AP143" s="2">
+        <v>41486</v>
+      </c>
+      <c r="AQ143">
+        <v>29.91</v>
+      </c>
+    </row>
+    <row r="144" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B144" s="2">
         <v>41517</v>
       </c>
@@ -8436,8 +9800,14 @@
       <c r="AI144">
         <v>2355660</v>
       </c>
-    </row>
-    <row r="145" spans="2:35">
+      <c r="AP144" s="2">
+        <v>41517</v>
+      </c>
+      <c r="AQ144">
+        <v>29.8</v>
+      </c>
+    </row>
+    <row r="145" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B145" s="2">
         <v>41547</v>
       </c>
@@ -8492,8 +9862,14 @@
       <c r="AI145">
         <v>1995343</v>
       </c>
-    </row>
-    <row r="146" spans="2:35">
+      <c r="AP145" s="2">
+        <v>41547</v>
+      </c>
+      <c r="AQ145">
+        <v>29.96</v>
+      </c>
+    </row>
+    <row r="146" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B146" s="2">
         <v>41578</v>
       </c>
@@ -8510,7 +9886,7 @@
         <v>43585</v>
       </c>
       <c r="K146">
-        <v>1737650000</v>
+        <v>2555890000</v>
       </c>
       <c r="N146" s="2">
         <v>41578</v>
@@ -8548,8 +9924,14 @@
       <c r="AI146">
         <v>2054548</v>
       </c>
-    </row>
-    <row r="147" spans="2:35">
+      <c r="AP146" s="2">
+        <v>41578</v>
+      </c>
+      <c r="AQ146">
+        <v>30.42</v>
+      </c>
+    </row>
+    <row r="147" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B147" s="2">
         <v>41608</v>
       </c>
@@ -8566,7 +9948,7 @@
         <v>43616</v>
       </c>
       <c r="K147">
-        <v>1565480000</v>
+        <v>5368120000</v>
       </c>
       <c r="N147" s="2">
         <v>41608</v>
@@ -8604,8 +9986,14 @@
       <c r="AI147">
         <v>2378112</v>
       </c>
-    </row>
-    <row r="148" spans="2:35">
+      <c r="AP147" s="2">
+        <v>41608</v>
+      </c>
+      <c r="AQ147">
+        <v>30.39</v>
+      </c>
+    </row>
+    <row r="148" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B148" s="2">
         <v>41639</v>
       </c>
@@ -8622,7 +10010,7 @@
         <v>43646</v>
       </c>
       <c r="K148">
-        <v>949490000</v>
+        <v>1362490000</v>
       </c>
       <c r="N148" s="2">
         <v>41639</v>
@@ -8660,8 +10048,14 @@
       <c r="AI148">
         <v>2542380</v>
       </c>
-    </row>
-    <row r="149" spans="2:35">
+      <c r="AP148" s="2">
+        <v>41639</v>
+      </c>
+      <c r="AQ148">
+        <v>30.28</v>
+      </c>
+    </row>
+    <row r="149" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B149" s="2">
         <v>41670</v>
       </c>
@@ -8716,8 +10110,14 @@
       <c r="AI149">
         <v>2282568</v>
       </c>
-    </row>
-    <row r="150" spans="2:35">
+      <c r="AP149" s="2">
+        <v>41670</v>
+      </c>
+      <c r="AQ149">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="150" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B150" s="2">
         <v>41698</v>
       </c>
@@ -8772,8 +10172,14 @@
       <c r="AI150">
         <v>2075304</v>
       </c>
-    </row>
-    <row r="151" spans="2:35">
+      <c r="AP150" s="2">
+        <v>41698</v>
+      </c>
+      <c r="AQ150">
+        <v>30.47</v>
+      </c>
+    </row>
+    <row r="151" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B151" s="2">
         <v>41729</v>
       </c>
@@ -8828,8 +10234,14 @@
       <c r="AI151">
         <v>2018008</v>
       </c>
-    </row>
-    <row r="152" spans="2:35">
+      <c r="AP151" s="2">
+        <v>41729</v>
+      </c>
+      <c r="AQ151">
+        <v>29.65</v>
+      </c>
+    </row>
+    <row r="152" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B152" s="2">
         <v>41759</v>
       </c>
@@ -8884,8 +10296,14 @@
       <c r="AI152">
         <v>1934841</v>
       </c>
-    </row>
-    <row r="153" spans="2:35">
+      <c r="AP152" s="2">
+        <v>41759</v>
+      </c>
+      <c r="AQ152">
+        <v>29.62</v>
+      </c>
+    </row>
+    <row r="153" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B153" s="2">
         <v>41790</v>
       </c>
@@ -8940,8 +10358,14 @@
       <c r="AI153">
         <v>1670860</v>
       </c>
-    </row>
-    <row r="154" spans="2:35">
+      <c r="AP153" s="2">
+        <v>41790</v>
+      </c>
+      <c r="AQ153">
+        <v>29.12</v>
+      </c>
+    </row>
+    <row r="154" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B154" s="2">
         <v>41820</v>
       </c>
@@ -8996,8 +10420,14 @@
       <c r="AI154">
         <v>1491300</v>
       </c>
-    </row>
-    <row r="155" spans="2:35">
+      <c r="AP154" s="2">
+        <v>41820</v>
+      </c>
+      <c r="AQ154">
+        <v>29.31</v>
+      </c>
+    </row>
+    <row r="155" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B155" s="2">
         <v>41851</v>
       </c>
@@ -9052,8 +10482,14 @@
       <c r="AI155">
         <v>1896098</v>
       </c>
-    </row>
-    <row r="156" spans="2:35">
+      <c r="AP155" s="2">
+        <v>41851</v>
+      </c>
+      <c r="AQ155">
+        <v>29.83</v>
+      </c>
+    </row>
+    <row r="156" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B156" s="2">
         <v>41882</v>
       </c>
@@ -9108,8 +10544,14 @@
       <c r="AI156">
         <v>2084839</v>
       </c>
-    </row>
-    <row r="157" spans="2:35">
+      <c r="AP156" s="2">
+        <v>41882</v>
+      </c>
+      <c r="AQ156">
+        <v>29.97</v>
+      </c>
+    </row>
+    <row r="157" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B157" s="2">
         <v>41912</v>
       </c>
@@ -9126,7 +10568,7 @@
         <v>43921</v>
       </c>
       <c r="K157">
-        <v>2675190000</v>
+        <v>2696460000</v>
       </c>
       <c r="N157" s="2">
         <v>41912</v>
@@ -9164,8 +10606,14 @@
       <c r="AI157">
         <v>1869491</v>
       </c>
-    </row>
-    <row r="158" spans="2:35">
+      <c r="AP157" s="2">
+        <v>41912</v>
+      </c>
+      <c r="AQ157">
+        <v>29.48</v>
+      </c>
+    </row>
+    <row r="158" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B158" s="2">
         <v>41943</v>
       </c>
@@ -9178,6 +10626,12 @@
       <c r="G158">
         <v>8530000000</v>
       </c>
+      <c r="J158" s="2">
+        <v>43951</v>
+      </c>
+      <c r="K158">
+        <v>1018440000</v>
+      </c>
       <c r="N158" s="2">
         <v>41943</v>
       </c>
@@ -9214,8 +10668,14 @@
       <c r="AI158">
         <v>2207775</v>
       </c>
-    </row>
-    <row r="159" spans="2:35">
+      <c r="AP158" s="2">
+        <v>41943</v>
+      </c>
+      <c r="AQ158">
+        <v>29.32</v>
+      </c>
+    </row>
+    <row r="159" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B159" s="2">
         <v>41973</v>
       </c>
@@ -9228,6 +10688,12 @@
       <c r="G159">
         <v>10360000000</v>
       </c>
+      <c r="J159" s="2">
+        <v>43982</v>
+      </c>
+      <c r="K159">
+        <v>1294190000</v>
+      </c>
       <c r="N159" s="2">
         <v>41973</v>
       </c>
@@ -9264,8 +10730,14 @@
       <c r="AI159">
         <v>2425123</v>
       </c>
-    </row>
-    <row r="160" spans="2:35">
+      <c r="AP159" s="2">
+        <v>41973</v>
+      </c>
+      <c r="AQ159">
+        <v>29.62</v>
+      </c>
+    </row>
+    <row r="160" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B160" s="2">
         <v>42004</v>
       </c>
@@ -9278,6 +10750,12 @@
       <c r="G160">
         <v>13320000000</v>
       </c>
+      <c r="J160" s="2">
+        <v>44012</v>
+      </c>
+      <c r="K160">
+        <v>805860000</v>
+      </c>
       <c r="N160" s="2">
         <v>42004</v>
       </c>
@@ -9314,8 +10792,14 @@
       <c r="AI160">
         <v>2853476</v>
       </c>
-    </row>
-    <row r="161" spans="2:35">
+      <c r="AP160" s="2">
+        <v>42004</v>
+      </c>
+      <c r="AQ160">
+        <v>29.64</v>
+      </c>
+    </row>
+    <row r="161" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B161" s="2">
         <v>42035</v>
       </c>
@@ -9364,8 +10848,14 @@
       <c r="AI161">
         <v>2610141</v>
       </c>
-    </row>
-    <row r="162" spans="2:35">
+      <c r="AP161" s="2">
+        <v>42035</v>
+      </c>
+      <c r="AQ161">
+        <v>30.064392999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B162" s="2">
         <v>42063</v>
       </c>
@@ -9414,8 +10904,14 @@
       <c r="AI162">
         <v>2663650</v>
       </c>
-    </row>
-    <row r="163" spans="2:35">
+      <c r="AP162" s="2">
+        <v>42063</v>
+      </c>
+      <c r="AQ162">
+        <v>29.958182000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B163" s="2">
         <v>42094</v>
       </c>
@@ -9464,8 +10960,14 @@
       <c r="AI163">
         <v>2555362</v>
       </c>
-    </row>
-    <row r="164" spans="2:35">
+      <c r="AP163" s="2">
+        <v>42094</v>
+      </c>
+      <c r="AQ163">
+        <v>30.790761</v>
+      </c>
+    </row>
+    <row r="164" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B164" s="2">
         <v>42124</v>
       </c>
@@ -9514,8 +11016,14 @@
       <c r="AI164">
         <v>2407458</v>
       </c>
-    </row>
-    <row r="165" spans="2:35">
+      <c r="AP164" s="2">
+        <v>42124</v>
+      </c>
+      <c r="AQ164">
+        <v>30.939561999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B165" s="2">
         <v>42155</v>
       </c>
@@ -9564,8 +11072,14 @@
       <c r="AI165">
         <v>2301696</v>
       </c>
-    </row>
-    <row r="166" spans="2:35">
+      <c r="AP165" s="2">
+        <v>42155</v>
+      </c>
+      <c r="AQ165">
+        <v>31.184722000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B166" s="2">
         <v>42185</v>
       </c>
@@ -9614,8 +11128,14 @@
       <c r="AI166">
         <v>2269561</v>
       </c>
-    </row>
-    <row r="167" spans="2:35">
+      <c r="AP166" s="2">
+        <v>42185</v>
+      </c>
+      <c r="AQ166">
+        <v>31.633790999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B167" s="2">
         <v>42216</v>
       </c>
@@ -9664,8 +11184,14 @@
       <c r="AI167">
         <v>2657993</v>
       </c>
-    </row>
-    <row r="168" spans="2:35">
+      <c r="AP167" s="2">
+        <v>42216</v>
+      </c>
+      <c r="AQ167">
+        <v>31.838521</v>
+      </c>
+    </row>
+    <row r="168" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B168" s="2">
         <v>42247</v>
       </c>
@@ -9714,8 +11240,14 @@
       <c r="AI168">
         <v>2589652</v>
       </c>
-    </row>
-    <row r="169" spans="2:35">
+      <c r="AP168" s="2">
+        <v>42247</v>
+      </c>
+      <c r="AQ168">
+        <v>31.624684999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B169" s="2">
         <v>42277</v>
       </c>
@@ -9764,8 +11296,14 @@
       <c r="AI169">
         <v>2044658</v>
       </c>
-    </row>
-    <row r="170" spans="2:35">
+      <c r="AP169" s="2">
+        <v>42277</v>
+      </c>
+      <c r="AQ169">
+        <v>31.755617999999998</v>
+      </c>
+    </row>
+    <row r="170" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B170" s="2">
         <v>42308</v>
       </c>
@@ -9814,8 +11352,14 @@
       <c r="AI170">
         <v>2245841</v>
       </c>
-    </row>
-    <row r="171" spans="2:35">
+      <c r="AP170" s="2">
+        <v>42308</v>
+      </c>
+      <c r="AQ170">
+        <v>31.529555999999999</v>
+      </c>
+    </row>
+    <row r="171" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B171" s="2">
         <v>42338</v>
       </c>
@@ -9864,8 +11408,14 @@
       <c r="AI171">
         <v>2566077</v>
       </c>
-    </row>
-    <row r="172" spans="2:35">
+      <c r="AP171" s="2">
+        <v>42338</v>
+      </c>
+      <c r="AQ171">
+        <v>31.653449999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B172" s="2">
         <v>42369</v>
       </c>
@@ -9914,8 +11464,14 @@
       <c r="AI172">
         <v>3024291</v>
       </c>
-    </row>
-    <row r="173" spans="2:35">
+      <c r="AP172" s="2">
+        <v>42369</v>
+      </c>
+      <c r="AQ172">
+        <v>31.637356</v>
+      </c>
+    </row>
+    <row r="173" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B173" s="2">
         <v>42400</v>
       </c>
@@ -9964,8 +11520,14 @@
       <c r="AI173">
         <v>3001327</v>
       </c>
-    </row>
-    <row r="174" spans="2:35">
+      <c r="AP173" s="2">
+        <v>42400</v>
+      </c>
+      <c r="AQ173">
+        <v>31.489542</v>
+      </c>
+    </row>
+    <row r="174" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B174" s="2">
         <v>42429</v>
       </c>
@@ -10014,8 +11576,14 @@
       <c r="AI174">
         <v>3088876</v>
       </c>
-    </row>
-    <row r="175" spans="2:35">
+      <c r="AP174" s="2">
+        <v>42429</v>
+      </c>
+      <c r="AQ174">
+        <v>31.065529999999999</v>
+      </c>
+    </row>
+    <row r="175" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B175" s="2">
         <v>42460</v>
       </c>
@@ -10064,8 +11632,14 @@
       <c r="AI175">
         <v>2948690</v>
       </c>
-    </row>
-    <row r="176" spans="2:35">
+      <c r="AP175" s="2">
+        <v>42460</v>
+      </c>
+      <c r="AQ175">
+        <v>31.159545000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B176" s="2">
         <v>42490</v>
       </c>
@@ -10114,8 +11688,14 @@
       <c r="AI176">
         <v>2643251</v>
       </c>
-    </row>
-    <row r="177" spans="2:35">
+      <c r="AP176" s="2">
+        <v>42490</v>
+      </c>
+      <c r="AQ176">
+        <v>31.266058000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B177" s="2">
         <v>42521</v>
       </c>
@@ -10164,8 +11744,14 @@
       <c r="AI177">
         <v>2476505</v>
       </c>
-    </row>
-    <row r="178" spans="2:35">
+      <c r="AP177" s="2">
+        <v>42521</v>
+      </c>
+      <c r="AQ177">
+        <v>31.291350999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B178" s="2">
         <v>42551</v>
       </c>
@@ -10214,8 +11800,14 @@
       <c r="AI178">
         <v>2433255</v>
       </c>
-    </row>
-    <row r="179" spans="2:35">
+      <c r="AP178" s="2">
+        <v>42551</v>
+      </c>
+      <c r="AQ178">
+        <v>31.725463000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B179" s="2">
         <v>42582</v>
       </c>
@@ -10264,8 +11856,14 @@
       <c r="AI179">
         <v>2946286</v>
       </c>
-    </row>
-    <row r="180" spans="2:35">
+      <c r="AP179" s="2">
+        <v>42582</v>
+      </c>
+      <c r="AQ179">
+        <v>31.809995000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B180" s="2">
         <v>42613</v>
       </c>
@@ -10314,8 +11912,14 @@
       <c r="AI180">
         <v>2883594</v>
       </c>
-    </row>
-    <row r="181" spans="2:35">
+      <c r="AP180" s="2">
+        <v>42613</v>
+      </c>
+      <c r="AQ180">
+        <v>31.683743</v>
+      </c>
+    </row>
+    <row r="181" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B181" s="2">
         <v>42643</v>
       </c>
@@ -10364,8 +11968,14 @@
       <c r="AI181">
         <v>2416821</v>
       </c>
-    </row>
-    <row r="182" spans="2:35">
+      <c r="AP181" s="2">
+        <v>42643</v>
+      </c>
+      <c r="AQ181">
+        <v>31.735520000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B182" s="2">
         <v>42674</v>
       </c>
@@ -10414,8 +12024,14 @@
       <c r="AI182">
         <v>2252775</v>
       </c>
-    </row>
-    <row r="183" spans="2:35">
+      <c r="AP182" s="2">
+        <v>42674</v>
+      </c>
+      <c r="AQ182">
+        <v>31.999327000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B183" s="2">
         <v>42704</v>
       </c>
@@ -10464,8 +12080,14 @@
       <c r="AI183">
         <v>2452457</v>
       </c>
-    </row>
-    <row r="184" spans="2:35">
+      <c r="AP183" s="2">
+        <v>42704</v>
+      </c>
+      <c r="AQ183">
+        <v>32.391314999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B184" s="2">
         <v>42735</v>
       </c>
@@ -10514,8 +12136,14 @@
       <c r="AI184">
         <v>3060736</v>
       </c>
-    </row>
-    <row r="185" spans="2:35">
+      <c r="AP184" s="2">
+        <v>42735</v>
+      </c>
+      <c r="AQ184">
+        <v>32.249707999999998</v>
+      </c>
+    </row>
+    <row r="185" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B185" s="2">
         <v>42766</v>
       </c>
@@ -10564,8 +12192,14 @@
       <c r="AI185">
         <v>3197053</v>
       </c>
-    </row>
-    <row r="186" spans="2:35">
+      <c r="AP185" s="2">
+        <v>42766</v>
+      </c>
+      <c r="AQ185">
+        <v>31.31</v>
+      </c>
+    </row>
+    <row r="186" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B186" s="2">
         <v>42794</v>
       </c>
@@ -10614,8 +12248,14 @@
       <c r="AI186">
         <v>2989171</v>
       </c>
-    </row>
-    <row r="187" spans="2:35">
+      <c r="AP186" s="2">
+        <v>42794</v>
+      </c>
+      <c r="AQ186">
+        <v>31.192</v>
+      </c>
+    </row>
+    <row r="187" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B187" s="2">
         <v>42825</v>
       </c>
@@ -10664,8 +12304,14 @@
       <c r="AI187">
         <v>3007833</v>
       </c>
-    </row>
-    <row r="188" spans="2:35">
+      <c r="AP187" s="2">
+        <v>42825</v>
+      </c>
+      <c r="AQ187">
+        <v>30.815000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B188" s="2">
         <v>42855</v>
       </c>
@@ -10714,8 +12360,14 @@
       <c r="AI188">
         <v>2827560</v>
       </c>
-    </row>
-    <row r="189" spans="2:35">
+      <c r="AP188" s="2">
+        <v>42855</v>
+      </c>
+      <c r="AQ188">
+        <v>30.896000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B189" s="2">
         <v>42886</v>
       </c>
@@ -10764,8 +12416,14 @@
       <c r="AI189">
         <v>2590533</v>
       </c>
-    </row>
-    <row r="190" spans="2:35">
+      <c r="AP189" s="2">
+        <v>42886</v>
+      </c>
+      <c r="AQ189">
+        <v>31.399000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B190" s="2">
         <v>42916</v>
       </c>
@@ -10814,8 +12472,14 @@
       <c r="AI190">
         <v>2711490</v>
       </c>
-    </row>
-    <row r="191" spans="2:35">
+      <c r="AP190" s="2">
+        <v>42916</v>
+      </c>
+      <c r="AQ190">
+        <v>31.83</v>
+      </c>
+    </row>
+    <row r="191" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B191" s="2">
         <v>42947</v>
       </c>
@@ -10864,8 +12528,14 @@
       <c r="AI191">
         <v>3088042</v>
       </c>
-    </row>
-    <row r="192" spans="2:35">
+      <c r="AP191" s="2">
+        <v>42947</v>
+      </c>
+      <c r="AQ191">
+        <v>32.049999999999997</v>
+      </c>
+    </row>
+    <row r="192" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B192" s="2">
         <v>42978</v>
       </c>
@@ -10914,8 +12584,14 @@
       <c r="AI192">
         <v>3133411</v>
       </c>
-    </row>
-    <row r="193" spans="2:35">
+      <c r="AP192" s="2">
+        <v>42978</v>
+      </c>
+      <c r="AQ192">
+        <v>31.917000000000002</v>
+      </c>
+    </row>
+    <row r="193" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B193" s="2">
         <v>43008</v>
       </c>
@@ -10964,8 +12640,14 @@
       <c r="AI193">
         <v>2600279</v>
       </c>
-    </row>
-    <row r="194" spans="2:35">
+      <c r="AP193" s="2">
+        <v>43008</v>
+      </c>
+      <c r="AQ193">
+        <v>32.064999999999998</v>
+      </c>
+    </row>
+    <row r="194" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B194" s="2">
         <v>43039</v>
       </c>
@@ -11014,8 +12696,14 @@
       <c r="AI194">
         <v>2725943</v>
       </c>
-    </row>
-    <row r="195" spans="2:35">
+      <c r="AP194" s="2">
+        <v>43039</v>
+      </c>
+      <c r="AQ194">
+        <v>31.87</v>
+      </c>
+    </row>
+    <row r="195" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B195" s="2">
         <v>43069</v>
       </c>
@@ -11064,8 +12752,14 @@
       <c r="AI195">
         <v>3039567</v>
       </c>
-    </row>
-    <row r="196" spans="2:35">
+      <c r="AP195" s="2">
+        <v>43069</v>
+      </c>
+      <c r="AQ195">
+        <v>31.611000000000001</v>
+      </c>
+    </row>
+    <row r="196" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B196" s="2">
         <v>43100</v>
       </c>
@@ -11114,8 +12808,14 @@
       <c r="AI196">
         <v>3535594</v>
       </c>
-    </row>
-    <row r="197" spans="2:35">
+      <c r="AP196" s="2">
+        <v>43100</v>
+      </c>
+      <c r="AQ196">
+        <v>31.477</v>
+      </c>
+    </row>
+    <row r="197" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B197" s="2">
         <v>43131</v>
       </c>
@@ -11164,8 +12864,14 @@
       <c r="AI197">
         <v>3544528</v>
       </c>
-    </row>
-    <row r="198" spans="2:35">
+      <c r="AP197" s="2">
+        <v>43131</v>
+      </c>
+      <c r="AQ197">
+        <v>31.756</v>
+      </c>
+    </row>
+    <row r="198" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B198" s="2">
         <v>43159</v>
       </c>
@@ -11214,8 +12920,14 @@
       <c r="AI198">
         <v>3566898</v>
       </c>
-    </row>
-    <row r="199" spans="2:35">
+      <c r="AP198" s="2">
+        <v>43159</v>
+      </c>
+      <c r="AQ198">
+        <v>31.585999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B199" s="2">
         <v>43190</v>
       </c>
@@ -11264,8 +12976,14 @@
       <c r="AI199">
         <v>3497260</v>
       </c>
-    </row>
-    <row r="200" spans="2:35">
+      <c r="AP199" s="2">
+        <v>43190</v>
+      </c>
+      <c r="AQ199">
+        <v>31.408999999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B200" s="2">
         <v>43220</v>
       </c>
@@ -11314,8 +13032,14 @@
       <c r="AI200">
         <v>3092725</v>
       </c>
-    </row>
-    <row r="201" spans="2:35">
+      <c r="AP200" s="2">
+        <v>43220</v>
+      </c>
+      <c r="AQ200">
+        <v>31.343</v>
+      </c>
+    </row>
+    <row r="201" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B201" s="2">
         <v>43251</v>
       </c>
@@ -11364,8 +13088,14 @@
       <c r="AI201">
         <v>2755059</v>
       </c>
-    </row>
-    <row r="202" spans="2:35">
+      <c r="AP201" s="2">
+        <v>43251</v>
+      </c>
+      <c r="AQ201">
+        <v>31.228000000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B202" s="2">
         <v>43281</v>
       </c>
@@ -11414,8 +13144,14 @@
       <c r="AI202">
         <v>3025279</v>
       </c>
-    </row>
-    <row r="203" spans="2:35">
+      <c r="AP202" s="2">
+        <v>43281</v>
+      </c>
+      <c r="AQ202">
+        <v>31.228999999999999</v>
+      </c>
+    </row>
+    <row r="203" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B203" s="2">
         <v>43312</v>
       </c>
@@ -11464,8 +13200,14 @@
       <c r="AI203">
         <v>3177088</v>
       </c>
-    </row>
-    <row r="204" spans="2:35">
+      <c r="AP203" s="2">
+        <v>43312</v>
+      </c>
+      <c r="AQ203">
+        <v>31.286000000000001</v>
+      </c>
+    </row>
+    <row r="204" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B204" s="2">
         <v>43343</v>
       </c>
@@ -11514,8 +13256,14 @@
       <c r="AI204">
         <v>3229031</v>
       </c>
-    </row>
-    <row r="205" spans="2:35">
+      <c r="AP204" s="2">
+        <v>43343</v>
+      </c>
+      <c r="AQ204">
+        <v>31.53</v>
+      </c>
+    </row>
+    <row r="205" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B205" s="2">
         <v>43373</v>
       </c>
@@ -11564,8 +13312,14 @@
       <c r="AI205">
         <v>2636115</v>
       </c>
-    </row>
-    <row r="206" spans="2:35">
+      <c r="AP205" s="2">
+        <v>43373</v>
+      </c>
+      <c r="AQ205">
+        <v>31.666</v>
+      </c>
+    </row>
+    <row r="206" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B206" s="2">
         <v>43404</v>
       </c>
@@ -11614,8 +13368,14 @@
       <c r="AI206">
         <v>2712033</v>
       </c>
-    </row>
-    <row r="207" spans="2:35">
+      <c r="AP206" s="2">
+        <v>43404</v>
+      </c>
+      <c r="AQ206">
+        <v>31.841000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B207" s="2">
         <v>43434</v>
       </c>
@@ -11664,8 +13424,14 @@
       <c r="AI207">
         <v>3177569</v>
       </c>
-    </row>
-    <row r="208" spans="2:35">
+      <c r="AP207" s="2">
+        <v>43434</v>
+      </c>
+      <c r="AQ207">
+        <v>31.596</v>
+      </c>
+    </row>
+    <row r="208" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B208" s="2">
         <v>43465</v>
       </c>
@@ -11714,13 +13480,19 @@
       <c r="AI208">
         <v>3845811</v>
       </c>
-    </row>
-    <row r="209" spans="2:35">
+      <c r="AP208" s="2">
+        <v>43465</v>
+      </c>
+      <c r="AQ208">
+        <v>30.815999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B209" s="2">
         <v>43496</v>
       </c>
       <c r="C209">
-        <v>26556000000</v>
+        <v>26558000000</v>
       </c>
       <c r="F209" s="2">
         <v>43496</v>
@@ -11764,13 +13536,19 @@
       <c r="AI209">
         <v>3718504</v>
       </c>
-    </row>
-    <row r="210" spans="2:35">
+      <c r="AP209" s="2">
+        <v>43496</v>
+      </c>
+      <c r="AQ209">
+        <v>30.155999999999999</v>
+      </c>
+    </row>
+    <row r="210" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B210" s="2">
         <v>43524</v>
       </c>
       <c r="C210">
-        <v>26348000000</v>
+        <v>26412000000</v>
       </c>
       <c r="F210" s="2">
         <v>43524</v>
@@ -11814,13 +13592,19 @@
       <c r="AI210">
         <v>3572988</v>
       </c>
-    </row>
-    <row r="211" spans="2:35">
+      <c r="AP210" s="2">
+        <v>43524</v>
+      </c>
+      <c r="AQ210">
+        <v>30.091000000000001</v>
+      </c>
+    </row>
+    <row r="211" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B211" s="2">
         <v>43555</v>
       </c>
       <c r="C211">
-        <v>26255000000</v>
+        <v>26438000000</v>
       </c>
       <c r="F211" s="2">
         <v>43555</v>
@@ -11864,13 +13648,19 @@
       <c r="AI211">
         <v>3473088</v>
       </c>
-    </row>
-    <row r="212" spans="2:35">
+      <c r="AP211" s="2">
+        <v>43555</v>
+      </c>
+      <c r="AQ211">
+        <v>29.594999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B212" s="2">
         <v>43585</v>
       </c>
       <c r="C212">
-        <v>26325000000</v>
+        <v>26616000000</v>
       </c>
       <c r="F212" s="2">
         <v>43585</v>
@@ -11914,13 +13704,19 @@
       <c r="AI212">
         <v>3195006</v>
       </c>
-    </row>
-    <row r="213" spans="2:35">
+      <c r="AP212" s="2">
+        <v>43585</v>
+      </c>
+      <c r="AQ212">
+        <v>29.655000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B213" s="2">
         <v>43616</v>
       </c>
       <c r="C213">
-        <v>26585000000</v>
+        <v>26876000000</v>
       </c>
       <c r="F213" s="2">
         <v>43616</v>
@@ -11964,13 +13760,19 @@
       <c r="AI213">
         <v>2726808</v>
       </c>
-    </row>
-    <row r="214" spans="2:35">
+      <c r="AP213" s="2">
+        <v>43616</v>
+      </c>
+      <c r="AQ213">
+        <v>29.335000000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B214" s="2">
         <v>43646</v>
       </c>
       <c r="C214">
-        <v>27018000000</v>
+        <v>27165000000</v>
       </c>
       <c r="F214" s="2">
         <v>43646</v>
@@ -12014,13 +13816,19 @@
       <c r="AI214">
         <v>3052287</v>
       </c>
-    </row>
-    <row r="215" spans="2:35">
+      <c r="AP214" s="2">
+        <v>43646</v>
+      </c>
+      <c r="AQ214">
+        <v>29.425000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B215" s="2">
         <v>43677</v>
       </c>
       <c r="C215">
-        <v>27492000000</v>
+        <v>27497000000</v>
       </c>
       <c r="F215" s="2">
         <v>43677</v>
@@ -12064,13 +13872,19 @@
       <c r="AI215">
         <v>3327198</v>
       </c>
-    </row>
-    <row r="216" spans="2:35">
+      <c r="AP215" s="2">
+        <v>43677</v>
+      </c>
+      <c r="AQ215">
+        <v>29.004999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B216" s="2">
         <v>43708</v>
       </c>
       <c r="C216">
-        <v>27834000000</v>
+        <v>27901000000</v>
       </c>
       <c r="F216" s="2">
         <v>43708</v>
@@ -12114,13 +13928,19 @@
       <c r="AI216">
         <v>3466456</v>
       </c>
-    </row>
-    <row r="217" spans="2:35">
+      <c r="AP216" s="2">
+        <v>43708</v>
+      </c>
+      <c r="AQ216">
+        <v>29.245000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B217" s="2">
         <v>43738</v>
       </c>
       <c r="C217">
-        <v>27938000000</v>
+        <v>28341000000</v>
       </c>
       <c r="F217" s="2">
         <v>43738</v>
@@ -12164,13 +13984,19 @@
       <c r="AI217">
         <v>2902731</v>
       </c>
-    </row>
-    <row r="218" spans="2:35">
+      <c r="AP217" s="2">
+        <v>43738</v>
+      </c>
+      <c r="AQ217">
+        <v>27.684999999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B218" s="2">
         <v>43769</v>
       </c>
       <c r="C218">
-        <v>27902000000</v>
+        <v>28559000000</v>
       </c>
       <c r="F218" s="2">
         <v>43769</v>
@@ -12214,13 +14040,19 @@
       <c r="AI218">
         <v>3042282</v>
       </c>
-    </row>
-    <row r="219" spans="2:35">
+      <c r="AP218" s="2">
+        <v>43769</v>
+      </c>
+      <c r="AQ218">
+        <v>29.145</v>
+      </c>
+    </row>
+    <row r="219" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B219" s="2">
         <v>43799</v>
       </c>
       <c r="C219">
-        <v>27889000000</v>
+        <v>28234000000</v>
       </c>
       <c r="F219" s="2">
         <v>43799</v>
@@ -12264,13 +14096,19 @@
       <c r="AI219">
         <v>3358592</v>
       </c>
-    </row>
-    <row r="220" spans="2:35">
+      <c r="AP219" s="2">
+        <v>43799</v>
+      </c>
+      <c r="AQ219">
+        <v>29.004999999999999</v>
+      </c>
+    </row>
+    <row r="220" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B220" s="2">
         <v>43830</v>
       </c>
       <c r="C220">
-        <v>28012000000</v>
+        <v>27245000000</v>
       </c>
       <c r="F220" s="2">
         <v>43861</v>
@@ -12314,13 +14152,19 @@
       <c r="AI220">
         <v>3930800</v>
       </c>
-    </row>
-    <row r="221" spans="2:35">
+      <c r="AP220" s="2">
+        <v>43830</v>
+      </c>
+      <c r="AQ220">
+        <v>28.905000000000001</v>
+      </c>
+    </row>
+    <row r="221" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B221" s="2">
         <v>43861</v>
       </c>
       <c r="C221">
-        <v>27468000000</v>
+        <v>28529000000</v>
       </c>
       <c r="F221" s="2">
         <v>43890</v>
@@ -12364,13 +14208,19 @@
       <c r="AI221">
         <v>3810155</v>
       </c>
-    </row>
-    <row r="222" spans="2:35">
+      <c r="AP221" s="2">
+        <v>43861</v>
+      </c>
+      <c r="AQ221">
+        <v>28.69</v>
+      </c>
+    </row>
+    <row r="222" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B222" s="2">
         <v>43890</v>
       </c>
       <c r="C222">
-        <v>27448000000</v>
+        <v>27079000000</v>
       </c>
       <c r="F222" s="2">
         <v>43921</v>
@@ -12414,10 +14264,26 @@
       <c r="AI222">
         <v>2061990</v>
       </c>
-    </row>
-    <row r="223" spans="2:35">
-      <c r="B223" s="2"/>
-      <c r="F223" s="2"/>
+      <c r="AP222" s="2">
+        <v>43890</v>
+      </c>
+      <c r="AQ222">
+        <v>28.03</v>
+      </c>
+    </row>
+    <row r="223" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B223" s="2">
+        <v>43921</v>
+      </c>
+      <c r="C223">
+        <v>21669000000</v>
+      </c>
+      <c r="F223" s="2">
+        <v>43951</v>
+      </c>
+      <c r="G223">
+        <v>10140000000</v>
+      </c>
       <c r="N223" s="2">
         <v>43921</v>
       </c>
@@ -12454,10 +14320,26 @@
       <c r="AI223">
         <v>819429</v>
       </c>
-    </row>
-    <row r="224" spans="2:35">
-      <c r="B224" s="2"/>
-      <c r="F224" s="2"/>
+      <c r="AP223" s="2">
+        <v>43921</v>
+      </c>
+      <c r="AQ223">
+        <v>28.14</v>
+      </c>
+    </row>
+    <row r="224" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B224" s="2">
+        <v>43951</v>
+      </c>
+      <c r="C224">
+        <v>16322000000</v>
+      </c>
+      <c r="F224" s="2">
+        <v>43982</v>
+      </c>
+      <c r="G224">
+        <v>9870000000</v>
+      </c>
       <c r="N224" s="2">
         <v>43951</v>
       </c>
@@ -12488,20 +14370,267 @@
       <c r="AE224">
         <v>53.2</v>
       </c>
-      <c r="AH224" s="2"/>
-    </row>
-    <row r="225" spans="14:19">
+      <c r="AH224" s="2">
+        <v>43951</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AP224" s="2">
+        <v>43951</v>
+      </c>
+      <c r="AQ224">
+        <v>30.324999999999999</v>
+      </c>
+    </row>
+    <row r="225" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B225" s="2">
+        <v>43982</v>
+      </c>
+      <c r="C225">
+        <v>16168000000</v>
+      </c>
+      <c r="F225" s="2">
+        <v>44012</v>
+      </c>
+      <c r="G225">
+        <v>16720000000</v>
+      </c>
       <c r="N225" s="2">
         <v>43982</v>
       </c>
       <c r="O225">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="R225" s="2">
         <v>43982</v>
       </c>
       <c r="S225">
-        <v>508</v>
+        <v>452</v>
+      </c>
+      <c r="V225" s="2">
+        <v>43982</v>
+      </c>
+      <c r="W225">
+        <v>43.1</v>
+      </c>
+      <c r="Z225" s="2">
+        <v>43982</v>
+      </c>
+      <c r="AA225">
+        <v>45.4</v>
+      </c>
+      <c r="AD225" s="2">
+        <v>43982</v>
+      </c>
+      <c r="AE225">
+        <v>53.6</v>
+      </c>
+      <c r="AH225" s="2">
+        <v>43982</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AP225" s="2">
+        <v>43982</v>
+      </c>
+      <c r="AQ225">
+        <v>24.31</v>
+      </c>
+    </row>
+    <row r="226" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="N226" s="2">
+        <v>44012</v>
+      </c>
+      <c r="O226">
+        <v>1799</v>
+      </c>
+      <c r="R226" s="2">
+        <v>44012</v>
+      </c>
+      <c r="S226">
+        <v>432</v>
+      </c>
+      <c r="V226" s="2">
+        <v>44012</v>
+      </c>
+      <c r="W226">
+        <v>52.6</v>
+      </c>
+      <c r="Z226" s="2">
+        <v>44012</v>
+      </c>
+      <c r="AA226">
+        <v>57.1</v>
+      </c>
+      <c r="AD226" s="2">
+        <v>44012</v>
+      </c>
+      <c r="AE226">
+        <v>54.4</v>
+      </c>
+      <c r="AP226" s="2">
+        <v>44012</v>
+      </c>
+      <c r="AQ226">
+        <v>22.71</v>
+      </c>
+    </row>
+    <row r="227" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="N227" s="2">
+        <v>44043</v>
+      </c>
+      <c r="O227">
+        <v>1594</v>
+      </c>
+      <c r="R227" s="2">
+        <v>44043</v>
+      </c>
+      <c r="S227">
+        <v>463</v>
+      </c>
+      <c r="AP227" s="2">
+        <v>44043</v>
+      </c>
+      <c r="AQ227">
+        <v>22.47</v>
+      </c>
+    </row>
+    <row r="228" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP228" s="2">
+        <v>44074</v>
+      </c>
+      <c r="AQ228">
+        <v>24.04</v>
+      </c>
+    </row>
+    <row r="229" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP229" s="2">
+        <v>44104</v>
+      </c>
+      <c r="AQ229">
+        <v>24.57</v>
+      </c>
+    </row>
+    <row r="230" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP230" s="2">
+        <v>44135</v>
+      </c>
+      <c r="AQ230">
+        <v>25.57</v>
+      </c>
+    </row>
+    <row r="231" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP231" s="2">
+        <v>44165</v>
+      </c>
+      <c r="AQ231">
+        <v>26.35</v>
+      </c>
+    </row>
+    <row r="232" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP232" s="2">
+        <v>44196</v>
+      </c>
+      <c r="AQ232">
+        <v>27.135000000000002</v>
+      </c>
+    </row>
+    <row r="233" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP233" s="2">
+        <v>44227</v>
+      </c>
+      <c r="AQ233">
+        <v>28.26</v>
+      </c>
+    </row>
+    <row r="234" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP234" s="2">
+        <v>44255</v>
+      </c>
+      <c r="AQ234">
+        <v>28.26</v>
+      </c>
+    </row>
+    <row r="235" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP235" s="2">
+        <v>44286</v>
+      </c>
+      <c r="AQ235">
+        <v>28.26</v>
+      </c>
+    </row>
+    <row r="236" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP236" s="2">
+        <v>44316</v>
+      </c>
+      <c r="AQ236">
+        <v>29.274999999999999</v>
+      </c>
+    </row>
+    <row r="237" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP237" s="2">
+        <v>44347</v>
+      </c>
+      <c r="AQ237">
+        <v>29.261825999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP238" s="2">
+        <v>44377</v>
+      </c>
+      <c r="AQ238">
+        <v>29.250485999999999</v>
+      </c>
+    </row>
+    <row r="239" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP239" s="2">
+        <v>44408</v>
+      </c>
+      <c r="AQ239">
+        <v>29.599146000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="AP240" s="2">
+        <v>44439</v>
+      </c>
+      <c r="AQ240">
+        <v>29.607806</v>
+      </c>
+    </row>
+    <row r="241" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP241" s="2">
+        <v>44469</v>
+      </c>
+      <c r="AQ241">
+        <v>29.616465000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP242" s="2">
+        <v>44500</v>
+      </c>
+      <c r="AQ242">
+        <v>29.635124999999999</v>
+      </c>
+    </row>
+    <row r="243" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP243" s="2">
+        <v>44530</v>
+      </c>
+      <c r="AQ243">
+        <v>29.643785000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP244" s="2">
+        <v>44561</v>
+      </c>
+      <c r="AQ244">
+        <v>29.632444</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Eikon.xlsx
+++ b/helper/Eikon.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\C\Users\Fernando.Cantu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\C\Users\Nour.Barnat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -159,72 +159,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 09:28:16</v>
+        <v>Updated at 15:49:55</v>
         <stp/>
-        <stp>{EEAE09C6-455F-4AE7-B52A-FE7495AA9904}_x0000_</stp>
+        <stp>{7D59DA56-78E0-43BE-B037-1B4E6D3820CF}_x0000_</stp>
         <tr r="AK3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:24:34</v>
+        <v>Updated at 15:49:55</v>
         <stp/>
-        <stp>{08F59E99-0289-438C-AFB5-3F4938BDEEF8}_x0000_</stp>
+        <stp>{33652F3D-757A-4128-8E24-78506F9973FF}_x0000_</stp>
+        <tr r="AC3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:49:55</v>
+        <stp/>
+        <stp>{68FBE21B-905B-4B08-BA66-85E85C344697}_x0000_</stp>
         <tr r="Y3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:24:33</v>
+        <v>Updated at 15:49:54</v>
         <stp/>
-        <stp>{84405A58-DA55-4913-834B-ECCB7080814C}_x0000_</stp>
+        <stp>{F7CB99FF-4688-4D00-A212-CE123B571E77}_x0000_</stp>
+        <tr r="AG3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:49:46</v>
+        <stp/>
+        <stp>{EFEAD925-8B02-4EB9-BAD5-2D35A2767AC7}_x0000_</stp>
+        <tr r="U3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:49:46</v>
+        <stp/>
+        <stp>{A3A06510-F2CE-4316-B524-AB5268861E0E}_x0000_</stp>
         <tr r="M3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:32:02</v>
+        <v>Updated at 15:49:46</v>
         <stp/>
-        <stp>{82FF288D-5EDE-4B3A-9361-13BCAB1C3452}_x0000_</stp>
-        <tr r="AO3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:24:33</v>
-        <stp/>
-        <stp>{E082D2D3-EAB0-4942-ABCF-135FA257353A}_x0000_</stp>
+        <stp>{BB4AABB1-B655-446E-BA74-A56EF9814915}_x0000_</stp>
         <tr r="Q3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:24:33</v>
+        <v>Updated at 15:49:45</v>
         <stp/>
-        <stp>{E09AD1B9-B2C4-4C66-B760-A7E0A0529FB2}_x0000_</stp>
+        <stp>{26036738-6393-480F-9432-6D955FFC0FE7}_x0000_</stp>
         <tr r="I3" s="2"/>
       </tp>
-    </main>
-    <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 09:24:33</v>
+        <v>Updated at 15:50:02</v>
         <stp/>
-        <stp>{A897A5ED-4342-4E63-89AD-EC3B3A547E29}_x0000_</stp>
+        <stp>{CB71FF21-2C18-4BC9-8AF1-16B2DF2F796B}_x0000_</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:49:55</v>
+        <stp/>
+        <stp>{88EEBE18-F634-4F1A-A9BC-09398101D5D8}_x0000_</stp>
         <tr r="E3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:24:33</v>
+        <v>Updated at 15:49:46</v>
         <stp/>
-        <stp>{426907F7-DFC5-4572-8E99-D0D1112BC1CB}_x0000_</stp>
-        <tr r="AC3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:24:35</v>
-        <stp/>
-        <stp>{6571444F-F433-4CFE-A961-7668511C37FF}_x0000_</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:24:34</v>
-        <stp/>
-        <stp>{5B86E031-6B3B-41FC-A68F-5EDD5CCB2309}_x0000_</stp>
-        <tr r="U3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:24:34</v>
-        <stp/>
-        <stp>{56E0054C-21B3-4E2B-A413-6CAEE4621579}_x0000_</stp>
-        <tr r="AG3" s="2"/>
+        <stp>{91EB106C-90CD-453A-9B64-734F8B05498F}_x0000_</stp>
+        <tr r="AO3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -531,9 +529,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ226" sqref="AQ226"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -614,47 +612,47 @@
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>_xll.RHistory(C2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",B4)</f>
-        <v>Updated at 09:24:35</v>
+        <v>Updated at 15:50:02</v>
       </c>
       <c r="E3" t="str">
         <f>_xll.RHistory(G2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",F4)</f>
-        <v>Updated at 09:24:33</v>
+        <v>Updated at 15:49:55</v>
       </c>
       <c r="I3" t="str">
         <f>_xll.RHistory(K2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",J4)</f>
-        <v>Updated at 09:24:33</v>
+        <v>Updated at 15:49:45</v>
       </c>
       <c r="M3" t="str">
         <f>_xll.RHistory(O2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",N4)</f>
-        <v>Updated at 09:24:33</v>
+        <v>Updated at 15:49:46</v>
       </c>
       <c r="Q3" t="str">
         <f>_xll.RHistory(S2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",R4)</f>
-        <v>Updated at 09:24:33</v>
+        <v>Updated at 15:49:46</v>
       </c>
       <c r="U3" t="str">
         <f>_xll.RHistory(W2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",V4)</f>
-        <v>Updated at 09:24:34</v>
+        <v>Updated at 15:49:46</v>
       </c>
       <c r="Y3" t="str">
         <f>_xll.RHistory(AA2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",Z4)</f>
-        <v>Updated at 09:24:34</v>
+        <v>Updated at 15:49:55</v>
       </c>
       <c r="AC3" t="str">
         <f>_xll.RHistory(AE2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AD4)</f>
-        <v>Updated at 09:24:33</v>
+        <v>Updated at 15:49:55</v>
       </c>
       <c r="AG3" t="str">
         <f>_xll.RHistory(AI2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AH4)</f>
-        <v>Updated at 09:24:34</v>
+        <v>Updated at 15:49:54</v>
       </c>
       <c r="AK3" t="str">
         <f>_xll.RHistory(AM2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AL4)</f>
-        <v>Updated at 09:28:16</v>
+        <v>Updated at 15:49:55</v>
       </c>
       <c r="AO3" t="str">
         <f>_xll.RHistory(AQ2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AP4)</f>
-        <v>Updated at 09:32:02</v>
+        <v>Updated at 15:49:46</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -5204,7 +5202,7 @@
         <v>44012</v>
       </c>
       <c r="AM70">
-        <v>17021.88</v>
+        <v>17062.45</v>
       </c>
       <c r="AP70" s="2">
         <v>39263</v>
@@ -5272,7 +5270,7 @@
         <v>44043</v>
       </c>
       <c r="AM71">
-        <v>16898.349999999999</v>
+        <v>18217.330000000002</v>
       </c>
       <c r="AP71" s="2">
         <v>39294</v>
@@ -5336,6 +5334,12 @@
       <c r="AI72">
         <v>1225820</v>
       </c>
+      <c r="AL72" s="2">
+        <v>44074</v>
+      </c>
+      <c r="AM72">
+        <v>16737.97</v>
+      </c>
       <c r="AP72" s="2">
         <v>39325</v>
       </c>
@@ -14470,6 +14474,12 @@
       <c r="AE226">
         <v>54.4</v>
       </c>
+      <c r="AH226" s="2">
+        <v>44012</v>
+      </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
       <c r="AP226" s="2">
         <v>44012</v>
       </c>
@@ -14482,13 +14492,31 @@
         <v>44043</v>
       </c>
       <c r="O227">
-        <v>1594</v>
+        <v>1350</v>
       </c>
       <c r="R227" s="2">
         <v>44043</v>
       </c>
       <c r="S227">
-        <v>463</v>
+        <v>522</v>
+      </c>
+      <c r="V227" s="2">
+        <v>44043</v>
+      </c>
+      <c r="W227">
+        <v>54.2</v>
+      </c>
+      <c r="Z227" s="2">
+        <v>44043</v>
+      </c>
+      <c r="AA227">
+        <v>58.1</v>
+      </c>
+      <c r="AD227" s="2">
+        <v>44043</v>
+      </c>
+      <c r="AE227">
+        <v>54.2</v>
       </c>
       <c r="AP227" s="2">
         <v>44043</v>
@@ -14498,6 +14526,12 @@
       </c>
     </row>
     <row r="228" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="N228" s="2">
+        <v>44074</v>
+      </c>
+      <c r="O228">
+        <v>1475</v>
+      </c>
       <c r="AP228" s="2">
         <v>44074</v>
       </c>

--- a/helper/Eikon.xlsx
+++ b/helper/Eikon.xlsx
@@ -159,70 +159,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 15:49:55</v>
+        <v>Updated at 09:26:05</v>
         <stp/>
-        <stp>{7D59DA56-78E0-43BE-B037-1B4E6D3820CF}_x0000_</stp>
+        <stp>{22446A75-6580-49D0-A5C7-EACEE9802E12}_x0000_</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:26:05</v>
+        <stp/>
+        <stp>{6D9B80F3-934F-48EE-ADEB-8572FFC6E848}_x0000_</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:26:05</v>
+        <stp/>
+        <stp>{61D24252-C389-4F55-BA45-CD9258DC1AEE}_x0000_</stp>
+        <tr r="Y3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:26:05</v>
+        <stp/>
+        <stp>{A3B55305-80C2-4660-8E2E-2D0C3DD639E0}_x0000_</stp>
+        <tr r="AG3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:26:05</v>
+        <stp/>
+        <stp>{3B2E30B3-A0E5-4DA2-A9D6-6572FE4A8290}_x0000_</stp>
+        <tr r="Q3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:26:05</v>
+        <stp/>
+        <stp>{EEC4506D-05E2-48B3-9395-397ACC0456A3}_x0000_</stp>
+        <tr r="U3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:26:04</v>
+        <stp/>
+        <stp>{FFC918F4-00C0-4C52-91F2-274825BC9B11}_x0000_</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:26:05</v>
+        <stp/>
+        <stp>{81E97F22-8C65-480C-85BC-5745287FFCD7}_x0000_</stp>
+        <tr r="AO3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 09:26:04</v>
+        <stp/>
+        <stp>{CDEC0E0D-AEFE-4312-9D4F-3AB226FCD39C}_x0000_</stp>
         <tr r="AK3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:49:55</v>
+        <v>Updated at 09:26:05</v>
         <stp/>
-        <stp>{33652F3D-757A-4128-8E24-78506F9973FF}_x0000_</stp>
+        <stp>{A34ED1E5-C454-4312-9236-F51CDCDDAB13}_x0000_</stp>
         <tr r="AC3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:49:55</v>
+        <v>Updated at 09:26:05</v>
         <stp/>
-        <stp>{68FBE21B-905B-4B08-BA66-85E85C344697}_x0000_</stp>
-        <tr r="Y3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:49:54</v>
-        <stp/>
-        <stp>{F7CB99FF-4688-4D00-A212-CE123B571E77}_x0000_</stp>
-        <tr r="AG3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:49:46</v>
-        <stp/>
-        <stp>{EFEAD925-8B02-4EB9-BAD5-2D35A2767AC7}_x0000_</stp>
-        <tr r="U3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:49:46</v>
-        <stp/>
-        <stp>{A3A06510-F2CE-4316-B524-AB5268861E0E}_x0000_</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:49:46</v>
-        <stp/>
-        <stp>{BB4AABB1-B655-446E-BA74-A56EF9814915}_x0000_</stp>
-        <tr r="Q3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:49:45</v>
-        <stp/>
-        <stp>{26036738-6393-480F-9432-6D955FFC0FE7}_x0000_</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:50:02</v>
-        <stp/>
-        <stp>{CB71FF21-2C18-4BC9-8AF1-16B2DF2F796B}_x0000_</stp>
+        <stp>{0A9CA1AB-86FB-4001-9623-589C8C0415CB}_x0000_</stp>
         <tr r="A3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:49:55</v>
-        <stp/>
-        <stp>{88EEBE18-F634-4F1A-A9BC-09398101D5D8}_x0000_</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:49:46</v>
-        <stp/>
-        <stp>{91EB106C-90CD-453A-9B64-734F8B05498F}_x0000_</stp>
-        <tr r="AO3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -530,7 +530,7 @@
   <dimension ref="A1:AQ244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
@@ -612,47 +612,47 @@
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>_xll.RHistory(C2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",B4)</f>
-        <v>Updated at 15:50:02</v>
+        <v>Updated at 09:26:05</v>
       </c>
       <c r="E3" t="str">
         <f>_xll.RHistory(G2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",F4)</f>
-        <v>Updated at 15:49:55</v>
+        <v>Updated at 09:26:05</v>
       </c>
       <c r="I3" t="str">
         <f>_xll.RHistory(K2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",J4)</f>
-        <v>Updated at 15:49:45</v>
+        <v>Updated at 09:26:04</v>
       </c>
       <c r="M3" t="str">
         <f>_xll.RHistory(O2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",N4)</f>
-        <v>Updated at 15:49:46</v>
+        <v>Updated at 09:26:05</v>
       </c>
       <c r="Q3" t="str">
         <f>_xll.RHistory(S2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",R4)</f>
-        <v>Updated at 15:49:46</v>
+        <v>Updated at 09:26:05</v>
       </c>
       <c r="U3" t="str">
         <f>_xll.RHistory(W2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",V4)</f>
-        <v>Updated at 15:49:46</v>
+        <v>Updated at 09:26:05</v>
       </c>
       <c r="Y3" t="str">
         <f>_xll.RHistory(AA2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",Z4)</f>
-        <v>Updated at 15:49:55</v>
+        <v>Updated at 09:26:05</v>
       </c>
       <c r="AC3" t="str">
         <f>_xll.RHistory(AE2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AD4)</f>
-        <v>Updated at 15:49:55</v>
+        <v>Updated at 09:26:05</v>
       </c>
       <c r="AG3" t="str">
         <f>_xll.RHistory(AI2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AH4)</f>
-        <v>Updated at 15:49:54</v>
+        <v>Updated at 09:26:05</v>
       </c>
       <c r="AK3" t="str">
         <f>_xll.RHistory(AM2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AL4)</f>
-        <v>Updated at 15:49:55</v>
+        <v>Updated at 09:26:04</v>
       </c>
       <c r="AO3" t="str">
         <f>_xll.RHistory(AQ2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AP4)</f>
-        <v>Updated at 15:49:46</v>
+        <v>Updated at 09:26:05</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -5134,7 +5134,7 @@
         <v>43982</v>
       </c>
       <c r="AM69">
-        <v>19057.11</v>
+        <v>19053.14</v>
       </c>
       <c r="AP69" s="2">
         <v>39233</v>
@@ -5202,7 +5202,7 @@
         <v>44012</v>
       </c>
       <c r="AM70">
-        <v>17062.45</v>
+        <v>16987.62</v>
       </c>
       <c r="AP70" s="2">
         <v>39263</v>
@@ -5270,7 +5270,7 @@
         <v>44043</v>
       </c>
       <c r="AM71">
-        <v>18217.330000000002</v>
+        <v>18367.54</v>
       </c>
       <c r="AP71" s="2">
         <v>39294</v>
@@ -5338,7 +5338,7 @@
         <v>44074</v>
       </c>
       <c r="AM72">
-        <v>16737.97</v>
+        <v>17942.7</v>
       </c>
       <c r="AP72" s="2">
         <v>39325</v>
@@ -10076,7 +10076,7 @@
         <v>43677</v>
       </c>
       <c r="K149">
-        <v>1332050000</v>
+        <v>1844340000</v>
       </c>
       <c r="N149" s="2">
         <v>41670</v>
@@ -10758,7 +10758,7 @@
         <v>44012</v>
       </c>
       <c r="K160">
-        <v>805860000</v>
+        <v>893180000</v>
       </c>
       <c r="N160" s="2">
         <v>42004</v>
@@ -10816,6 +10816,12 @@
       <c r="G161">
         <v>13923000000</v>
       </c>
+      <c r="J161" s="2">
+        <v>44043</v>
+      </c>
+      <c r="K161">
+        <v>2518600000</v>
+      </c>
       <c r="N161" s="2">
         <v>42035</v>
       </c>
@@ -14216,7 +14222,7 @@
         <v>43861</v>
       </c>
       <c r="AQ221">
-        <v>28.69</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="222" spans="2:43" x14ac:dyDescent="0.3">
@@ -14272,7 +14278,7 @@
         <v>43890</v>
       </c>
       <c r="AQ222">
-        <v>28.03</v>
+        <v>28.02</v>
       </c>
     </row>
     <row r="223" spans="2:43" x14ac:dyDescent="0.3">
@@ -14336,7 +14342,7 @@
         <v>43951</v>
       </c>
       <c r="C224">
-        <v>16322000000</v>
+        <v>20340000000</v>
       </c>
       <c r="F224" s="2">
         <v>43982</v>
@@ -14392,7 +14398,7 @@
         <v>43982</v>
       </c>
       <c r="C225">
-        <v>16168000000</v>
+        <v>20017000000</v>
       </c>
       <c r="F225" s="2">
         <v>44012</v>
@@ -14440,10 +14446,22 @@
         <v>43982</v>
       </c>
       <c r="AQ225">
-        <v>24.31</v>
+        <v>24.28</v>
       </c>
     </row>
     <row r="226" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B226" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C226">
+        <v>24215000000</v>
+      </c>
+      <c r="F226" s="2">
+        <v>44043</v>
+      </c>
+      <c r="G226">
+        <v>9050000000</v>
+      </c>
       <c r="N226" s="2">
         <v>44012</v>
       </c>
@@ -14484,7 +14502,7 @@
         <v>44012</v>
       </c>
       <c r="AQ226">
-        <v>22.71</v>
+        <v>22.35</v>
       </c>
     </row>
     <row r="227" spans="2:43" x14ac:dyDescent="0.3">
@@ -14522,7 +14540,7 @@
         <v>44043</v>
       </c>
       <c r="AQ227">
-        <v>22.47</v>
+        <v>23.045000000000002</v>
       </c>
     </row>
     <row r="228" spans="2:43" x14ac:dyDescent="0.3">
@@ -14530,13 +14548,19 @@
         <v>44074</v>
       </c>
       <c r="O228">
-        <v>1475</v>
+        <v>1518</v>
+      </c>
+      <c r="R228" s="2">
+        <v>44074</v>
+      </c>
+      <c r="S228">
+        <v>597</v>
       </c>
       <c r="AP228" s="2">
         <v>44074</v>
       </c>
       <c r="AQ228">
-        <v>24.04</v>
+        <v>23.73</v>
       </c>
     </row>
     <row r="229" spans="2:43" x14ac:dyDescent="0.3">
@@ -14544,7 +14568,7 @@
         <v>44104</v>
       </c>
       <c r="AQ229">
-        <v>24.57</v>
+        <v>23.74</v>
       </c>
     </row>
     <row r="230" spans="2:43" x14ac:dyDescent="0.3">
@@ -14552,7 +14576,7 @@
         <v>44135</v>
       </c>
       <c r="AQ230">
-        <v>25.57</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="231" spans="2:43" x14ac:dyDescent="0.3">
@@ -14560,7 +14584,7 @@
         <v>44165</v>
       </c>
       <c r="AQ231">
-        <v>26.35</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="232" spans="2:43" x14ac:dyDescent="0.3">
@@ -14568,7 +14592,7 @@
         <v>44196</v>
       </c>
       <c r="AQ232">
-        <v>27.135000000000002</v>
+        <v>26.535</v>
       </c>
     </row>
     <row r="233" spans="2:43" x14ac:dyDescent="0.3">
@@ -14576,7 +14600,7 @@
         <v>44227</v>
       </c>
       <c r="AQ233">
-        <v>28.26</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="234" spans="2:43" x14ac:dyDescent="0.3">
@@ -14584,7 +14608,7 @@
         <v>44255</v>
       </c>
       <c r="AQ234">
-        <v>28.26</v>
+        <v>28.16</v>
       </c>
     </row>
     <row r="235" spans="2:43" x14ac:dyDescent="0.3">
@@ -14592,7 +14616,7 @@
         <v>44286</v>
       </c>
       <c r="AQ235">
-        <v>28.26</v>
+        <v>28.46</v>
       </c>
     </row>
     <row r="236" spans="2:43" x14ac:dyDescent="0.3">
@@ -14600,7 +14624,7 @@
         <v>44316</v>
       </c>
       <c r="AQ236">
-        <v>29.274999999999999</v>
+        <v>29.574999999999999</v>
       </c>
     </row>
     <row r="237" spans="2:43" x14ac:dyDescent="0.3">
@@ -14608,7 +14632,7 @@
         <v>44347</v>
       </c>
       <c r="AQ237">
-        <v>29.261825999999999</v>
+        <v>29.661826000000001</v>
       </c>
     </row>
     <row r="238" spans="2:43" x14ac:dyDescent="0.3">
@@ -14616,7 +14640,7 @@
         <v>44377</v>
       </c>
       <c r="AQ238">
-        <v>29.250485999999999</v>
+        <v>29.650486000000001</v>
       </c>
     </row>
     <row r="239" spans="2:43" x14ac:dyDescent="0.3">
@@ -14624,7 +14648,7 @@
         <v>44408</v>
       </c>
       <c r="AQ239">
-        <v>29.599146000000001</v>
+        <v>29.699145999999999</v>
       </c>
     </row>
     <row r="240" spans="2:43" x14ac:dyDescent="0.3">
@@ -14632,7 +14656,7 @@
         <v>44439</v>
       </c>
       <c r="AQ240">
-        <v>29.607806</v>
+        <v>29.707806000000001</v>
       </c>
     </row>
     <row r="241" spans="42:43" x14ac:dyDescent="0.3">
@@ -14640,7 +14664,7 @@
         <v>44469</v>
       </c>
       <c r="AQ241">
-        <v>29.616465000000002</v>
+        <v>29.716464999999999</v>
       </c>
     </row>
     <row r="242" spans="42:43" x14ac:dyDescent="0.3">
@@ -14648,7 +14672,7 @@
         <v>44500</v>
       </c>
       <c r="AQ242">
-        <v>29.635124999999999</v>
+        <v>29.725124999999998</v>
       </c>
     </row>
     <row r="243" spans="42:43" x14ac:dyDescent="0.3">
@@ -14656,7 +14680,7 @@
         <v>44530</v>
       </c>
       <c r="AQ243">
-        <v>29.643785000000001</v>
+        <v>29.733785000000001</v>
       </c>
     </row>
     <row r="244" spans="42:43" x14ac:dyDescent="0.3">
@@ -14664,7 +14688,7 @@
         <v>44561</v>
       </c>
       <c r="AQ244">
-        <v>29.632444</v>
+        <v>29.722443999999999</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Eikon.xlsx
+++ b/helper/Eikon.xlsx
@@ -159,70 +159,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 09:26:05</v>
+        <v>Updated at 15:05:41</v>
         <stp/>
-        <stp>{22446A75-6580-49D0-A5C7-EACEE9802E12}_x0000_</stp>
+        <stp>{897E5AF3-EB22-4716-ABC4-2277C539F218}_x0000_</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:05:41</v>
+        <stp/>
+        <stp>{AE0C9429-58A1-44FF-8A10-A23081362170}_x0000_</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:05:45</v>
+        <stp/>
+        <stp>{F97B50F6-638D-498F-814B-F64D18F20B79}_x0000_</stp>
         <tr r="E3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:26:05</v>
+        <v>Updated at 15:05:44</v>
         <stp/>
-        <stp>{6D9B80F3-934F-48EE-ADEB-8572FFC6E848}_x0000_</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:26:05</v>
-        <stp/>
-        <stp>{61D24252-C389-4F55-BA45-CD9258DC1AEE}_x0000_</stp>
+        <stp>{7754FBB4-2365-442C-8F88-BC8397B3BB47}_x0000_</stp>
         <tr r="Y3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:26:05</v>
+        <v>Updated at 15:05:40</v>
         <stp/>
-        <stp>{A3B55305-80C2-4660-8E2E-2D0C3DD639E0}_x0000_</stp>
+        <stp>{79FC90DC-C27E-4D20-8945-B576A7FA8432}_x0000_</stp>
+        <tr r="AK3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:05:45</v>
+        <stp/>
+        <stp>{249870CF-7B56-489D-B1B3-4D9D9A4208D3}_x0000_</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:05:45</v>
+        <stp/>
+        <stp>{9270B0EE-FEB9-4B4D-ADC6-2FB1084CDCA7}_x0000_</stp>
+        <tr r="AC3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:05:41</v>
+        <stp/>
+        <stp>{CC8A740F-8952-4864-845E-E0E9961890FB}_x0000_</stp>
+        <tr r="Q3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:05:41</v>
+        <stp/>
+        <stp>{43B9C51B-E4E3-49BA-AE13-29AC6D3D2841}_x0000_</stp>
+        <tr r="AO3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 15:05:41</v>
+        <stp/>
+        <stp>{C9F7E190-13A9-438F-AE92-7B1A8F354EC8}_x0000_</stp>
         <tr r="AG3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 09:26:05</v>
+        <v>Updated at 15:05:45</v>
         <stp/>
-        <stp>{3B2E30B3-A0E5-4DA2-A9D6-6572FE4A8290}_x0000_</stp>
-        <tr r="Q3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:26:05</v>
-        <stp/>
-        <stp>{EEC4506D-05E2-48B3-9395-397ACC0456A3}_x0000_</stp>
+        <stp>{0FA8AD9D-92AB-4DD3-AE3E-34A5C8160EBC}_x0000_</stp>
         <tr r="U3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:26:04</v>
-        <stp/>
-        <stp>{FFC918F4-00C0-4C52-91F2-274825BC9B11}_x0000_</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:26:05</v>
-        <stp/>
-        <stp>{81E97F22-8C65-480C-85BC-5745287FFCD7}_x0000_</stp>
-        <tr r="AO3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:26:04</v>
-        <stp/>
-        <stp>{CDEC0E0D-AEFE-4312-9D4F-3AB226FCD39C}_x0000_</stp>
-        <tr r="AK3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:26:05</v>
-        <stp/>
-        <stp>{A34ED1E5-C454-4312-9236-F51CDCDDAB13}_x0000_</stp>
-        <tr r="AC3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 09:26:05</v>
-        <stp/>
-        <stp>{0A9CA1AB-86FB-4001-9623-589C8C0415CB}_x0000_</stp>
-        <tr r="A3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -612,47 +612,47 @@
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>_xll.RHistory(C2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",B4)</f>
-        <v>Updated at 09:26:05</v>
+        <v>Updated at 15:05:45</v>
       </c>
       <c r="E3" t="str">
         <f>_xll.RHistory(G2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",F4)</f>
-        <v>Updated at 09:26:05</v>
+        <v>Updated at 15:05:45</v>
       </c>
       <c r="I3" t="str">
         <f>_xll.RHistory(K2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",J4)</f>
-        <v>Updated at 09:26:04</v>
+        <v>Updated at 15:05:41</v>
       </c>
       <c r="M3" t="str">
         <f>_xll.RHistory(O2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",N4)</f>
-        <v>Updated at 09:26:05</v>
+        <v>Updated at 15:05:41</v>
       </c>
       <c r="Q3" t="str">
         <f>_xll.RHistory(S2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",R4)</f>
-        <v>Updated at 09:26:05</v>
+        <v>Updated at 15:05:41</v>
       </c>
       <c r="U3" t="str">
         <f>_xll.RHistory(W2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",V4)</f>
-        <v>Updated at 09:26:05</v>
+        <v>Updated at 15:05:45</v>
       </c>
       <c r="Y3" t="str">
         <f>_xll.RHistory(AA2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",Z4)</f>
-        <v>Updated at 09:26:05</v>
+        <v>Updated at 15:05:44</v>
       </c>
       <c r="AC3" t="str">
         <f>_xll.RHistory(AE2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AD4)</f>
-        <v>Updated at 09:26:05</v>
+        <v>Updated at 15:05:45</v>
       </c>
       <c r="AG3" t="str">
         <f>_xll.RHistory(AI2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AH4)</f>
-        <v>Updated at 09:26:05</v>
+        <v>Updated at 15:05:41</v>
       </c>
       <c r="AK3" t="str">
         <f>_xll.RHistory(AM2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AL4)</f>
-        <v>Updated at 09:26:04</v>
+        <v>Updated at 15:05:40</v>
       </c>
       <c r="AO3" t="str">
         <f>_xll.RHistory(AQ2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AP4)</f>
-        <v>Updated at 09:26:05</v>
+        <v>Updated at 15:05:41</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -5134,7 +5134,7 @@
         <v>43982</v>
       </c>
       <c r="AM69">
-        <v>19053.14</v>
+        <v>18947.77</v>
       </c>
       <c r="AP69" s="2">
         <v>39233</v>
@@ -5202,7 +5202,7 @@
         <v>44012</v>
       </c>
       <c r="AM70">
-        <v>16987.62</v>
+        <v>17028.66</v>
       </c>
       <c r="AP70" s="2">
         <v>39263</v>
@@ -5270,7 +5270,7 @@
         <v>44043</v>
       </c>
       <c r="AM71">
-        <v>18367.54</v>
+        <v>18322.32</v>
       </c>
       <c r="AP71" s="2">
         <v>39294</v>
@@ -5338,7 +5338,7 @@
         <v>44074</v>
       </c>
       <c r="AM72">
-        <v>17942.7</v>
+        <v>18609.169999999998</v>
       </c>
       <c r="AP72" s="2">
         <v>39325</v>
@@ -5402,6 +5402,12 @@
       <c r="AI73">
         <v>1059246</v>
       </c>
+      <c r="AL73" s="2">
+        <v>44104</v>
+      </c>
+      <c r="AM73">
+        <v>10074.34</v>
+      </c>
       <c r="AP73" s="2">
         <v>39355</v>
       </c>
@@ -14536,6 +14542,12 @@
       <c r="AE227">
         <v>54.2</v>
       </c>
+      <c r="AH227" s="2">
+        <v>44043</v>
+      </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
       <c r="AP227" s="2">
         <v>44043</v>
       </c>
@@ -14548,13 +14560,25 @@
         <v>44074</v>
       </c>
       <c r="O228">
-        <v>1518</v>
+        <v>1488</v>
       </c>
       <c r="R228" s="2">
         <v>44074</v>
       </c>
       <c r="S228">
-        <v>597</v>
+        <v>666</v>
+      </c>
+      <c r="V228" s="2">
+        <v>44074</v>
+      </c>
+      <c r="W228">
+        <v>56</v>
+      </c>
+      <c r="AD228" s="2">
+        <v>44074</v>
+      </c>
+      <c r="AE228">
+        <v>55.2</v>
       </c>
       <c r="AP228" s="2">
         <v>44074</v>
@@ -14564,6 +14588,12 @@
       </c>
     </row>
     <row r="229" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="N229" s="2">
+        <v>44104</v>
+      </c>
+      <c r="O229">
+        <v>1471</v>
+      </c>
       <c r="AP229" s="2">
         <v>44104</v>
       </c>

--- a/helper/Eikon.xlsx
+++ b/helper/Eikon.xlsx
@@ -159,70 +159,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 15:05:41</v>
+        <v>Updated at 18:16:28</v>
         <stp/>
-        <stp>{897E5AF3-EB22-4716-ABC4-2277C539F218}_x0000_</stp>
+        <stp>{489200D7-B90B-49BA-814B-26C958E09F98}_x0000_</stp>
+        <tr r="AO3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:16:28</v>
+        <stp/>
+        <stp>{74A1C46F-60B1-4D6E-B1A3-8492DED12827}_x0000_</stp>
+        <tr r="Q3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:16:28</v>
+        <stp/>
+        <stp>{8961B8C6-45E5-457F-8302-EB48E7A5F6CD}_x0000_</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:16:28</v>
+        <stp/>
+        <stp>{33D0FE24-F1AE-4A22-B1B4-0FCC5F459F06}_x0000_</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:16:28</v>
+        <stp/>
+        <stp>{A6B8AF68-F684-4A5E-AED7-94DA8D79887A}_x0000_</stp>
+        <tr r="AK3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:16:27</v>
+        <stp/>
+        <stp>{221A24B6-647A-4B02-8806-CD15473EDE8F}_x0000_</stp>
         <tr r="M3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:05:41</v>
+        <v>Updated at 18:16:28</v>
         <stp/>
-        <stp>{AE0C9429-58A1-44FF-8A10-A23081362170}_x0000_</stp>
-        <tr r="I3" s="2"/>
+        <stp>{8A8102EA-9E2E-4E19-B07F-102949069F0A}_x0000_</stp>
+        <tr r="AC3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:05:45</v>
+        <v>Updated at 18:16:28</v>
         <stp/>
-        <stp>{F97B50F6-638D-498F-814B-F64D18F20B79}_x0000_</stp>
-        <tr r="E3" s="2"/>
+        <stp>{9BB751B4-6A82-40E4-9CBD-EFEB02C43A21}_x0000_</stp>
+        <tr r="AG3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:05:44</v>
+        <v>Updated at 18:16:27</v>
         <stp/>
-        <stp>{7754FBB4-2365-442C-8F88-BC8397B3BB47}_x0000_</stp>
+        <stp>{9616861C-2101-4557-B85E-6B66ADF7A7DF}_x0000_</stp>
+        <tr r="U3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:16:28</v>
+        <stp/>
+        <stp>{9B2D2A78-4599-4F98-912C-DBA2BF2A8E98}_x0000_</stp>
         <tr r="Y3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 15:05:40</v>
+        <v>Updated at 18:16:28</v>
         <stp/>
-        <stp>{79FC90DC-C27E-4D20-8945-B576A7FA8432}_x0000_</stp>
-        <tr r="AK3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:05:45</v>
-        <stp/>
-        <stp>{249870CF-7B56-489D-B1B3-4D9D9A4208D3}_x0000_</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:05:45</v>
-        <stp/>
-        <stp>{9270B0EE-FEB9-4B4D-ADC6-2FB1084CDCA7}_x0000_</stp>
-        <tr r="AC3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:05:41</v>
-        <stp/>
-        <stp>{CC8A740F-8952-4864-845E-E0E9961890FB}_x0000_</stp>
-        <tr r="Q3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:05:41</v>
-        <stp/>
-        <stp>{43B9C51B-E4E3-49BA-AE13-29AC6D3D2841}_x0000_</stp>
-        <tr r="AO3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:05:41</v>
-        <stp/>
-        <stp>{C9F7E190-13A9-438F-AE92-7B1A8F354EC8}_x0000_</stp>
-        <tr r="AG3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 15:05:45</v>
-        <stp/>
-        <stp>{0FA8AD9D-92AB-4DD3-AE3E-34A5C8160EBC}_x0000_</stp>
-        <tr r="U3" s="2"/>
+        <stp>{D75695FF-A729-4B57-A1C6-565179E75658}_x0000_</stp>
+        <tr r="E3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -530,7 +530,7 @@
   <dimension ref="A1:AQ244"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
@@ -612,47 +612,47 @@
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>_xll.RHistory(C2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",B4)</f>
-        <v>Updated at 15:05:45</v>
+        <v>Updated at 18:16:28</v>
       </c>
       <c r="E3" t="str">
         <f>_xll.RHistory(G2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",F4)</f>
-        <v>Updated at 15:05:45</v>
+        <v>Updated at 18:16:28</v>
       </c>
       <c r="I3" t="str">
         <f>_xll.RHistory(K2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",J4)</f>
-        <v>Updated at 15:05:41</v>
+        <v>Updated at 18:16:28</v>
       </c>
       <c r="M3" t="str">
         <f>_xll.RHistory(O2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",N4)</f>
-        <v>Updated at 15:05:41</v>
+        <v>Updated at 18:16:27</v>
       </c>
       <c r="Q3" t="str">
         <f>_xll.RHistory(S2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",R4)</f>
-        <v>Updated at 15:05:41</v>
+        <v>Updated at 18:16:28</v>
       </c>
       <c r="U3" t="str">
         <f>_xll.RHistory(W2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",V4)</f>
-        <v>Updated at 15:05:45</v>
+        <v>Updated at 18:16:27</v>
       </c>
       <c r="Y3" t="str">
         <f>_xll.RHistory(AA2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",Z4)</f>
-        <v>Updated at 15:05:44</v>
+        <v>Updated at 18:16:28</v>
       </c>
       <c r="AC3" t="str">
         <f>_xll.RHistory(AE2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AD4)</f>
-        <v>Updated at 15:05:45</v>
+        <v>Updated at 18:16:28</v>
       </c>
       <c r="AG3" t="str">
         <f>_xll.RHistory(AI2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AH4)</f>
-        <v>Updated at 15:05:41</v>
+        <v>Updated at 18:16:28</v>
       </c>
       <c r="AK3" t="str">
         <f>_xll.RHistory(AM2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AL4)</f>
-        <v>Updated at 15:05:40</v>
+        <v>Updated at 18:16:28</v>
       </c>
       <c r="AO3" t="str">
         <f>_xll.RHistory(AQ2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AP4)</f>
-        <v>Updated at 15:05:41</v>
+        <v>Updated at 18:16:28</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -5202,7 +5202,7 @@
         <v>44012</v>
       </c>
       <c r="AM70">
-        <v>17028.66</v>
+        <v>16991.63</v>
       </c>
       <c r="AP70" s="2">
         <v>39263</v>
@@ -5270,7 +5270,7 @@
         <v>44043</v>
       </c>
       <c r="AM71">
-        <v>18322.32</v>
+        <v>18456.54</v>
       </c>
       <c r="AP71" s="2">
         <v>39294</v>
@@ -5338,7 +5338,7 @@
         <v>44074</v>
       </c>
       <c r="AM72">
-        <v>18609.169999999998</v>
+        <v>18365.86</v>
       </c>
       <c r="AP72" s="2">
         <v>39325</v>
@@ -5406,7 +5406,7 @@
         <v>44104</v>
       </c>
       <c r="AM73">
-        <v>10074.34</v>
+        <v>18861.18</v>
       </c>
       <c r="AP73" s="2">
         <v>39355</v>
@@ -5470,6 +5470,12 @@
       <c r="AI74">
         <v>1171039</v>
       </c>
+      <c r="AL74" s="2">
+        <v>44135</v>
+      </c>
+      <c r="AM74">
+        <v>13795.35</v>
+      </c>
       <c r="AP74" s="2">
         <v>39386</v>
       </c>
@@ -10144,7 +10150,7 @@
         <v>43708</v>
       </c>
       <c r="K150">
-        <v>1093020000</v>
+        <v>2282710000</v>
       </c>
       <c r="N150" s="2">
         <v>41698</v>
@@ -10826,7 +10832,7 @@
         <v>44043</v>
       </c>
       <c r="K161">
-        <v>2518600000</v>
+        <v>2600430000</v>
       </c>
       <c r="N161" s="2">
         <v>42035</v>
@@ -10884,6 +10890,12 @@
       <c r="G162">
         <v>8560000000</v>
       </c>
+      <c r="J162" s="2">
+        <v>44074</v>
+      </c>
+      <c r="K162">
+        <v>806600000</v>
+      </c>
       <c r="N162" s="2">
         <v>42063</v>
       </c>
@@ -14512,6 +14524,18 @@
       </c>
     </row>
     <row r="227" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B227" s="2">
+        <v>44043</v>
+      </c>
+      <c r="C227">
+        <v>25057000000</v>
+      </c>
+      <c r="F227" s="2">
+        <v>44074</v>
+      </c>
+      <c r="G227">
+        <v>12030000000</v>
+      </c>
       <c r="N227" s="2">
         <v>44043</v>
       </c>
@@ -14552,7 +14576,7 @@
         <v>44043</v>
       </c>
       <c r="AQ227">
-        <v>23.045000000000002</v>
+        <v>23.024999999999999</v>
       </c>
     </row>
     <row r="228" spans="2:43" x14ac:dyDescent="0.3">
@@ -14574,17 +14598,29 @@
       <c r="W228">
         <v>56</v>
       </c>
+      <c r="Z228" s="2">
+        <v>44074</v>
+      </c>
+      <c r="AA228">
+        <v>56.9</v>
+      </c>
       <c r="AD228" s="2">
         <v>44074</v>
       </c>
       <c r="AE228">
         <v>55.2</v>
       </c>
+      <c r="AH228" s="2">
+        <v>44074</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
       <c r="AP228" s="2">
         <v>44074</v>
       </c>
       <c r="AQ228">
-        <v>23.73</v>
+        <v>23.98</v>
       </c>
     </row>
     <row r="229" spans="2:43" x14ac:dyDescent="0.3">
@@ -14592,21 +14628,57 @@
         <v>44104</v>
       </c>
       <c r="O229">
-        <v>1471</v>
+        <v>1725</v>
+      </c>
+      <c r="R229" s="2">
+        <v>44104</v>
+      </c>
+      <c r="S229">
+        <v>704</v>
+      </c>
+      <c r="V229" s="2">
+        <v>44104</v>
+      </c>
+      <c r="W229">
+        <v>55.4</v>
+      </c>
+      <c r="Z229" s="2">
+        <v>44104</v>
+      </c>
+      <c r="AA229">
+        <v>57.8</v>
+      </c>
+      <c r="AD229" s="2">
+        <v>44104</v>
+      </c>
+      <c r="AE229">
+        <v>55.9</v>
       </c>
       <c r="AP229" s="2">
         <v>44104</v>
       </c>
       <c r="AQ229">
-        <v>23.74</v>
+        <v>23.95</v>
       </c>
     </row>
     <row r="230" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="N230" s="2">
+        <v>44135</v>
+      </c>
+      <c r="O230">
+        <v>2071</v>
+      </c>
+      <c r="R230" s="2">
+        <v>44135</v>
+      </c>
+      <c r="S230">
+        <v>715</v>
+      </c>
       <c r="AP230" s="2">
         <v>44135</v>
       </c>
       <c r="AQ230">
-        <v>24.6</v>
+        <v>24.59</v>
       </c>
     </row>
     <row r="231" spans="2:43" x14ac:dyDescent="0.3">
@@ -14614,7 +14686,7 @@
         <v>44165</v>
       </c>
       <c r="AQ231">
-        <v>25.71</v>
+        <v>25.69</v>
       </c>
     </row>
     <row r="232" spans="2:43" x14ac:dyDescent="0.3">
@@ -14622,7 +14694,7 @@
         <v>44196</v>
       </c>
       <c r="AQ232">
-        <v>26.535</v>
+        <v>26.504999999999999</v>
       </c>
     </row>
     <row r="233" spans="2:43" x14ac:dyDescent="0.3">
@@ -14646,7 +14718,7 @@
         <v>44286</v>
       </c>
       <c r="AQ235">
-        <v>28.46</v>
+        <v>28.26</v>
       </c>
     </row>
     <row r="236" spans="2:43" x14ac:dyDescent="0.3">
@@ -14654,7 +14726,7 @@
         <v>44316</v>
       </c>
       <c r="AQ236">
-        <v>29.574999999999999</v>
+        <v>29.175000000000001</v>
       </c>
     </row>
     <row r="237" spans="2:43" x14ac:dyDescent="0.3">
@@ -14662,7 +14734,7 @@
         <v>44347</v>
       </c>
       <c r="AQ237">
-        <v>29.661826000000001</v>
+        <v>29.261825999999999</v>
       </c>
     </row>
     <row r="238" spans="2:43" x14ac:dyDescent="0.3">
@@ -14670,7 +14742,7 @@
         <v>44377</v>
       </c>
       <c r="AQ238">
-        <v>29.650486000000001</v>
+        <v>29.250485999999999</v>
       </c>
     </row>
     <row r="239" spans="2:43" x14ac:dyDescent="0.3">
@@ -14678,7 +14750,7 @@
         <v>44408</v>
       </c>
       <c r="AQ239">
-        <v>29.699145999999999</v>
+        <v>29.299146</v>
       </c>
     </row>
     <row r="240" spans="2:43" x14ac:dyDescent="0.3">
@@ -14686,7 +14758,7 @@
         <v>44439</v>
       </c>
       <c r="AQ240">
-        <v>29.707806000000001</v>
+        <v>29.307805999999999</v>
       </c>
     </row>
     <row r="241" spans="42:43" x14ac:dyDescent="0.3">
@@ -14694,7 +14766,7 @@
         <v>44469</v>
       </c>
       <c r="AQ241">
-        <v>29.716464999999999</v>
+        <v>29.316465000000001</v>
       </c>
     </row>
     <row r="242" spans="42:43" x14ac:dyDescent="0.3">
@@ -14702,7 +14774,7 @@
         <v>44500</v>
       </c>
       <c r="AQ242">
-        <v>29.725124999999998</v>
+        <v>29.325125</v>
       </c>
     </row>
     <row r="243" spans="42:43" x14ac:dyDescent="0.3">
@@ -14710,7 +14782,7 @@
         <v>44530</v>
       </c>
       <c r="AQ243">
-        <v>29.733785000000001</v>
+        <v>29.333784999999999</v>
       </c>
     </row>
     <row r="244" spans="42:43" x14ac:dyDescent="0.3">
@@ -14718,7 +14790,7 @@
         <v>44561</v>
       </c>
       <c r="AQ244">
-        <v>29.722443999999999</v>
+        <v>29.322444000000001</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Eikon.xlsx
+++ b/helper/Eikon.xlsx
@@ -159,70 +159,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 18:16:28</v>
+        <v>Updated at 12:03:13</v>
         <stp/>
-        <stp>{489200D7-B90B-49BA-814B-26C958E09F98}_x0000_</stp>
+        <stp>{1B1C3A74-D50C-462B-9D12-47D8E44BAA43}_x0000_</stp>
+        <tr r="AK3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:03:14</v>
+        <stp/>
+        <stp>{B9BA6245-81B0-457C-BFAB-CFAF0850D407}_x0000_</stp>
+        <tr r="Y3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:03:14</v>
+        <stp/>
+        <stp>{6CDF3B86-F3EC-4AC5-8509-DBD5EAABF1D8}_x0000_</stp>
+        <tr r="AC3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:03:14</v>
+        <stp/>
+        <stp>{B9E17866-665F-4982-8210-D6A7D75857F3}_x0000_</stp>
         <tr r="AO3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:16:28</v>
+        <v>Updated at 12:03:13</v>
         <stp/>
-        <stp>{74A1C46F-60B1-4D6E-B1A3-8492DED12827}_x0000_</stp>
+        <stp>{47102A40-06B5-4A76-892B-E80E49EEC694}_x0000_</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:03:13</v>
+        <stp/>
+        <stp>{B456A10A-A14A-4911-9AC5-6FEDBBA03149}_x0000_</stp>
         <tr r="Q3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:16:28</v>
+        <v>Updated at 12:03:12</v>
         <stp/>
-        <stp>{8961B8C6-45E5-457F-8302-EB48E7A5F6CD}_x0000_</stp>
+        <stp>{CE273B56-5A80-478A-B98F-BA5F4F562222}_x0000_</stp>
+        <tr r="U3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:03:13</v>
+        <stp/>
+        <stp>{F4BBBF19-CCB9-4CE0-885D-83423C8C061B}_x0000_</stp>
         <tr r="I3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:16:28</v>
+        <v>Updated at 12:03:13</v>
         <stp/>
-        <stp>{33D0FE24-F1AE-4A22-B1B4-0FCC5F459F06}_x0000_</stp>
+        <stp>{D26E879D-1F40-4368-A41B-1690833504E0}_x0000_</stp>
         <tr r="A3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:16:28</v>
+        <v>Updated at 12:03:14</v>
         <stp/>
-        <stp>{A6B8AF68-F684-4A5E-AED7-94DA8D79887A}_x0000_</stp>
-        <tr r="AK3" s="2"/>
+        <stp>{FB5D6E62-9BE9-4828-8442-C95ACA894DE6}_x0000_</stp>
+        <tr r="E3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:16:27</v>
+        <v>The time series server does not have enough resources to complete the request for: aTHTOURIAR</v>
         <stp/>
-        <stp>{221A24B6-647A-4B02-8806-CD15473EDE8F}_x0000_</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:16:28</v>
-        <stp/>
-        <stp>{8A8102EA-9E2E-4E19-B07F-102949069F0A}_x0000_</stp>
-        <tr r="AC3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:16:28</v>
-        <stp/>
-        <stp>{9BB751B4-6A82-40E4-9CBD-EFEB02C43A21}_x0000_</stp>
+        <stp>{238EAF94-1F9C-4425-8ECC-2CF262B605C9}_x0000_</stp>
         <tr r="AG3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:16:27</v>
-        <stp/>
-        <stp>{9616861C-2101-4557-B85E-6B66ADF7A7DF}_x0000_</stp>
-        <tr r="U3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:16:28</v>
-        <stp/>
-        <stp>{9B2D2A78-4599-4F98-912C-DBA2BF2A8E98}_x0000_</stp>
-        <tr r="Y3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:16:28</v>
-        <stp/>
-        <stp>{D75695FF-A729-4B57-A1C6-565179E75658}_x0000_</stp>
-        <tr r="E3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -612,47 +612,47 @@
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>_xll.RHistory(C2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",B4)</f>
-        <v>Updated at 18:16:28</v>
+        <v>Updated at 12:03:13</v>
       </c>
       <c r="E3" t="str">
         <f>_xll.RHistory(G2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",F4)</f>
-        <v>Updated at 18:16:28</v>
+        <v>Updated at 12:03:14</v>
       </c>
       <c r="I3" t="str">
         <f>_xll.RHistory(K2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",J4)</f>
-        <v>Updated at 18:16:28</v>
+        <v>Updated at 12:03:13</v>
       </c>
       <c r="M3" t="str">
         <f>_xll.RHistory(O2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",N4)</f>
-        <v>Updated at 18:16:27</v>
+        <v>Updated at 12:03:13</v>
       </c>
       <c r="Q3" t="str">
         <f>_xll.RHistory(S2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",R4)</f>
-        <v>Updated at 18:16:28</v>
+        <v>Updated at 12:03:13</v>
       </c>
       <c r="U3" t="str">
         <f>_xll.RHistory(W2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",V4)</f>
-        <v>Updated at 18:16:27</v>
+        <v>Updated at 12:03:12</v>
       </c>
       <c r="Y3" t="str">
         <f>_xll.RHistory(AA2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",Z4)</f>
-        <v>Updated at 18:16:28</v>
+        <v>Updated at 12:03:14</v>
       </c>
       <c r="AC3" t="str">
         <f>_xll.RHistory(AE2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AD4)</f>
-        <v>Updated at 18:16:28</v>
+        <v>Updated at 12:03:14</v>
       </c>
       <c r="AG3" t="str">
         <f>_xll.RHistory(AI2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AH4)</f>
-        <v>Updated at 18:16:28</v>
+        <v>The time series server does not have enough resources to complete the request for: aTHTOURIAR</v>
       </c>
       <c r="AK3" t="str">
         <f>_xll.RHistory(AM2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AL4)</f>
-        <v>Updated at 18:16:28</v>
+        <v>Updated at 12:03:13</v>
       </c>
       <c r="AO3" t="str">
         <f>_xll.RHistory(AQ2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AP4)</f>
-        <v>Updated at 18:16:28</v>
+        <v>Updated at 12:03:14</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -728,7 +728,7 @@
         <v>37287</v>
       </c>
       <c r="C5">
-        <v>7879000000</v>
+        <v>7884000000</v>
       </c>
       <c r="F5" s="2">
         <v>37287</v>
@@ -796,7 +796,7 @@
         <v>37315</v>
       </c>
       <c r="C6">
-        <v>7768000000</v>
+        <v>7804000000</v>
       </c>
       <c r="F6" s="2">
         <v>37315</v>
@@ -864,7 +864,7 @@
         <v>37346</v>
       </c>
       <c r="C7">
-        <v>7720000000</v>
+        <v>7752000000</v>
       </c>
       <c r="F7" s="2">
         <v>37346</v>
@@ -932,7 +932,7 @@
         <v>37376</v>
       </c>
       <c r="C8">
-        <v>7777000000</v>
+        <v>7783000000</v>
       </c>
       <c r="F8" s="2">
         <v>37376</v>
@@ -1000,7 +1000,7 @@
         <v>37407</v>
       </c>
       <c r="C9">
-        <v>7964000000</v>
+        <v>7950000000</v>
       </c>
       <c r="F9" s="2">
         <v>37407</v>
@@ -1068,7 +1068,7 @@
         <v>37437</v>
       </c>
       <c r="C10">
-        <v>8277000000</v>
+        <v>8262000000</v>
       </c>
       <c r="F10" s="2">
         <v>37437</v>
@@ -1136,7 +1136,7 @@
         <v>37468</v>
       </c>
       <c r="C11">
-        <v>8610000000</v>
+        <v>8602000000</v>
       </c>
       <c r="F11" s="2">
         <v>37468</v>
@@ -1204,7 +1204,7 @@
         <v>37499</v>
       </c>
       <c r="C12">
-        <v>8828000000</v>
+        <v>8809000000</v>
       </c>
       <c r="F12" s="2">
         <v>37499</v>
@@ -1272,7 +1272,7 @@
         <v>37529</v>
       </c>
       <c r="C13">
-        <v>8849000000</v>
+        <v>8794000000</v>
       </c>
       <c r="F13" s="2">
         <v>37529</v>
@@ -1340,7 +1340,7 @@
         <v>37560</v>
       </c>
       <c r="C14">
-        <v>8768000000</v>
+        <v>8684000000</v>
       </c>
       <c r="F14" s="2">
         <v>37560</v>
@@ -1408,7 +1408,7 @@
         <v>37590</v>
       </c>
       <c r="C15">
-        <v>8735000000</v>
+        <v>8677000000</v>
       </c>
       <c r="F15" s="2">
         <v>37590</v>
@@ -1476,7 +1476,7 @@
         <v>37621</v>
       </c>
       <c r="C16">
-        <v>8846000000</v>
+        <v>8891000000</v>
       </c>
       <c r="F16" s="2">
         <v>37621</v>
@@ -1544,7 +1544,7 @@
         <v>37652</v>
       </c>
       <c r="C17">
-        <v>9037000000</v>
+        <v>9202000000</v>
       </c>
       <c r="F17" s="2">
         <v>37652</v>
@@ -1612,7 +1612,7 @@
         <v>37680</v>
       </c>
       <c r="C18">
-        <v>9189000000</v>
+        <v>9405000000</v>
       </c>
       <c r="F18" s="2">
         <v>37680</v>
@@ -1680,7 +1680,7 @@
         <v>37711</v>
       </c>
       <c r="C19">
-        <v>9225000000</v>
+        <v>9371000000</v>
       </c>
       <c r="F19" s="2">
         <v>37711</v>
@@ -1748,7 +1748,7 @@
         <v>37741</v>
       </c>
       <c r="C20">
-        <v>9207000000</v>
+        <v>9217000000</v>
       </c>
       <c r="F20" s="2">
         <v>37741</v>
@@ -1816,7 +1816,7 @@
         <v>37772</v>
       </c>
       <c r="C21">
-        <v>9239000000</v>
+        <v>9134000000</v>
       </c>
       <c r="F21" s="2">
         <v>37772</v>
@@ -1884,7 +1884,7 @@
         <v>37802</v>
       </c>
       <c r="C22">
-        <v>9383000000</v>
+        <v>9245000000</v>
       </c>
       <c r="F22" s="2">
         <v>37802</v>
@@ -1952,7 +1952,7 @@
         <v>37833</v>
       </c>
       <c r="C23">
-        <v>9559000000</v>
+        <v>9449000000</v>
       </c>
       <c r="F23" s="2">
         <v>37833</v>
@@ -2020,7 +2020,7 @@
         <v>37864</v>
       </c>
       <c r="C24">
-        <v>9643000000</v>
+        <v>9574000000</v>
       </c>
       <c r="F24" s="2">
         <v>37864</v>
@@ -2088,7 +2088,7 @@
         <v>37894</v>
       </c>
       <c r="C25">
-        <v>9561000000</v>
+        <v>9512000000</v>
       </c>
       <c r="F25" s="2">
         <v>37894</v>
@@ -2156,7 +2156,7 @@
         <v>37925</v>
       </c>
       <c r="C26">
-        <v>9400000000</v>
+        <v>9351000000</v>
       </c>
       <c r="F26" s="2">
         <v>37925</v>
@@ -2224,7 +2224,7 @@
         <v>37955</v>
       </c>
       <c r="C27">
-        <v>9296000000</v>
+        <v>9238000000</v>
       </c>
       <c r="F27" s="2">
         <v>37955</v>
@@ -2292,7 +2292,7 @@
         <v>37986</v>
       </c>
       <c r="C28">
-        <v>9347000000</v>
+        <v>9281000000</v>
       </c>
       <c r="F28" s="2">
         <v>37986</v>
@@ -2360,7 +2360,7 @@
         <v>38017</v>
       </c>
       <c r="C29">
-        <v>9529000000</v>
+        <v>9449000000</v>
       </c>
       <c r="F29" s="2">
         <v>38017</v>
@@ -2428,7 +2428,7 @@
         <v>38046</v>
       </c>
       <c r="C30">
-        <v>9782000000</v>
+        <v>9668000000</v>
       </c>
       <c r="F30" s="2">
         <v>38046</v>
@@ -2496,7 +2496,7 @@
         <v>38077</v>
       </c>
       <c r="C31">
-        <v>10034000000</v>
+        <v>9865000000</v>
       </c>
       <c r="F31" s="2">
         <v>38077</v>
@@ -2564,7 +2564,7 @@
         <v>38107</v>
       </c>
       <c r="C32">
-        <v>10190000000</v>
+        <v>9988000000</v>
       </c>
       <c r="F32" s="2">
         <v>38107</v>
@@ -2632,7 +2632,7 @@
         <v>38138</v>
       </c>
       <c r="C33">
-        <v>10149000000</v>
+        <v>9987000000</v>
       </c>
       <c r="F33" s="2">
         <v>38138</v>
@@ -2700,7 +2700,7 @@
         <v>38168</v>
       </c>
       <c r="C34">
-        <v>9886000000</v>
+        <v>9863000000</v>
       </c>
       <c r="F34" s="2">
         <v>38168</v>
@@ -2768,7 +2768,7 @@
         <v>38199</v>
       </c>
       <c r="C35">
-        <v>9620000000</v>
+        <v>9764000000</v>
       </c>
       <c r="F35" s="2">
         <v>38199</v>
@@ -2836,7 +2836,7 @@
         <v>38230</v>
       </c>
       <c r="C36">
-        <v>9642000000</v>
+        <v>9889000000</v>
       </c>
       <c r="F36" s="2">
         <v>38230</v>
@@ -2904,7 +2904,7 @@
         <v>38260</v>
       </c>
       <c r="C37">
-        <v>10107000000</v>
+        <v>10329000000</v>
       </c>
       <c r="F37" s="2">
         <v>38260</v>
@@ -2972,7 +2972,7 @@
         <v>38291</v>
       </c>
       <c r="C38">
-        <v>10740000000</v>
+        <v>10857000000</v>
       </c>
       <c r="F38" s="2">
         <v>38291</v>
@@ -3040,7 +3040,7 @@
         <v>38321</v>
       </c>
       <c r="C39">
-        <v>11129000000</v>
+        <v>11145000000</v>
       </c>
       <c r="F39" s="2">
         <v>38321</v>
@@ -3108,7 +3108,7 @@
         <v>38352</v>
       </c>
       <c r="C40">
-        <v>11020000000</v>
+        <v>10997000000</v>
       </c>
       <c r="F40" s="2">
         <v>38352</v>
@@ -3176,7 +3176,7 @@
         <v>38383</v>
       </c>
       <c r="C41">
-        <v>10653000000</v>
+        <v>10641000000</v>
       </c>
       <c r="F41" s="2">
         <v>38383</v>
@@ -3244,7 +3244,7 @@
         <v>38411</v>
       </c>
       <c r="C42">
-        <v>10426000000</v>
+        <v>10436000000</v>
       </c>
       <c r="F42" s="2">
         <v>38411</v>
@@ -3312,7 +3312,7 @@
         <v>38442</v>
       </c>
       <c r="C43">
-        <v>10606000000</v>
+        <v>10619000000</v>
       </c>
       <c r="F43" s="2">
         <v>38442</v>
@@ -3380,7 +3380,7 @@
         <v>38472</v>
       </c>
       <c r="C44">
-        <v>11039000000</v>
+        <v>11042000000</v>
       </c>
       <c r="F44" s="2">
         <v>38472</v>
@@ -3448,7 +3448,7 @@
         <v>38503</v>
       </c>
       <c r="C45">
-        <v>11437000000</v>
+        <v>11428000000</v>
       </c>
       <c r="F45" s="2">
         <v>38503</v>
@@ -3516,7 +3516,7 @@
         <v>38533</v>
       </c>
       <c r="C46">
-        <v>11596000000</v>
+        <v>11584000000</v>
       </c>
       <c r="F46" s="2">
         <v>38533</v>
@@ -3584,7 +3584,7 @@
         <v>38564</v>
       </c>
       <c r="C47">
-        <v>11570000000</v>
+        <v>11562000000</v>
       </c>
       <c r="F47" s="2">
         <v>38564</v>
@@ -3652,7 +3652,7 @@
         <v>38595</v>
       </c>
       <c r="C48">
-        <v>11498000000</v>
+        <v>11494000000</v>
       </c>
       <c r="F48" s="2">
         <v>38595</v>
@@ -3720,7 +3720,7 @@
         <v>38625</v>
       </c>
       <c r="C49">
-        <v>11496000000</v>
+        <v>11493000000</v>
       </c>
       <c r="F49" s="2">
         <v>38625</v>
@@ -3788,7 +3788,7 @@
         <v>38656</v>
       </c>
       <c r="C50">
-        <v>11602000000</v>
+        <v>11596000000</v>
       </c>
       <c r="F50" s="2">
         <v>38656</v>
@@ -3856,7 +3856,7 @@
         <v>38686</v>
       </c>
       <c r="C51">
-        <v>11827000000</v>
+        <v>11821000000</v>
       </c>
       <c r="F51" s="2">
         <v>38686</v>
@@ -3924,7 +3924,7 @@
         <v>38717</v>
       </c>
       <c r="C52">
-        <v>12149000000</v>
+        <v>12147000000</v>
       </c>
       <c r="F52" s="2">
         <v>38717</v>
@@ -3992,7 +3992,7 @@
         <v>38748</v>
       </c>
       <c r="C53">
-        <v>12443000000</v>
+        <v>12444000000</v>
       </c>
       <c r="F53" s="2">
         <v>38748</v>
@@ -4128,7 +4128,7 @@
         <v>38807</v>
       </c>
       <c r="C55">
-        <v>12402000000</v>
+        <v>12390000000</v>
       </c>
       <c r="F55" s="2">
         <v>38807</v>
@@ -4196,7 +4196,7 @@
         <v>38837</v>
       </c>
       <c r="C56">
-        <v>12207000000</v>
+        <v>12169000000</v>
       </c>
       <c r="F56" s="2">
         <v>38837</v>
@@ -4264,7 +4264,7 @@
         <v>38868</v>
       </c>
       <c r="C57">
-        <v>12260000000</v>
+        <v>12180000000</v>
       </c>
       <c r="F57" s="2">
         <v>38868</v>
@@ -4332,7 +4332,7 @@
         <v>38898</v>
       </c>
       <c r="C58">
-        <v>12721000000</v>
+        <v>12590000000</v>
       </c>
       <c r="F58" s="2">
         <v>38898</v>
@@ -4400,7 +4400,7 @@
         <v>38929</v>
       </c>
       <c r="C59">
-        <v>13332000000</v>
+        <v>13175000000</v>
       </c>
       <c r="F59" s="2">
         <v>38929</v>
@@ -4468,7 +4468,7 @@
         <v>38960</v>
       </c>
       <c r="C60">
-        <v>13704000000</v>
+        <v>13590000000</v>
       </c>
       <c r="F60" s="2">
         <v>38960</v>
@@ -4536,7 +4536,7 @@
         <v>38990</v>
       </c>
       <c r="C61">
-        <v>13599000000</v>
+        <v>13610000000</v>
       </c>
       <c r="F61" s="2">
         <v>38990</v>
@@ -4604,7 +4604,7 @@
         <v>39021</v>
       </c>
       <c r="C62">
-        <v>13246000000</v>
+        <v>13401000000</v>
       </c>
       <c r="F62" s="2">
         <v>39021</v>
@@ -4672,7 +4672,7 @@
         <v>39051</v>
       </c>
       <c r="C63">
-        <v>13029000000</v>
+        <v>13249000000</v>
       </c>
       <c r="F63" s="2">
         <v>39051</v>
@@ -4740,7 +4740,7 @@
         <v>39082</v>
       </c>
       <c r="C64">
-        <v>13196000000</v>
+        <v>13349000000</v>
       </c>
       <c r="F64" s="2">
         <v>39082</v>
@@ -4808,7 +4808,7 @@
         <v>39113</v>
       </c>
       <c r="C65">
-        <v>13573000000</v>
+        <v>13595000000</v>
       </c>
       <c r="F65" s="2">
         <v>39113</v>
@@ -4876,7 +4876,7 @@
         <v>39141</v>
       </c>
       <c r="C66">
-        <v>13851000000</v>
+        <v>13784000000</v>
       </c>
       <c r="F66" s="2">
         <v>39141</v>
@@ -4944,7 +4944,7 @@
         <v>39172</v>
       </c>
       <c r="C67">
-        <v>13830000000</v>
+        <v>13784000000</v>
       </c>
       <c r="F67" s="2">
         <v>39172</v>
@@ -5012,7 +5012,7 @@
         <v>39202</v>
       </c>
       <c r="C68">
-        <v>13642000000</v>
+        <v>13682000000</v>
       </c>
       <c r="F68" s="2">
         <v>39202</v>
@@ -5080,7 +5080,7 @@
         <v>39233</v>
       </c>
       <c r="C69">
-        <v>13534000000</v>
+        <v>13635000000</v>
       </c>
       <c r="F69" s="2">
         <v>39233</v>
@@ -5148,7 +5148,7 @@
         <v>39263</v>
       </c>
       <c r="C70">
-        <v>13671000000</v>
+        <v>13753000000</v>
       </c>
       <c r="F70" s="2">
         <v>39263</v>
@@ -5216,7 +5216,7 @@
         <v>39294</v>
       </c>
       <c r="C71">
-        <v>13979000000</v>
+        <v>13991000000</v>
       </c>
       <c r="F71" s="2">
         <v>39294</v>
@@ -5270,7 +5270,7 @@
         <v>44043</v>
       </c>
       <c r="AM71">
-        <v>18456.54</v>
+        <v>18406.29</v>
       </c>
       <c r="AP71" s="2">
         <v>39294</v>
@@ -5284,7 +5284,7 @@
         <v>39325</v>
       </c>
       <c r="C72">
-        <v>14304000000</v>
+        <v>14254000000</v>
       </c>
       <c r="F72" s="2">
         <v>39325</v>
@@ -5338,7 +5338,7 @@
         <v>44074</v>
       </c>
       <c r="AM72">
-        <v>18365.86</v>
+        <v>18328.13</v>
       </c>
       <c r="AP72" s="2">
         <v>39325</v>
@@ -5352,7 +5352,7 @@
         <v>39355</v>
       </c>
       <c r="C73">
-        <v>14522000000</v>
+        <v>14459000000</v>
       </c>
       <c r="F73" s="2">
         <v>39355</v>
@@ -5406,7 +5406,7 @@
         <v>44104</v>
       </c>
       <c r="AM73">
-        <v>18861.18</v>
+        <v>18713.310000000001</v>
       </c>
       <c r="AP73" s="2">
         <v>39355</v>
@@ -5420,7 +5420,7 @@
         <v>39386</v>
       </c>
       <c r="C74">
-        <v>14602000000</v>
+        <v>14565000000</v>
       </c>
       <c r="F74" s="2">
         <v>39386</v>
@@ -5474,7 +5474,7 @@
         <v>44135</v>
       </c>
       <c r="AM74">
-        <v>13795.35</v>
+        <v>16675.03</v>
       </c>
       <c r="AP74" s="2">
         <v>39386</v>
@@ -5488,7 +5488,7 @@
         <v>39416</v>
       </c>
       <c r="C75">
-        <v>14546000000</v>
+        <v>14538000000</v>
       </c>
       <c r="F75" s="2">
         <v>39416</v>
@@ -5550,7 +5550,7 @@
         <v>39447</v>
       </c>
       <c r="C76">
-        <v>14376000000</v>
+        <v>14381000000</v>
       </c>
       <c r="F76" s="2">
         <v>39447</v>
@@ -5612,7 +5612,7 @@
         <v>39478</v>
       </c>
       <c r="C77">
-        <v>14182000000</v>
+        <v>14186000000</v>
       </c>
       <c r="F77" s="2">
         <v>39478</v>
@@ -5674,7 +5674,7 @@
         <v>39507</v>
       </c>
       <c r="C78">
-        <v>14076000000</v>
+        <v>14075000000</v>
       </c>
       <c r="F78" s="2">
         <v>39507</v>
@@ -5736,7 +5736,7 @@
         <v>39538</v>
       </c>
       <c r="C79">
-        <v>14126000000</v>
+        <v>14127000000</v>
       </c>
       <c r="F79" s="2">
         <v>39538</v>
@@ -5798,7 +5798,7 @@
         <v>39568</v>
       </c>
       <c r="C80">
-        <v>14281000000</v>
+        <v>14287000000</v>
       </c>
       <c r="F80" s="2">
         <v>39568</v>
@@ -5860,7 +5860,7 @@
         <v>39599</v>
       </c>
       <c r="C81">
-        <v>14445000000</v>
+        <v>14453000000</v>
       </c>
       <c r="F81" s="2">
         <v>39599</v>
@@ -5922,7 +5922,7 @@
         <v>39629</v>
       </c>
       <c r="C82">
-        <v>14557000000</v>
+        <v>14560000000</v>
       </c>
       <c r="F82" s="2">
         <v>39629</v>
@@ -6046,7 +6046,7 @@
         <v>39691</v>
       </c>
       <c r="C84">
-        <v>14802000000</v>
+        <v>14807000000</v>
       </c>
       <c r="F84" s="2">
         <v>39691</v>
@@ -6108,7 +6108,7 @@
         <v>39721</v>
       </c>
       <c r="C85">
-        <v>15044000000</v>
+        <v>15070000000</v>
       </c>
       <c r="F85" s="2">
         <v>39721</v>
@@ -6170,7 +6170,7 @@
         <v>39752</v>
       </c>
       <c r="C86">
-        <v>15329000000</v>
+        <v>15375000000</v>
       </c>
       <c r="F86" s="2">
         <v>39752</v>
@@ -6232,7 +6232,7 @@
         <v>39782</v>
       </c>
       <c r="C87">
-        <v>15575000000</v>
+        <v>15618000000</v>
       </c>
       <c r="F87" s="2">
         <v>39782</v>
@@ -6294,7 +6294,7 @@
         <v>39813</v>
       </c>
       <c r="C88">
-        <v>15718000000</v>
+        <v>15722000000</v>
       </c>
       <c r="F88" s="2">
         <v>39813</v>
@@ -6356,7 +6356,7 @@
         <v>39844</v>
       </c>
       <c r="C89">
-        <v>15737000000</v>
+        <v>15692000000</v>
       </c>
       <c r="F89" s="2">
         <v>39844</v>
@@ -6418,7 +6418,7 @@
         <v>39872</v>
       </c>
       <c r="C90">
-        <v>15630000000</v>
+        <v>15554000000</v>
       </c>
       <c r="F90" s="2">
         <v>39872</v>
@@ -6480,7 +6480,7 @@
         <v>39903</v>
       </c>
       <c r="C91">
-        <v>15414000000</v>
+        <v>15349000000</v>
       </c>
       <c r="F91" s="2">
         <v>39903</v>
@@ -6542,7 +6542,7 @@
         <v>39933</v>
       </c>
       <c r="C92">
-        <v>15179000000</v>
+        <v>15154000000</v>
       </c>
       <c r="F92" s="2">
         <v>39933</v>
@@ -6604,7 +6604,7 @@
         <v>39964</v>
       </c>
       <c r="C93">
-        <v>15033000000</v>
+        <v>15055000000</v>
       </c>
       <c r="F93" s="2">
         <v>39964</v>
@@ -6666,7 +6666,7 @@
         <v>39994</v>
       </c>
       <c r="C94">
-        <v>15037000000</v>
+        <v>15092000000</v>
       </c>
       <c r="F94" s="2">
         <v>39994</v>
@@ -6728,7 +6728,7 @@
         <v>40025</v>
       </c>
       <c r="C95">
-        <v>15099000000</v>
+        <v>15176000000</v>
       </c>
       <c r="F95" s="2">
         <v>40025</v>
@@ -6790,7 +6790,7 @@
         <v>40056</v>
       </c>
       <c r="C96">
-        <v>15078000000</v>
+        <v>15169000000</v>
       </c>
       <c r="F96" s="2">
         <v>40056</v>
@@ -6852,7 +6852,7 @@
         <v>40086</v>
       </c>
       <c r="C97">
-        <v>14893000000</v>
+        <v>14993000000</v>
       </c>
       <c r="F97" s="2">
         <v>40086</v>
@@ -6914,7 +6914,7 @@
         <v>40117</v>
       </c>
       <c r="C98">
-        <v>14651000000</v>
+        <v>14738000000</v>
       </c>
       <c r="F98" s="2">
         <v>40117</v>
@@ -6976,7 +6976,7 @@
         <v>40147</v>
       </c>
       <c r="C99">
-        <v>14519000000</v>
+        <v>14555000000</v>
       </c>
       <c r="F99" s="2">
         <v>40147</v>
@@ -7038,7 +7038,7 @@
         <v>40178</v>
       </c>
       <c r="C100">
-        <v>14608000000</v>
+        <v>14551000000</v>
       </c>
       <c r="F100" s="2">
         <v>40178</v>
@@ -7100,7 +7100,7 @@
         <v>40209</v>
       </c>
       <c r="C101">
-        <v>14864000000</v>
+        <v>14718000000</v>
       </c>
       <c r="F101" s="2">
         <v>40209</v>
@@ -7162,7 +7162,7 @@
         <v>40237</v>
       </c>
       <c r="C102">
-        <v>15178000000</v>
+        <v>15009000000</v>
       </c>
       <c r="F102" s="2">
         <v>40237</v>
@@ -7224,7 +7224,7 @@
         <v>40268</v>
       </c>
       <c r="C103">
-        <v>15454000000</v>
+        <v>15358000000</v>
       </c>
       <c r="F103" s="2">
         <v>40268</v>
@@ -7286,7 +7286,7 @@
         <v>40298</v>
       </c>
       <c r="C104">
-        <v>15632000000</v>
+        <v>15659000000</v>
       </c>
       <c r="F104" s="2">
         <v>40298</v>
@@ -7348,7 +7348,7 @@
         <v>40329</v>
       </c>
       <c r="C105">
-        <v>15667000000</v>
+        <v>15793000000</v>
       </c>
       <c r="F105" s="2">
         <v>40329</v>
@@ -7410,7 +7410,7 @@
         <v>40359</v>
       </c>
       <c r="C106">
-        <v>15557000000</v>
+        <v>15703000000</v>
       </c>
       <c r="F106" s="2">
         <v>40359</v>
@@ -7472,7 +7472,7 @@
         <v>40390</v>
       </c>
       <c r="C107">
-        <v>15416000000</v>
+        <v>15531000000</v>
       </c>
       <c r="F107" s="2">
         <v>40390</v>
@@ -7534,7 +7534,7 @@
         <v>40421</v>
       </c>
       <c r="C108">
-        <v>15402000000</v>
+        <v>15484000000</v>
       </c>
       <c r="F108" s="2">
         <v>40421</v>
@@ -7596,7 +7596,7 @@
         <v>40451</v>
       </c>
       <c r="C109">
-        <v>15602000000</v>
+        <v>15683000000</v>
       </c>
       <c r="F109" s="2">
         <v>40451</v>
@@ -7658,7 +7658,7 @@
         <v>40482</v>
       </c>
       <c r="C110">
-        <v>15901000000</v>
+        <v>16004000000</v>
       </c>
       <c r="F110" s="2">
         <v>40482</v>
@@ -7720,7 +7720,7 @@
         <v>40512</v>
       </c>
       <c r="C111">
-        <v>16114000000</v>
+        <v>16237000000</v>
       </c>
       <c r="F111" s="2">
         <v>40512</v>
@@ -7782,7 +7782,7 @@
         <v>40543</v>
       </c>
       <c r="C112">
-        <v>16136000000</v>
+        <v>16256000000</v>
       </c>
       <c r="F112" s="2">
         <v>40543</v>
@@ -7844,7 +7844,7 @@
         <v>40574</v>
       </c>
       <c r="C113">
-        <v>16091000000</v>
+        <v>16183000000</v>
       </c>
       <c r="F113" s="2">
         <v>40574</v>
@@ -7906,7 +7906,7 @@
         <v>40602</v>
       </c>
       <c r="C114">
-        <v>16181000000</v>
+        <v>16225000000</v>
       </c>
       <c r="F114" s="2">
         <v>40602</v>
@@ -7968,7 +7968,7 @@
         <v>40633</v>
       </c>
       <c r="C115">
-        <v>16534000000</v>
+        <v>16521000000</v>
       </c>
       <c r="F115" s="2">
         <v>40633</v>
@@ -8030,7 +8030,7 @@
         <v>40663</v>
       </c>
       <c r="C116">
-        <v>17047000000</v>
+        <v>17002000000</v>
       </c>
       <c r="F116" s="2">
         <v>40663</v>
@@ -8092,7 +8092,7 @@
         <v>40694</v>
       </c>
       <c r="C117">
-        <v>17548000000</v>
+        <v>17533000000</v>
       </c>
       <c r="F117" s="2">
         <v>40694</v>
@@ -8154,7 +8154,7 @@
         <v>40724</v>
       </c>
       <c r="C118">
-        <v>17893000000</v>
+        <v>17986000000</v>
       </c>
       <c r="F118" s="2">
         <v>40724</v>
@@ -8216,7 +8216,7 @@
         <v>40755</v>
       </c>
       <c r="C119">
-        <v>18049000000</v>
+        <v>18253000000</v>
       </c>
       <c r="F119" s="2">
         <v>40755</v>
@@ -8278,7 +8278,7 @@
         <v>40786</v>
       </c>
       <c r="C120">
-        <v>18019000000</v>
+        <v>18239000000</v>
       </c>
       <c r="F120" s="2">
         <v>40786</v>
@@ -8340,7 +8340,7 @@
         <v>40816</v>
       </c>
       <c r="C121">
-        <v>17833000000</v>
+        <v>17922000000</v>
       </c>
       <c r="F121" s="2">
         <v>40816</v>
@@ -8402,7 +8402,7 @@
         <v>40847</v>
       </c>
       <c r="C122">
-        <v>17618000000</v>
+        <v>17510000000</v>
       </c>
       <c r="F122" s="2">
         <v>40847</v>
@@ -8464,7 +8464,7 @@
         <v>40877</v>
       </c>
       <c r="C123">
-        <v>17527000000</v>
+        <v>17290000000</v>
       </c>
       <c r="F123" s="2">
         <v>40877</v>
@@ -8526,7 +8526,7 @@
         <v>40908</v>
       </c>
       <c r="C124">
-        <v>17643000000</v>
+        <v>17429000000</v>
       </c>
       <c r="F124" s="2">
         <v>40908</v>
@@ -8588,7 +8588,7 @@
         <v>40939</v>
       </c>
       <c r="C125">
-        <v>17841000000</v>
+        <v>17750000000</v>
       </c>
       <c r="F125" s="2">
         <v>40939</v>
@@ -8650,7 +8650,7 @@
         <v>40968</v>
       </c>
       <c r="C126">
-        <v>17923000000</v>
+        <v>17959000000</v>
       </c>
       <c r="F126" s="2">
         <v>40968</v>
@@ -8712,7 +8712,7 @@
         <v>40999</v>
       </c>
       <c r="C127">
-        <v>17780000000</v>
+        <v>17871000000</v>
       </c>
       <c r="F127" s="2">
         <v>40999</v>
@@ -8774,7 +8774,7 @@
         <v>41029</v>
       </c>
       <c r="C128">
-        <v>17559000000</v>
+        <v>17641000000</v>
       </c>
       <c r="F128" s="2">
         <v>41029</v>
@@ -8836,7 +8836,7 @@
         <v>41060</v>
       </c>
       <c r="C129">
-        <v>17495000000</v>
+        <v>17530000000</v>
       </c>
       <c r="F129" s="2">
         <v>41060</v>
@@ -8898,7 +8898,7 @@
         <v>41090</v>
       </c>
       <c r="C130">
-        <v>17720000000</v>
+        <v>17699000000</v>
       </c>
       <c r="F130" s="2">
         <v>41090</v>
@@ -8960,7 +8960,7 @@
         <v>41121</v>
       </c>
       <c r="C131">
-        <v>18061000000</v>
+        <v>17996000000</v>
       </c>
       <c r="F131" s="2">
         <v>41121</v>
@@ -9022,7 +9022,7 @@
         <v>41152</v>
       </c>
       <c r="C132">
-        <v>18242000000</v>
+        <v>18172000000</v>
       </c>
       <c r="F132" s="2">
         <v>41152</v>
@@ -9084,7 +9084,7 @@
         <v>41182</v>
       </c>
       <c r="C133">
-        <v>18111000000</v>
+        <v>18080000000</v>
       </c>
       <c r="F133" s="2">
         <v>41182</v>
@@ -9146,7 +9146,7 @@
         <v>41213</v>
       </c>
       <c r="C134">
-        <v>17881000000</v>
+        <v>17906000000</v>
       </c>
       <c r="F134" s="2">
         <v>41213</v>
@@ -9208,7 +9208,7 @@
         <v>41243</v>
       </c>
       <c r="C135">
-        <v>17890000000</v>
+        <v>17944000000</v>
       </c>
       <c r="F135" s="2">
         <v>41243</v>
@@ -9270,7 +9270,7 @@
         <v>41274</v>
       </c>
       <c r="C136">
-        <v>18337000000</v>
+        <v>18367000000</v>
       </c>
       <c r="F136" s="2">
         <v>41274</v>
@@ -9332,7 +9332,7 @@
         <v>41305</v>
       </c>
       <c r="C137">
-        <v>19012000000</v>
+        <v>18993000000</v>
       </c>
       <c r="F137" s="2">
         <v>41305</v>
@@ -9394,7 +9394,7 @@
         <v>41333</v>
       </c>
       <c r="C138">
-        <v>19569000000</v>
+        <v>19522000000</v>
       </c>
       <c r="F138" s="2">
         <v>41333</v>
@@ -9456,7 +9456,7 @@
         <v>41364</v>
       </c>
       <c r="C139">
-        <v>19774000000</v>
+        <v>19745000000</v>
       </c>
       <c r="F139" s="2">
         <v>41364</v>
@@ -9518,7 +9518,7 @@
         <v>41394</v>
       </c>
       <c r="C140">
-        <v>19726000000</v>
+        <v>19736000000</v>
       </c>
       <c r="F140" s="2">
         <v>41394</v>
@@ -9580,7 +9580,7 @@
         <v>41425</v>
       </c>
       <c r="C141">
-        <v>19639000000</v>
+        <v>19659000000</v>
       </c>
       <c r="F141" s="2">
         <v>41425</v>
@@ -9642,7 +9642,7 @@
         <v>41455</v>
       </c>
       <c r="C142">
-        <v>19654000000</v>
+        <v>19627000000</v>
       </c>
       <c r="F142" s="2">
         <v>41455</v>
@@ -9704,7 +9704,7 @@
         <v>41486</v>
       </c>
       <c r="C143">
-        <v>19701000000</v>
+        <v>19595000000</v>
       </c>
       <c r="F143" s="2">
         <v>41486</v>
@@ -9766,7 +9766,7 @@
         <v>41517</v>
       </c>
       <c r="C144">
-        <v>19640000000</v>
+        <v>19468000000</v>
       </c>
       <c r="F144" s="2">
         <v>41517</v>
@@ -9828,7 +9828,7 @@
         <v>41547</v>
       </c>
       <c r="C145">
-        <v>19390000000</v>
+        <v>19198000000</v>
       </c>
       <c r="F145" s="2">
         <v>41547</v>
@@ -9890,7 +9890,7 @@
         <v>41578</v>
       </c>
       <c r="C146">
-        <v>19056000000</v>
+        <v>18892000000</v>
       </c>
       <c r="F146" s="2">
         <v>41578</v>
@@ -9952,7 +9952,7 @@
         <v>41608</v>
       </c>
       <c r="C147">
-        <v>18802000000</v>
+        <v>18706000000</v>
       </c>
       <c r="F147" s="2">
         <v>41608</v>
@@ -10014,7 +10014,7 @@
         <v>41639</v>
       </c>
       <c r="C148">
-        <v>18741000000</v>
+        <v>18739000000</v>
       </c>
       <c r="F148" s="2">
         <v>41639</v>
@@ -10076,7 +10076,7 @@
         <v>41670</v>
       </c>
       <c r="C149">
-        <v>18832000000</v>
+        <v>18916000000</v>
       </c>
       <c r="F149" s="2">
         <v>41670</v>
@@ -10138,7 +10138,7 @@
         <v>41698</v>
       </c>
       <c r="C150">
-        <v>18981000000</v>
+        <v>19104000000</v>
       </c>
       <c r="F150" s="2">
         <v>41698</v>
@@ -10200,7 +10200,7 @@
         <v>41729</v>
       </c>
       <c r="C151">
-        <v>19117000000</v>
+        <v>19206000000</v>
       </c>
       <c r="F151" s="2">
         <v>41729</v>
@@ -10212,7 +10212,7 @@
         <v>43738</v>
       </c>
       <c r="K151">
-        <v>1513320000</v>
+        <v>1822460000</v>
       </c>
       <c r="N151" s="2">
         <v>41729</v>
@@ -10262,7 +10262,7 @@
         <v>41759</v>
       </c>
       <c r="C152">
-        <v>19246000000</v>
+        <v>19250000000</v>
       </c>
       <c r="F152" s="2">
         <v>41759</v>
@@ -10324,7 +10324,7 @@
         <v>41790</v>
       </c>
       <c r="C153">
-        <v>19398000000</v>
+        <v>19300000000</v>
       </c>
       <c r="F153" s="2">
         <v>41790</v>
@@ -10386,7 +10386,7 @@
         <v>41820</v>
       </c>
       <c r="C154">
-        <v>19598000000</v>
+        <v>19412000000</v>
       </c>
       <c r="F154" s="2">
         <v>41820</v>
@@ -10448,7 +10448,7 @@
         <v>41851</v>
       </c>
       <c r="C155">
-        <v>19865000000</v>
+        <v>19601000000</v>
       </c>
       <c r="F155" s="2">
         <v>41851</v>
@@ -10510,7 +10510,7 @@
         <v>41882</v>
       </c>
       <c r="C156">
-        <v>20213000000</v>
+        <v>19875000000</v>
       </c>
       <c r="F156" s="2">
         <v>41882</v>
@@ -10572,7 +10572,7 @@
         <v>41912</v>
       </c>
       <c r="C157">
-        <v>20618000000</v>
+        <v>20207000000</v>
       </c>
       <c r="F157" s="2">
         <v>41912</v>
@@ -10634,7 +10634,7 @@
         <v>41943</v>
       </c>
       <c r="C158">
-        <v>20944000000</v>
+        <v>20483000000</v>
       </c>
       <c r="F158" s="2">
         <v>41943</v>
@@ -10696,7 +10696,7 @@
         <v>41973</v>
       </c>
       <c r="C159">
-        <v>21023000000</v>
+        <v>20557000000</v>
       </c>
       <c r="F159" s="2">
         <v>41973</v>
@@ -10758,7 +10758,7 @@
         <v>42004</v>
       </c>
       <c r="C160">
-        <v>20771000000</v>
+        <v>20360000000</v>
       </c>
       <c r="F160" s="2">
         <v>42004</v>
@@ -10820,7 +10820,7 @@
         <v>42035</v>
       </c>
       <c r="C161">
-        <v>20379000000</v>
+        <v>20061000000</v>
       </c>
       <c r="F161" s="2">
         <v>42035</v>
@@ -10882,7 +10882,7 @@
         <v>42063</v>
       </c>
       <c r="C162">
-        <v>20125000000</v>
+        <v>19901000000</v>
       </c>
       <c r="F162" s="2">
         <v>42063</v>
@@ -10894,7 +10894,7 @@
         <v>44074</v>
       </c>
       <c r="K162">
-        <v>806600000</v>
+        <v>1069599999.9999999</v>
       </c>
       <c r="N162" s="2">
         <v>42063</v>
@@ -10944,13 +10944,19 @@
         <v>42094</v>
       </c>
       <c r="C163">
-        <v>20177000000</v>
+        <v>20017000000</v>
       </c>
       <c r="F163" s="2">
         <v>42094</v>
       </c>
       <c r="G163">
         <v>12400000000</v>
+      </c>
+      <c r="J163" s="2">
+        <v>44104</v>
+      </c>
+      <c r="K163">
+        <v>1539430000</v>
       </c>
       <c r="N163" s="2">
         <v>42094</v>
@@ -11000,7 +11006,7 @@
         <v>42124</v>
       </c>
       <c r="C164">
-        <v>20352000000</v>
+        <v>20217000000</v>
       </c>
       <c r="F164" s="2">
         <v>42124</v>
@@ -11056,7 +11062,7 @@
         <v>42155</v>
       </c>
       <c r="C165">
-        <v>20357000000</v>
+        <v>20206000000</v>
       </c>
       <c r="F165" s="2">
         <v>42155</v>
@@ -11112,7 +11118,7 @@
         <v>42185</v>
       </c>
       <c r="C166">
-        <v>20035000000</v>
+        <v>19830000000</v>
       </c>
       <c r="F166" s="2">
         <v>42185</v>
@@ -11168,7 +11174,7 @@
         <v>42216</v>
       </c>
       <c r="C167">
-        <v>19633000000</v>
+        <v>19378000000</v>
       </c>
       <c r="F167" s="2">
         <v>42216</v>
@@ -11224,7 +11230,7 @@
         <v>42247</v>
       </c>
       <c r="C168">
-        <v>19536000000</v>
+        <v>19282000000</v>
       </c>
       <c r="F168" s="2">
         <v>42247</v>
@@ -11280,7 +11286,7 @@
         <v>42277</v>
       </c>
       <c r="C169">
-        <v>19972000000</v>
+        <v>19790000000</v>
       </c>
       <c r="F169" s="2">
         <v>42277</v>
@@ -11336,7 +11342,7 @@
         <v>42308</v>
       </c>
       <c r="C170">
-        <v>20694000000</v>
+        <v>20587000000</v>
       </c>
       <c r="F170" s="2">
         <v>42308</v>
@@ -11392,7 +11398,7 @@
         <v>42338</v>
       </c>
       <c r="C171">
-        <v>21304000000</v>
+        <v>21175000000</v>
       </c>
       <c r="F171" s="2">
         <v>42338</v>
@@ -11448,7 +11454,7 @@
         <v>42369</v>
       </c>
       <c r="C172">
-        <v>21525000000</v>
+        <v>21233000000</v>
       </c>
       <c r="F172" s="2">
         <v>42369</v>
@@ -11504,7 +11510,7 @@
         <v>42400</v>
       </c>
       <c r="C173">
-        <v>21476000000</v>
+        <v>20972000000</v>
       </c>
       <c r="F173" s="2">
         <v>42400</v>
@@ -11560,7 +11566,7 @@
         <v>42429</v>
       </c>
       <c r="C174">
-        <v>21400000000</v>
+        <v>20778000000</v>
       </c>
       <c r="F174" s="2">
         <v>42429</v>
@@ -11616,7 +11622,7 @@
         <v>42460</v>
       </c>
       <c r="C175">
-        <v>21473000000</v>
+        <v>20918000000</v>
       </c>
       <c r="F175" s="2">
         <v>42460</v>
@@ -11672,7 +11678,7 @@
         <v>42490</v>
       </c>
       <c r="C176">
-        <v>21654000000</v>
+        <v>21279000000</v>
       </c>
       <c r="F176" s="2">
         <v>42490</v>
@@ -11728,7 +11734,7 @@
         <v>42521</v>
       </c>
       <c r="C177">
-        <v>21834000000</v>
+        <v>21626000000</v>
       </c>
       <c r="F177" s="2">
         <v>42521</v>
@@ -11784,7 +11790,7 @@
         <v>42551</v>
       </c>
       <c r="C178">
-        <v>21956000000</v>
+        <v>21809000000</v>
       </c>
       <c r="F178" s="2">
         <v>42551</v>
@@ -11840,7 +11846,7 @@
         <v>42582</v>
       </c>
       <c r="C179">
-        <v>22120000000</v>
+        <v>21949000000</v>
       </c>
       <c r="F179" s="2">
         <v>42582</v>
@@ -11896,7 +11902,7 @@
         <v>42613</v>
       </c>
       <c r="C180">
-        <v>22478000000</v>
+        <v>22250000000</v>
       </c>
       <c r="F180" s="2">
         <v>42613</v>
@@ -11952,7 +11958,7 @@
         <v>42643</v>
       </c>
       <c r="C181">
-        <v>23092000000</v>
+        <v>22821000000</v>
       </c>
       <c r="F181" s="2">
         <v>42643</v>
@@ -12008,7 +12014,7 @@
         <v>42674</v>
       </c>
       <c r="C182">
-        <v>23756000000</v>
+        <v>23468000000</v>
       </c>
       <c r="F182" s="2">
         <v>42674</v>
@@ -12064,7 +12070,7 @@
         <v>42704</v>
       </c>
       <c r="C183">
-        <v>24173000000</v>
+        <v>23898000000</v>
       </c>
       <c r="F183" s="2">
         <v>42704</v>
@@ -12120,7 +12126,7 @@
         <v>42735</v>
       </c>
       <c r="C184">
-        <v>24165000000</v>
+        <v>23925000000</v>
       </c>
       <c r="F184" s="2">
         <v>42735</v>
@@ -12176,7 +12182,7 @@
         <v>42766</v>
       </c>
       <c r="C185">
-        <v>23903000000</v>
+        <v>23677000000</v>
       </c>
       <c r="F185" s="2">
         <v>42766</v>
@@ -12232,7 +12238,7 @@
         <v>42794</v>
       </c>
       <c r="C186">
-        <v>23678000000</v>
+        <v>23393000000</v>
       </c>
       <c r="F186" s="2">
         <v>42794</v>
@@ -12288,7 +12294,7 @@
         <v>42825</v>
       </c>
       <c r="C187">
-        <v>23698000000</v>
+        <v>23262000000</v>
       </c>
       <c r="F187" s="2">
         <v>42825</v>
@@ -12344,7 +12350,7 @@
         <v>42855</v>
       </c>
       <c r="C188">
-        <v>23933000000</v>
+        <v>23340000000</v>
       </c>
       <c r="F188" s="2">
         <v>42855</v>
@@ -12400,7 +12406,7 @@
         <v>42886</v>
       </c>
       <c r="C189">
-        <v>24266000000</v>
+        <v>23635000000</v>
       </c>
       <c r="F189" s="2">
         <v>42886</v>
@@ -12456,7 +12462,7 @@
         <v>42916</v>
       </c>
       <c r="C190">
-        <v>24592000000</v>
+        <v>24101000000</v>
       </c>
       <c r="F190" s="2">
         <v>42916</v>
@@ -12512,7 +12518,7 @@
         <v>42947</v>
       </c>
       <c r="C191">
-        <v>24826000000</v>
+        <v>24527000000</v>
       </c>
       <c r="F191" s="2">
         <v>42947</v>
@@ -12568,7 +12574,7 @@
         <v>42978</v>
       </c>
       <c r="C192">
-        <v>24890000000</v>
+        <v>24646000000</v>
       </c>
       <c r="F192" s="2">
         <v>42978</v>
@@ -12624,7 +12630,7 @@
         <v>43008</v>
       </c>
       <c r="C193">
-        <v>24751000000</v>
+        <v>24334000000</v>
       </c>
       <c r="F193" s="2">
         <v>43008</v>
@@ -12680,7 +12686,7 @@
         <v>43039</v>
       </c>
       <c r="C194">
-        <v>24511000000</v>
+        <v>23884000000</v>
       </c>
       <c r="F194" s="2">
         <v>43039</v>
@@ -12736,7 +12742,7 @@
         <v>43069</v>
       </c>
       <c r="C195">
-        <v>24314000000</v>
+        <v>23729000000</v>
       </c>
       <c r="F195" s="2">
         <v>43069</v>
@@ -12792,7 +12798,7 @@
         <v>43100</v>
       </c>
       <c r="C196">
-        <v>24257000000</v>
+        <v>24132000000</v>
       </c>
       <c r="F196" s="2">
         <v>43100</v>
@@ -12848,7 +12854,7 @@
         <v>43131</v>
       </c>
       <c r="C197">
-        <v>24622000000</v>
+        <v>24841000000</v>
       </c>
       <c r="F197" s="2">
         <v>43131</v>
@@ -12904,7 +12910,7 @@
         <v>43159</v>
       </c>
       <c r="C198">
-        <v>24854000000</v>
+        <v>25436000000</v>
       </c>
       <c r="F198" s="2">
         <v>43159</v>
@@ -12960,7 +12966,7 @@
         <v>43190</v>
       </c>
       <c r="C199">
-        <v>24947000000</v>
+        <v>25625000000</v>
       </c>
       <c r="F199" s="2">
         <v>43190</v>
@@ -13016,7 +13022,7 @@
         <v>43220</v>
       </c>
       <c r="C200">
-        <v>24956000000</v>
+        <v>25516000000</v>
       </c>
       <c r="F200" s="2">
         <v>43220</v>
@@ -13072,7 +13078,7 @@
         <v>43251</v>
       </c>
       <c r="C201">
-        <v>24990000000</v>
+        <v>25342000000</v>
       </c>
       <c r="F201" s="2">
         <v>43251</v>
@@ -13128,7 +13134,7 @@
         <v>43281</v>
       </c>
       <c r="C202">
-        <v>25133000000</v>
+        <v>25302000000</v>
       </c>
       <c r="F202" s="2">
         <v>43281</v>
@@ -13184,7 +13190,7 @@
         <v>43312</v>
       </c>
       <c r="C203">
-        <v>25390000000</v>
+        <v>25469000000</v>
       </c>
       <c r="F203" s="2">
         <v>43312</v>
@@ -13240,7 +13246,7 @@
         <v>43343</v>
       </c>
       <c r="C204">
-        <v>25738000000</v>
+        <v>25871000000</v>
       </c>
       <c r="F204" s="2">
         <v>43343</v>
@@ -13296,7 +13302,7 @@
         <v>43373</v>
       </c>
       <c r="C205">
-        <v>26139000000</v>
+        <v>26466000000</v>
       </c>
       <c r="F205" s="2">
         <v>43373</v>
@@ -13352,7 +13358,7 @@
         <v>43404</v>
       </c>
       <c r="C206">
-        <v>26513000000</v>
+        <v>26979000000</v>
       </c>
       <c r="F206" s="2">
         <v>43404</v>
@@ -13408,7 +13414,7 @@
         <v>43434</v>
       </c>
       <c r="C207">
-        <v>26766000000</v>
+        <v>27067000000</v>
       </c>
       <c r="F207" s="2">
         <v>43434</v>
@@ -13464,7 +13470,7 @@
         <v>43465</v>
       </c>
       <c r="C208">
-        <v>26822000000</v>
+        <v>26555000000</v>
       </c>
       <c r="F208" s="2">
         <v>43465</v>
@@ -13520,7 +13526,7 @@
         <v>43496</v>
       </c>
       <c r="C209">
-        <v>26558000000</v>
+        <v>25800000000</v>
       </c>
       <c r="F209" s="2">
         <v>43496</v>
@@ -13576,7 +13582,7 @@
         <v>43524</v>
       </c>
       <c r="C210">
-        <v>26412000000</v>
+        <v>25330000000</v>
       </c>
       <c r="F210" s="2">
         <v>43524</v>
@@ -13632,7 +13638,7 @@
         <v>43555</v>
       </c>
       <c r="C211">
-        <v>26438000000</v>
+        <v>25498000000</v>
       </c>
       <c r="F211" s="2">
         <v>43555</v>
@@ -13688,7 +13694,7 @@
         <v>43585</v>
       </c>
       <c r="C212">
-        <v>26616000000</v>
+        <v>26133000000</v>
       </c>
       <c r="F212" s="2">
         <v>43585</v>
@@ -13744,7 +13750,7 @@
         <v>43616</v>
       </c>
       <c r="C213">
-        <v>26876000000</v>
+        <v>26890000000</v>
       </c>
       <c r="F213" s="2">
         <v>43616</v>
@@ -13800,7 +13806,7 @@
         <v>43646</v>
       </c>
       <c r="C214">
-        <v>27165000000</v>
+        <v>27464000000</v>
       </c>
       <c r="F214" s="2">
         <v>43646</v>
@@ -13856,7 +13862,7 @@
         <v>43677</v>
       </c>
       <c r="C215">
-        <v>27497000000</v>
+        <v>27694000000</v>
       </c>
       <c r="F215" s="2">
         <v>43677</v>
@@ -13912,7 +13918,7 @@
         <v>43708</v>
       </c>
       <c r="C216">
-        <v>27901000000</v>
+        <v>27463000000</v>
       </c>
       <c r="F216" s="2">
         <v>43708</v>
@@ -13968,7 +13974,7 @@
         <v>43738</v>
       </c>
       <c r="C217">
-        <v>28341000000</v>
+        <v>26790000000</v>
       </c>
       <c r="F217" s="2">
         <v>43738</v>
@@ -14024,7 +14030,7 @@
         <v>43769</v>
       </c>
       <c r="C218">
-        <v>28559000000</v>
+        <v>26099000000</v>
       </c>
       <c r="F218" s="2">
         <v>43769</v>
@@ -14080,7 +14086,7 @@
         <v>43799</v>
       </c>
       <c r="C219">
-        <v>28234000000</v>
+        <v>25948000000</v>
       </c>
       <c r="F219" s="2">
         <v>43799</v>
@@ -14136,7 +14142,7 @@
         <v>43830</v>
       </c>
       <c r="C220">
-        <v>27245000000</v>
+        <v>26565000000</v>
       </c>
       <c r="F220" s="2">
         <v>43861</v>
@@ -14192,7 +14198,7 @@
         <v>43861</v>
       </c>
       <c r="C221">
-        <v>28529000000</v>
+        <v>29024000000</v>
       </c>
       <c r="F221" s="2">
         <v>43890</v>
@@ -14248,7 +14254,7 @@
         <v>43890</v>
       </c>
       <c r="C222">
-        <v>27079000000</v>
+        <v>27546000000</v>
       </c>
       <c r="F222" s="2">
         <v>43921</v>
@@ -14304,7 +14310,7 @@
         <v>43921</v>
       </c>
       <c r="C223">
-        <v>21669000000</v>
+        <v>22043000000</v>
       </c>
       <c r="F223" s="2">
         <v>43951</v>
@@ -14360,7 +14366,7 @@
         <v>43951</v>
       </c>
       <c r="C224">
-        <v>20340000000</v>
+        <v>20841000000</v>
       </c>
       <c r="F224" s="2">
         <v>43982</v>
@@ -14416,7 +14422,7 @@
         <v>43982</v>
       </c>
       <c r="C225">
-        <v>20017000000</v>
+        <v>20511000000</v>
       </c>
       <c r="F225" s="2">
         <v>44012</v>
@@ -14472,7 +14478,7 @@
         <v>44012</v>
       </c>
       <c r="C226">
-        <v>24215000000</v>
+        <v>24811000000</v>
       </c>
       <c r="F226" s="2">
         <v>44043</v>
@@ -14528,7 +14534,7 @@
         <v>44043</v>
       </c>
       <c r="C227">
-        <v>25057000000</v>
+        <v>24912000000</v>
       </c>
       <c r="F227" s="2">
         <v>44074</v>
@@ -14576,10 +14582,22 @@
         <v>44043</v>
       </c>
       <c r="AQ227">
-        <v>23.024999999999999</v>
+        <v>22.975000000000001</v>
       </c>
     </row>
     <row r="228" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B228" s="2">
+        <v>44074</v>
+      </c>
+      <c r="C228">
+        <v>25579000000</v>
+      </c>
+      <c r="F228" s="2">
+        <v>44104</v>
+      </c>
+      <c r="G228">
+        <v>14250000000</v>
+      </c>
       <c r="N228" s="2">
         <v>44074</v>
       </c>
@@ -14620,7 +14638,7 @@
         <v>44074</v>
       </c>
       <c r="AQ228">
-        <v>23.98</v>
+        <v>23.94</v>
       </c>
     </row>
     <row r="229" spans="2:43" x14ac:dyDescent="0.3">
@@ -14658,7 +14676,7 @@
         <v>44104</v>
       </c>
       <c r="AQ229">
-        <v>23.95</v>
+        <v>24.015000000000001</v>
       </c>
     </row>
     <row r="230" spans="2:43" x14ac:dyDescent="0.3">
@@ -14666,19 +14684,19 @@
         <v>44135</v>
       </c>
       <c r="O230">
-        <v>2071</v>
+        <v>1350</v>
       </c>
       <c r="R230" s="2">
         <v>44135</v>
       </c>
       <c r="S230">
-        <v>715</v>
+        <v>784</v>
       </c>
       <c r="AP230" s="2">
         <v>44135</v>
       </c>
       <c r="AQ230">
-        <v>24.59</v>
+        <v>24.75</v>
       </c>
     </row>
     <row r="231" spans="2:43" x14ac:dyDescent="0.3">
@@ -14686,7 +14704,7 @@
         <v>44165</v>
       </c>
       <c r="AQ231">
-        <v>25.69</v>
+        <v>25.79</v>
       </c>
     </row>
     <row r="232" spans="2:43" x14ac:dyDescent="0.3">
@@ -14702,7 +14720,7 @@
         <v>44227</v>
       </c>
       <c r="AQ233">
-        <v>27.86</v>
+        <v>27.56</v>
       </c>
     </row>
     <row r="234" spans="2:43" x14ac:dyDescent="0.3">
@@ -14710,7 +14728,7 @@
         <v>44255</v>
       </c>
       <c r="AQ234">
-        <v>28.16</v>
+        <v>27.86</v>
       </c>
     </row>
     <row r="235" spans="2:43" x14ac:dyDescent="0.3">
@@ -14718,7 +14736,7 @@
         <v>44286</v>
       </c>
       <c r="AQ235">
-        <v>28.26</v>
+        <v>27.96</v>
       </c>
     </row>
     <row r="236" spans="2:43" x14ac:dyDescent="0.3">
@@ -14726,7 +14744,7 @@
         <v>44316</v>
       </c>
       <c r="AQ236">
-        <v>29.175000000000001</v>
+        <v>28.875</v>
       </c>
     </row>
     <row r="237" spans="2:43" x14ac:dyDescent="0.3">
@@ -14734,7 +14752,7 @@
         <v>44347</v>
       </c>
       <c r="AQ237">
-        <v>29.261825999999999</v>
+        <v>28.961825999999999</v>
       </c>
     </row>
     <row r="238" spans="2:43" x14ac:dyDescent="0.3">
@@ -14742,7 +14760,7 @@
         <v>44377</v>
       </c>
       <c r="AQ238">
-        <v>29.250485999999999</v>
+        <v>29.050485999999999</v>
       </c>
     </row>
     <row r="239" spans="2:43" x14ac:dyDescent="0.3">
@@ -14750,7 +14768,7 @@
         <v>44408</v>
       </c>
       <c r="AQ239">
-        <v>29.299146</v>
+        <v>29.099146000000001</v>
       </c>
     </row>
     <row r="240" spans="2:43" x14ac:dyDescent="0.3">
@@ -14758,7 +14776,7 @@
         <v>44439</v>
       </c>
       <c r="AQ240">
-        <v>29.307805999999999</v>
+        <v>29.107806</v>
       </c>
     </row>
     <row r="241" spans="42:43" x14ac:dyDescent="0.3">
@@ -14766,7 +14784,7 @@
         <v>44469</v>
       </c>
       <c r="AQ241">
-        <v>29.316465000000001</v>
+        <v>29.116465000000002</v>
       </c>
     </row>
     <row r="242" spans="42:43" x14ac:dyDescent="0.3">
@@ -14774,7 +14792,7 @@
         <v>44500</v>
       </c>
       <c r="AQ242">
-        <v>29.325125</v>
+        <v>29.125125000000001</v>
       </c>
     </row>
     <row r="243" spans="42:43" x14ac:dyDescent="0.3">
@@ -14782,7 +14800,7 @@
         <v>44530</v>
       </c>
       <c r="AQ243">
-        <v>29.333784999999999</v>
+        <v>29.133785</v>
       </c>
     </row>
     <row r="244" spans="42:43" x14ac:dyDescent="0.3">
@@ -14790,7 +14808,7 @@
         <v>44561</v>
       </c>
       <c r="AQ244">
-        <v>29.322444000000001</v>
+        <v>29.122444000000002</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Eikon.xlsx
+++ b/helper/Eikon.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\C\Users\Nour.Barnat\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maystre\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B928CEF9-13F4-423C-8400-7A830CD8B9EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="312" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Eikon" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="TRNR_45b48680f2074c1e847365beb09c7c6c_25_1" hidden="1">Eikon!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -88,7 +90,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,70 +161,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 12:03:13</v>
+        <v>Updated at 12:16:57</v>
         <stp/>
-        <stp>{1B1C3A74-D50C-462B-9D12-47D8E44BAA43}_x0000_</stp>
+        <stp>{1820C474-B27F-4DD8-A817-3024F662DD60}_x0000_</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:16:50</v>
+        <stp/>
+        <stp>{69BA9DCE-BE0F-4A47-BFEB-42FC75EB1369}_x0000_</stp>
+        <tr r="AG3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:16:51</v>
+        <stp/>
+        <stp>{C9DD2D8C-F9CB-4069-9E94-6CBD2C41B963}_x0000_</stp>
+        <tr r="AO3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:16:52</v>
+        <stp/>
+        <stp>{60F6AA2E-298A-4F87-B5CA-9C5F229FB9D8}_x0000_</stp>
         <tr r="AK3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:03:14</v>
+        <v>Updated at 12:16:51</v>
         <stp/>
-        <stp>{B9BA6245-81B0-457C-BFAB-CFAF0850D407}_x0000_</stp>
+        <stp>{8CB438A2-F1AD-476F-B968-1D9C081A3F1A}_x0000_</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:16:51</v>
+        <stp/>
+        <stp>{F4621E88-E37E-4E91-8512-BF4FA171BEDD}_x0000_</stp>
+        <tr r="AC3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 12:16:50</v>
+        <stp/>
+        <stp>{A8D534AA-2CAE-4478-A3A1-CEC53648AB71}_x0000_</stp>
         <tr r="Y3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:03:14</v>
+        <v>Updated at 12:16:57</v>
         <stp/>
-        <stp>{6CDF3B86-F3EC-4AC5-8509-DBD5EAABF1D8}_x0000_</stp>
-        <tr r="AC3" s="2"/>
+        <stp>{A89C752C-32A2-42DF-857C-E524A4AA78DA}_x0000_</stp>
+        <tr r="E3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:03:14</v>
+        <v>Updated at 12:16:51</v>
         <stp/>
-        <stp>{B9E17866-665F-4982-8210-D6A7D75857F3}_x0000_</stp>
-        <tr r="AO3" s="2"/>
+        <stp>{4BDF656C-7285-41C8-B641-4EB2ECBDC2DF}_x0000_</stp>
+        <tr r="I3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:03:13</v>
+        <v>Updated at 12:16:57</v>
         <stp/>
-        <stp>{47102A40-06B5-4A76-892B-E80E49EEC694}_x0000_</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:03:13</v>
-        <stp/>
-        <stp>{B456A10A-A14A-4911-9AC5-6FEDBBA03149}_x0000_</stp>
-        <tr r="Q3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:03:12</v>
-        <stp/>
-        <stp>{CE273B56-5A80-478A-B98F-BA5F4F562222}_x0000_</stp>
+        <stp>{B8667DD7-E6E7-4E3D-B30F-E338FA110BE3}_x0000_</stp>
         <tr r="U3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:03:13</v>
+        <v>Updated at 12:16:49</v>
         <stp/>
-        <stp>{F4BBBF19-CCB9-4CE0-885D-83423C8C061B}_x0000_</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:03:13</v>
-        <stp/>
-        <stp>{D26E879D-1F40-4368-A41B-1690833504E0}_x0000_</stp>
-        <tr r="A3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:03:14</v>
-        <stp/>
-        <stp>{FB5D6E62-9BE9-4828-8442-C95ACA894DE6}_x0000_</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>The time series server does not have enough resources to complete the request for: aTHTOURIAR</v>
-        <stp/>
-        <stp>{238EAF94-1F9C-4425-8ECC-2CF262B605C9}_x0000_</stp>
-        <tr r="AG3" s="2"/>
+        <stp>{BAF8C946-5F7E-40B7-A0C0-6454CD3A1C4E}_x0000_</stp>
+        <tr r="Q3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -525,33 +527,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.109375" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.44140625" customWidth="1"/>
-    <col min="22" max="22" width="11.109375" customWidth="1"/>
-    <col min="25" max="27" width="12.6640625" customWidth="1"/>
-    <col min="29" max="31" width="12.6640625" customWidth="1"/>
-    <col min="33" max="35" width="12.6640625" customWidth="1"/>
-    <col min="37" max="39" width="12.6640625" customWidth="1"/>
-    <col min="41" max="43" width="12.6640625" customWidth="1"/>
+    <col min="1" max="3" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
+    <col min="25" max="27" width="12.7109375" customWidth="1"/>
+    <col min="29" max="31" width="12.7109375" customWidth="1"/>
+    <col min="33" max="35" width="12.7109375" customWidth="1"/>
+    <col min="37" max="39" width="12.7109375" customWidth="1"/>
+    <col min="41" max="43" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="M1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -573,7 +575,7 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -609,53 +611,53 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>_xll.RHistory(C2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",B4)</f>
-        <v>Updated at 12:03:13</v>
+        <v>Updated at 12:16:57</v>
       </c>
       <c r="E3" t="str">
         <f>_xll.RHistory(G2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",F4)</f>
-        <v>Updated at 12:03:14</v>
+        <v>Updated at 12:16:57</v>
       </c>
       <c r="I3" t="str">
         <f>_xll.RHistory(K2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",J4)</f>
-        <v>Updated at 12:03:13</v>
+        <v>Updated at 12:16:51</v>
       </c>
       <c r="M3" t="str">
         <f>_xll.RHistory(O2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",N4)</f>
-        <v>Updated at 12:03:13</v>
+        <v>Updated at 12:16:51</v>
       </c>
       <c r="Q3" t="str">
         <f>_xll.RHistory(S2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",R4)</f>
-        <v>Updated at 12:03:13</v>
+        <v>Updated at 12:16:49</v>
       </c>
       <c r="U3" t="str">
         <f>_xll.RHistory(W2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",V4)</f>
-        <v>Updated at 12:03:12</v>
+        <v>Updated at 12:16:57</v>
       </c>
       <c r="Y3" t="str">
         <f>_xll.RHistory(AA2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",Z4)</f>
-        <v>Updated at 12:03:14</v>
+        <v>Updated at 12:16:50</v>
       </c>
       <c r="AC3" t="str">
         <f>_xll.RHistory(AE2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AD4)</f>
-        <v>Updated at 12:03:14</v>
+        <v>Updated at 12:16:51</v>
       </c>
       <c r="AG3" t="str">
         <f>_xll.RHistory(AI2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AH4)</f>
-        <v>The time series server does not have enough resources to complete the request for: aTHTOURIAR</v>
+        <v>Updated at 12:16:50</v>
       </c>
       <c r="AK3" t="str">
         <f>_xll.RHistory(AM2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AL4)</f>
-        <v>Updated at 12:03:13</v>
+        <v>Updated at 12:16:52</v>
       </c>
       <c r="AO3" t="str">
         <f>_xll.RHistory(AQ2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AP4)</f>
-        <v>Updated at 12:03:14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+        <v>Updated at 12:16:51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -723,7 +725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>37287</v>
       </c>
@@ -791,7 +793,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>37315</v>
       </c>
@@ -859,7 +861,7 @@
         <v>27.82</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>37346</v>
       </c>
@@ -927,7 +929,7 @@
         <v>27.01</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>37376</v>
       </c>
@@ -995,7 +997,7 @@
         <v>26.97</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>37407</v>
       </c>
@@ -1063,7 +1065,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>37437</v>
       </c>
@@ -1131,7 +1133,7 @@
         <v>25.98</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>37468</v>
       </c>
@@ -1199,7 +1201,7 @@
         <v>25.47</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>37499</v>
       </c>
@@ -1267,7 +1269,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>37529</v>
       </c>
@@ -1335,7 +1337,7 @@
         <v>25.71</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>37560</v>
       </c>
@@ -1403,7 +1405,7 @@
         <v>24.51</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>37590</v>
       </c>
@@ -1471,7 +1473,7 @@
         <v>25.35</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>37621</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>25.07</v>
       </c>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>37652</v>
       </c>
@@ -1607,7 +1609,7 @@
         <v>25.65</v>
       </c>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>37680</v>
       </c>
@@ -1675,7 +1677,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>37711</v>
       </c>
@@ -1743,7 +1745,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>37741</v>
       </c>
@@ -1811,7 +1813,7 @@
         <v>27.07</v>
       </c>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>37772</v>
       </c>
@@ -1879,7 +1881,7 @@
         <v>27.14</v>
       </c>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>37802</v>
       </c>
@@ -1947,7 +1949,7 @@
         <v>25.34</v>
       </c>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>37833</v>
       </c>
@@ -2015,7 +2017,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>37864</v>
       </c>
@@ -2083,7 +2085,7 @@
         <v>27.04</v>
       </c>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>37894</v>
       </c>
@@ -2151,7 +2153,7 @@
         <v>27.66</v>
       </c>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>37925</v>
       </c>
@@ -2219,7 +2221,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>37955</v>
       </c>
@@ -2287,7 +2289,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>37986</v>
       </c>
@@ -2355,7 +2357,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>38017</v>
       </c>
@@ -2423,7 +2425,7 @@
         <v>26.46</v>
       </c>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>38046</v>
       </c>
@@ -2491,7 +2493,7 @@
         <v>26.95</v>
       </c>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>38077</v>
       </c>
@@ -2559,7 +2561,7 @@
         <v>27.39</v>
       </c>
     </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>38107</v>
       </c>
@@ -2627,7 +2629,7 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="33" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <v>38138</v>
       </c>
@@ -2695,7 +2697,7 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="34" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <v>38168</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="35" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <v>38199</v>
       </c>
@@ -2831,7 +2833,7 @@
         <v>28.98</v>
       </c>
     </row>
-    <row r="36" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <v>38230</v>
       </c>
@@ -2899,7 +2901,7 @@
         <v>28.92</v>
       </c>
     </row>
-    <row r="37" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <v>38260</v>
       </c>
@@ -2967,7 +2969,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="38" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <v>38291</v>
       </c>
@@ -3035,7 +3037,7 @@
         <v>28.77</v>
       </c>
     </row>
-    <row r="39" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <v>38321</v>
       </c>
@@ -3103,7 +3105,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="40" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B40" s="2">
         <v>38352</v>
       </c>
@@ -3171,7 +3173,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="41" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B41" s="2">
         <v>38383</v>
       </c>
@@ -3239,7 +3241,7 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="42" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B42" s="2">
         <v>38411</v>
       </c>
@@ -3307,7 +3309,7 @@
         <v>29.93</v>
       </c>
     </row>
-    <row r="43" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B43" s="2">
         <v>38442</v>
       </c>
@@ -3375,7 +3377,7 @@
         <v>30.45</v>
       </c>
     </row>
-    <row r="44" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B44" s="2">
         <v>38472</v>
       </c>
@@ -3443,7 +3445,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="45" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B45" s="2">
         <v>38503</v>
       </c>
@@ -3511,7 +3513,7 @@
         <v>29.95</v>
       </c>
     </row>
-    <row r="46" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B46" s="2">
         <v>38533</v>
       </c>
@@ -3579,7 +3581,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="47" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B47" s="2">
         <v>38564</v>
       </c>
@@ -3647,7 +3649,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="48" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B48" s="2">
         <v>38595</v>
       </c>
@@ -3715,7 +3717,7 @@
         <v>30.46</v>
       </c>
     </row>
-    <row r="49" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <v>38625</v>
       </c>
@@ -3783,7 +3785,7 @@
         <v>30.65</v>
       </c>
     </row>
-    <row r="50" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <v>38656</v>
       </c>
@@ -3851,7 +3853,7 @@
         <v>30.76</v>
       </c>
     </row>
-    <row r="51" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <v>38686</v>
       </c>
@@ -3919,7 +3921,7 @@
         <v>30.64</v>
       </c>
     </row>
-    <row r="52" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <v>38717</v>
       </c>
@@ -3987,7 +3989,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="53" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <v>38748</v>
       </c>
@@ -4055,7 +4057,7 @@
         <v>31.03</v>
       </c>
     </row>
-    <row r="54" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <v>38776</v>
       </c>
@@ -4123,7 +4125,7 @@
         <v>30.99</v>
       </c>
     </row>
-    <row r="55" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <v>38807</v>
       </c>
@@ -4191,7 +4193,7 @@
         <v>31.38</v>
       </c>
     </row>
-    <row r="56" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <v>38837</v>
       </c>
@@ -4259,7 +4261,7 @@
         <v>31.03</v>
       </c>
     </row>
-    <row r="57" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <v>38868</v>
       </c>
@@ -4327,7 +4329,7 @@
         <v>30.98</v>
       </c>
     </row>
-    <row r="58" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <v>38898</v>
       </c>
@@ -4395,7 +4397,7 @@
         <v>30.91</v>
       </c>
     </row>
-    <row r="59" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <v>38929</v>
       </c>
@@ -4463,7 +4465,7 @@
         <v>30.61</v>
       </c>
     </row>
-    <row r="60" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <v>38960</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>30.64</v>
       </c>
     </row>
-    <row r="61" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <v>38990</v>
       </c>
@@ -4599,7 +4601,7 @@
         <v>30.47</v>
       </c>
     </row>
-    <row r="62" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <v>39021</v>
       </c>
@@ -4667,7 +4669,7 @@
         <v>30.49</v>
       </c>
     </row>
-    <row r="63" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B63" s="2">
         <v>39051</v>
       </c>
@@ -4735,7 +4737,7 @@
         <v>30.17</v>
       </c>
     </row>
-    <row r="64" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B64" s="2">
         <v>39082</v>
       </c>
@@ -4803,7 +4805,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="65" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B65" s="2">
         <v>39113</v>
       </c>
@@ -4871,7 +4873,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="66" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B66" s="2">
         <v>39141</v>
       </c>
@@ -4939,7 +4941,7 @@
         <v>30.83</v>
       </c>
     </row>
-    <row r="67" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B67" s="2">
         <v>39172</v>
       </c>
@@ -5007,7 +5009,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="68" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B68" s="2">
         <v>39202</v>
       </c>
@@ -5075,7 +5077,7 @@
         <v>30.24</v>
       </c>
     </row>
-    <row r="69" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B69" s="2">
         <v>39233</v>
       </c>
@@ -5143,7 +5145,7 @@
         <v>29.86</v>
       </c>
     </row>
-    <row r="70" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <v>39263</v>
       </c>
@@ -5211,7 +5213,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="71" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <v>39294</v>
       </c>
@@ -5279,7 +5281,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="72" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <v>39325</v>
       </c>
@@ -5347,7 +5349,7 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="73" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <v>39355</v>
       </c>
@@ -5406,7 +5408,7 @@
         <v>44104</v>
       </c>
       <c r="AM73">
-        <v>18713.310000000001</v>
+        <v>18748.849999999999</v>
       </c>
       <c r="AP73" s="2">
         <v>39355</v>
@@ -5415,7 +5417,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="74" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <v>39386</v>
       </c>
@@ -5474,7 +5476,7 @@
         <v>44135</v>
       </c>
       <c r="AM74">
-        <v>16675.03</v>
+        <v>17116.93</v>
       </c>
       <c r="AP74" s="2">
         <v>39386</v>
@@ -5483,7 +5485,7 @@
         <v>29.82</v>
       </c>
     </row>
-    <row r="75" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <v>39416</v>
       </c>
@@ -5545,7 +5547,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="76" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <v>39447</v>
       </c>
@@ -5607,7 +5609,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="77" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <v>39478</v>
       </c>
@@ -5669,7 +5671,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="78" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <v>39507</v>
       </c>
@@ -5731,7 +5733,7 @@
         <v>29.76</v>
       </c>
     </row>
-    <row r="79" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <v>39538</v>
       </c>
@@ -5793,7 +5795,7 @@
         <v>30.41</v>
       </c>
     </row>
-    <row r="80" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <v>39568</v>
       </c>
@@ -5855,7 +5857,7 @@
         <v>30.59</v>
       </c>
     </row>
-    <row r="81" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <v>39599</v>
       </c>
@@ -5917,7 +5919,7 @@
         <v>30.44</v>
       </c>
     </row>
-    <row r="82" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <v>39629</v>
       </c>
@@ -5979,7 +5981,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="83" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <v>39660</v>
       </c>
@@ -6041,7 +6043,7 @@
         <v>31.08</v>
       </c>
     </row>
-    <row r="84" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B84" s="2">
         <v>39691</v>
       </c>
@@ -6103,7 +6105,7 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="85" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <v>39721</v>
       </c>
@@ -6165,7 +6167,7 @@
         <v>31.36</v>
       </c>
     </row>
-    <row r="86" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <v>39752</v>
       </c>
@@ -6227,7 +6229,7 @@
         <v>31.07</v>
       </c>
     </row>
-    <row r="87" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <v>39782</v>
       </c>
@@ -6289,7 +6291,7 @@
         <v>31.42</v>
       </c>
     </row>
-    <row r="88" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B88" s="2">
         <v>39813</v>
       </c>
@@ -6351,7 +6353,7 @@
         <v>31.49</v>
       </c>
     </row>
-    <row r="89" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B89" s="2">
         <v>39844</v>
       </c>
@@ -6413,7 +6415,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="90" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B90" s="2">
         <v>39872</v>
       </c>
@@ -6475,7 +6477,7 @@
         <v>31.67</v>
       </c>
     </row>
-    <row r="91" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B91" s="2">
         <v>39903</v>
       </c>
@@ -6537,7 +6539,7 @@
         <v>31.36</v>
       </c>
     </row>
-    <row r="92" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B92" s="2">
         <v>39933</v>
       </c>
@@ -6599,7 +6601,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="93" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B93" s="2">
         <v>39964</v>
       </c>
@@ -6661,7 +6663,7 @@
         <v>30.69</v>
       </c>
     </row>
-    <row r="94" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B94" s="2">
         <v>39994</v>
       </c>
@@ -6723,7 +6725,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="95" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B95" s="2">
         <v>40025</v>
       </c>
@@ -6785,7 +6787,7 @@
         <v>29.08</v>
       </c>
     </row>
-    <row r="96" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B96" s="2">
         <v>40056</v>
       </c>
@@ -6847,7 +6849,7 @@
         <v>28.92</v>
       </c>
     </row>
-    <row r="97" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B97" s="2">
         <v>40086</v>
       </c>
@@ -6909,7 +6911,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="98" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B98" s="2">
         <v>40117</v>
       </c>
@@ -6971,7 +6973,7 @@
         <v>28.96</v>
       </c>
     </row>
-    <row r="99" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B99" s="2">
         <v>40147</v>
       </c>
@@ -7033,7 +7035,7 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="100" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B100" s="2">
         <v>40178</v>
       </c>
@@ -7095,7 +7097,7 @@
         <v>29.06</v>
       </c>
     </row>
-    <row r="101" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B101" s="2">
         <v>40209</v>
       </c>
@@ -7157,7 +7159,7 @@
         <v>29.29</v>
       </c>
     </row>
-    <row r="102" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B102" s="2">
         <v>40237</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="103" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B103" s="2">
         <v>40268</v>
       </c>
@@ -7281,7 +7283,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="104" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B104" s="2">
         <v>40298</v>
       </c>
@@ -7343,7 +7345,7 @@
         <v>29.44</v>
       </c>
     </row>
-    <row r="105" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B105" s="2">
         <v>40329</v>
       </c>
@@ -7405,7 +7407,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="106" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B106" s="2">
         <v>40359</v>
       </c>
@@ -7467,7 +7469,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="107" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B107" s="2">
         <v>40390</v>
       </c>
@@ -7529,7 +7531,7 @@
         <v>29.44</v>
       </c>
     </row>
-    <row r="108" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B108" s="2">
         <v>40421</v>
       </c>
@@ -7591,7 +7593,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="109" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B109" s="2">
         <v>40451</v>
       </c>
@@ -7653,7 +7655,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="110" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B110" s="2">
         <v>40482</v>
       </c>
@@ -7715,7 +7717,7 @@
         <v>29.81</v>
       </c>
     </row>
-    <row r="111" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B111" s="2">
         <v>40512</v>
       </c>
@@ -7777,7 +7779,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="112" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B112" s="2">
         <v>40543</v>
       </c>
@@ -7839,7 +7841,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="113" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B113" s="2">
         <v>40574</v>
       </c>
@@ -7901,7 +7903,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="114" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B114" s="2">
         <v>40602</v>
       </c>
@@ -7963,7 +7965,7 @@
         <v>30.31</v>
       </c>
     </row>
-    <row r="115" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B115" s="2">
         <v>40633</v>
       </c>
@@ -8025,7 +8027,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="116" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B116" s="2">
         <v>40663</v>
       </c>
@@ -8087,7 +8089,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="117" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B117" s="2">
         <v>40694</v>
       </c>
@@ -8149,7 +8151,7 @@
         <v>29.93</v>
       </c>
     </row>
-    <row r="118" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B118" s="2">
         <v>40724</v>
       </c>
@@ -8211,7 +8213,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="119" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B119" s="2">
         <v>40755</v>
       </c>
@@ -8273,7 +8275,7 @@
         <v>30.55</v>
       </c>
     </row>
-    <row r="120" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B120" s="2">
         <v>40786</v>
       </c>
@@ -8335,7 +8337,7 @@
         <v>30.08</v>
       </c>
     </row>
-    <row r="121" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B121" s="2">
         <v>40816</v>
       </c>
@@ -8397,7 +8399,7 @@
         <v>28.87</v>
       </c>
     </row>
-    <row r="122" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B122" s="2">
         <v>40847</v>
       </c>
@@ -8459,7 +8461,7 @@
         <v>28.92</v>
       </c>
     </row>
-    <row r="123" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B123" s="2">
         <v>40877</v>
       </c>
@@ -8521,7 +8523,7 @@
         <v>29.01</v>
       </c>
     </row>
-    <row r="124" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B124" s="2">
         <v>40908</v>
       </c>
@@ -8583,7 +8585,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="125" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B125" s="2">
         <v>40939</v>
       </c>
@@ -8645,7 +8647,7 @@
         <v>29.93</v>
       </c>
     </row>
-    <row r="126" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B126" s="2">
         <v>40968</v>
       </c>
@@ -8707,7 +8709,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="127" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B127" s="2">
         <v>40999</v>
       </c>
@@ -8769,7 +8771,7 @@
         <v>30.09</v>
       </c>
     </row>
-    <row r="128" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B128" s="2">
         <v>41029</v>
       </c>
@@ -8831,7 +8833,7 @@
         <v>29.77</v>
       </c>
     </row>
-    <row r="129" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B129" s="2">
         <v>41060</v>
       </c>
@@ -8893,7 +8895,7 @@
         <v>30.63</v>
       </c>
     </row>
-    <row r="130" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B130" s="2">
         <v>41090</v>
       </c>
@@ -8955,7 +8957,7 @@
         <v>30.61</v>
       </c>
     </row>
-    <row r="131" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B131" s="2">
         <v>41121</v>
       </c>
@@ -9017,7 +9019,7 @@
         <v>30.82</v>
       </c>
     </row>
-    <row r="132" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B132" s="2">
         <v>41152</v>
       </c>
@@ -9079,7 +9081,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="133" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B133" s="2">
         <v>41182</v>
       </c>
@@ -9141,7 +9143,7 @@
         <v>31.32</v>
       </c>
     </row>
-    <row r="134" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B134" s="2">
         <v>41213</v>
       </c>
@@ -9203,7 +9205,7 @@
         <v>31.56</v>
       </c>
     </row>
-    <row r="135" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B135" s="2">
         <v>41243</v>
       </c>
@@ -9265,7 +9267,7 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="136" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B136" s="2">
         <v>41274</v>
       </c>
@@ -9327,7 +9329,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="137" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B137" s="2">
         <v>41305</v>
       </c>
@@ -9389,7 +9391,7 @@
         <v>31.14</v>
       </c>
     </row>
-    <row r="138" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B138" s="2">
         <v>41333</v>
       </c>
@@ -9451,7 +9453,7 @@
         <v>31.32</v>
       </c>
     </row>
-    <row r="139" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B139" s="2">
         <v>41364</v>
       </c>
@@ -9513,7 +9515,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="140" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B140" s="2">
         <v>41394</v>
       </c>
@@ -9575,7 +9577,7 @@
         <v>30.65</v>
       </c>
     </row>
-    <row r="141" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B141" s="2">
         <v>41425</v>
       </c>
@@ -9637,7 +9639,7 @@
         <v>30.57</v>
       </c>
     </row>
-    <row r="142" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B142" s="2">
         <v>41455</v>
       </c>
@@ -9699,7 +9701,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="143" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B143" s="2">
         <v>41486</v>
       </c>
@@ -9761,7 +9763,7 @@
         <v>29.91</v>
       </c>
     </row>
-    <row r="144" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B144" s="2">
         <v>41517</v>
       </c>
@@ -9823,7 +9825,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="145" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B145" s="2">
         <v>41547</v>
       </c>
@@ -9885,7 +9887,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="146" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B146" s="2">
         <v>41578</v>
       </c>
@@ -9947,7 +9949,7 @@
         <v>30.42</v>
       </c>
     </row>
-    <row r="147" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B147" s="2">
         <v>41608</v>
       </c>
@@ -10009,7 +10011,7 @@
         <v>30.39</v>
       </c>
     </row>
-    <row r="148" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B148" s="2">
         <v>41639</v>
       </c>
@@ -10071,7 +10073,7 @@
         <v>30.28</v>
       </c>
     </row>
-    <row r="149" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B149" s="2">
         <v>41670</v>
       </c>
@@ -10133,7 +10135,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="150" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B150" s="2">
         <v>41698</v>
       </c>
@@ -10195,7 +10197,7 @@
         <v>30.47</v>
       </c>
     </row>
-    <row r="151" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B151" s="2">
         <v>41729</v>
       </c>
@@ -10257,7 +10259,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="152" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B152" s="2">
         <v>41759</v>
       </c>
@@ -10319,7 +10321,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="153" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B153" s="2">
         <v>41790</v>
       </c>
@@ -10381,7 +10383,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="154" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B154" s="2">
         <v>41820</v>
       </c>
@@ -10443,7 +10445,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="155" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B155" s="2">
         <v>41851</v>
       </c>
@@ -10505,7 +10507,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="156" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B156" s="2">
         <v>41882</v>
       </c>
@@ -10567,7 +10569,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="157" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B157" s="2">
         <v>41912</v>
       </c>
@@ -10629,7 +10631,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="158" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B158" s="2">
         <v>41943</v>
       </c>
@@ -10691,7 +10693,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="159" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B159" s="2">
         <v>41973</v>
       </c>
@@ -10753,7 +10755,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="160" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B160" s="2">
         <v>42004</v>
       </c>
@@ -10815,7 +10817,7 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="161" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B161" s="2">
         <v>42035</v>
       </c>
@@ -10877,7 +10879,7 @@
         <v>30.064392999999999</v>
       </c>
     </row>
-    <row r="162" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B162" s="2">
         <v>42063</v>
       </c>
@@ -10939,7 +10941,7 @@
         <v>29.958182000000001</v>
       </c>
     </row>
-    <row r="163" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B163" s="2">
         <v>42094</v>
       </c>
@@ -11001,7 +11003,7 @@
         <v>30.790761</v>
       </c>
     </row>
-    <row r="164" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B164" s="2">
         <v>42124</v>
       </c>
@@ -11057,7 +11059,7 @@
         <v>30.939561999999999</v>
       </c>
     </row>
-    <row r="165" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B165" s="2">
         <v>42155</v>
       </c>
@@ -11113,7 +11115,7 @@
         <v>31.184722000000001</v>
       </c>
     </row>
-    <row r="166" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B166" s="2">
         <v>42185</v>
       </c>
@@ -11169,7 +11171,7 @@
         <v>31.633790999999999</v>
       </c>
     </row>
-    <row r="167" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B167" s="2">
         <v>42216</v>
       </c>
@@ -11225,7 +11227,7 @@
         <v>31.838521</v>
       </c>
     </row>
-    <row r="168" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B168" s="2">
         <v>42247</v>
       </c>
@@ -11281,7 +11283,7 @@
         <v>31.624684999999999</v>
       </c>
     </row>
-    <row r="169" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B169" s="2">
         <v>42277</v>
       </c>
@@ -11337,7 +11339,7 @@
         <v>31.755617999999998</v>
       </c>
     </row>
-    <row r="170" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B170" s="2">
         <v>42308</v>
       </c>
@@ -11393,7 +11395,7 @@
         <v>31.529555999999999</v>
       </c>
     </row>
-    <row r="171" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B171" s="2">
         <v>42338</v>
       </c>
@@ -11449,7 +11451,7 @@
         <v>31.653449999999999</v>
       </c>
     </row>
-    <row r="172" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B172" s="2">
         <v>42369</v>
       </c>
@@ -11505,7 +11507,7 @@
         <v>31.637356</v>
       </c>
     </row>
-    <row r="173" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B173" s="2">
         <v>42400</v>
       </c>
@@ -11561,7 +11563,7 @@
         <v>31.489542</v>
       </c>
     </row>
-    <row r="174" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B174" s="2">
         <v>42429</v>
       </c>
@@ -11617,7 +11619,7 @@
         <v>31.065529999999999</v>
       </c>
     </row>
-    <row r="175" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B175" s="2">
         <v>42460</v>
       </c>
@@ -11673,7 +11675,7 @@
         <v>31.159545000000001</v>
       </c>
     </row>
-    <row r="176" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B176" s="2">
         <v>42490</v>
       </c>
@@ -11729,7 +11731,7 @@
         <v>31.266058000000001</v>
       </c>
     </row>
-    <row r="177" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B177" s="2">
         <v>42521</v>
       </c>
@@ -11785,7 +11787,7 @@
         <v>31.291350999999999</v>
       </c>
     </row>
-    <row r="178" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B178" s="2">
         <v>42551</v>
       </c>
@@ -11841,7 +11843,7 @@
         <v>31.725463000000001</v>
       </c>
     </row>
-    <row r="179" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B179" s="2">
         <v>42582</v>
       </c>
@@ -11897,7 +11899,7 @@
         <v>31.809995000000001</v>
       </c>
     </row>
-    <row r="180" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B180" s="2">
         <v>42613</v>
       </c>
@@ -11953,7 +11955,7 @@
         <v>31.683743</v>
       </c>
     </row>
-    <row r="181" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B181" s="2">
         <v>42643</v>
       </c>
@@ -12009,7 +12011,7 @@
         <v>31.735520000000001</v>
       </c>
     </row>
-    <row r="182" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B182" s="2">
         <v>42674</v>
       </c>
@@ -12065,7 +12067,7 @@
         <v>31.999327000000001</v>
       </c>
     </row>
-    <row r="183" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B183" s="2">
         <v>42704</v>
       </c>
@@ -12121,7 +12123,7 @@
         <v>32.391314999999999</v>
       </c>
     </row>
-    <row r="184" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B184" s="2">
         <v>42735</v>
       </c>
@@ -12177,7 +12179,7 @@
         <v>32.249707999999998</v>
       </c>
     </row>
-    <row r="185" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B185" s="2">
         <v>42766</v>
       </c>
@@ -12233,7 +12235,7 @@
         <v>31.31</v>
       </c>
     </row>
-    <row r="186" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B186" s="2">
         <v>42794</v>
       </c>
@@ -12289,7 +12291,7 @@
         <v>31.192</v>
       </c>
     </row>
-    <row r="187" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B187" s="2">
         <v>42825</v>
       </c>
@@ -12345,7 +12347,7 @@
         <v>30.815000000000001</v>
       </c>
     </row>
-    <row r="188" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B188" s="2">
         <v>42855</v>
       </c>
@@ -12401,7 +12403,7 @@
         <v>30.896000000000001</v>
       </c>
     </row>
-    <row r="189" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B189" s="2">
         <v>42886</v>
       </c>
@@ -12457,7 +12459,7 @@
         <v>31.399000000000001</v>
       </c>
     </row>
-    <row r="190" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B190" s="2">
         <v>42916</v>
       </c>
@@ -12513,7 +12515,7 @@
         <v>31.83</v>
       </c>
     </row>
-    <row r="191" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B191" s="2">
         <v>42947</v>
       </c>
@@ -12569,7 +12571,7 @@
         <v>32.049999999999997</v>
       </c>
     </row>
-    <row r="192" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B192" s="2">
         <v>42978</v>
       </c>
@@ -12625,7 +12627,7 @@
         <v>31.917000000000002</v>
       </c>
     </row>
-    <row r="193" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B193" s="2">
         <v>43008</v>
       </c>
@@ -12681,7 +12683,7 @@
         <v>32.064999999999998</v>
       </c>
     </row>
-    <row r="194" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B194" s="2">
         <v>43039</v>
       </c>
@@ -12737,7 +12739,7 @@
         <v>31.87</v>
       </c>
     </row>
-    <row r="195" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B195" s="2">
         <v>43069</v>
       </c>
@@ -12793,7 +12795,7 @@
         <v>31.611000000000001</v>
       </c>
     </row>
-    <row r="196" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B196" s="2">
         <v>43100</v>
       </c>
@@ -12849,7 +12851,7 @@
         <v>31.477</v>
       </c>
     </row>
-    <row r="197" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B197" s="2">
         <v>43131</v>
       </c>
@@ -12905,7 +12907,7 @@
         <v>31.756</v>
       </c>
     </row>
-    <row r="198" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B198" s="2">
         <v>43159</v>
       </c>
@@ -12961,7 +12963,7 @@
         <v>31.585999999999999</v>
       </c>
     </row>
-    <row r="199" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B199" s="2">
         <v>43190</v>
       </c>
@@ -13017,7 +13019,7 @@
         <v>31.408999999999999</v>
       </c>
     </row>
-    <row r="200" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B200" s="2">
         <v>43220</v>
       </c>
@@ -13073,7 +13075,7 @@
         <v>31.343</v>
       </c>
     </row>
-    <row r="201" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B201" s="2">
         <v>43251</v>
       </c>
@@ -13129,7 +13131,7 @@
         <v>31.228000000000002</v>
       </c>
     </row>
-    <row r="202" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B202" s="2">
         <v>43281</v>
       </c>
@@ -13185,7 +13187,7 @@
         <v>31.228999999999999</v>
       </c>
     </row>
-    <row r="203" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B203" s="2">
         <v>43312</v>
       </c>
@@ -13241,7 +13243,7 @@
         <v>31.286000000000001</v>
       </c>
     </row>
-    <row r="204" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B204" s="2">
         <v>43343</v>
       </c>
@@ -13297,7 +13299,7 @@
         <v>31.53</v>
       </c>
     </row>
-    <row r="205" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B205" s="2">
         <v>43373</v>
       </c>
@@ -13353,7 +13355,7 @@
         <v>31.666</v>
       </c>
     </row>
-    <row r="206" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B206" s="2">
         <v>43404</v>
       </c>
@@ -13409,7 +13411,7 @@
         <v>31.841000000000001</v>
       </c>
     </row>
-    <row r="207" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B207" s="2">
         <v>43434</v>
       </c>
@@ -13465,7 +13467,7 @@
         <v>31.596</v>
       </c>
     </row>
-    <row r="208" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B208" s="2">
         <v>43465</v>
       </c>
@@ -13521,7 +13523,7 @@
         <v>30.815999999999999</v>
       </c>
     </row>
-    <row r="209" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B209" s="2">
         <v>43496</v>
       </c>
@@ -13577,7 +13579,7 @@
         <v>30.155999999999999</v>
       </c>
     </row>
-    <row r="210" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B210" s="2">
         <v>43524</v>
       </c>
@@ -13633,7 +13635,7 @@
         <v>30.091000000000001</v>
       </c>
     </row>
-    <row r="211" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B211" s="2">
         <v>43555</v>
       </c>
@@ -13689,7 +13691,7 @@
         <v>29.594999999999999</v>
       </c>
     </row>
-    <row r="212" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B212" s="2">
         <v>43585</v>
       </c>
@@ -13745,7 +13747,7 @@
         <v>29.655000000000001</v>
       </c>
     </row>
-    <row r="213" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B213" s="2">
         <v>43616</v>
       </c>
@@ -13801,7 +13803,7 @@
         <v>29.335000000000001</v>
       </c>
     </row>
-    <row r="214" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B214" s="2">
         <v>43646</v>
       </c>
@@ -13857,7 +13859,7 @@
         <v>29.425000000000001</v>
       </c>
     </row>
-    <row r="215" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B215" s="2">
         <v>43677</v>
       </c>
@@ -13913,7 +13915,7 @@
         <v>29.004999999999999</v>
       </c>
     </row>
-    <row r="216" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B216" s="2">
         <v>43708</v>
       </c>
@@ -13969,7 +13971,7 @@
         <v>29.245000000000001</v>
       </c>
     </row>
-    <row r="217" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B217" s="2">
         <v>43738</v>
       </c>
@@ -14025,7 +14027,7 @@
         <v>27.684999999999999</v>
       </c>
     </row>
-    <row r="218" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B218" s="2">
         <v>43769</v>
       </c>
@@ -14081,7 +14083,7 @@
         <v>29.145</v>
       </c>
     </row>
-    <row r="219" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B219" s="2">
         <v>43799</v>
       </c>
@@ -14137,7 +14139,7 @@
         <v>29.004999999999999</v>
       </c>
     </row>
-    <row r="220" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B220" s="2">
         <v>43830</v>
       </c>
@@ -14193,7 +14195,7 @@
         <v>28.905000000000001</v>
       </c>
     </row>
-    <row r="221" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B221" s="2">
         <v>43861</v>
       </c>
@@ -14249,7 +14251,7 @@
         <v>28.67</v>
       </c>
     </row>
-    <row r="222" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B222" s="2">
         <v>43890</v>
       </c>
@@ -14305,7 +14307,7 @@
         <v>28.02</v>
       </c>
     </row>
-    <row r="223" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B223" s="2">
         <v>43921</v>
       </c>
@@ -14361,7 +14363,7 @@
         <v>28.14</v>
       </c>
     </row>
-    <row r="224" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B224" s="2">
         <v>43951</v>
       </c>
@@ -14417,7 +14419,7 @@
         <v>30.324999999999999</v>
       </c>
     </row>
-    <row r="225" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B225" s="2">
         <v>43982</v>
       </c>
@@ -14473,7 +14475,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="226" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B226" s="2">
         <v>44012</v>
       </c>
@@ -14529,7 +14531,7 @@
         <v>22.35</v>
       </c>
     </row>
-    <row r="227" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B227" s="2">
         <v>44043</v>
       </c>
@@ -14585,7 +14587,7 @@
         <v>22.975000000000001</v>
       </c>
     </row>
-    <row r="228" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B228" s="2">
         <v>44074</v>
       </c>
@@ -14641,7 +14643,7 @@
         <v>23.94</v>
       </c>
     </row>
-    <row r="229" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:43" x14ac:dyDescent="0.25">
       <c r="N229" s="2">
         <v>44104</v>
       </c>
@@ -14672,6 +14674,12 @@
       <c r="AE229">
         <v>55.9</v>
       </c>
+      <c r="AH229" s="2">
+        <v>44104</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
       <c r="AP229" s="2">
         <v>44104</v>
       </c>
@@ -14679,18 +14687,18 @@
         <v>24.015000000000001</v>
       </c>
     </row>
-    <row r="230" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:43" x14ac:dyDescent="0.25">
       <c r="N230" s="2">
         <v>44135</v>
       </c>
       <c r="O230">
-        <v>1350</v>
+        <v>1402</v>
       </c>
       <c r="R230" s="2">
         <v>44135</v>
       </c>
       <c r="S230">
-        <v>784</v>
+        <v>820</v>
       </c>
       <c r="AP230" s="2">
         <v>44135</v>
@@ -14699,7 +14707,7 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="231" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AP231" s="2">
         <v>44165</v>
       </c>
@@ -14707,7 +14715,7 @@
         <v>25.79</v>
       </c>
     </row>
-    <row r="232" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AP232" s="2">
         <v>44196</v>
       </c>
@@ -14715,7 +14723,7 @@
         <v>26.504999999999999</v>
       </c>
     </row>
-    <row r="233" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AP233" s="2">
         <v>44227</v>
       </c>
@@ -14723,7 +14731,7 @@
         <v>27.56</v>
       </c>
     </row>
-    <row r="234" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AP234" s="2">
         <v>44255</v>
       </c>
@@ -14731,7 +14739,7 @@
         <v>27.86</v>
       </c>
     </row>
-    <row r="235" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AP235" s="2">
         <v>44286</v>
       </c>
@@ -14739,7 +14747,7 @@
         <v>27.96</v>
       </c>
     </row>
-    <row r="236" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AP236" s="2">
         <v>44316</v>
       </c>
@@ -14747,7 +14755,7 @@
         <v>28.875</v>
       </c>
     </row>
-    <row r="237" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AP237" s="2">
         <v>44347</v>
       </c>
@@ -14755,7 +14763,7 @@
         <v>28.961825999999999</v>
       </c>
     </row>
-    <row r="238" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AP238" s="2">
         <v>44377</v>
       </c>
@@ -14763,7 +14771,7 @@
         <v>29.050485999999999</v>
       </c>
     </row>
-    <row r="239" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AP239" s="2">
         <v>44408</v>
       </c>
@@ -14771,7 +14779,7 @@
         <v>29.099146000000001</v>
       </c>
     </row>
-    <row r="240" spans="2:43" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AP240" s="2">
         <v>44439</v>
       </c>
@@ -14779,7 +14787,7 @@
         <v>29.107806</v>
       </c>
     </row>
-    <row r="241" spans="42:43" x14ac:dyDescent="0.3">
+    <row r="241" spans="42:43" x14ac:dyDescent="0.25">
       <c r="AP241" s="2">
         <v>44469</v>
       </c>
@@ -14787,7 +14795,7 @@
         <v>29.116465000000002</v>
       </c>
     </row>
-    <row r="242" spans="42:43" x14ac:dyDescent="0.3">
+    <row r="242" spans="42:43" x14ac:dyDescent="0.25">
       <c r="AP242" s="2">
         <v>44500</v>
       </c>
@@ -14795,7 +14803,7 @@
         <v>29.125125000000001</v>
       </c>
     </row>
-    <row r="243" spans="42:43" x14ac:dyDescent="0.3">
+    <row r="243" spans="42:43" x14ac:dyDescent="0.25">
       <c r="AP243" s="2">
         <v>44530</v>
       </c>
@@ -14803,7 +14811,7 @@
         <v>29.133785</v>
       </c>
     </row>
-    <row r="244" spans="42:43" x14ac:dyDescent="0.3">
+    <row r="244" spans="42:43" x14ac:dyDescent="0.25">
       <c r="AP244" s="2">
         <v>44561</v>
       </c>

--- a/helper/Eikon.xlsx
+++ b/helper/Eikon.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maystre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\tsclient\C\Users\Nour.Barnat\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B928CEF9-13F4-423C-8400-7A830CD8B9EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="18240" windowHeight="28590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="312" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Eikon" sheetId="2" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="TRNR_45b48680f2074c1e847365beb09c7c6c_25_1" hidden="1">Eikon!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -90,7 +88,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -161,70 +159,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 12:16:57</v>
+        <v>Updated at 14:56:12</v>
         <stp/>
-        <stp>{1820C474-B27F-4DD8-A817-3024F662DD60}_x0000_</stp>
-        <tr r="A3" s="2"/>
+        <stp>{5E8DE453-9B0A-42DB-A263-E1AB4791E81F}_x0000_</stp>
+        <tr r="I3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:16:50</v>
+        <v>Updated at 14:56:12</v>
         <stp/>
-        <stp>{69BA9DCE-BE0F-4A47-BFEB-42FC75EB1369}_x0000_</stp>
+        <stp>{9103B278-69C4-469E-BEBB-BDF9BABE585A}_x0000_</stp>
         <tr r="AG3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:16:51</v>
+        <v>Updated at 14:56:12</v>
         <stp/>
-        <stp>{C9DD2D8C-F9CB-4069-9E94-6CBD2C41B963}_x0000_</stp>
+        <stp>{8F8E6311-0E9F-4775-9699-5F53214A53B2}_x0000_</stp>
+        <tr r="AC3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:56:10</v>
+        <stp/>
+        <stp>{64C9D56D-12C3-4FCA-B968-FB0DEC42CF2E}_x0000_</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:56:09</v>
+        <stp/>
+        <stp>{497E303E-36F2-42D1-A91D-D0DD67EF543B}_x0000_</stp>
+        <tr r="AK3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:56:10</v>
+        <stp/>
+        <stp>{1204DA54-EC31-4693-9502-C46662994A4F}_x0000_</stp>
         <tr r="AO3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:16:52</v>
+        <v>Updated at 14:56:11</v>
         <stp/>
-        <stp>{60F6AA2E-298A-4F87-B5CA-9C5F229FB9D8}_x0000_</stp>
-        <tr r="AK3" s="2"/>
+        <stp>{760FDF42-D249-47C7-A5FF-3C6DEDDBFC2F}_x0000_</stp>
+        <tr r="U3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:16:51</v>
+        <v>Updated at 14:56:12</v>
         <stp/>
-        <stp>{8CB438A2-F1AD-476F-B968-1D9C081A3F1A}_x0000_</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:16:51</v>
-        <stp/>
-        <stp>{F4621E88-E37E-4E91-8512-BF4FA171BEDD}_x0000_</stp>
-        <tr r="AC3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:16:50</v>
-        <stp/>
-        <stp>{A8D534AA-2CAE-4478-A3A1-CEC53648AB71}_x0000_</stp>
+        <stp>{B6307E3F-0C83-4454-9D43-714BB8750D2E}_x0000_</stp>
         <tr r="Y3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:16:57</v>
+        <v>Updated at 14:56:13</v>
         <stp/>
-        <stp>{A89C752C-32A2-42DF-857C-E524A4AA78DA}_x0000_</stp>
+        <stp>{3B9AD34E-B432-4E53-BB1F-BA2AC54089E2}_x0000_</stp>
         <tr r="E3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:16:51</v>
+        <v>Updated at 14:56:10</v>
         <stp/>
-        <stp>{4BDF656C-7285-41C8-B641-4EB2ECBDC2DF}_x0000_</stp>
-        <tr r="I3" s="2"/>
+        <stp>{F619E84A-9EDF-480C-9D32-457C3D30C223}_x0000_</stp>
+        <tr r="Q3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 12:16:57</v>
+        <v>Updated at 14:56:13</v>
         <stp/>
-        <stp>{B8667DD7-E6E7-4E3D-B30F-E338FA110BE3}_x0000_</stp>
-        <tr r="U3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 12:16:49</v>
-        <stp/>
-        <stp>{BAF8C946-5F7E-40B7-A0C0-6454CD3A1C4E}_x0000_</stp>
-        <tr r="Q3" s="2"/>
+        <stp>{4ABC3D6F-4387-4D6B-B1BE-7F777093EC1F}_x0000_</stp>
+        <tr r="A3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -527,33 +525,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.42578125" customWidth="1"/>
-    <col min="22" max="22" width="11.140625" customWidth="1"/>
-    <col min="25" max="27" width="12.7109375" customWidth="1"/>
-    <col min="29" max="31" width="12.7109375" customWidth="1"/>
-    <col min="33" max="35" width="12.7109375" customWidth="1"/>
-    <col min="37" max="39" width="12.7109375" customWidth="1"/>
-    <col min="41" max="43" width="12.7109375" customWidth="1"/>
+    <col min="1" max="3" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.44140625" customWidth="1"/>
+    <col min="22" max="22" width="11.109375" customWidth="1"/>
+    <col min="25" max="27" width="12.6640625" customWidth="1"/>
+    <col min="29" max="31" width="12.6640625" customWidth="1"/>
+    <col min="33" max="35" width="12.6640625" customWidth="1"/>
+    <col min="37" max="39" width="12.6640625" customWidth="1"/>
+    <col min="41" max="43" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
       <c r="M1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -575,7 +573,7 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>0</v>
       </c>
@@ -611,53 +609,53 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>_xll.RHistory(C2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",B4)</f>
-        <v>Updated at 12:16:57</v>
+        <v>Updated at 14:56:13</v>
       </c>
       <c r="E3" t="str">
         <f>_xll.RHistory(G2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",F4)</f>
-        <v>Updated at 12:16:57</v>
+        <v>Updated at 14:56:13</v>
       </c>
       <c r="I3" t="str">
         <f>_xll.RHistory(K2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",J4)</f>
-        <v>Updated at 12:16:51</v>
+        <v>Updated at 14:56:12</v>
       </c>
       <c r="M3" t="str">
         <f>_xll.RHistory(O2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",N4)</f>
-        <v>Updated at 12:16:51</v>
+        <v>Updated at 14:56:10</v>
       </c>
       <c r="Q3" t="str">
         <f>_xll.RHistory(S2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",R4)</f>
-        <v>Updated at 12:16:49</v>
+        <v>Updated at 14:56:10</v>
       </c>
       <c r="U3" t="str">
         <f>_xll.RHistory(W2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",V4)</f>
-        <v>Updated at 12:16:57</v>
+        <v>Updated at 14:56:11</v>
       </c>
       <c r="Y3" t="str">
         <f>_xll.RHistory(AA2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",Z4)</f>
-        <v>Updated at 12:16:50</v>
+        <v>Updated at 14:56:12</v>
       </c>
       <c r="AC3" t="str">
         <f>_xll.RHistory(AE2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AD4)</f>
-        <v>Updated at 12:16:51</v>
+        <v>Updated at 14:56:12</v>
       </c>
       <c r="AG3" t="str">
         <f>_xll.RHistory(AI2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AH4)</f>
-        <v>Updated at 12:16:50</v>
+        <v>Updated at 14:56:12</v>
       </c>
       <c r="AK3" t="str">
         <f>_xll.RHistory(AM2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AL4)</f>
-        <v>Updated at 12:16:52</v>
+        <v>Updated at 14:56:09</v>
       </c>
       <c r="AO3" t="str">
         <f>_xll.RHistory(AQ2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AP4)</f>
-        <v>Updated at 12:16:51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+        <v>Updated at 14:56:10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -725,7 +723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>37287</v>
       </c>
@@ -793,7 +791,7 @@
         <v>27.31</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>37315</v>
       </c>
@@ -861,7 +859,7 @@
         <v>27.82</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>37346</v>
       </c>
@@ -929,7 +927,7 @@
         <v>27.01</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>37376</v>
       </c>
@@ -997,7 +995,7 @@
         <v>26.97</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>37407</v>
       </c>
@@ -1065,7 +1063,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>37437</v>
       </c>
@@ -1133,7 +1131,7 @@
         <v>25.98</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>37468</v>
       </c>
@@ -1201,7 +1199,7 @@
         <v>25.47</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>37499</v>
       </c>
@@ -1269,7 +1267,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>37529</v>
       </c>
@@ -1337,7 +1335,7 @@
         <v>25.71</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>37560</v>
       </c>
@@ -1405,7 +1403,7 @@
         <v>24.51</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>37590</v>
       </c>
@@ -1473,7 +1471,7 @@
         <v>25.35</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>37621</v>
       </c>
@@ -1541,7 +1539,7 @@
         <v>25.07</v>
       </c>
     </row>
-    <row r="17" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>37652</v>
       </c>
@@ -1609,7 +1607,7 @@
         <v>25.65</v>
       </c>
     </row>
-    <row r="18" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>37680</v>
       </c>
@@ -1677,7 +1675,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="19" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <v>37711</v>
       </c>
@@ -1745,7 +1743,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="20" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <v>37741</v>
       </c>
@@ -1813,7 +1811,7 @@
         <v>27.07</v>
       </c>
     </row>
-    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <v>37772</v>
       </c>
@@ -1881,7 +1879,7 @@
         <v>27.14</v>
       </c>
     </row>
-    <row r="22" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <v>37802</v>
       </c>
@@ -1949,7 +1947,7 @@
         <v>25.34</v>
       </c>
     </row>
-    <row r="23" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B23" s="2">
         <v>37833</v>
       </c>
@@ -2017,7 +2015,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="24" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B24" s="2">
         <v>37864</v>
       </c>
@@ -2085,7 +2083,7 @@
         <v>27.04</v>
       </c>
     </row>
-    <row r="25" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B25" s="2">
         <v>37894</v>
       </c>
@@ -2153,7 +2151,7 @@
         <v>27.66</v>
       </c>
     </row>
-    <row r="26" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B26" s="2">
         <v>37925</v>
       </c>
@@ -2221,7 +2219,7 @@
         <v>26.86</v>
       </c>
     </row>
-    <row r="27" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B27" s="2">
         <v>37955</v>
       </c>
@@ -2289,7 +2287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B28" s="2">
         <v>37986</v>
       </c>
@@ -2357,7 +2355,7 @@
         <v>26.32</v>
       </c>
     </row>
-    <row r="29" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
         <v>38017</v>
       </c>
@@ -2425,7 +2423,7 @@
         <v>26.46</v>
       </c>
     </row>
-    <row r="30" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <v>38046</v>
       </c>
@@ -2493,7 +2491,7 @@
         <v>26.95</v>
       </c>
     </row>
-    <row r="31" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <v>38077</v>
       </c>
@@ -2561,7 +2559,7 @@
         <v>27.39</v>
       </c>
     </row>
-    <row r="32" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <v>38107</v>
       </c>
@@ -2629,7 +2627,7 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="33" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <v>38138</v>
       </c>
@@ -2697,7 +2695,7 @@
         <v>28.01</v>
       </c>
     </row>
-    <row r="34" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <v>38168</v>
       </c>
@@ -2765,7 +2763,7 @@
         <v>28.7</v>
       </c>
     </row>
-    <row r="35" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <v>38199</v>
       </c>
@@ -2833,7 +2831,7 @@
         <v>28.98</v>
       </c>
     </row>
-    <row r="36" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <v>38230</v>
       </c>
@@ -2901,7 +2899,7 @@
         <v>28.92</v>
       </c>
     </row>
-    <row r="37" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <v>38260</v>
       </c>
@@ -2969,7 +2967,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="38" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <v>38291</v>
       </c>
@@ -3037,7 +3035,7 @@
         <v>28.77</v>
       </c>
     </row>
-    <row r="39" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <v>38321</v>
       </c>
@@ -3105,7 +3103,7 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="40" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <v>38352</v>
       </c>
@@ -3173,7 +3171,7 @@
         <v>29.72</v>
       </c>
     </row>
-    <row r="41" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <v>38383</v>
       </c>
@@ -3241,7 +3239,7 @@
         <v>30.12</v>
       </c>
     </row>
-    <row r="42" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <v>38411</v>
       </c>
@@ -3309,7 +3307,7 @@
         <v>29.93</v>
       </c>
     </row>
-    <row r="43" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <v>38442</v>
       </c>
@@ -3377,7 +3375,7 @@
         <v>30.45</v>
       </c>
     </row>
-    <row r="44" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B44" s="2">
         <v>38472</v>
       </c>
@@ -3445,7 +3443,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="45" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B45" s="2">
         <v>38503</v>
       </c>
@@ -3513,7 +3511,7 @@
         <v>29.95</v>
       </c>
     </row>
-    <row r="46" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B46" s="2">
         <v>38533</v>
       </c>
@@ -3581,7 +3579,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="47" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B47" s="2">
         <v>38564</v>
       </c>
@@ -3649,7 +3647,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="48" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
         <v>38595</v>
       </c>
@@ -3717,7 +3715,7 @@
         <v>30.46</v>
       </c>
     </row>
-    <row r="49" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
         <v>38625</v>
       </c>
@@ -3785,7 +3783,7 @@
         <v>30.65</v>
       </c>
     </row>
-    <row r="50" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
         <v>38656</v>
       </c>
@@ -3853,7 +3851,7 @@
         <v>30.76</v>
       </c>
     </row>
-    <row r="51" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B51" s="2">
         <v>38686</v>
       </c>
@@ -3921,7 +3919,7 @@
         <v>30.64</v>
       </c>
     </row>
-    <row r="52" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B52" s="2">
         <v>38717</v>
       </c>
@@ -3989,7 +3987,7 @@
         <v>30.78</v>
       </c>
     </row>
-    <row r="53" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <v>38748</v>
       </c>
@@ -4057,7 +4055,7 @@
         <v>31.03</v>
       </c>
     </row>
-    <row r="54" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <v>38776</v>
       </c>
@@ -4125,7 +4123,7 @@
         <v>30.99</v>
       </c>
     </row>
-    <row r="55" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <v>38807</v>
       </c>
@@ -4193,7 +4191,7 @@
         <v>31.38</v>
       </c>
     </row>
-    <row r="56" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <v>38837</v>
       </c>
@@ -4261,7 +4259,7 @@
         <v>31.03</v>
       </c>
     </row>
-    <row r="57" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <v>38868</v>
       </c>
@@ -4329,7 +4327,7 @@
         <v>30.98</v>
       </c>
     </row>
-    <row r="58" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <v>38898</v>
       </c>
@@ -4397,7 +4395,7 @@
         <v>30.91</v>
       </c>
     </row>
-    <row r="59" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>38929</v>
       </c>
@@ -4465,7 +4463,7 @@
         <v>30.61</v>
       </c>
     </row>
-    <row r="60" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <v>38960</v>
       </c>
@@ -4533,7 +4531,7 @@
         <v>30.64</v>
       </c>
     </row>
-    <row r="61" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <v>38990</v>
       </c>
@@ -4601,7 +4599,7 @@
         <v>30.47</v>
       </c>
     </row>
-    <row r="62" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <v>39021</v>
       </c>
@@ -4669,7 +4667,7 @@
         <v>30.49</v>
       </c>
     </row>
-    <row r="63" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <v>39051</v>
       </c>
@@ -4737,7 +4735,7 @@
         <v>30.17</v>
       </c>
     </row>
-    <row r="64" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <v>39082</v>
       </c>
@@ -4805,7 +4803,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="65" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <v>39113</v>
       </c>
@@ -4873,7 +4871,7 @@
         <v>30.73</v>
       </c>
     </row>
-    <row r="66" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <v>39141</v>
       </c>
@@ -4941,7 +4939,7 @@
         <v>30.83</v>
       </c>
     </row>
-    <row r="67" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B67" s="2">
         <v>39172</v>
       </c>
@@ -5009,7 +5007,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="68" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B68" s="2">
         <v>39202</v>
       </c>
@@ -5077,7 +5075,7 @@
         <v>30.24</v>
       </c>
     </row>
-    <row r="69" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B69" s="2">
         <v>39233</v>
       </c>
@@ -5145,7 +5143,7 @@
         <v>29.86</v>
       </c>
     </row>
-    <row r="70" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B70" s="2">
         <v>39263</v>
       </c>
@@ -5213,7 +5211,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="71" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B71" s="2">
         <v>39294</v>
       </c>
@@ -5281,7 +5279,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="72" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B72" s="2">
         <v>39325</v>
       </c>
@@ -5340,7 +5338,7 @@
         <v>44074</v>
       </c>
       <c r="AM72">
-        <v>18328.13</v>
+        <v>18335.66</v>
       </c>
       <c r="AP72" s="2">
         <v>39325</v>
@@ -5349,7 +5347,7 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="73" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B73" s="2">
         <v>39355</v>
       </c>
@@ -5408,7 +5406,7 @@
         <v>44104</v>
       </c>
       <c r="AM73">
-        <v>18748.849999999999</v>
+        <v>18799.54</v>
       </c>
       <c r="AP73" s="2">
         <v>39355</v>
@@ -5417,7 +5415,7 @@
         <v>29.59</v>
       </c>
     </row>
-    <row r="74" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B74" s="2">
         <v>39386</v>
       </c>
@@ -5476,7 +5474,7 @@
         <v>44135</v>
       </c>
       <c r="AM74">
-        <v>17116.93</v>
+        <v>18041.830000000002</v>
       </c>
       <c r="AP74" s="2">
         <v>39386</v>
@@ -5485,7 +5483,7 @@
         <v>29.82</v>
       </c>
     </row>
-    <row r="75" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B75" s="2">
         <v>39416</v>
       </c>
@@ -5540,6 +5538,12 @@
       <c r="AI75">
         <v>1365853</v>
       </c>
+      <c r="AL75" s="2">
+        <v>44165</v>
+      </c>
+      <c r="AM75">
+        <v>12320.53</v>
+      </c>
       <c r="AP75" s="2">
         <v>39416</v>
       </c>
@@ -5547,7 +5551,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="76" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B76" s="2">
         <v>39447</v>
       </c>
@@ -5609,7 +5613,7 @@
         <v>29.52</v>
       </c>
     </row>
-    <row r="77" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B77" s="2">
         <v>39478</v>
       </c>
@@ -5671,7 +5675,7 @@
         <v>29.78</v>
       </c>
     </row>
-    <row r="78" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B78" s="2">
         <v>39507</v>
       </c>
@@ -5733,7 +5737,7 @@
         <v>29.76</v>
       </c>
     </row>
-    <row r="79" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B79" s="2">
         <v>39538</v>
       </c>
@@ -5795,7 +5799,7 @@
         <v>30.41</v>
       </c>
     </row>
-    <row r="80" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B80" s="2">
         <v>39568</v>
       </c>
@@ -5857,7 +5861,7 @@
         <v>30.59</v>
       </c>
     </row>
-    <row r="81" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B81" s="2">
         <v>39599</v>
       </c>
@@ -5919,7 +5923,7 @@
         <v>30.44</v>
       </c>
     </row>
-    <row r="82" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B82" s="2">
         <v>39629</v>
       </c>
@@ -5981,7 +5985,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="83" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B83" s="2">
         <v>39660</v>
       </c>
@@ -6043,7 +6047,7 @@
         <v>31.08</v>
       </c>
     </row>
-    <row r="84" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
         <v>39691</v>
       </c>
@@ -6105,7 +6109,7 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="85" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B85" s="2">
         <v>39721</v>
       </c>
@@ -6167,7 +6171,7 @@
         <v>31.36</v>
       </c>
     </row>
-    <row r="86" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B86" s="2">
         <v>39752</v>
       </c>
@@ -6229,7 +6233,7 @@
         <v>31.07</v>
       </c>
     </row>
-    <row r="87" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B87" s="2">
         <v>39782</v>
       </c>
@@ -6291,7 +6295,7 @@
         <v>31.42</v>
       </c>
     </row>
-    <row r="88" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
         <v>39813</v>
       </c>
@@ -6353,7 +6357,7 @@
         <v>31.49</v>
       </c>
     </row>
-    <row r="89" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B89" s="2">
         <v>39844</v>
       </c>
@@ -6415,7 +6419,7 @@
         <v>31.86</v>
       </c>
     </row>
-    <row r="90" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B90" s="2">
         <v>39872</v>
       </c>
@@ -6477,7 +6481,7 @@
         <v>31.67</v>
       </c>
     </row>
-    <row r="91" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B91" s="2">
         <v>39903</v>
       </c>
@@ -6539,7 +6543,7 @@
         <v>31.36</v>
       </c>
     </row>
-    <row r="92" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B92" s="2">
         <v>39933</v>
       </c>
@@ -6601,7 +6605,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="93" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B93" s="2">
         <v>39964</v>
       </c>
@@ -6663,7 +6667,7 @@
         <v>30.69</v>
       </c>
     </row>
-    <row r="94" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B94" s="2">
         <v>39994</v>
       </c>
@@ -6725,7 +6729,7 @@
         <v>30.05</v>
       </c>
     </row>
-    <row r="95" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B95" s="2">
         <v>40025</v>
       </c>
@@ -6787,7 +6791,7 @@
         <v>29.08</v>
       </c>
     </row>
-    <row r="96" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B96" s="2">
         <v>40056</v>
       </c>
@@ -6849,7 +6853,7 @@
         <v>28.92</v>
       </c>
     </row>
-    <row r="97" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B97" s="2">
         <v>40086</v>
       </c>
@@ -6911,7 +6915,7 @@
         <v>28.81</v>
       </c>
     </row>
-    <row r="98" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B98" s="2">
         <v>40117</v>
       </c>
@@ -6973,7 +6977,7 @@
         <v>28.96</v>
       </c>
     </row>
-    <row r="99" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B99" s="2">
         <v>40147</v>
       </c>
@@ -7035,7 +7039,7 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="100" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B100" s="2">
         <v>40178</v>
       </c>
@@ -7097,7 +7101,7 @@
         <v>29.06</v>
       </c>
     </row>
-    <row r="101" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B101" s="2">
         <v>40209</v>
       </c>
@@ -7159,7 +7163,7 @@
         <v>29.29</v>
       </c>
     </row>
-    <row r="102" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B102" s="2">
         <v>40237</v>
       </c>
@@ -7221,7 +7225,7 @@
         <v>29.38</v>
       </c>
     </row>
-    <row r="103" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B103" s="2">
         <v>40268</v>
       </c>
@@ -7283,7 +7287,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="104" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B104" s="2">
         <v>40298</v>
       </c>
@@ -7345,7 +7349,7 @@
         <v>29.44</v>
       </c>
     </row>
-    <row r="105" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B105" s="2">
         <v>40329</v>
       </c>
@@ -7407,7 +7411,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="106" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B106" s="2">
         <v>40359</v>
       </c>
@@ -7469,7 +7473,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="107" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B107" s="2">
         <v>40390</v>
       </c>
@@ -7531,7 +7535,7 @@
         <v>29.44</v>
       </c>
     </row>
-    <row r="108" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B108" s="2">
         <v>40421</v>
       </c>
@@ -7593,7 +7597,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="109" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B109" s="2">
         <v>40451</v>
       </c>
@@ -7655,7 +7659,7 @@
         <v>29.67</v>
       </c>
     </row>
-    <row r="110" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B110" s="2">
         <v>40482</v>
       </c>
@@ -7717,7 +7721,7 @@
         <v>29.81</v>
       </c>
     </row>
-    <row r="111" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B111" s="2">
         <v>40512</v>
       </c>
@@ -7779,7 +7783,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="112" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B112" s="2">
         <v>40543</v>
       </c>
@@ -7841,7 +7845,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="113" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B113" s="2">
         <v>40574</v>
       </c>
@@ -7903,7 +7907,7 @@
         <v>30.35</v>
       </c>
     </row>
-    <row r="114" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B114" s="2">
         <v>40602</v>
       </c>
@@ -7965,7 +7969,7 @@
         <v>30.31</v>
       </c>
     </row>
-    <row r="115" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B115" s="2">
         <v>40633</v>
       </c>
@@ -8027,7 +8031,7 @@
         <v>30.3</v>
       </c>
     </row>
-    <row r="116" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B116" s="2">
         <v>40663</v>
       </c>
@@ -8089,7 +8093,7 @@
         <v>29.79</v>
       </c>
     </row>
-    <row r="117" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B117" s="2">
         <v>40694</v>
       </c>
@@ -8151,7 +8155,7 @@
         <v>29.93</v>
       </c>
     </row>
-    <row r="118" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B118" s="2">
         <v>40724</v>
       </c>
@@ -8213,7 +8217,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="119" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B119" s="2">
         <v>40755</v>
       </c>
@@ -8275,7 +8279,7 @@
         <v>30.55</v>
       </c>
     </row>
-    <row r="120" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B120" s="2">
         <v>40786</v>
       </c>
@@ -8337,7 +8341,7 @@
         <v>30.08</v>
       </c>
     </row>
-    <row r="121" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B121" s="2">
         <v>40816</v>
       </c>
@@ -8399,7 +8403,7 @@
         <v>28.87</v>
       </c>
     </row>
-    <row r="122" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B122" s="2">
         <v>40847</v>
       </c>
@@ -8461,7 +8465,7 @@
         <v>28.92</v>
       </c>
     </row>
-    <row r="123" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B123" s="2">
         <v>40877</v>
       </c>
@@ -8523,7 +8527,7 @@
         <v>29.01</v>
       </c>
     </row>
-    <row r="124" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B124" s="2">
         <v>40908</v>
       </c>
@@ -8585,7 +8589,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="125" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B125" s="2">
         <v>40939</v>
       </c>
@@ -8647,7 +8651,7 @@
         <v>29.93</v>
       </c>
     </row>
-    <row r="126" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B126" s="2">
         <v>40968</v>
       </c>
@@ -8709,7 +8713,7 @@
         <v>30.02</v>
       </c>
     </row>
-    <row r="127" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B127" s="2">
         <v>40999</v>
       </c>
@@ -8771,7 +8775,7 @@
         <v>30.09</v>
       </c>
     </row>
-    <row r="128" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B128" s="2">
         <v>41029</v>
       </c>
@@ -8833,7 +8837,7 @@
         <v>29.77</v>
       </c>
     </row>
-    <row r="129" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B129" s="2">
         <v>41060</v>
       </c>
@@ -8895,7 +8899,7 @@
         <v>30.63</v>
       </c>
     </row>
-    <row r="130" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B130" s="2">
         <v>41090</v>
       </c>
@@ -8957,7 +8961,7 @@
         <v>30.61</v>
       </c>
     </row>
-    <row r="131" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B131" s="2">
         <v>41121</v>
       </c>
@@ -9019,7 +9023,7 @@
         <v>30.82</v>
       </c>
     </row>
-    <row r="132" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B132" s="2">
         <v>41152</v>
       </c>
@@ -9081,7 +9085,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="133" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B133" s="2">
         <v>41182</v>
       </c>
@@ -9143,7 +9147,7 @@
         <v>31.32</v>
       </c>
     </row>
-    <row r="134" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B134" s="2">
         <v>41213</v>
       </c>
@@ -9205,7 +9209,7 @@
         <v>31.56</v>
       </c>
     </row>
-    <row r="135" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B135" s="2">
         <v>41243</v>
       </c>
@@ -9267,7 +9271,7 @@
         <v>31.16</v>
       </c>
     </row>
-    <row r="136" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B136" s="2">
         <v>41274</v>
       </c>
@@ -9329,7 +9333,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="137" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B137" s="2">
         <v>41305</v>
       </c>
@@ -9391,7 +9395,7 @@
         <v>31.14</v>
       </c>
     </row>
-    <row r="138" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B138" s="2">
         <v>41333</v>
       </c>
@@ -9453,7 +9457,7 @@
         <v>31.32</v>
       </c>
     </row>
-    <row r="139" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B139" s="2">
         <v>41364</v>
       </c>
@@ -9515,7 +9519,7 @@
         <v>31.11</v>
       </c>
     </row>
-    <row r="140" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B140" s="2">
         <v>41394</v>
       </c>
@@ -9577,7 +9581,7 @@
         <v>30.65</v>
       </c>
     </row>
-    <row r="141" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B141" s="2">
         <v>41425</v>
       </c>
@@ -9639,7 +9643,7 @@
         <v>30.57</v>
       </c>
     </row>
-    <row r="142" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B142" s="2">
         <v>41455</v>
       </c>
@@ -9701,7 +9705,7 @@
         <v>30.15</v>
       </c>
     </row>
-    <row r="143" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B143" s="2">
         <v>41486</v>
       </c>
@@ -9763,7 +9767,7 @@
         <v>29.91</v>
       </c>
     </row>
-    <row r="144" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B144" s="2">
         <v>41517</v>
       </c>
@@ -9825,7 +9829,7 @@
         <v>29.8</v>
       </c>
     </row>
-    <row r="145" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B145" s="2">
         <v>41547</v>
       </c>
@@ -9887,7 +9891,7 @@
         <v>29.96</v>
       </c>
     </row>
-    <row r="146" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B146" s="2">
         <v>41578</v>
       </c>
@@ -9949,7 +9953,7 @@
         <v>30.42</v>
       </c>
     </row>
-    <row r="147" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B147" s="2">
         <v>41608</v>
       </c>
@@ -10011,7 +10015,7 @@
         <v>30.39</v>
       </c>
     </row>
-    <row r="148" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B148" s="2">
         <v>41639</v>
       </c>
@@ -10073,7 +10077,7 @@
         <v>30.28</v>
       </c>
     </row>
-    <row r="149" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B149" s="2">
         <v>41670</v>
       </c>
@@ -10135,7 +10139,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="150" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B150" s="2">
         <v>41698</v>
       </c>
@@ -10197,7 +10201,7 @@
         <v>30.47</v>
       </c>
     </row>
-    <row r="151" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B151" s="2">
         <v>41729</v>
       </c>
@@ -10259,7 +10263,7 @@
         <v>29.65</v>
       </c>
     </row>
-    <row r="152" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B152" s="2">
         <v>41759</v>
       </c>
@@ -10321,7 +10325,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="153" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B153" s="2">
         <v>41790</v>
       </c>
@@ -10383,7 +10387,7 @@
         <v>29.12</v>
       </c>
     </row>
-    <row r="154" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B154" s="2">
         <v>41820</v>
       </c>
@@ -10445,7 +10449,7 @@
         <v>29.31</v>
       </c>
     </row>
-    <row r="155" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B155" s="2">
         <v>41851</v>
       </c>
@@ -10507,7 +10511,7 @@
         <v>29.83</v>
       </c>
     </row>
-    <row r="156" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B156" s="2">
         <v>41882</v>
       </c>
@@ -10569,7 +10573,7 @@
         <v>29.97</v>
       </c>
     </row>
-    <row r="157" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B157" s="2">
         <v>41912</v>
       </c>
@@ -10631,7 +10635,7 @@
         <v>29.48</v>
       </c>
     </row>
-    <row r="158" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B158" s="2">
         <v>41943</v>
       </c>
@@ -10693,7 +10697,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="159" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B159" s="2">
         <v>41973</v>
       </c>
@@ -10755,7 +10759,7 @@
         <v>29.62</v>
       </c>
     </row>
-    <row r="160" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B160" s="2">
         <v>42004</v>
       </c>
@@ -10817,7 +10821,7 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="161" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B161" s="2">
         <v>42035</v>
       </c>
@@ -10879,7 +10883,7 @@
         <v>30.064392999999999</v>
       </c>
     </row>
-    <row r="162" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B162" s="2">
         <v>42063</v>
       </c>
@@ -10941,7 +10945,7 @@
         <v>29.958182000000001</v>
       </c>
     </row>
-    <row r="163" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B163" s="2">
         <v>42094</v>
       </c>
@@ -11003,7 +11007,7 @@
         <v>30.790761</v>
       </c>
     </row>
-    <row r="164" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B164" s="2">
         <v>42124</v>
       </c>
@@ -11059,7 +11063,7 @@
         <v>30.939561999999999</v>
       </c>
     </row>
-    <row r="165" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B165" s="2">
         <v>42155</v>
       </c>
@@ -11115,7 +11119,7 @@
         <v>31.184722000000001</v>
       </c>
     </row>
-    <row r="166" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B166" s="2">
         <v>42185</v>
       </c>
@@ -11171,7 +11175,7 @@
         <v>31.633790999999999</v>
       </c>
     </row>
-    <row r="167" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B167" s="2">
         <v>42216</v>
       </c>
@@ -11227,7 +11231,7 @@
         <v>31.838521</v>
       </c>
     </row>
-    <row r="168" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B168" s="2">
         <v>42247</v>
       </c>
@@ -11283,7 +11287,7 @@
         <v>31.624684999999999</v>
       </c>
     </row>
-    <row r="169" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B169" s="2">
         <v>42277</v>
       </c>
@@ -11339,7 +11343,7 @@
         <v>31.755617999999998</v>
       </c>
     </row>
-    <row r="170" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B170" s="2">
         <v>42308</v>
       </c>
@@ -11395,7 +11399,7 @@
         <v>31.529555999999999</v>
       </c>
     </row>
-    <row r="171" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B171" s="2">
         <v>42338</v>
       </c>
@@ -11451,7 +11455,7 @@
         <v>31.653449999999999</v>
       </c>
     </row>
-    <row r="172" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B172" s="2">
         <v>42369</v>
       </c>
@@ -11507,7 +11511,7 @@
         <v>31.637356</v>
       </c>
     </row>
-    <row r="173" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B173" s="2">
         <v>42400</v>
       </c>
@@ -11563,7 +11567,7 @@
         <v>31.489542</v>
       </c>
     </row>
-    <row r="174" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B174" s="2">
         <v>42429</v>
       </c>
@@ -11619,7 +11623,7 @@
         <v>31.065529999999999</v>
       </c>
     </row>
-    <row r="175" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B175" s="2">
         <v>42460</v>
       </c>
@@ -11675,7 +11679,7 @@
         <v>31.159545000000001</v>
       </c>
     </row>
-    <row r="176" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B176" s="2">
         <v>42490</v>
       </c>
@@ -11731,7 +11735,7 @@
         <v>31.266058000000001</v>
       </c>
     </row>
-    <row r="177" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B177" s="2">
         <v>42521</v>
       </c>
@@ -11787,7 +11791,7 @@
         <v>31.291350999999999</v>
       </c>
     </row>
-    <row r="178" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B178" s="2">
         <v>42551</v>
       </c>
@@ -11843,7 +11847,7 @@
         <v>31.725463000000001</v>
       </c>
     </row>
-    <row r="179" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B179" s="2">
         <v>42582</v>
       </c>
@@ -11899,7 +11903,7 @@
         <v>31.809995000000001</v>
       </c>
     </row>
-    <row r="180" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B180" s="2">
         <v>42613</v>
       </c>
@@ -11955,7 +11959,7 @@
         <v>31.683743</v>
       </c>
     </row>
-    <row r="181" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B181" s="2">
         <v>42643</v>
       </c>
@@ -12011,7 +12015,7 @@
         <v>31.735520000000001</v>
       </c>
     </row>
-    <row r="182" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B182" s="2">
         <v>42674</v>
       </c>
@@ -12067,7 +12071,7 @@
         <v>31.999327000000001</v>
       </c>
     </row>
-    <row r="183" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B183" s="2">
         <v>42704</v>
       </c>
@@ -12123,7 +12127,7 @@
         <v>32.391314999999999</v>
       </c>
     </row>
-    <row r="184" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B184" s="2">
         <v>42735</v>
       </c>
@@ -12179,7 +12183,7 @@
         <v>32.249707999999998</v>
       </c>
     </row>
-    <row r="185" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B185" s="2">
         <v>42766</v>
       </c>
@@ -12235,7 +12239,7 @@
         <v>31.31</v>
       </c>
     </row>
-    <row r="186" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B186" s="2">
         <v>42794</v>
       </c>
@@ -12291,7 +12295,7 @@
         <v>31.192</v>
       </c>
     </row>
-    <row r="187" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B187" s="2">
         <v>42825</v>
       </c>
@@ -12347,7 +12351,7 @@
         <v>30.815000000000001</v>
       </c>
     </row>
-    <row r="188" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B188" s="2">
         <v>42855</v>
       </c>
@@ -12403,7 +12407,7 @@
         <v>30.896000000000001</v>
       </c>
     </row>
-    <row r="189" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B189" s="2">
         <v>42886</v>
       </c>
@@ -12459,7 +12463,7 @@
         <v>31.399000000000001</v>
       </c>
     </row>
-    <row r="190" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B190" s="2">
         <v>42916</v>
       </c>
@@ -12515,7 +12519,7 @@
         <v>31.83</v>
       </c>
     </row>
-    <row r="191" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B191" s="2">
         <v>42947</v>
       </c>
@@ -12571,7 +12575,7 @@
         <v>32.049999999999997</v>
       </c>
     </row>
-    <row r="192" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B192" s="2">
         <v>42978</v>
       </c>
@@ -12627,7 +12631,7 @@
         <v>31.917000000000002</v>
       </c>
     </row>
-    <row r="193" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B193" s="2">
         <v>43008</v>
       </c>
@@ -12683,7 +12687,7 @@
         <v>32.064999999999998</v>
       </c>
     </row>
-    <row r="194" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B194" s="2">
         <v>43039</v>
       </c>
@@ -12739,7 +12743,7 @@
         <v>31.87</v>
       </c>
     </row>
-    <row r="195" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B195" s="2">
         <v>43069</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>31.611000000000001</v>
       </c>
     </row>
-    <row r="196" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B196" s="2">
         <v>43100</v>
       </c>
@@ -12851,7 +12855,7 @@
         <v>31.477</v>
       </c>
     </row>
-    <row r="197" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B197" s="2">
         <v>43131</v>
       </c>
@@ -12907,7 +12911,7 @@
         <v>31.756</v>
       </c>
     </row>
-    <row r="198" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B198" s="2">
         <v>43159</v>
       </c>
@@ -12963,7 +12967,7 @@
         <v>31.585999999999999</v>
       </c>
     </row>
-    <row r="199" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B199" s="2">
         <v>43190</v>
       </c>
@@ -13019,7 +13023,7 @@
         <v>31.408999999999999</v>
       </c>
     </row>
-    <row r="200" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B200" s="2">
         <v>43220</v>
       </c>
@@ -13075,7 +13079,7 @@
         <v>31.343</v>
       </c>
     </row>
-    <row r="201" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B201" s="2">
         <v>43251</v>
       </c>
@@ -13131,7 +13135,7 @@
         <v>31.228000000000002</v>
       </c>
     </row>
-    <row r="202" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B202" s="2">
         <v>43281</v>
       </c>
@@ -13187,7 +13191,7 @@
         <v>31.228999999999999</v>
       </c>
     </row>
-    <row r="203" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B203" s="2">
         <v>43312</v>
       </c>
@@ -13243,7 +13247,7 @@
         <v>31.286000000000001</v>
       </c>
     </row>
-    <row r="204" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B204" s="2">
         <v>43343</v>
       </c>
@@ -13299,7 +13303,7 @@
         <v>31.53</v>
       </c>
     </row>
-    <row r="205" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B205" s="2">
         <v>43373</v>
       </c>
@@ -13355,7 +13359,7 @@
         <v>31.666</v>
       </c>
     </row>
-    <row r="206" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B206" s="2">
         <v>43404</v>
       </c>
@@ -13411,7 +13415,7 @@
         <v>31.841000000000001</v>
       </c>
     </row>
-    <row r="207" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B207" s="2">
         <v>43434</v>
       </c>
@@ -13467,7 +13471,7 @@
         <v>31.596</v>
       </c>
     </row>
-    <row r="208" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B208" s="2">
         <v>43465</v>
       </c>
@@ -13523,7 +13527,7 @@
         <v>30.815999999999999</v>
       </c>
     </row>
-    <row r="209" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B209" s="2">
         <v>43496</v>
       </c>
@@ -13579,7 +13583,7 @@
         <v>30.155999999999999</v>
       </c>
     </row>
-    <row r="210" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B210" s="2">
         <v>43524</v>
       </c>
@@ -13635,7 +13639,7 @@
         <v>30.091000000000001</v>
       </c>
     </row>
-    <row r="211" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B211" s="2">
         <v>43555</v>
       </c>
@@ -13691,7 +13695,7 @@
         <v>29.594999999999999</v>
       </c>
     </row>
-    <row r="212" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B212" s="2">
         <v>43585</v>
       </c>
@@ -13747,7 +13751,7 @@
         <v>29.655000000000001</v>
       </c>
     </row>
-    <row r="213" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B213" s="2">
         <v>43616</v>
       </c>
@@ -13803,7 +13807,7 @@
         <v>29.335000000000001</v>
       </c>
     </row>
-    <row r="214" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B214" s="2">
         <v>43646</v>
       </c>
@@ -13859,7 +13863,7 @@
         <v>29.425000000000001</v>
       </c>
     </row>
-    <row r="215" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B215" s="2">
         <v>43677</v>
       </c>
@@ -13915,7 +13919,7 @@
         <v>29.004999999999999</v>
       </c>
     </row>
-    <row r="216" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B216" s="2">
         <v>43708</v>
       </c>
@@ -13971,7 +13975,7 @@
         <v>29.245000000000001</v>
       </c>
     </row>
-    <row r="217" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B217" s="2">
         <v>43738</v>
       </c>
@@ -14027,7 +14031,7 @@
         <v>27.684999999999999</v>
       </c>
     </row>
-    <row r="218" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B218" s="2">
         <v>43769</v>
       </c>
@@ -14083,7 +14087,7 @@
         <v>29.145</v>
       </c>
     </row>
-    <row r="219" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B219" s="2">
         <v>43799</v>
       </c>
@@ -14139,7 +14143,7 @@
         <v>29.004999999999999</v>
       </c>
     </row>
-    <row r="220" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B220" s="2">
         <v>43830</v>
       </c>
@@ -14195,7 +14199,7 @@
         <v>28.905000000000001</v>
       </c>
     </row>
-    <row r="221" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B221" s="2">
         <v>43861</v>
       </c>
@@ -14251,7 +14255,7 @@
         <v>28.67</v>
       </c>
     </row>
-    <row r="222" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B222" s="2">
         <v>43890</v>
       </c>
@@ -14307,7 +14311,7 @@
         <v>28.02</v>
       </c>
     </row>
-    <row r="223" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B223" s="2">
         <v>43921</v>
       </c>
@@ -14363,7 +14367,7 @@
         <v>28.14</v>
       </c>
     </row>
-    <row r="224" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B224" s="2">
         <v>43951</v>
       </c>
@@ -14419,7 +14423,7 @@
         <v>30.324999999999999</v>
       </c>
     </row>
-    <row r="225" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B225" s="2">
         <v>43982</v>
       </c>
@@ -14475,7 +14479,7 @@
         <v>24.28</v>
       </c>
     </row>
-    <row r="226" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B226" s="2">
         <v>44012</v>
       </c>
@@ -14531,7 +14535,7 @@
         <v>22.35</v>
       </c>
     </row>
-    <row r="227" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B227" s="2">
         <v>44043</v>
       </c>
@@ -14587,7 +14591,7 @@
         <v>22.975000000000001</v>
       </c>
     </row>
-    <row r="228" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:43" x14ac:dyDescent="0.3">
       <c r="B228" s="2">
         <v>44074</v>
       </c>
@@ -14643,7 +14647,7 @@
         <v>23.94</v>
       </c>
     </row>
-    <row r="229" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:43" x14ac:dyDescent="0.3">
       <c r="N229" s="2">
         <v>44104</v>
       </c>
@@ -14687,18 +14691,30 @@
         <v>24.015000000000001</v>
       </c>
     </row>
-    <row r="230" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:43" x14ac:dyDescent="0.3">
       <c r="N230" s="2">
         <v>44135</v>
       </c>
       <c r="O230">
-        <v>1402</v>
+        <v>1283</v>
       </c>
       <c r="R230" s="2">
         <v>44135</v>
       </c>
       <c r="S230">
-        <v>820</v>
+        <v>881</v>
+      </c>
+      <c r="V230" s="2">
+        <v>44135</v>
+      </c>
+      <c r="W230">
+        <v>59.3</v>
+      </c>
+      <c r="AD230" s="2">
+        <v>44135</v>
+      </c>
+      <c r="AE230">
+        <v>56.2</v>
       </c>
       <c r="AP230" s="2">
         <v>44135</v>
@@ -14707,7 +14723,13 @@
         <v>24.75</v>
       </c>
     </row>
-    <row r="231" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="N231" s="2">
+        <v>44165</v>
+      </c>
+      <c r="O231">
+        <v>1284</v>
+      </c>
       <c r="AP231" s="2">
         <v>44165</v>
       </c>
@@ -14715,7 +14737,7 @@
         <v>25.79</v>
       </c>
     </row>
-    <row r="232" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:43" x14ac:dyDescent="0.3">
       <c r="AP232" s="2">
         <v>44196</v>
       </c>
@@ -14723,7 +14745,7 @@
         <v>26.504999999999999</v>
       </c>
     </row>
-    <row r="233" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:43" x14ac:dyDescent="0.3">
       <c r="AP233" s="2">
         <v>44227</v>
       </c>
@@ -14731,7 +14753,7 @@
         <v>27.56</v>
       </c>
     </row>
-    <row r="234" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:43" x14ac:dyDescent="0.3">
       <c r="AP234" s="2">
         <v>44255</v>
       </c>
@@ -14739,7 +14761,7 @@
         <v>27.86</v>
       </c>
     </row>
-    <row r="235" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:43" x14ac:dyDescent="0.3">
       <c r="AP235" s="2">
         <v>44286</v>
       </c>
@@ -14747,7 +14769,7 @@
         <v>27.96</v>
       </c>
     </row>
-    <row r="236" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:43" x14ac:dyDescent="0.3">
       <c r="AP236" s="2">
         <v>44316</v>
       </c>
@@ -14755,7 +14777,7 @@
         <v>28.875</v>
       </c>
     </row>
-    <row r="237" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:43" x14ac:dyDescent="0.3">
       <c r="AP237" s="2">
         <v>44347</v>
       </c>
@@ -14763,7 +14785,7 @@
         <v>28.961825999999999</v>
       </c>
     </row>
-    <row r="238" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:43" x14ac:dyDescent="0.3">
       <c r="AP238" s="2">
         <v>44377</v>
       </c>
@@ -14771,7 +14793,7 @@
         <v>29.050485999999999</v>
       </c>
     </row>
-    <row r="239" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:43" x14ac:dyDescent="0.3">
       <c r="AP239" s="2">
         <v>44408</v>
       </c>
@@ -14779,7 +14801,7 @@
         <v>29.099146000000001</v>
       </c>
     </row>
-    <row r="240" spans="2:43" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:43" x14ac:dyDescent="0.3">
       <c r="AP240" s="2">
         <v>44439</v>
       </c>
@@ -14787,7 +14809,7 @@
         <v>29.107806</v>
       </c>
     </row>
-    <row r="241" spans="42:43" x14ac:dyDescent="0.25">
+    <row r="241" spans="42:43" x14ac:dyDescent="0.3">
       <c r="AP241" s="2">
         <v>44469</v>
       </c>
@@ -14795,7 +14817,7 @@
         <v>29.116465000000002</v>
       </c>
     </row>
-    <row r="242" spans="42:43" x14ac:dyDescent="0.25">
+    <row r="242" spans="42:43" x14ac:dyDescent="0.3">
       <c r="AP242" s="2">
         <v>44500</v>
       </c>
@@ -14803,7 +14825,7 @@
         <v>29.125125000000001</v>
       </c>
     </row>
-    <row r="243" spans="42:43" x14ac:dyDescent="0.25">
+    <row r="243" spans="42:43" x14ac:dyDescent="0.3">
       <c r="AP243" s="2">
         <v>44530</v>
       </c>
@@ -14811,7 +14833,7 @@
         <v>29.133785</v>
       </c>
     </row>
-    <row r="244" spans="42:43" x14ac:dyDescent="0.25">
+    <row r="244" spans="42:43" x14ac:dyDescent="0.3">
       <c r="AP244" s="2">
         <v>44561</v>
       </c>

--- a/helper/Eikon.xlsx
+++ b/helper/Eikon.xlsx
@@ -159,70 +159,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 14:56:12</v>
+        <v>Updated at 14:57:42</v>
         <stp/>
-        <stp>{5E8DE453-9B0A-42DB-A263-E1AB4791E81F}_x0000_</stp>
+        <stp>{DC070FD9-369E-4234-ACE8-31FFF5936FD4}_x0000_</stp>
+        <tr r="Q3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:57:41</v>
+        <stp/>
+        <stp>{54C905A0-472F-4D7C-8B9B-F46426AC0354}_x0000_</stp>
+        <tr r="U3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:57:42</v>
+        <stp/>
+        <stp>{89C1F5C9-6252-4BBF-BEB1-ED681A9A95DB}_x0000_</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:57:47</v>
+        <stp/>
+        <stp>{AB57676E-40B8-4B1C-9547-62B8FA0EDE97}_x0000_</stp>
+        <tr r="AG3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:57:44</v>
+        <stp/>
+        <stp>{A54271F8-57D5-4BB5-AF55-ADADF7E9D763}_x0000_</stp>
         <tr r="I3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 14:56:12</v>
+        <v>Updated at 14:57:47</v>
         <stp/>
-        <stp>{9103B278-69C4-469E-BEBB-BDF9BABE585A}_x0000_</stp>
-        <tr r="AG3" s="2"/>
+        <stp>{8BC187D2-0161-460C-B524-5CA85FAB3F38}_x0000_</stp>
+        <tr r="E3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 14:56:12</v>
+        <v>Updated at 14:57:47</v>
         <stp/>
-        <stp>{8F8E6311-0E9F-4775-9699-5F53214A53B2}_x0000_</stp>
+        <stp>{1481821F-CA7E-4AD2-8632-8F7EB64B3811}_x0000_</stp>
         <tr r="AC3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 14:56:10</v>
+        <v>Updated at 14:57:42</v>
         <stp/>
-        <stp>{64C9D56D-12C3-4FCA-B968-FB0DEC42CF2E}_x0000_</stp>
+        <stp>{979466A0-360F-4EED-8E69-AD1534A65F1B}_x0000_</stp>
+        <tr r="Y3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:57:46</v>
+        <stp/>
+        <stp>{4ED96521-AA45-4699-BF38-C4C0499BCF7F}_x0000_</stp>
+        <tr r="AK3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 14:57:47</v>
+        <stp/>
+        <stp>{0B3446DF-17B1-4BAD-ADB9-97B8D29A6C06}_x0000_</stp>
         <tr r="M3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 14:56:09</v>
+        <v>Updated at 14:57:42</v>
         <stp/>
-        <stp>{497E303E-36F2-42D1-A91D-D0DD67EF543B}_x0000_</stp>
-        <tr r="AK3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:56:10</v>
-        <stp/>
-        <stp>{1204DA54-EC31-4693-9502-C46662994A4F}_x0000_</stp>
+        <stp>{733C1193-61C6-47C2-980A-9055BD4AE2A5}_x0000_</stp>
         <tr r="AO3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:56:11</v>
-        <stp/>
-        <stp>{760FDF42-D249-47C7-A5FF-3C6DEDDBFC2F}_x0000_</stp>
-        <tr r="U3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:56:12</v>
-        <stp/>
-        <stp>{B6307E3F-0C83-4454-9D43-714BB8750D2E}_x0000_</stp>
-        <tr r="Y3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:56:13</v>
-        <stp/>
-        <stp>{3B9AD34E-B432-4E53-BB1F-BA2AC54089E2}_x0000_</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:56:10</v>
-        <stp/>
-        <stp>{F619E84A-9EDF-480C-9D32-457C3D30C223}_x0000_</stp>
-        <tr r="Q3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:56:13</v>
-        <stp/>
-        <stp>{4ABC3D6F-4387-4D6B-B1BE-7F777093EC1F}_x0000_</stp>
-        <tr r="A3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -612,47 +612,47 @@
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>_xll.RHistory(C2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",B4)</f>
-        <v>Updated at 14:56:13</v>
+        <v>Updated at 14:57:42</v>
       </c>
       <c r="E3" t="str">
         <f>_xll.RHistory(G2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",F4)</f>
-        <v>Updated at 14:56:13</v>
+        <v>Updated at 14:57:47</v>
       </c>
       <c r="I3" t="str">
         <f>_xll.RHistory(K2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",J4)</f>
-        <v>Updated at 14:56:12</v>
+        <v>Updated at 14:57:44</v>
       </c>
       <c r="M3" t="str">
         <f>_xll.RHistory(O2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",N4)</f>
-        <v>Updated at 14:56:10</v>
+        <v>Updated at 14:57:47</v>
       </c>
       <c r="Q3" t="str">
         <f>_xll.RHistory(S2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",R4)</f>
-        <v>Updated at 14:56:10</v>
+        <v>Updated at 14:57:42</v>
       </c>
       <c r="U3" t="str">
         <f>_xll.RHistory(W2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",V4)</f>
-        <v>Updated at 14:56:11</v>
+        <v>Updated at 14:57:41</v>
       </c>
       <c r="Y3" t="str">
         <f>_xll.RHistory(AA2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",Z4)</f>
-        <v>Updated at 14:56:12</v>
+        <v>Updated at 14:57:42</v>
       </c>
       <c r="AC3" t="str">
         <f>_xll.RHistory(AE2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AD4)</f>
-        <v>Updated at 14:56:12</v>
+        <v>Updated at 14:57:47</v>
       </c>
       <c r="AG3" t="str">
         <f>_xll.RHistory(AI2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AH4)</f>
-        <v>Updated at 14:56:12</v>
+        <v>Updated at 14:57:47</v>
       </c>
       <c r="AK3" t="str">
         <f>_xll.RHistory(AM2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AL4)</f>
-        <v>Updated at 14:56:09</v>
+        <v>Updated at 14:57:46</v>
       </c>
       <c r="AO3" t="str">
         <f>_xll.RHistory(AQ2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AP4)</f>
-        <v>Updated at 14:56:10</v>
+        <v>Updated at 14:57:42</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -5338,7 +5338,7 @@
         <v>44074</v>
       </c>
       <c r="AM72">
-        <v>18335.66</v>
+        <v>18401.27</v>
       </c>
       <c r="AP72" s="2">
         <v>39325</v>
@@ -5406,7 +5406,7 @@
         <v>44104</v>
       </c>
       <c r="AM73">
-        <v>18799.54</v>
+        <v>18803.97</v>
       </c>
       <c r="AP73" s="2">
         <v>39355</v>
@@ -5474,7 +5474,7 @@
         <v>44135</v>
       </c>
       <c r="AM74">
-        <v>18041.830000000002</v>
+        <v>18520.71</v>
       </c>
       <c r="AP74" s="2">
         <v>39386</v>
@@ -5542,7 +5542,7 @@
         <v>44165</v>
       </c>
       <c r="AM75">
-        <v>12320.53</v>
+        <v>16397.22</v>
       </c>
       <c r="AP75" s="2">
         <v>39416</v>
@@ -10280,7 +10280,7 @@
         <v>43769</v>
       </c>
       <c r="K152">
-        <v>2270380000</v>
+        <v>3571280000</v>
       </c>
       <c r="N152" s="2">
         <v>41759</v>
@@ -10962,7 +10962,7 @@
         <v>44104</v>
       </c>
       <c r="K163">
-        <v>1539430000</v>
+        <v>1548110000</v>
       </c>
       <c r="N163" s="2">
         <v>42094</v>
@@ -11020,6 +11020,12 @@
       <c r="G164">
         <v>9610000000</v>
       </c>
+      <c r="J164" s="2">
+        <v>44135</v>
+      </c>
+      <c r="K164">
+        <v>3252600000</v>
+      </c>
       <c r="N164" s="2">
         <v>42124</v>
       </c>
@@ -14540,7 +14546,7 @@
         <v>44043</v>
       </c>
       <c r="C227">
-        <v>24912000000</v>
+        <v>21483000000</v>
       </c>
       <c r="F227" s="2">
         <v>44074</v>
@@ -14596,7 +14602,7 @@
         <v>44074</v>
       </c>
       <c r="C228">
-        <v>25579000000</v>
+        <v>21993000000</v>
       </c>
       <c r="F228" s="2">
         <v>44104</v>
@@ -14648,6 +14654,18 @@
       </c>
     </row>
     <row r="229" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B229" s="2">
+        <v>44104</v>
+      </c>
+      <c r="C229">
+        <v>22373000000</v>
+      </c>
+      <c r="F229" s="2">
+        <v>44135</v>
+      </c>
+      <c r="G229">
+        <v>11830000000</v>
+      </c>
       <c r="N229" s="2">
         <v>44104</v>
       </c>
@@ -14688,7 +14706,7 @@
         <v>44104</v>
       </c>
       <c r="AQ229">
-        <v>24.015000000000001</v>
+        <v>23.914999999999999</v>
       </c>
     </row>
     <row r="230" spans="2:43" x14ac:dyDescent="0.3">
@@ -14710,6 +14728,12 @@
       <c r="W230">
         <v>59.3</v>
       </c>
+      <c r="Z230" s="2">
+        <v>44135</v>
+      </c>
+      <c r="AA230">
+        <v>56.6</v>
+      </c>
       <c r="AD230" s="2">
         <v>44135</v>
       </c>
@@ -14720,7 +14744,7 @@
         <v>44135</v>
       </c>
       <c r="AQ230">
-        <v>24.75</v>
+        <v>24.19</v>
       </c>
     </row>
     <row r="231" spans="2:43" x14ac:dyDescent="0.3">
@@ -14728,13 +14752,19 @@
         <v>44165</v>
       </c>
       <c r="O231">
-        <v>1284</v>
+        <v>1111</v>
+      </c>
+      <c r="R231" s="2">
+        <v>44165</v>
+      </c>
+      <c r="S231">
+        <v>947</v>
       </c>
       <c r="AP231" s="2">
         <v>44165</v>
       </c>
       <c r="AQ231">
-        <v>25.79</v>
+        <v>25.59</v>
       </c>
     </row>
     <row r="232" spans="2:43" x14ac:dyDescent="0.3">
@@ -14742,7 +14772,7 @@
         <v>44196</v>
       </c>
       <c r="AQ232">
-        <v>26.504999999999999</v>
+        <v>26.305</v>
       </c>
     </row>
     <row r="233" spans="2:43" x14ac:dyDescent="0.3">
@@ -14750,7 +14780,7 @@
         <v>44227</v>
       </c>
       <c r="AQ233">
-        <v>27.56</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="234" spans="2:43" x14ac:dyDescent="0.3">
@@ -14758,7 +14788,7 @@
         <v>44255</v>
       </c>
       <c r="AQ234">
-        <v>27.86</v>
+        <v>27.46</v>
       </c>
     </row>
     <row r="235" spans="2:43" x14ac:dyDescent="0.3">
@@ -14766,7 +14796,7 @@
         <v>44286</v>
       </c>
       <c r="AQ235">
-        <v>27.96</v>
+        <v>27.46</v>
       </c>
     </row>
     <row r="236" spans="2:43" x14ac:dyDescent="0.3">
@@ -14774,7 +14804,7 @@
         <v>44316</v>
       </c>
       <c r="AQ236">
-        <v>28.875</v>
+        <v>28.074999999999999</v>
       </c>
     </row>
     <row r="237" spans="2:43" x14ac:dyDescent="0.3">
@@ -14782,7 +14812,7 @@
         <v>44347</v>
       </c>
       <c r="AQ237">
-        <v>28.961825999999999</v>
+        <v>28.461825999999999</v>
       </c>
     </row>
     <row r="238" spans="2:43" x14ac:dyDescent="0.3">
@@ -14790,7 +14820,7 @@
         <v>44377</v>
       </c>
       <c r="AQ238">
-        <v>29.050485999999999</v>
+        <v>28.850486</v>
       </c>
     </row>
     <row r="239" spans="2:43" x14ac:dyDescent="0.3">

--- a/helper/Eikon.xlsx
+++ b/helper/Eikon.xlsx
@@ -159,69 +159,69 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 14:57:42</v>
+        <v>Updated at 18:00:54</v>
         <stp/>
-        <stp>{DC070FD9-369E-4234-ACE8-31FFF5936FD4}_x0000_</stp>
+        <stp>{697E6270-2E5B-46B0-AEA4-4D7E66C4D1AA}_x0000_</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:00:54</v>
+        <stp/>
+        <stp>{310E8AEB-00AE-4EBE-9E59-4B62AF820ED3}_x0000_</stp>
+        <tr r="AG3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:00:54</v>
+        <stp/>
+        <stp>{89641AAE-AC70-43F2-9C54-F03610F4723E}_x0000_</stp>
+        <tr r="AC3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:00:54</v>
+        <stp/>
+        <stp>{FB0AF200-F392-41D9-B82E-D9A16C8C56BB}_x0000_</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:00:53</v>
+        <stp/>
+        <stp>{A5367DFA-A68D-4F9C-8BCF-9DB584EE6C84}_x0000_</stp>
+        <tr r="U3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:00:54</v>
+        <stp/>
+        <stp>{994761A1-E4C2-4C9E-A3D9-D9DAC3808A9C}_x0000_</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:00:54</v>
+        <stp/>
+        <stp>{F485A210-B893-4789-ACA5-1C979658A3B0}_x0000_</stp>
+        <tr r="AK3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:00:54</v>
+        <stp/>
+        <stp>{3AE85DDE-9AE4-4378-868E-A9BBF46C202D}_x0000_</stp>
+        <tr r="Y3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 18:00:54</v>
+        <stp/>
+        <stp>{BA3766E2-58F2-432B-BED8-7DE39829E12E}_x0000_</stp>
         <tr r="Q3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 14:57:41</v>
+        <v>Updated at 18:00:54</v>
         <stp/>
-        <stp>{54C905A0-472F-4D7C-8B9B-F46426AC0354}_x0000_</stp>
-        <tr r="U3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:57:42</v>
-        <stp/>
-        <stp>{89C1F5C9-6252-4BBF-BEB1-ED681A9A95DB}_x0000_</stp>
+        <stp>{0602D7A5-A95A-4F87-A2E1-C27F3785DFC9}_x0000_</stp>
         <tr r="A3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 14:57:47</v>
+        <v>Updated at 18:00:55</v>
         <stp/>
-        <stp>{AB57676E-40B8-4B1C-9547-62B8FA0EDE97}_x0000_</stp>
-        <tr r="AG3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:57:44</v>
-        <stp/>
-        <stp>{A54271F8-57D5-4BB5-AF55-ADADF7E9D763}_x0000_</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:57:47</v>
-        <stp/>
-        <stp>{8BC187D2-0161-460C-B524-5CA85FAB3F38}_x0000_</stp>
-        <tr r="E3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:57:47</v>
-        <stp/>
-        <stp>{1481821F-CA7E-4AD2-8632-8F7EB64B3811}_x0000_</stp>
-        <tr r="AC3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:57:42</v>
-        <stp/>
-        <stp>{979466A0-360F-4EED-8E69-AD1534A65F1B}_x0000_</stp>
-        <tr r="Y3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:57:46</v>
-        <stp/>
-        <stp>{4ED96521-AA45-4699-BF38-C4C0499BCF7F}_x0000_</stp>
-        <tr r="AK3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:57:47</v>
-        <stp/>
-        <stp>{0B3446DF-17B1-4BAD-ADB9-97B8D29A6C06}_x0000_</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 14:57:42</v>
-        <stp/>
-        <stp>{733C1193-61C6-47C2-980A-9055BD4AE2A5}_x0000_</stp>
+        <stp>{42E7EC58-D05C-4568-922D-A193E6EE7A09}_x0000_</stp>
         <tr r="AO3" s="2"/>
       </tp>
     </main>
@@ -527,9 +527,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AQ244"/>
+  <dimension ref="A1:AQ256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
     </sheetView>
@@ -612,47 +612,47 @@
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>_xll.RHistory(C2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",B4)</f>
-        <v>Updated at 14:57:42</v>
+        <v>Updated at 18:00:54</v>
       </c>
       <c r="E3" t="str">
         <f>_xll.RHistory(G2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",F4)</f>
-        <v>Updated at 14:57:47</v>
+        <v>Updated at 18:00:54</v>
       </c>
       <c r="I3" t="str">
         <f>_xll.RHistory(K2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",J4)</f>
-        <v>Updated at 14:57:44</v>
+        <v>Updated at 18:00:54</v>
       </c>
       <c r="M3" t="str">
         <f>_xll.RHistory(O2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",N4)</f>
-        <v>Updated at 14:57:47</v>
+        <v>Updated at 18:00:54</v>
       </c>
       <c r="Q3" t="str">
         <f>_xll.RHistory(S2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",R4)</f>
-        <v>Updated at 14:57:42</v>
+        <v>Updated at 18:00:54</v>
       </c>
       <c r="U3" t="str">
         <f>_xll.RHistory(W2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",V4)</f>
-        <v>Updated at 14:57:41</v>
+        <v>Updated at 18:00:53</v>
       </c>
       <c r="Y3" t="str">
         <f>_xll.RHistory(AA2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",Z4)</f>
-        <v>Updated at 14:57:42</v>
+        <v>Updated at 18:00:54</v>
       </c>
       <c r="AC3" t="str">
         <f>_xll.RHistory(AE2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AD4)</f>
-        <v>Updated at 14:57:47</v>
+        <v>Updated at 18:00:54</v>
       </c>
       <c r="AG3" t="str">
         <f>_xll.RHistory(AI2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AH4)</f>
-        <v>Updated at 14:57:47</v>
+        <v>Updated at 18:00:54</v>
       </c>
       <c r="AK3" t="str">
         <f>_xll.RHistory(AM2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AL4)</f>
-        <v>Updated at 14:57:46</v>
+        <v>Updated at 18:00:54</v>
       </c>
       <c r="AO3" t="str">
         <f>_xll.RHistory(AQ2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AP4)</f>
-        <v>Updated at 14:57:42</v>
+        <v>Updated at 18:00:55</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -5338,7 +5338,7 @@
         <v>44074</v>
       </c>
       <c r="AM72">
-        <v>18401.27</v>
+        <v>18356.560000000001</v>
       </c>
       <c r="AP72" s="2">
         <v>39325</v>
@@ -5406,7 +5406,7 @@
         <v>44104</v>
       </c>
       <c r="AM73">
-        <v>18803.97</v>
+        <v>18761.509999999998</v>
       </c>
       <c r="AP73" s="2">
         <v>39355</v>
@@ -5474,7 +5474,7 @@
         <v>44135</v>
       </c>
       <c r="AM74">
-        <v>18520.71</v>
+        <v>18749.34</v>
       </c>
       <c r="AP74" s="2">
         <v>39386</v>
@@ -5542,7 +5542,7 @@
         <v>44165</v>
       </c>
       <c r="AM75">
-        <v>16397.22</v>
+        <v>18827.54</v>
       </c>
       <c r="AP75" s="2">
         <v>39416</v>
@@ -5606,6 +5606,12 @@
       <c r="AI76">
         <v>1521816</v>
       </c>
+      <c r="AL76" s="2">
+        <v>44196</v>
+      </c>
+      <c r="AM76">
+        <v>19535.099999999999</v>
+      </c>
       <c r="AP76" s="2">
         <v>39447</v>
       </c>
@@ -5668,6 +5674,12 @@
       <c r="AI77">
         <v>1437686</v>
       </c>
+      <c r="AL77" s="2">
+        <v>44227</v>
+      </c>
+      <c r="AM77">
+        <v>16612.16</v>
+      </c>
       <c r="AP77" s="2">
         <v>39478</v>
       </c>
@@ -10342,7 +10354,7 @@
         <v>43799</v>
       </c>
       <c r="K153">
-        <v>2015330000</v>
+        <v>2416480000</v>
       </c>
       <c r="N153" s="2">
         <v>41790</v>
@@ -10404,7 +10416,7 @@
         <v>43830</v>
       </c>
       <c r="K154">
-        <v>1993680000</v>
+        <v>2509880000</v>
       </c>
       <c r="N154" s="2">
         <v>41820</v>
@@ -11024,7 +11036,7 @@
         <v>44135</v>
       </c>
       <c r="K164">
-        <v>3252600000</v>
+        <v>3514460000</v>
       </c>
       <c r="N164" s="2">
         <v>42124</v>
@@ -11082,6 +11094,12 @@
       <c r="G165">
         <v>9330000000</v>
       </c>
+      <c r="J165" s="2">
+        <v>44165</v>
+      </c>
+      <c r="K165">
+        <v>1055310000</v>
+      </c>
       <c r="N165" s="2">
         <v>42155</v>
       </c>
@@ -11138,6 +11156,12 @@
       <c r="G166">
         <v>14580000000</v>
       </c>
+      <c r="J166" s="2">
+        <v>44196</v>
+      </c>
+      <c r="K166">
+        <v>1445950000</v>
+      </c>
       <c r="N166" s="2">
         <v>42185</v>
       </c>
@@ -13538,7 +13562,7 @@
         <v>43496</v>
       </c>
       <c r="C209">
-        <v>25800000000</v>
+        <v>25178000000</v>
       </c>
       <c r="F209" s="2">
         <v>43496</v>
@@ -13594,7 +13618,7 @@
         <v>43524</v>
       </c>
       <c r="C210">
-        <v>25330000000</v>
+        <v>24496000000</v>
       </c>
       <c r="F210" s="2">
         <v>43524</v>
@@ -13650,7 +13674,7 @@
         <v>43555</v>
       </c>
       <c r="C211">
-        <v>25498000000</v>
+        <v>24760000000</v>
       </c>
       <c r="F211" s="2">
         <v>43555</v>
@@ -13706,7 +13730,7 @@
         <v>43585</v>
       </c>
       <c r="C212">
-        <v>26133000000</v>
+        <v>25636000000</v>
       </c>
       <c r="F212" s="2">
         <v>43585</v>
@@ -13762,7 +13786,7 @@
         <v>43616</v>
       </c>
       <c r="C213">
-        <v>26890000000</v>
+        <v>26514000000</v>
       </c>
       <c r="F213" s="2">
         <v>43616</v>
@@ -13818,7 +13842,7 @@
         <v>43646</v>
       </c>
       <c r="C214">
-        <v>27464000000</v>
+        <v>26955000000</v>
       </c>
       <c r="F214" s="2">
         <v>43646</v>
@@ -13874,7 +13898,7 @@
         <v>43677</v>
       </c>
       <c r="C215">
-        <v>27694000000</v>
+        <v>27049000000</v>
       </c>
       <c r="F215" s="2">
         <v>43677</v>
@@ -13930,7 +13954,7 @@
         <v>43708</v>
       </c>
       <c r="C216">
-        <v>27463000000</v>
+        <v>27055000000</v>
       </c>
       <c r="F216" s="2">
         <v>43708</v>
@@ -13986,7 +14010,7 @@
         <v>43738</v>
       </c>
       <c r="C217">
-        <v>26790000000</v>
+        <v>27153000000</v>
       </c>
       <c r="F217" s="2">
         <v>43738</v>
@@ -14042,7 +14066,7 @@
         <v>43769</v>
       </c>
       <c r="C218">
-        <v>26099000000</v>
+        <v>27274000000</v>
       </c>
       <c r="F218" s="2">
         <v>43769</v>
@@ -14084,7 +14108,7 @@
         <v>43769</v>
       </c>
       <c r="AI218">
-        <v>3042282</v>
+        <v>3074099</v>
       </c>
       <c r="AP218" s="2">
         <v>43769</v>
@@ -14098,7 +14122,7 @@
         <v>43799</v>
       </c>
       <c r="C219">
-        <v>25948000000</v>
+        <v>27260000000</v>
       </c>
       <c r="F219" s="2">
         <v>43799</v>
@@ -14140,7 +14164,7 @@
         <v>43799</v>
       </c>
       <c r="AI219">
-        <v>3358592</v>
+        <v>3386366</v>
       </c>
       <c r="AP219" s="2">
         <v>43799</v>
@@ -14154,7 +14178,7 @@
         <v>43830</v>
       </c>
       <c r="C220">
-        <v>26565000000</v>
+        <v>26990000000</v>
       </c>
       <c r="F220" s="2">
         <v>43861</v>
@@ -14210,7 +14234,7 @@
         <v>43861</v>
       </c>
       <c r="C221">
-        <v>29024000000</v>
+        <v>26003000000</v>
       </c>
       <c r="F221" s="2">
         <v>43890</v>
@@ -14266,7 +14290,7 @@
         <v>43890</v>
       </c>
       <c r="C222">
-        <v>27546000000</v>
+        <v>25723000000</v>
       </c>
       <c r="F222" s="2">
         <v>43921</v>
@@ -14322,7 +14346,7 @@
         <v>43921</v>
       </c>
       <c r="C223">
-        <v>22043000000</v>
+        <v>24872000000</v>
       </c>
       <c r="F223" s="2">
         <v>43951</v>
@@ -14378,7 +14402,7 @@
         <v>43951</v>
       </c>
       <c r="C224">
-        <v>20841000000</v>
+        <v>22906000000</v>
       </c>
       <c r="F224" s="2">
         <v>43982</v>
@@ -14434,7 +14458,7 @@
         <v>43982</v>
       </c>
       <c r="C225">
-        <v>20511000000</v>
+        <v>22488000000</v>
       </c>
       <c r="F225" s="2">
         <v>44012</v>
@@ -14490,7 +14514,7 @@
         <v>44012</v>
       </c>
       <c r="C226">
-        <v>24811000000</v>
+        <v>23161000000</v>
       </c>
       <c r="F226" s="2">
         <v>44043</v>
@@ -14546,7 +14570,7 @@
         <v>44043</v>
       </c>
       <c r="C227">
-        <v>21483000000</v>
+        <v>22458000000</v>
       </c>
       <c r="F227" s="2">
         <v>44074</v>
@@ -14602,7 +14626,7 @@
         <v>44074</v>
       </c>
       <c r="C228">
-        <v>21993000000</v>
+        <v>22391000000</v>
       </c>
       <c r="F228" s="2">
         <v>44104</v>
@@ -14658,7 +14682,7 @@
         <v>44104</v>
       </c>
       <c r="C229">
-        <v>22373000000</v>
+        <v>22738000000</v>
       </c>
       <c r="F229" s="2">
         <v>44135</v>
@@ -14710,6 +14734,18 @@
       </c>
     </row>
     <row r="230" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B230" s="2">
+        <v>44135</v>
+      </c>
+      <c r="C230">
+        <v>22639000000</v>
+      </c>
+      <c r="F230" s="2">
+        <v>44165</v>
+      </c>
+      <c r="G230">
+        <v>14380000000</v>
+      </c>
       <c r="N230" s="2">
         <v>44135</v>
       </c>
@@ -14740,47 +14776,125 @@
       <c r="AE230">
         <v>56.2</v>
       </c>
+      <c r="AH230" s="2">
+        <v>44135</v>
+      </c>
+      <c r="AI230">
+        <v>1201</v>
+      </c>
       <c r="AP230" s="2">
         <v>44135</v>
       </c>
       <c r="AQ230">
-        <v>24.19</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="231" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B231" s="2">
+        <v>44165</v>
+      </c>
+      <c r="C231">
+        <v>22571000000</v>
+      </c>
       <c r="N231" s="2">
         <v>44165</v>
       </c>
       <c r="O231">
-        <v>1111</v>
+        <v>1227</v>
       </c>
       <c r="R231" s="2">
         <v>44165</v>
       </c>
       <c r="S231">
-        <v>947</v>
+        <v>1009</v>
+      </c>
+      <c r="V231" s="2">
+        <v>44165</v>
+      </c>
+      <c r="W231">
+        <v>57.5</v>
+      </c>
+      <c r="Z231" s="2">
+        <v>44165</v>
+      </c>
+      <c r="AA231">
+        <v>55.9</v>
+      </c>
+      <c r="AD231" s="2">
+        <v>44165</v>
+      </c>
+      <c r="AE231">
+        <v>56.4</v>
+      </c>
+      <c r="AH231" s="2">
+        <v>44165</v>
+      </c>
+      <c r="AI231">
+        <v>3065</v>
       </c>
       <c r="AP231" s="2">
         <v>44165</v>
       </c>
       <c r="AQ231">
-        <v>25.59</v>
+        <v>25.03</v>
       </c>
     </row>
     <row r="232" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="N232" s="2">
+        <v>44196</v>
+      </c>
+      <c r="O232">
+        <v>1366</v>
+      </c>
+      <c r="R232" s="2">
+        <v>44196</v>
+      </c>
+      <c r="S232">
+        <v>1038</v>
+      </c>
+      <c r="V232" s="2">
+        <v>44196</v>
+      </c>
+      <c r="W232">
+        <v>60.7</v>
+      </c>
+      <c r="Z232" s="2">
+        <v>44196</v>
+      </c>
+      <c r="AA232">
+        <v>57.2</v>
+      </c>
+      <c r="AD232" s="2">
+        <v>44196</v>
+      </c>
+      <c r="AE232">
+        <v>55.7</v>
+      </c>
       <c r="AP232" s="2">
         <v>44196</v>
       </c>
       <c r="AQ232">
-        <v>26.305</v>
+        <v>25.254999999999999</v>
       </c>
     </row>
     <row r="233" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="N233" s="2">
+        <v>44227</v>
+      </c>
+      <c r="O233">
+        <v>1740</v>
+      </c>
+      <c r="R233" s="2">
+        <v>44227</v>
+      </c>
+      <c r="S233">
+        <v>1094</v>
+      </c>
       <c r="AP233" s="2">
         <v>44227</v>
       </c>
       <c r="AQ233">
-        <v>27.16</v>
+        <v>25.689</v>
       </c>
     </row>
     <row r="234" spans="2:43" x14ac:dyDescent="0.3">
@@ -14788,7 +14902,7 @@
         <v>44255</v>
       </c>
       <c r="AQ234">
-        <v>27.46</v>
+        <v>24.789000000000001</v>
       </c>
     </row>
     <row r="235" spans="2:43" x14ac:dyDescent="0.3">
@@ -14796,7 +14910,7 @@
         <v>44286</v>
       </c>
       <c r="AQ235">
-        <v>27.46</v>
+        <v>24.779</v>
       </c>
     </row>
     <row r="236" spans="2:43" x14ac:dyDescent="0.3">
@@ -14804,7 +14918,7 @@
         <v>44316</v>
       </c>
       <c r="AQ236">
-        <v>28.074999999999999</v>
+        <v>26.82</v>
       </c>
     </row>
     <row r="237" spans="2:43" x14ac:dyDescent="0.3">
@@ -14812,7 +14926,7 @@
         <v>44347</v>
       </c>
       <c r="AQ237">
-        <v>28.461825999999999</v>
+        <v>26.996825999999999</v>
       </c>
     </row>
     <row r="238" spans="2:43" x14ac:dyDescent="0.3">
@@ -14820,7 +14934,7 @@
         <v>44377</v>
       </c>
       <c r="AQ238">
-        <v>28.850486</v>
+        <v>27.375485999999999</v>
       </c>
     </row>
     <row r="239" spans="2:43" x14ac:dyDescent="0.3">
@@ -14828,7 +14942,7 @@
         <v>44408</v>
       </c>
       <c r="AQ239">
-        <v>29.099146000000001</v>
+        <v>28.129145999999999</v>
       </c>
     </row>
     <row r="240" spans="2:43" x14ac:dyDescent="0.3">
@@ -14836,7 +14950,7 @@
         <v>44439</v>
       </c>
       <c r="AQ240">
-        <v>29.107806</v>
+        <v>28.227806000000001</v>
       </c>
     </row>
     <row r="241" spans="42:43" x14ac:dyDescent="0.3">
@@ -14844,7 +14958,7 @@
         <v>44469</v>
       </c>
       <c r="AQ241">
-        <v>29.116465000000002</v>
+        <v>28.226465000000001</v>
       </c>
     </row>
     <row r="242" spans="42:43" x14ac:dyDescent="0.3">
@@ -14852,7 +14966,7 @@
         <v>44500</v>
       </c>
       <c r="AQ242">
-        <v>29.125125000000001</v>
+        <v>28.225124999999998</v>
       </c>
     </row>
     <row r="243" spans="42:43" x14ac:dyDescent="0.3">
@@ -14860,7 +14974,7 @@
         <v>44530</v>
       </c>
       <c r="AQ243">
-        <v>29.133785</v>
+        <v>28.233785000000001</v>
       </c>
     </row>
     <row r="244" spans="42:43" x14ac:dyDescent="0.3">
@@ -14868,7 +14982,103 @@
         <v>44561</v>
       </c>
       <c r="AQ244">
-        <v>29.122444000000002</v>
+        <v>28.222443999999999</v>
+      </c>
+    </row>
+    <row r="245" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP245" s="2">
+        <v>44592</v>
+      </c>
+      <c r="AQ245">
+        <v>28.177534000000001</v>
+      </c>
+    </row>
+    <row r="246" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP246" s="2">
+        <v>44620</v>
+      </c>
+      <c r="AQ246">
+        <v>28.197194</v>
+      </c>
+    </row>
+    <row r="247" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP247" s="2">
+        <v>44651</v>
+      </c>
+      <c r="AQ247">
+        <v>28.177854</v>
+      </c>
+    </row>
+    <row r="248" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP248" s="2">
+        <v>44681</v>
+      </c>
+      <c r="AQ248">
+        <v>28.176514000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP249" s="2">
+        <v>44712</v>
+      </c>
+      <c r="AQ249">
+        <v>28.221536</v>
+      </c>
+    </row>
+    <row r="250" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP250" s="2">
+        <v>44742</v>
+      </c>
+      <c r="AQ250">
+        <v>28.216908</v>
+      </c>
+    </row>
+    <row r="251" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP251" s="2">
+        <v>44773</v>
+      </c>
+      <c r="AQ251">
+        <v>28.232294</v>
+      </c>
+    </row>
+    <row r="252" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP252" s="2">
+        <v>44804</v>
+      </c>
+      <c r="AQ252">
+        <v>28.237691999999999</v>
+      </c>
+    </row>
+    <row r="253" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP253" s="2">
+        <v>44834</v>
+      </c>
+      <c r="AQ253">
+        <v>28.253102999999999</v>
+      </c>
+    </row>
+    <row r="254" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP254" s="2">
+        <v>44865</v>
+      </c>
+      <c r="AQ254">
+        <v>28.268526999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP255" s="2">
+        <v>44895</v>
+      </c>
+      <c r="AQ255">
+        <v>28.273962999999998</v>
+      </c>
+    </row>
+    <row r="256" spans="42:43" x14ac:dyDescent="0.3">
+      <c r="AP256" s="2">
+        <v>44926</v>
+      </c>
+      <c r="AQ256">
+        <v>28.269410000000001</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Eikon.xlsx
+++ b/helper/Eikon.xlsx
@@ -159,70 +159,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 18:00:54</v>
+        <v>Updated at 19:43:39</v>
         <stp/>
-        <stp>{697E6270-2E5B-46B0-AEA4-4D7E66C4D1AA}_x0000_</stp>
+        <stp>{0CDEBE01-3A08-4AC2-AADF-D048A15C8559}_x0000_</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 19:43:43</v>
+        <stp/>
+        <stp>{4A6D5938-9531-4444-B8D6-21C59DE59899}_x0000_</stp>
+        <tr r="AO3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 19:43:42</v>
+        <stp/>
+        <stp>{F93B5B63-7DEE-416F-8904-920749203718}_x0000_</stp>
         <tr r="E3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:00:54</v>
+        <v>Updated at 19:43:38</v>
         <stp/>
-        <stp>{310E8AEB-00AE-4EBE-9E59-4B62AF820ED3}_x0000_</stp>
+        <stp>{DB7F856E-C443-416F-84D6-3056E1AB349E}_x0000_</stp>
+        <tr r="AK3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 19:43:43</v>
+        <stp/>
+        <stp>{A1972B40-D4C8-43AB-83FA-F214BDA01B4E}_x0000_</stp>
+        <tr r="Q3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 19:43:43</v>
+        <stp/>
+        <stp>{8DD653D3-28BD-4652-8069-DCAE57B43D63}_x0000_</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 19:43:39</v>
+        <stp/>
+        <stp>{F08D1311-9EB9-40F1-98D9-8596599CC46A}_x0000_</stp>
+        <tr r="U3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 19:43:39</v>
+        <stp/>
+        <stp>{24841A68-6741-4D87-8FE7-AD23BE5E217A}_x0000_</stp>
         <tr r="AG3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:00:54</v>
+        <v>Updated at 19:43:39</v>
         <stp/>
-        <stp>{89641AAE-AC70-43F2-9C54-F03610F4723E}_x0000_</stp>
+        <stp>{948A2AC5-1EDC-4594-BD40-E7D2A651DDA7}_x0000_</stp>
         <tr r="AC3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:00:54</v>
+        <v>Updated at 19:43:39</v>
         <stp/>
-        <stp>{FB0AF200-F392-41D9-B82E-D9A16C8C56BB}_x0000_</stp>
-        <tr r="M3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:00:53</v>
-        <stp/>
-        <stp>{A5367DFA-A68D-4F9C-8BCF-9DB584EE6C84}_x0000_</stp>
-        <tr r="U3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:00:54</v>
-        <stp/>
-        <stp>{994761A1-E4C2-4C9E-A3D9-D9DAC3808A9C}_x0000_</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:00:54</v>
-        <stp/>
-        <stp>{F485A210-B893-4789-ACA5-1C979658A3B0}_x0000_</stp>
-        <tr r="AK3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:00:54</v>
-        <stp/>
-        <stp>{3AE85DDE-9AE4-4378-868E-A9BBF46C202D}_x0000_</stp>
+        <stp>{FCBF0656-5264-4615-8E44-6090DBE495F2}_x0000_</stp>
         <tr r="Y3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 18:00:54</v>
+        <v>Updated at 19:43:43</v>
         <stp/>
-        <stp>{BA3766E2-58F2-432B-BED8-7DE39829E12E}_x0000_</stp>
-        <tr r="Q3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:00:54</v>
-        <stp/>
-        <stp>{0602D7A5-A95A-4F87-A2E1-C27F3785DFC9}_x0000_</stp>
+        <stp>{9FD7366C-C3A8-477B-9059-21CF806B26EE}_x0000_</stp>
         <tr r="A3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 18:00:55</v>
-        <stp/>
-        <stp>{42E7EC58-D05C-4568-922D-A193E6EE7A09}_x0000_</stp>
-        <tr r="AO3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -529,7 +529,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
     </sheetView>
@@ -612,47 +612,47 @@
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>_xll.RHistory(C2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",B4)</f>
-        <v>Updated at 18:00:54</v>
+        <v>Updated at 19:43:43</v>
       </c>
       <c r="E3" t="str">
         <f>_xll.RHistory(G2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",F4)</f>
-        <v>Updated at 18:00:54</v>
+        <v>Updated at 19:43:42</v>
       </c>
       <c r="I3" t="str">
         <f>_xll.RHistory(K2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",J4)</f>
-        <v>Updated at 18:00:54</v>
+        <v>Updated at 19:43:43</v>
       </c>
       <c r="M3" t="str">
         <f>_xll.RHistory(O2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",N4)</f>
-        <v>Updated at 18:00:54</v>
+        <v>Updated at 19:43:39</v>
       </c>
       <c r="Q3" t="str">
         <f>_xll.RHistory(S2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",R4)</f>
-        <v>Updated at 18:00:54</v>
+        <v>Updated at 19:43:43</v>
       </c>
       <c r="U3" t="str">
         <f>_xll.RHistory(W2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",V4)</f>
-        <v>Updated at 18:00:53</v>
+        <v>Updated at 19:43:39</v>
       </c>
       <c r="Y3" t="str">
         <f>_xll.RHistory(AA2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",Z4)</f>
-        <v>Updated at 18:00:54</v>
+        <v>Updated at 19:43:39</v>
       </c>
       <c r="AC3" t="str">
         <f>_xll.RHistory(AE2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AD4)</f>
-        <v>Updated at 18:00:54</v>
+        <v>Updated at 19:43:39</v>
       </c>
       <c r="AG3" t="str">
         <f>_xll.RHistory(AI2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AH4)</f>
-        <v>Updated at 18:00:54</v>
+        <v>Updated at 19:43:39</v>
       </c>
       <c r="AK3" t="str">
         <f>_xll.RHistory(AM2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AL4)</f>
-        <v>Updated at 18:00:54</v>
+        <v>Updated at 19:43:38</v>
       </c>
       <c r="AO3" t="str">
         <f>_xll.RHistory(AQ2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AP4)</f>
-        <v>Updated at 18:00:55</v>
+        <v>Updated at 19:43:43</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -14220,7 +14220,7 @@
         <v>43830</v>
       </c>
       <c r="AI220">
-        <v>3930800</v>
+        <v>3947337</v>
       </c>
       <c r="AP220" s="2">
         <v>43830</v>
@@ -14796,6 +14796,12 @@
       <c r="C231">
         <v>22571000000</v>
       </c>
+      <c r="F231" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G231">
+        <v>14900000000</v>
+      </c>
       <c r="N231" s="2">
         <v>44165</v>
       </c>
@@ -14870,6 +14876,12 @@
       <c r="AE232">
         <v>55.7</v>
       </c>
+      <c r="AH232" s="2">
+        <v>44196</v>
+      </c>
+      <c r="AI232">
+        <v>6556</v>
+      </c>
       <c r="AP232" s="2">
         <v>44196</v>
       </c>
@@ -14882,13 +14894,13 @@
         <v>44227</v>
       </c>
       <c r="O233">
-        <v>1740</v>
+        <v>1765</v>
       </c>
       <c r="R233" s="2">
         <v>44227</v>
       </c>
       <c r="S233">
-        <v>1094</v>
+        <v>1113</v>
       </c>
       <c r="AP233" s="2">
         <v>44227</v>

--- a/helper/Eikon.xlsx
+++ b/helper/Eikon.xlsx
@@ -159,70 +159,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 19:43:39</v>
+        <v>Updated at 11:28:45</v>
         <stp/>
-        <stp>{0CDEBE01-3A08-4AC2-AADF-D048A15C8559}_x0000_</stp>
+        <stp>{AAD26F62-ED4C-4E43-B044-4D530582CBD6}_x0000_</stp>
+        <tr r="I3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:28:41</v>
+        <stp/>
+        <stp>{03EB11DC-D0F5-45F6-B80C-31E12871AB54}_x0000_</stp>
         <tr r="M3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 19:43:43</v>
+        <v>Updated at 11:28:41</v>
         <stp/>
-        <stp>{4A6D5938-9531-4444-B8D6-21C59DE59899}_x0000_</stp>
+        <stp>{625E6C77-3A88-4B94-BEAE-6961F887F66C}_x0000_</stp>
         <tr r="AO3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 19:43:42</v>
+        <v>Updated at 11:28:39</v>
         <stp/>
-        <stp>{F93B5B63-7DEE-416F-8904-920749203718}_x0000_</stp>
+        <stp>{2C344D71-DDC2-4DE3-A804-402CA71736BC}_x0000_</stp>
+        <tr r="U3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:28:40</v>
+        <stp/>
+        <stp>{C1DEF0C6-BA9A-43D7-9A26-AAD0109B6B0E}_x0000_</stp>
+        <tr r="Y3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:28:40</v>
+        <stp/>
+        <stp>{5E7AD378-B956-41F7-9068-750682918EB5}_x0000_</stp>
+        <tr r="Q3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:28:40</v>
+        <stp/>
+        <stp>{7B9886B5-A678-4BA7-87DB-C25E325D0F70}_x0000_</stp>
+        <tr r="A3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:28:40</v>
+        <stp/>
+        <stp>{EAEC3E4E-524A-4846-8E38-14C00D03BF2A}_x0000_</stp>
         <tr r="E3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 19:43:38</v>
+        <v>Updated at 11:28:40</v>
         <stp/>
-        <stp>{DB7F856E-C443-416F-84D6-3056E1AB349E}_x0000_</stp>
+        <stp>{2471CC09-1859-441C-BE4D-40471AAEAA2D}_x0000_</stp>
+        <tr r="AG3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 11:28:40</v>
+        <stp/>
+        <stp>{44B04C23-78BE-45D5-8B05-3671EEADB87F}_x0000_</stp>
         <tr r="AK3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 19:43:43</v>
+        <v>Updated at 11:28:40</v>
         <stp/>
-        <stp>{A1972B40-D4C8-43AB-83FA-F214BDA01B4E}_x0000_</stp>
-        <tr r="Q3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 19:43:43</v>
-        <stp/>
-        <stp>{8DD653D3-28BD-4652-8069-DCAE57B43D63}_x0000_</stp>
-        <tr r="I3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 19:43:39</v>
-        <stp/>
-        <stp>{F08D1311-9EB9-40F1-98D9-8596599CC46A}_x0000_</stp>
-        <tr r="U3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 19:43:39</v>
-        <stp/>
-        <stp>{24841A68-6741-4D87-8FE7-AD23BE5E217A}_x0000_</stp>
-        <tr r="AG3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 19:43:39</v>
-        <stp/>
-        <stp>{948A2AC5-1EDC-4594-BD40-E7D2A651DDA7}_x0000_</stp>
+        <stp>{53577359-766E-4339-A9F2-8124D6160AA2}_x0000_</stp>
         <tr r="AC3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 19:43:39</v>
-        <stp/>
-        <stp>{FCBF0656-5264-4615-8E44-6090DBE495F2}_x0000_</stp>
-        <tr r="Y3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 19:43:43</v>
-        <stp/>
-        <stp>{9FD7366C-C3A8-477B-9059-21CF806B26EE}_x0000_</stp>
-        <tr r="A3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -529,7 +529,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ256"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Y3" sqref="Y3"/>
     </sheetView>
@@ -612,47 +612,47 @@
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>_xll.RHistory(C2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",B4)</f>
-        <v>Updated at 19:43:43</v>
+        <v>Updated at 11:28:40</v>
       </c>
       <c r="E3" t="str">
         <f>_xll.RHistory(G2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",F4)</f>
-        <v>Updated at 19:43:42</v>
+        <v>Updated at 11:28:40</v>
       </c>
       <c r="I3" t="str">
         <f>_xll.RHistory(K2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",J4)</f>
-        <v>Updated at 19:43:43</v>
+        <v>Updated at 11:28:45</v>
       </c>
       <c r="M3" t="str">
         <f>_xll.RHistory(O2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",N4)</f>
-        <v>Updated at 19:43:39</v>
+        <v>Updated at 11:28:41</v>
       </c>
       <c r="Q3" t="str">
         <f>_xll.RHistory(S2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",R4)</f>
-        <v>Updated at 19:43:43</v>
+        <v>Updated at 11:28:40</v>
       </c>
       <c r="U3" t="str">
         <f>_xll.RHistory(W2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",V4)</f>
-        <v>Updated at 19:43:39</v>
+        <v>Updated at 11:28:39</v>
       </c>
       <c r="Y3" t="str">
         <f>_xll.RHistory(AA2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",Z4)</f>
-        <v>Updated at 19:43:39</v>
+        <v>Updated at 11:28:40</v>
       </c>
       <c r="AC3" t="str">
         <f>_xll.RHistory(AE2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AD4)</f>
-        <v>Updated at 19:43:39</v>
+        <v>Updated at 11:28:40</v>
       </c>
       <c r="AG3" t="str">
         <f>_xll.RHistory(AI2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AH4)</f>
-        <v>Updated at 19:43:39</v>
+        <v>Updated at 11:28:40</v>
       </c>
       <c r="AK3" t="str">
         <f>_xll.RHistory(AM2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AL4)</f>
-        <v>Updated at 19:43:38</v>
+        <v>Updated at 11:28:40</v>
       </c>
       <c r="AO3" t="str">
         <f>_xll.RHistory(AQ2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AP4)</f>
-        <v>Updated at 19:43:43</v>
+        <v>Updated at 11:28:41</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -5542,7 +5542,7 @@
         <v>44165</v>
       </c>
       <c r="AM75">
-        <v>18827.54</v>
+        <v>18521.57</v>
       </c>
       <c r="AP75" s="2">
         <v>39416</v>
@@ -5610,7 +5610,7 @@
         <v>44196</v>
       </c>
       <c r="AM76">
-        <v>19535.099999999999</v>
+        <v>19442.95</v>
       </c>
       <c r="AP76" s="2">
         <v>39447</v>
@@ -5678,7 +5678,7 @@
         <v>44227</v>
       </c>
       <c r="AM77">
-        <v>16612.16</v>
+        <v>18795.36</v>
       </c>
       <c r="AP77" s="2">
         <v>39478</v>
@@ -5742,6 +5742,12 @@
       <c r="AI78">
         <v>1481458</v>
       </c>
+      <c r="AL78" s="2">
+        <v>44255</v>
+      </c>
+      <c r="AM78">
+        <v>17470.099999999999</v>
+      </c>
       <c r="AP78" s="2">
         <v>39507</v>
       </c>
@@ -8636,13 +8642,13 @@
         <v>40939</v>
       </c>
       <c r="W125">
-        <v>53.2</v>
+        <v>54.2</v>
       </c>
       <c r="Z125" s="2">
         <v>40939</v>
       </c>
       <c r="AA125">
-        <v>56.1</v>
+        <v>57.3</v>
       </c>
       <c r="AD125" s="2">
         <v>40939</v>
@@ -8698,13 +8704,13 @@
         <v>40968</v>
       </c>
       <c r="W126">
-        <v>52.6</v>
+        <v>53.3</v>
       </c>
       <c r="Z126" s="2">
         <v>40968</v>
       </c>
       <c r="AA126">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="AD126" s="2">
         <v>40968</v>
@@ -8766,7 +8772,7 @@
         <v>40999</v>
       </c>
       <c r="AA127">
-        <v>55.5</v>
+        <v>55.6</v>
       </c>
       <c r="AD127" s="2">
         <v>40999</v>
@@ -8822,13 +8828,13 @@
         <v>41029</v>
       </c>
       <c r="W128">
-        <v>54.2</v>
+        <v>55.2</v>
       </c>
       <c r="Z128" s="2">
         <v>41029</v>
       </c>
       <c r="AA128">
-        <v>54.8</v>
+        <v>55.3</v>
       </c>
       <c r="AD128" s="2">
         <v>41029</v>
@@ -8884,13 +8890,13 @@
         <v>41060</v>
       </c>
       <c r="W129">
-        <v>52.6</v>
+        <v>53.2</v>
       </c>
       <c r="Z129" s="2">
         <v>41060</v>
       </c>
       <c r="AA129">
-        <v>54.3</v>
+        <v>55.1</v>
       </c>
       <c r="AD129" s="2">
         <v>41060</v>
@@ -8946,13 +8952,13 @@
         <v>41090</v>
       </c>
       <c r="W130">
-        <v>48.9</v>
+        <v>49.5</v>
       </c>
       <c r="Z130" s="2">
         <v>41090</v>
       </c>
       <c r="AA130">
-        <v>53.1</v>
+        <v>53.6</v>
       </c>
       <c r="AD130" s="2">
         <v>41090</v>
@@ -9008,13 +9014,13 @@
         <v>41121</v>
       </c>
       <c r="W131">
-        <v>50.2</v>
+        <v>49.6</v>
       </c>
       <c r="Z131" s="2">
         <v>41121</v>
       </c>
       <c r="AA131">
-        <v>52.5</v>
+        <v>52.1</v>
       </c>
       <c r="AD131" s="2">
         <v>41121</v>
@@ -9070,13 +9076,13 @@
         <v>41152</v>
       </c>
       <c r="W132">
-        <v>49.4</v>
+        <v>49</v>
       </c>
       <c r="Z132" s="2">
         <v>41152</v>
       </c>
       <c r="AA132">
-        <v>52.9</v>
+        <v>52.1</v>
       </c>
       <c r="AD132" s="2">
         <v>41152</v>
@@ -9132,13 +9138,13 @@
         <v>41182</v>
       </c>
       <c r="W133">
-        <v>51.2</v>
+        <v>50.8</v>
       </c>
       <c r="Z133" s="2">
         <v>41182</v>
       </c>
       <c r="AA133">
-        <v>54.5</v>
+        <v>53.8</v>
       </c>
       <c r="AD133" s="2">
         <v>41182</v>
@@ -9194,13 +9200,13 @@
         <v>41213</v>
       </c>
       <c r="W134">
-        <v>51</v>
+        <v>50.5</v>
       </c>
       <c r="Z134" s="2">
         <v>41213</v>
       </c>
       <c r="AA134">
-        <v>54.5</v>
+        <v>54.3</v>
       </c>
       <c r="AD134" s="2">
         <v>41213</v>
@@ -9256,13 +9262,13 @@
         <v>41243</v>
       </c>
       <c r="W135">
-        <v>49.1</v>
+        <v>48</v>
       </c>
       <c r="Z135" s="2">
         <v>41243</v>
       </c>
       <c r="AA135">
-        <v>54.5</v>
+        <v>53.9</v>
       </c>
       <c r="AD135" s="2">
         <v>41243</v>
@@ -9318,13 +9324,13 @@
         <v>41274</v>
       </c>
       <c r="W136">
-        <v>50.4</v>
+        <v>50.1</v>
       </c>
       <c r="Z136" s="2">
         <v>41274</v>
       </c>
       <c r="AA136">
-        <v>56.1</v>
+        <v>55.7</v>
       </c>
       <c r="AD136" s="2">
         <v>41274</v>
@@ -9380,13 +9386,13 @@
         <v>41305</v>
       </c>
       <c r="W137">
-        <v>52.3</v>
+        <v>53.3</v>
       </c>
       <c r="Z137" s="2">
         <v>41305</v>
       </c>
       <c r="AA137">
-        <v>55</v>
+        <v>55.9</v>
       </c>
       <c r="AD137" s="2">
         <v>41305</v>
@@ -9442,13 +9448,13 @@
         <v>41333</v>
       </c>
       <c r="W138">
-        <v>53.5</v>
+        <v>54.2</v>
       </c>
       <c r="Z138" s="2">
         <v>41333</v>
       </c>
       <c r="AA138">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="AD138" s="2">
         <v>41333</v>
@@ -9504,13 +9510,13 @@
         <v>41364</v>
       </c>
       <c r="W139">
-        <v>51.5</v>
+        <v>51.9</v>
       </c>
       <c r="Z139" s="2">
         <v>41364</v>
       </c>
       <c r="AA139">
-        <v>55.3</v>
+        <v>55.9</v>
       </c>
       <c r="AD139" s="2">
         <v>41364</v>
@@ -9566,13 +9572,13 @@
         <v>41394</v>
       </c>
       <c r="W140">
-        <v>50.4</v>
+        <v>51</v>
       </c>
       <c r="Z140" s="2">
         <v>41394</v>
       </c>
       <c r="AA140">
-        <v>54.1</v>
+        <v>54.3</v>
       </c>
       <c r="AD140" s="2">
         <v>41394</v>
@@ -9628,13 +9634,13 @@
         <v>41425</v>
       </c>
       <c r="W141">
-        <v>50.6</v>
+        <v>50.8</v>
       </c>
       <c r="Z141" s="2">
         <v>41425</v>
       </c>
       <c r="AA141">
-        <v>54.4</v>
+        <v>54.8</v>
       </c>
       <c r="AD141" s="2">
         <v>41425</v>
@@ -9690,13 +9696,13 @@
         <v>41455</v>
       </c>
       <c r="W142">
-        <v>50.8</v>
+        <v>51.1</v>
       </c>
       <c r="Z142" s="2">
         <v>41455</v>
       </c>
       <c r="AA142">
-        <v>53.3</v>
+        <v>53.6</v>
       </c>
       <c r="AD142" s="2">
         <v>41455</v>
@@ -9752,13 +9758,13 @@
         <v>41486</v>
       </c>
       <c r="W143">
-        <v>54.5</v>
+        <v>53.8</v>
       </c>
       <c r="Z143" s="2">
         <v>41486</v>
       </c>
       <c r="AA143">
-        <v>55.6</v>
+        <v>55.2</v>
       </c>
       <c r="AD143" s="2">
         <v>41486</v>
@@ -9814,13 +9820,13 @@
         <v>41517</v>
       </c>
       <c r="W144">
-        <v>54.8</v>
+        <v>54</v>
       </c>
       <c r="Z144" s="2">
         <v>41517</v>
       </c>
       <c r="AA144">
-        <v>56.3</v>
+        <v>55.3</v>
       </c>
       <c r="AD144" s="2">
         <v>41517</v>
@@ -9876,13 +9882,13 @@
         <v>41547</v>
       </c>
       <c r="W145">
-        <v>55</v>
+        <v>54.6</v>
       </c>
       <c r="Z145" s="2">
         <v>41547</v>
       </c>
       <c r="AA145">
-        <v>53.9</v>
+        <v>53.6</v>
       </c>
       <c r="AD145" s="2">
         <v>41547</v>
@@ -9938,13 +9944,13 @@
         <v>41578</v>
       </c>
       <c r="W146">
-        <v>55.1</v>
+        <v>54.6</v>
       </c>
       <c r="Z146" s="2">
         <v>41578</v>
       </c>
       <c r="AA146">
-        <v>54.2</v>
+        <v>53.9</v>
       </c>
       <c r="AD146" s="2">
         <v>41578</v>
@@ -10000,13 +10006,13 @@
         <v>41608</v>
       </c>
       <c r="W147">
-        <v>56.4</v>
+        <v>55.5</v>
       </c>
       <c r="Z147" s="2">
         <v>41608</v>
       </c>
       <c r="AA147">
-        <v>53.6</v>
+        <v>53.1</v>
       </c>
       <c r="AD147" s="2">
         <v>41608</v>
@@ -10062,13 +10068,13 @@
         <v>41639</v>
       </c>
       <c r="W148">
-        <v>56.6</v>
+        <v>56.5</v>
       </c>
       <c r="Z148" s="2">
         <v>41639</v>
       </c>
       <c r="AA148">
-        <v>53.2</v>
+        <v>53.5</v>
       </c>
       <c r="AD148" s="2">
         <v>41639</v>
@@ -10124,13 +10130,13 @@
         <v>41670</v>
       </c>
       <c r="W149">
-        <v>51.8</v>
+        <v>52.5</v>
       </c>
       <c r="Z149" s="2">
         <v>41670</v>
       </c>
       <c r="AA149">
-        <v>54.4</v>
+        <v>55.2</v>
       </c>
       <c r="AD149" s="2">
         <v>41670</v>
@@ -10186,13 +10192,13 @@
         <v>41698</v>
       </c>
       <c r="W150">
-        <v>54.4</v>
+        <v>55</v>
       </c>
       <c r="Z150" s="2">
         <v>41698</v>
       </c>
       <c r="AA150">
-        <v>52.8</v>
+        <v>53.4</v>
       </c>
       <c r="AD150" s="2">
         <v>41698</v>
@@ -10248,13 +10254,13 @@
         <v>41729</v>
       </c>
       <c r="W151">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="Z151" s="2">
         <v>41729</v>
       </c>
       <c r="AA151">
-        <v>54.5</v>
+        <v>54.9</v>
       </c>
       <c r="AD151" s="2">
         <v>41729</v>
@@ -10310,13 +10316,13 @@
         <v>41759</v>
       </c>
       <c r="W152">
-        <v>55.9</v>
+        <v>56.6</v>
       </c>
       <c r="Z152" s="2">
         <v>41759</v>
       </c>
       <c r="AA152">
-        <v>55.3</v>
+        <v>55.7</v>
       </c>
       <c r="AD152" s="2">
         <v>41759</v>
@@ -10378,7 +10384,7 @@
         <v>41790</v>
       </c>
       <c r="AA153">
-        <v>56.6</v>
+        <v>56</v>
       </c>
       <c r="AD153" s="2">
         <v>41790</v>
@@ -10434,13 +10440,13 @@
         <v>41820</v>
       </c>
       <c r="W154">
-        <v>54.9</v>
+        <v>55</v>
       </c>
       <c r="Z154" s="2">
         <v>41820</v>
       </c>
       <c r="AA154">
-        <v>56.4</v>
+        <v>56.8</v>
       </c>
       <c r="AD154" s="2">
         <v>41820</v>
@@ -10478,7 +10484,7 @@
         <v>43861</v>
       </c>
       <c r="K155">
-        <v>2233570000</v>
+        <v>2854130000</v>
       </c>
       <c r="N155" s="2">
         <v>41851</v>
@@ -10496,13 +10502,13 @@
         <v>41851</v>
       </c>
       <c r="W155">
-        <v>55.6</v>
+        <v>55.1</v>
       </c>
       <c r="Z155" s="2">
         <v>41851</v>
       </c>
       <c r="AA155">
-        <v>57.6</v>
+        <v>56.9</v>
       </c>
       <c r="AD155" s="2">
         <v>41851</v>
@@ -10558,7 +10564,7 @@
         <v>41882</v>
       </c>
       <c r="W156">
-        <v>56.8</v>
+        <v>56.3</v>
       </c>
       <c r="Z156" s="2">
         <v>41882</v>
@@ -10620,13 +10626,13 @@
         <v>41912</v>
       </c>
       <c r="W157">
-        <v>56.1</v>
+        <v>55.7</v>
       </c>
       <c r="Z157" s="2">
         <v>41912</v>
       </c>
       <c r="AA157">
-        <v>57.7</v>
+        <v>57.3</v>
       </c>
       <c r="AD157" s="2">
         <v>41912</v>
@@ -10682,13 +10688,13 @@
         <v>41943</v>
       </c>
       <c r="W158">
-        <v>56.6</v>
+        <v>56.2</v>
       </c>
       <c r="Z158" s="2">
         <v>41943</v>
       </c>
       <c r="AA158">
-        <v>56</v>
+        <v>55.8</v>
       </c>
       <c r="AD158" s="2">
         <v>41943</v>
@@ -10744,13 +10750,13 @@
         <v>41973</v>
       </c>
       <c r="W159">
-        <v>56.8</v>
+        <v>56.3</v>
       </c>
       <c r="Z159" s="2">
         <v>41973</v>
       </c>
       <c r="AA159">
-        <v>58.5</v>
+        <v>58.2</v>
       </c>
       <c r="AD159" s="2">
         <v>41973</v>
@@ -10806,13 +10812,13 @@
         <v>42004</v>
       </c>
       <c r="W160">
-        <v>55.6</v>
+        <v>55.7</v>
       </c>
       <c r="Z160" s="2">
         <v>42004</v>
       </c>
       <c r="AA160">
-        <v>56.8</v>
+        <v>57.2</v>
       </c>
       <c r="AD160" s="2">
         <v>42004</v>
@@ -10868,7 +10874,7 @@
         <v>42035</v>
       </c>
       <c r="W161">
-        <v>53.6</v>
+        <v>54</v>
       </c>
       <c r="Z161" s="2">
         <v>42035</v>
@@ -10930,13 +10936,13 @@
         <v>42063</v>
       </c>
       <c r="W162">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
       <c r="Z162" s="2">
         <v>42063</v>
       </c>
       <c r="AA162">
-        <v>57.3</v>
+        <v>57.6</v>
       </c>
       <c r="AD162" s="2">
         <v>42063</v>
@@ -10992,13 +10998,13 @@
         <v>42094</v>
       </c>
       <c r="W163">
-        <v>51.9</v>
+        <v>52.3</v>
       </c>
       <c r="Z163" s="2">
         <v>42094</v>
       </c>
       <c r="AA163">
-        <v>57.7</v>
+        <v>58.5</v>
       </c>
       <c r="AD163" s="2">
         <v>42094</v>
@@ -11054,13 +11060,13 @@
         <v>42124</v>
       </c>
       <c r="W164">
-        <v>51.9</v>
+        <v>52.1</v>
       </c>
       <c r="Z164" s="2">
         <v>42124</v>
       </c>
       <c r="AA164">
-        <v>57.5</v>
+        <v>57.4</v>
       </c>
       <c r="AD164" s="2">
         <v>42124</v>
@@ -11116,7 +11122,7 @@
         <v>42155</v>
       </c>
       <c r="W165">
-        <v>52.6</v>
+        <v>52.7</v>
       </c>
       <c r="Z165" s="2">
         <v>42155</v>
@@ -11160,7 +11166,7 @@
         <v>44196</v>
       </c>
       <c r="K166">
-        <v>1445950000</v>
+        <v>1519820000</v>
       </c>
       <c r="N166" s="2">
         <v>42185</v>
@@ -11184,7 +11190,7 @@
         <v>42185</v>
       </c>
       <c r="AA166">
-        <v>55.8</v>
+        <v>55.9</v>
       </c>
       <c r="AD166" s="2">
         <v>42185</v>
@@ -11218,6 +11224,12 @@
       <c r="G167">
         <v>8220000000</v>
       </c>
+      <c r="J167" s="2">
+        <v>44227</v>
+      </c>
+      <c r="K167">
+        <v>1153510000</v>
+      </c>
       <c r="N167" s="2">
         <v>42216</v>
       </c>
@@ -11234,13 +11246,13 @@
         <v>42216</v>
       </c>
       <c r="W167">
-        <v>52.2</v>
+        <v>51.9</v>
       </c>
       <c r="Z167" s="2">
         <v>42216</v>
       </c>
       <c r="AA167">
-        <v>60.3</v>
+        <v>59.5</v>
       </c>
       <c r="AD167" s="2">
         <v>42216</v>
@@ -11290,13 +11302,13 @@
         <v>42247</v>
       </c>
       <c r="W168">
-        <v>50.4</v>
+        <v>50</v>
       </c>
       <c r="Z168" s="2">
         <v>42247</v>
       </c>
       <c r="AA168">
-        <v>58.9</v>
+        <v>59</v>
       </c>
       <c r="AD168" s="2">
         <v>42247</v>
@@ -11346,13 +11358,13 @@
         <v>42277</v>
       </c>
       <c r="W169">
-        <v>50.1</v>
+        <v>50</v>
       </c>
       <c r="Z169" s="2">
         <v>42277</v>
       </c>
       <c r="AA169">
-        <v>56</v>
+        <v>55.9</v>
       </c>
       <c r="AD169" s="2">
         <v>42277</v>
@@ -11402,13 +11414,13 @@
         <v>42308</v>
       </c>
       <c r="W170">
-        <v>49.3</v>
+        <v>49</v>
       </c>
       <c r="Z170" s="2">
         <v>42308</v>
       </c>
       <c r="AA170">
-        <v>57.5</v>
+        <v>56.9</v>
       </c>
       <c r="AD170" s="2">
         <v>42308</v>
@@ -11458,13 +11470,13 @@
         <v>42338</v>
       </c>
       <c r="W171">
-        <v>49.5</v>
+        <v>49.1</v>
       </c>
       <c r="Z171" s="2">
         <v>42338</v>
       </c>
       <c r="AA171">
-        <v>56</v>
+        <v>56.1</v>
       </c>
       <c r="AD171" s="2">
         <v>42338</v>
@@ -11520,7 +11532,7 @@
         <v>42369</v>
       </c>
       <c r="AA172">
-        <v>55</v>
+        <v>55.2</v>
       </c>
       <c r="AD172" s="2">
         <v>42369</v>
@@ -11570,13 +11582,13 @@
         <v>42400</v>
       </c>
       <c r="W173">
-        <v>47</v>
+        <v>47.5</v>
       </c>
       <c r="Z173" s="2">
         <v>42400</v>
       </c>
       <c r="AA173">
-        <v>53.4</v>
+        <v>53.9</v>
       </c>
       <c r="AD173" s="2">
         <v>42400</v>
@@ -11626,13 +11638,13 @@
         <v>42429</v>
       </c>
       <c r="W174">
-        <v>49.1</v>
+        <v>49.2</v>
       </c>
       <c r="Z174" s="2">
         <v>42429</v>
       </c>
       <c r="AA174">
-        <v>53.3</v>
+        <v>52.9</v>
       </c>
       <c r="AD174" s="2">
         <v>42429</v>
@@ -11682,13 +11694,13 @@
         <v>42460</v>
       </c>
       <c r="W175">
-        <v>51</v>
+        <v>51.4</v>
       </c>
       <c r="Z175" s="2">
         <v>42460</v>
       </c>
       <c r="AA175">
-        <v>55.1</v>
+        <v>55.5</v>
       </c>
       <c r="AD175" s="2">
         <v>42460</v>
@@ -11744,7 +11756,7 @@
         <v>42490</v>
       </c>
       <c r="AA176">
-        <v>55.6</v>
+        <v>55.3</v>
       </c>
       <c r="AD176" s="2">
         <v>42490</v>
@@ -11800,7 +11812,7 @@
         <v>42521</v>
       </c>
       <c r="AA177">
-        <v>53.8</v>
+        <v>54.1</v>
       </c>
       <c r="AD177" s="2">
         <v>42521</v>
@@ -11850,13 +11862,13 @@
         <v>42551</v>
       </c>
       <c r="W178">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="Z178" s="2">
         <v>42551</v>
       </c>
       <c r="AA178">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="AD178" s="2">
         <v>42551</v>
@@ -11906,13 +11918,13 @@
         <v>42582</v>
       </c>
       <c r="W179">
-        <v>52.5</v>
+        <v>52.4</v>
       </c>
       <c r="Z179" s="2">
         <v>42582</v>
       </c>
       <c r="AA179">
-        <v>56.4</v>
+        <v>55.6</v>
       </c>
       <c r="AD179" s="2">
         <v>42582</v>
@@ -11962,13 +11974,13 @@
         <v>42613</v>
       </c>
       <c r="W180">
-        <v>50</v>
+        <v>49.7</v>
       </c>
       <c r="Z180" s="2">
         <v>42613</v>
       </c>
       <c r="AA180">
-        <v>52.3</v>
+        <v>52.9</v>
       </c>
       <c r="AD180" s="2">
         <v>42613</v>
@@ -12018,13 +12030,13 @@
         <v>42643</v>
       </c>
       <c r="W181">
-        <v>51.2</v>
+        <v>51</v>
       </c>
       <c r="Z181" s="2">
         <v>42643</v>
       </c>
       <c r="AA181">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="AD181" s="2">
         <v>42643</v>
@@ -12074,13 +12086,13 @@
         <v>42674</v>
       </c>
       <c r="W182">
-        <v>52</v>
+        <v>51.8</v>
       </c>
       <c r="Z182" s="2">
         <v>42674</v>
       </c>
       <c r="AA182">
-        <v>54.3</v>
+        <v>54.4</v>
       </c>
       <c r="AD182" s="2">
         <v>42674</v>
@@ -12130,13 +12142,13 @@
         <v>42704</v>
       </c>
       <c r="W183">
-        <v>53.4</v>
+        <v>53.3</v>
       </c>
       <c r="Z183" s="2">
         <v>42704</v>
       </c>
       <c r="AA183">
-        <v>56.2</v>
+        <v>56.5</v>
       </c>
       <c r="AD183" s="2">
         <v>42704</v>
@@ -12186,13 +12198,13 @@
         <v>42735</v>
       </c>
       <c r="W184">
-        <v>54.4</v>
+        <v>54.2</v>
       </c>
       <c r="Z184" s="2">
         <v>42735</v>
       </c>
       <c r="AA184">
-        <v>56.3</v>
+        <v>55.9</v>
       </c>
       <c r="AD184" s="2">
         <v>42735</v>
@@ -12242,13 +12254,13 @@
         <v>42766</v>
       </c>
       <c r="W185">
-        <v>55.3</v>
+        <v>55.7</v>
       </c>
       <c r="Z185" s="2">
         <v>42766</v>
       </c>
       <c r="AA185">
-        <v>56.2</v>
+        <v>57.1</v>
       </c>
       <c r="AD185" s="2">
         <v>42766</v>
@@ -12298,13 +12310,13 @@
         <v>42794</v>
       </c>
       <c r="W186">
-        <v>57.4</v>
+        <v>57.7</v>
       </c>
       <c r="Z186" s="2">
         <v>42794</v>
       </c>
       <c r="AA186">
-        <v>56.4</v>
+        <v>56.6</v>
       </c>
       <c r="AD186" s="2">
         <v>42794</v>
@@ -12354,13 +12366,13 @@
         <v>42825</v>
       </c>
       <c r="W187">
-        <v>56.4</v>
+        <v>56.8</v>
       </c>
       <c r="Z187" s="2">
         <v>42825</v>
       </c>
       <c r="AA187">
-        <v>55.8</v>
+        <v>56.2</v>
       </c>
       <c r="AD187" s="2">
         <v>42825</v>
@@ -12410,7 +12422,7 @@
         <v>42855</v>
       </c>
       <c r="W188">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="Z188" s="2">
         <v>42855</v>
@@ -12472,7 +12484,7 @@
         <v>42886</v>
       </c>
       <c r="AA189">
-        <v>57.4</v>
+        <v>57.7</v>
       </c>
       <c r="AD189" s="2">
         <v>42886</v>
@@ -12522,13 +12534,13 @@
         <v>42916</v>
       </c>
       <c r="W190">
-        <v>56.4</v>
+        <v>56.1</v>
       </c>
       <c r="Z190" s="2">
         <v>42916</v>
       </c>
       <c r="AA190">
-        <v>57.1</v>
+        <v>56.6</v>
       </c>
       <c r="AD190" s="2">
         <v>42916</v>
@@ -12578,13 +12590,13 @@
         <v>42947</v>
       </c>
       <c r="W191">
-        <v>56.8</v>
+        <v>56.5</v>
       </c>
       <c r="Z191" s="2">
         <v>42947</v>
       </c>
       <c r="AA191">
-        <v>55.9</v>
+        <v>55.1</v>
       </c>
       <c r="AD191" s="2">
         <v>42947</v>
@@ -12634,13 +12646,13 @@
         <v>42978</v>
       </c>
       <c r="W192">
-        <v>58.8</v>
+        <v>58.5</v>
       </c>
       <c r="Z192" s="2">
         <v>42978</v>
       </c>
       <c r="AA192">
-        <v>55.4</v>
+        <v>55.9</v>
       </c>
       <c r="AD192" s="2">
         <v>42978</v>
@@ -12696,7 +12708,7 @@
         <v>43008</v>
       </c>
       <c r="AA193">
-        <v>59.1</v>
+        <v>58.1</v>
       </c>
       <c r="AD193" s="2">
         <v>43008</v>
@@ -12746,13 +12758,13 @@
         <v>43039</v>
       </c>
       <c r="W194">
-        <v>58.8</v>
+        <v>58.6</v>
       </c>
       <c r="Z194" s="2">
         <v>43039</v>
       </c>
       <c r="AA194">
-        <v>59.6</v>
+        <v>60.3</v>
       </c>
       <c r="AD194" s="2">
         <v>43039</v>
@@ -12802,7 +12814,7 @@
         <v>43069</v>
       </c>
       <c r="W195">
-        <v>58.1</v>
+        <v>57.9</v>
       </c>
       <c r="Z195" s="2">
         <v>43069</v>
@@ -12858,13 +12870,13 @@
         <v>43100</v>
       </c>
       <c r="W196">
-        <v>59.1</v>
+        <v>59.2</v>
       </c>
       <c r="Z196" s="2">
         <v>43100</v>
       </c>
       <c r="AA196">
-        <v>55.9</v>
+        <v>56.2</v>
       </c>
       <c r="AD196" s="2">
         <v>43100</v>
@@ -12914,13 +12926,13 @@
         <v>43131</v>
       </c>
       <c r="W197">
-        <v>59.2</v>
+        <v>59.4</v>
       </c>
       <c r="Z197" s="2">
         <v>43131</v>
       </c>
       <c r="AA197">
-        <v>59.5</v>
+        <v>60.3</v>
       </c>
       <c r="AD197" s="2">
         <v>43131</v>
@@ -12970,13 +12982,13 @@
         <v>43159</v>
       </c>
       <c r="W198">
-        <v>60.6</v>
+        <v>60.8</v>
       </c>
       <c r="Z198" s="2">
         <v>43159</v>
       </c>
       <c r="AA198">
-        <v>58.2</v>
+        <v>58.4</v>
       </c>
       <c r="AD198" s="2">
         <v>43159</v>
@@ -13026,13 +13038,13 @@
         <v>43190</v>
       </c>
       <c r="W199">
-        <v>58.9</v>
+        <v>59.2</v>
       </c>
       <c r="Z199" s="2">
         <v>43190</v>
       </c>
       <c r="AA199">
-        <v>58.7</v>
+        <v>58.6</v>
       </c>
       <c r="AD199" s="2">
         <v>43190</v>
@@ -13082,13 +13094,13 @@
         <v>43220</v>
       </c>
       <c r="W200">
-        <v>58.4</v>
+        <v>58.6</v>
       </c>
       <c r="Z200" s="2">
         <v>43220</v>
       </c>
       <c r="AA200">
-        <v>57.5</v>
+        <v>57.7</v>
       </c>
       <c r="AD200" s="2">
         <v>43220</v>
@@ -13138,13 +13150,13 @@
         <v>43251</v>
       </c>
       <c r="W201">
-        <v>59</v>
+        <v>58.9</v>
       </c>
       <c r="Z201" s="2">
         <v>43251</v>
       </c>
       <c r="AA201">
-        <v>58.2</v>
+        <v>58.1</v>
       </c>
       <c r="AD201" s="2">
         <v>43251</v>
@@ -13194,13 +13206,13 @@
         <v>43281</v>
       </c>
       <c r="W202">
-        <v>59.9</v>
+        <v>59.7</v>
       </c>
       <c r="Z202" s="2">
         <v>43281</v>
       </c>
       <c r="AA202">
-        <v>59.2</v>
+        <v>58.5</v>
       </c>
       <c r="AD202" s="2">
         <v>43281</v>
@@ -13250,13 +13262,13 @@
         <v>43312</v>
       </c>
       <c r="W203">
-        <v>58.2</v>
+        <v>58</v>
       </c>
       <c r="Z203" s="2">
         <v>43312</v>
       </c>
       <c r="AA203">
-        <v>57.5</v>
+        <v>57</v>
       </c>
       <c r="AD203" s="2">
         <v>43312</v>
@@ -13306,13 +13318,13 @@
         <v>43343</v>
       </c>
       <c r="W204">
-        <v>60.8</v>
+        <v>60.4</v>
       </c>
       <c r="Z204" s="2">
         <v>43343</v>
       </c>
       <c r="AA204">
-        <v>58.9</v>
+        <v>59.3</v>
       </c>
       <c r="AD204" s="2">
         <v>43343</v>
@@ -13362,13 +13374,13 @@
         <v>43373</v>
       </c>
       <c r="W205">
-        <v>59.3</v>
+        <v>59.5</v>
       </c>
       <c r="Z205" s="2">
         <v>43373</v>
       </c>
       <c r="AA205">
-        <v>61.2</v>
+        <v>60.3</v>
       </c>
       <c r="AD205" s="2">
         <v>43373</v>
@@ -13418,13 +13430,13 @@
         <v>43404</v>
       </c>
       <c r="W206">
-        <v>58.5</v>
+        <v>58.3</v>
       </c>
       <c r="Z206" s="2">
         <v>43404</v>
       </c>
       <c r="AA206">
-        <v>60.3</v>
+        <v>60.9</v>
       </c>
       <c r="AD206" s="2">
         <v>43404</v>
@@ -13474,13 +13486,13 @@
         <v>43434</v>
       </c>
       <c r="W207">
-        <v>58.8</v>
+        <v>58.7</v>
       </c>
       <c r="Z207" s="2">
         <v>43434</v>
       </c>
       <c r="AA207">
-        <v>60.2</v>
+        <v>60.1</v>
       </c>
       <c r="AD207" s="2">
         <v>43434</v>
@@ -13530,13 +13542,13 @@
         <v>43465</v>
       </c>
       <c r="W208">
-        <v>55</v>
+        <v>54.8</v>
       </c>
       <c r="Z208" s="2">
         <v>43465</v>
       </c>
       <c r="AA208">
-        <v>58</v>
+        <v>58.2</v>
       </c>
       <c r="AD208" s="2">
         <v>43465</v>
@@ -13586,13 +13598,13 @@
         <v>43496</v>
       </c>
       <c r="W209">
-        <v>55.5</v>
+        <v>55.7</v>
       </c>
       <c r="Z209" s="2">
         <v>43496</v>
       </c>
       <c r="AA209">
-        <v>56</v>
+        <v>56.5</v>
       </c>
       <c r="AD209" s="2">
         <v>43496</v>
@@ -13642,13 +13654,13 @@
         <v>43524</v>
       </c>
       <c r="W210">
-        <v>54.1</v>
+        <v>54.2</v>
       </c>
       <c r="Z210" s="2">
         <v>43524</v>
       </c>
       <c r="AA210">
-        <v>58.5</v>
+        <v>58.8</v>
       </c>
       <c r="AD210" s="2">
         <v>43524</v>
@@ -13698,13 +13710,13 @@
         <v>43555</v>
       </c>
       <c r="W211">
-        <v>54.6</v>
+        <v>55.3</v>
       </c>
       <c r="Z211" s="2">
         <v>43555</v>
       </c>
       <c r="AA211">
-        <v>56.3</v>
+        <v>57</v>
       </c>
       <c r="AD211" s="2">
         <v>43555</v>
@@ -13754,13 +13766,13 @@
         <v>43585</v>
       </c>
       <c r="W212">
-        <v>53.4</v>
+        <v>53.6</v>
       </c>
       <c r="Z212" s="2">
         <v>43585</v>
       </c>
       <c r="AA212">
-        <v>55.7</v>
+        <v>55.6</v>
       </c>
       <c r="AD212" s="2">
         <v>43585</v>
@@ -13810,13 +13822,13 @@
         <v>43616</v>
       </c>
       <c r="W213">
-        <v>52.3</v>
+        <v>52.2</v>
       </c>
       <c r="Z213" s="2">
         <v>43616</v>
       </c>
       <c r="AA213">
-        <v>56.3</v>
+        <v>56.2</v>
       </c>
       <c r="AD213" s="2">
         <v>43616</v>
@@ -13866,13 +13878,13 @@
         <v>43646</v>
       </c>
       <c r="W214">
-        <v>51.6</v>
+        <v>51.3</v>
       </c>
       <c r="Z214" s="2">
         <v>43646</v>
       </c>
       <c r="AA214">
-        <v>55.4</v>
+        <v>55</v>
       </c>
       <c r="AD214" s="2">
         <v>43646</v>
@@ -13922,13 +13934,13 @@
         <v>43677</v>
       </c>
       <c r="W215">
-        <v>51.3</v>
+        <v>51</v>
       </c>
       <c r="Z215" s="2">
         <v>43677</v>
       </c>
       <c r="AA215">
-        <v>54.8</v>
+        <v>54.2</v>
       </c>
       <c r="AD215" s="2">
         <v>43677</v>
@@ -13978,13 +13990,13 @@
         <v>43708</v>
       </c>
       <c r="W216">
-        <v>48.8</v>
+        <v>48.4</v>
       </c>
       <c r="Z216" s="2">
         <v>43708</v>
       </c>
       <c r="AA216">
-        <v>56</v>
+        <v>55.8</v>
       </c>
       <c r="AD216" s="2">
         <v>43708</v>
@@ -14034,13 +14046,13 @@
         <v>43738</v>
       </c>
       <c r="W217">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="Z217" s="2">
         <v>43738</v>
       </c>
       <c r="AA217">
-        <v>53.5</v>
+        <v>52.9</v>
       </c>
       <c r="AD217" s="2">
         <v>43738</v>
@@ -14090,13 +14102,13 @@
         <v>43769</v>
       </c>
       <c r="W218">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="Z218" s="2">
         <v>43769</v>
       </c>
       <c r="AA218">
-        <v>54.4</v>
+        <v>54.6</v>
       </c>
       <c r="AD218" s="2">
         <v>43769</v>
@@ -14146,7 +14158,7 @@
         <v>43799</v>
       </c>
       <c r="W219">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="Z219" s="2">
         <v>43799</v>
@@ -14202,13 +14214,13 @@
         <v>43830</v>
       </c>
       <c r="W220">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="Z220" s="2">
         <v>43830</v>
       </c>
       <c r="AA220">
-        <v>54.9</v>
+        <v>55.6</v>
       </c>
       <c r="AD220" s="2">
         <v>43830</v>
@@ -14234,7 +14246,7 @@
         <v>43861</v>
       </c>
       <c r="C221">
-        <v>26003000000</v>
+        <v>26355000000</v>
       </c>
       <c r="F221" s="2">
         <v>43890</v>
@@ -14258,13 +14270,13 @@
         <v>43861</v>
       </c>
       <c r="W221">
-        <v>50.9</v>
+        <v>51.1</v>
       </c>
       <c r="Z221" s="2">
         <v>43861</v>
       </c>
       <c r="AA221">
-        <v>55.5</v>
+        <v>55.9</v>
       </c>
       <c r="AD221" s="2">
         <v>43861</v>
@@ -14290,7 +14302,7 @@
         <v>43890</v>
       </c>
       <c r="C222">
-        <v>25723000000</v>
+        <v>25241000000</v>
       </c>
       <c r="F222" s="2">
         <v>43921</v>
@@ -14314,13 +14326,13 @@
         <v>43890</v>
       </c>
       <c r="W222">
-        <v>50.1</v>
+        <v>50.3</v>
       </c>
       <c r="Z222" s="2">
         <v>43890</v>
       </c>
       <c r="AA222">
-        <v>57.3</v>
+        <v>56.7</v>
       </c>
       <c r="AD222" s="2">
         <v>43890</v>
@@ -14346,7 +14358,7 @@
         <v>43921</v>
       </c>
       <c r="C223">
-        <v>24872000000</v>
+        <v>23792000000</v>
       </c>
       <c r="F223" s="2">
         <v>43951</v>
@@ -14370,13 +14382,13 @@
         <v>43921</v>
       </c>
       <c r="W223">
-        <v>49.1</v>
+        <v>49.7</v>
       </c>
       <c r="Z223" s="2">
         <v>43921</v>
       </c>
       <c r="AA223">
-        <v>52.5</v>
+        <v>53.6</v>
       </c>
       <c r="AD223" s="2">
         <v>43921</v>
@@ -14402,7 +14414,7 @@
         <v>43951</v>
       </c>
       <c r="C224">
-        <v>22906000000</v>
+        <v>21599000000</v>
       </c>
       <c r="F224" s="2">
         <v>43982</v>
@@ -14426,13 +14438,13 @@
         <v>43951</v>
       </c>
       <c r="W224">
-        <v>41.5</v>
+        <v>41.7</v>
       </c>
       <c r="Z224" s="2">
         <v>43951</v>
       </c>
       <c r="AA224">
-        <v>41.8</v>
+        <v>41.6</v>
       </c>
       <c r="AD224" s="2">
         <v>43951</v>
@@ -14458,7 +14470,7 @@
         <v>43982</v>
       </c>
       <c r="C225">
-        <v>22488000000</v>
+        <v>20967000000</v>
       </c>
       <c r="F225" s="2">
         <v>44012</v>
@@ -14514,7 +14526,7 @@
         <v>44012</v>
       </c>
       <c r="C226">
-        <v>23161000000</v>
+        <v>21400000000</v>
       </c>
       <c r="F226" s="2">
         <v>44043</v>
@@ -14538,13 +14550,13 @@
         <v>44012</v>
       </c>
       <c r="W226">
-        <v>52.6</v>
+        <v>52.2</v>
       </c>
       <c r="Z226" s="2">
         <v>44012</v>
       </c>
       <c r="AA226">
-        <v>57.1</v>
+        <v>56.5</v>
       </c>
       <c r="AD226" s="2">
         <v>44012</v>
@@ -14570,7 +14582,7 @@
         <v>44043</v>
       </c>
       <c r="C227">
-        <v>22458000000</v>
+        <v>20713000000</v>
       </c>
       <c r="F227" s="2">
         <v>44074</v>
@@ -14594,13 +14606,13 @@
         <v>44043</v>
       </c>
       <c r="W227">
-        <v>54.2</v>
+        <v>53.7</v>
       </c>
       <c r="Z227" s="2">
         <v>44043</v>
       </c>
       <c r="AA227">
-        <v>58.1</v>
+        <v>56.6</v>
       </c>
       <c r="AD227" s="2">
         <v>44043</v>
@@ -14626,7 +14638,7 @@
         <v>44074</v>
       </c>
       <c r="C228">
-        <v>22391000000</v>
+        <v>20947000000</v>
       </c>
       <c r="F228" s="2">
         <v>44104</v>
@@ -14650,13 +14662,13 @@
         <v>44074</v>
       </c>
       <c r="W228">
-        <v>56</v>
+        <v>55.6</v>
       </c>
       <c r="Z228" s="2">
         <v>44074</v>
       </c>
       <c r="AA228">
-        <v>56.9</v>
+        <v>57.2</v>
       </c>
       <c r="AD228" s="2">
         <v>44074</v>
@@ -14682,7 +14694,7 @@
         <v>44104</v>
       </c>
       <c r="C229">
-        <v>22738000000</v>
+        <v>21246000000</v>
       </c>
       <c r="F229" s="2">
         <v>44135</v>
@@ -14706,13 +14718,13 @@
         <v>44104</v>
       </c>
       <c r="W229">
-        <v>55.4</v>
+        <v>55.7</v>
       </c>
       <c r="Z229" s="2">
         <v>44104</v>
       </c>
       <c r="AA229">
-        <v>57.8</v>
+        <v>57.2</v>
       </c>
       <c r="AD229" s="2">
         <v>44104</v>
@@ -14738,7 +14750,7 @@
         <v>44135</v>
       </c>
       <c r="C230">
-        <v>22639000000</v>
+        <v>19875000000</v>
       </c>
       <c r="F230" s="2">
         <v>44165</v>
@@ -14762,13 +14774,13 @@
         <v>44135</v>
       </c>
       <c r="W230">
-        <v>59.3</v>
+        <v>58.8</v>
       </c>
       <c r="Z230" s="2">
         <v>44135</v>
       </c>
       <c r="AA230">
-        <v>56.6</v>
+        <v>56.2</v>
       </c>
       <c r="AD230" s="2">
         <v>44135</v>
@@ -14794,7 +14806,7 @@
         <v>44165</v>
       </c>
       <c r="C231">
-        <v>22571000000</v>
+        <v>19015000000</v>
       </c>
       <c r="F231" s="2">
         <v>44196</v>
@@ -14818,13 +14830,13 @@
         <v>44165</v>
       </c>
       <c r="W231">
-        <v>57.5</v>
+        <v>57.7</v>
       </c>
       <c r="Z231" s="2">
         <v>44165</v>
       </c>
       <c r="AA231">
-        <v>55.9</v>
+        <v>56.8</v>
       </c>
       <c r="AD231" s="2">
         <v>44165</v>
@@ -14842,10 +14854,22 @@
         <v>44165</v>
       </c>
       <c r="AQ231">
-        <v>25.03</v>
+        <v>25.08</v>
       </c>
     </row>
     <row r="232" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B232" s="2">
+        <v>44196</v>
+      </c>
+      <c r="C232">
+        <v>19054000000</v>
+      </c>
+      <c r="F232" s="2">
+        <v>44227</v>
+      </c>
+      <c r="G232">
+        <v>13470000000</v>
+      </c>
       <c r="N232" s="2">
         <v>44196</v>
       </c>
@@ -14862,13 +14886,13 @@
         <v>44196</v>
       </c>
       <c r="W232">
-        <v>60.7</v>
+        <v>60.5</v>
       </c>
       <c r="Z232" s="2">
         <v>44196</v>
       </c>
       <c r="AA232">
-        <v>57.2</v>
+        <v>57.7</v>
       </c>
       <c r="AD232" s="2">
         <v>44196</v>
@@ -14886,7 +14910,7 @@
         <v>44196</v>
       </c>
       <c r="AQ232">
-        <v>25.254999999999999</v>
+        <v>25.265000000000001</v>
       </c>
     </row>
     <row r="233" spans="2:43" x14ac:dyDescent="0.3">
@@ -14894,27 +14918,63 @@
         <v>44227</v>
       </c>
       <c r="O233">
-        <v>1765</v>
+        <v>1452</v>
       </c>
       <c r="R233" s="2">
         <v>44227</v>
       </c>
       <c r="S233">
-        <v>1113</v>
+        <v>1154</v>
+      </c>
+      <c r="V233" s="2">
+        <v>44227</v>
+      </c>
+      <c r="W233">
+        <v>58.7</v>
+      </c>
+      <c r="Z233" s="2">
+        <v>44227</v>
+      </c>
+      <c r="AA233">
+        <v>58.7</v>
+      </c>
+      <c r="AD233" s="2">
+        <v>44227</v>
+      </c>
+      <c r="AE233">
+        <v>52.4</v>
+      </c>
+      <c r="AH233" s="2">
+        <v>44227</v>
+      </c>
+      <c r="AI233">
+        <v>7694</v>
       </c>
       <c r="AP233" s="2">
         <v>44227</v>
       </c>
       <c r="AQ233">
-        <v>25.689</v>
+        <v>25.26</v>
       </c>
     </row>
     <row r="234" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="N234" s="2">
+        <v>44255</v>
+      </c>
+      <c r="O234">
+        <v>1727</v>
+      </c>
+      <c r="R234" s="2">
+        <v>44255</v>
+      </c>
+      <c r="S234">
+        <v>1262</v>
+      </c>
       <c r="AP234" s="2">
         <v>44255</v>
       </c>
       <c r="AQ234">
-        <v>24.789000000000001</v>
+        <v>24.82</v>
       </c>
     </row>
     <row r="235" spans="2:43" x14ac:dyDescent="0.3">
@@ -14922,7 +14982,7 @@
         <v>44286</v>
       </c>
       <c r="AQ235">
-        <v>24.779</v>
+        <v>24.81</v>
       </c>
     </row>
     <row r="236" spans="2:43" x14ac:dyDescent="0.3">
@@ -14930,7 +14990,7 @@
         <v>44316</v>
       </c>
       <c r="AQ236">
-        <v>26.82</v>
+        <v>26.86</v>
       </c>
     </row>
     <row r="237" spans="2:43" x14ac:dyDescent="0.3">
@@ -14938,7 +14998,7 @@
         <v>44347</v>
       </c>
       <c r="AQ237">
-        <v>26.996825999999999</v>
+        <v>27.036826000000001</v>
       </c>
     </row>
     <row r="238" spans="2:43" x14ac:dyDescent="0.3">
@@ -14946,7 +15006,7 @@
         <v>44377</v>
       </c>
       <c r="AQ238">
-        <v>27.375485999999999</v>
+        <v>27.415486000000001</v>
       </c>
     </row>
     <row r="239" spans="2:43" x14ac:dyDescent="0.3">
@@ -14954,7 +15014,7 @@
         <v>44408</v>
       </c>
       <c r="AQ239">
-        <v>28.129145999999999</v>
+        <v>28.169146000000001</v>
       </c>
     </row>
     <row r="240" spans="2:43" x14ac:dyDescent="0.3">
@@ -14962,7 +15022,7 @@
         <v>44439</v>
       </c>
       <c r="AQ240">
-        <v>28.227806000000001</v>
+        <v>28.267806</v>
       </c>
     </row>
     <row r="241" spans="42:43" x14ac:dyDescent="0.3">
@@ -14970,7 +15030,7 @@
         <v>44469</v>
       </c>
       <c r="AQ241">
-        <v>28.226465000000001</v>
+        <v>28.266465</v>
       </c>
     </row>
     <row r="242" spans="42:43" x14ac:dyDescent="0.3">
@@ -14978,7 +15038,7 @@
         <v>44500</v>
       </c>
       <c r="AQ242">
-        <v>28.225124999999998</v>
+        <v>28.265125000000001</v>
       </c>
     </row>
     <row r="243" spans="42:43" x14ac:dyDescent="0.3">
@@ -14986,7 +15046,7 @@
         <v>44530</v>
       </c>
       <c r="AQ243">
-        <v>28.233785000000001</v>
+        <v>28.263784999999999</v>
       </c>
     </row>
     <row r="244" spans="42:43" x14ac:dyDescent="0.3">
@@ -14994,7 +15054,7 @@
         <v>44561</v>
       </c>
       <c r="AQ244">
-        <v>28.222443999999999</v>
+        <v>28.242443999999999</v>
       </c>
     </row>
     <row r="245" spans="42:43" x14ac:dyDescent="0.3">
@@ -15002,7 +15062,7 @@
         <v>44592</v>
       </c>
       <c r="AQ245">
-        <v>28.177534000000001</v>
+        <v>28.187533999999999</v>
       </c>
     </row>
     <row r="246" spans="42:43" x14ac:dyDescent="0.3">
@@ -15018,7 +15078,7 @@
         <v>44651</v>
       </c>
       <c r="AQ247">
-        <v>28.177854</v>
+        <v>28.172854000000001</v>
       </c>
     </row>
     <row r="248" spans="42:43" x14ac:dyDescent="0.3">
@@ -15026,7 +15086,7 @@
         <v>44681</v>
       </c>
       <c r="AQ248">
-        <v>28.176514000000001</v>
+        <v>28.166513999999999</v>
       </c>
     </row>
     <row r="249" spans="42:43" x14ac:dyDescent="0.3">
@@ -15034,7 +15094,7 @@
         <v>44712</v>
       </c>
       <c r="AQ249">
-        <v>28.221536</v>
+        <v>28.206536</v>
       </c>
     </row>
     <row r="250" spans="42:43" x14ac:dyDescent="0.3">
@@ -15042,7 +15102,7 @@
         <v>44742</v>
       </c>
       <c r="AQ250">
-        <v>28.216908</v>
+        <v>28.196908000000001</v>
       </c>
     </row>
     <row r="251" spans="42:43" x14ac:dyDescent="0.3">
@@ -15050,7 +15110,7 @@
         <v>44773</v>
       </c>
       <c r="AQ251">
-        <v>28.232294</v>
+        <v>28.207294000000001</v>
       </c>
     </row>
     <row r="252" spans="42:43" x14ac:dyDescent="0.3">
@@ -15058,7 +15118,7 @@
         <v>44804</v>
       </c>
       <c r="AQ252">
-        <v>28.237691999999999</v>
+        <v>28.207692000000002</v>
       </c>
     </row>
     <row r="253" spans="42:43" x14ac:dyDescent="0.3">
@@ -15066,7 +15126,7 @@
         <v>44834</v>
       </c>
       <c r="AQ253">
-        <v>28.253102999999999</v>
+        <v>28.218102999999999</v>
       </c>
     </row>
     <row r="254" spans="42:43" x14ac:dyDescent="0.3">
@@ -15074,7 +15134,7 @@
         <v>44865</v>
       </c>
       <c r="AQ254">
-        <v>28.268526999999999</v>
+        <v>28.228527</v>
       </c>
     </row>
     <row r="255" spans="42:43" x14ac:dyDescent="0.3">
@@ -15082,7 +15142,7 @@
         <v>44895</v>
       </c>
       <c r="AQ255">
-        <v>28.273962999999998</v>
+        <v>28.228963</v>
       </c>
     </row>
     <row r="256" spans="42:43" x14ac:dyDescent="0.3">
@@ -15090,7 +15150,7 @@
         <v>44926</v>
       </c>
       <c r="AQ256">
-        <v>28.269410000000001</v>
+        <v>28.21941</v>
       </c>
     </row>
   </sheetData>

--- a/helper/Eikon.xlsx
+++ b/helper/Eikon.xlsx
@@ -159,70 +159,70 @@
   <volType type="realTimeData">
     <main first="pldatasource.rhistoryrtdserver">
       <tp t="s">
-        <v>Updated at 11:28:45</v>
+        <v>Updated at 07:43:11</v>
         <stp/>
-        <stp>{AAD26F62-ED4C-4E43-B044-4D530582CBD6}_x0000_</stp>
+        <stp>{9B5521E8-06FB-487E-88BF-AB982B3C6BF7}_x0000_</stp>
+        <tr r="E3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 07:43:08</v>
+        <stp/>
+        <stp>{44693DA7-8725-4E96-9DAE-08DD39508295}_x0000_</stp>
+        <tr r="U3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 07:43:11</v>
+        <stp/>
+        <stp>{B4BA1E8E-DCE0-4A64-BD5B-146A076A8CFC}_x0000_</stp>
+        <tr r="M3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 07:43:09</v>
+        <stp/>
+        <stp>{FB382D3C-7C03-4561-B459-5046E4AA5BED}_x0000_</stp>
+        <tr r="Y3" s="2"/>
+      </tp>
+      <tp t="s">
+        <v>Updated at 07:43:09</v>
+        <stp/>
+        <stp>{A020FD4E-DAFE-4F60-919F-56B6B48BF5E2}_x0000_</stp>
         <tr r="I3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 11:28:41</v>
+        <v>Updated at 07:43:11</v>
         <stp/>
-        <stp>{03EB11DC-D0F5-45F6-B80C-31E12871AB54}_x0000_</stp>
-        <tr r="M3" s="2"/>
+        <stp>{BF31CB05-C7EA-4FB9-A037-31BB60E235DE}_x0000_</stp>
+        <tr r="Q3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 11:28:41</v>
+        <v>Updated at 07:43:09</v>
         <stp/>
-        <stp>{625E6C77-3A88-4B94-BEAE-6961F887F66C}_x0000_</stp>
+        <stp>{C9AAC140-1FDE-42DC-9549-24FE03512E03}_x0000_</stp>
         <tr r="AO3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 11:28:39</v>
+        <v>Updated at 07:43:11</v>
         <stp/>
-        <stp>{2C344D71-DDC2-4DE3-A804-402CA71736BC}_x0000_</stp>
-        <tr r="U3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:28:40</v>
-        <stp/>
-        <stp>{C1DEF0C6-BA9A-43D7-9A26-AAD0109B6B0E}_x0000_</stp>
-        <tr r="Y3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:28:40</v>
-        <stp/>
-        <stp>{5E7AD378-B956-41F7-9068-750682918EB5}_x0000_</stp>
-        <tr r="Q3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:28:40</v>
-        <stp/>
-        <stp>{7B9886B5-A678-4BA7-87DB-C25E325D0F70}_x0000_</stp>
+        <stp>{A1E725A4-59EA-4DED-9B3C-8258863B1699}_x0000_</stp>
         <tr r="A3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 11:28:40</v>
+        <v>Updated at 07:43:09</v>
         <stp/>
-        <stp>{EAEC3E4E-524A-4846-8E38-14C00D03BF2A}_x0000_</stp>
-        <tr r="E3" s="2"/>
+        <stp>{AF3F98B1-C5E3-4DDC-8021-982F3F2AA4E2}_x0000_</stp>
+        <tr r="AC3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 11:28:40</v>
+        <v>Updated at 07:43:09</v>
         <stp/>
-        <stp>{2471CC09-1859-441C-BE4D-40471AAEAA2D}_x0000_</stp>
+        <stp>{F1EC783E-03D5-4173-9C75-EC409D90ED71}_x0000_</stp>
         <tr r="AG3" s="2"/>
       </tp>
       <tp t="s">
-        <v>Updated at 11:28:40</v>
+        <v>Updated at 07:43:09</v>
         <stp/>
-        <stp>{44B04C23-78BE-45D5-8B05-3671EEADB87F}_x0000_</stp>
+        <stp>{6EB20EEA-0D74-42BE-8F03-3B6D000350BB}_x0000_</stp>
         <tr r="AK3" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>Updated at 11:28:40</v>
-        <stp/>
-        <stp>{53577359-766E-4339-A9F2-8124D6160AA2}_x0000_</stp>
-        <tr r="AC3" s="2"/>
       </tp>
     </main>
   </volType>
@@ -612,47 +612,47 @@
     <row r="3" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>_xll.RHistory(C2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",B4)</f>
-        <v>Updated at 11:28:40</v>
+        <v>Updated at 07:43:11</v>
       </c>
       <c r="E3" t="str">
         <f>_xll.RHistory(G2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",F4)</f>
-        <v>Updated at 11:28:40</v>
+        <v>Updated at 07:43:11</v>
       </c>
       <c r="I3" t="str">
         <f>_xll.RHistory(K2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:NO SORT:ASC NULL:NA CH:Fd",J4)</f>
-        <v>Updated at 11:28:45</v>
+        <v>Updated at 07:43:09</v>
       </c>
       <c r="M3" t="str">
         <f>_xll.RHistory(O2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",N4)</f>
-        <v>Updated at 11:28:41</v>
+        <v>Updated at 07:43:11</v>
       </c>
       <c r="Q3" t="str">
         <f>_xll.RHistory(S2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",R4)</f>
-        <v>Updated at 11:28:40</v>
+        <v>Updated at 07:43:11</v>
       </c>
       <c r="U3" t="str">
         <f>_xll.RHistory(W2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",V4)</f>
-        <v>Updated at 11:28:39</v>
+        <v>Updated at 07:43:08</v>
       </c>
       <c r="Y3" t="str">
         <f>_xll.RHistory(AA2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",Z4)</f>
-        <v>Updated at 11:28:40</v>
+        <v>Updated at 07:43:09</v>
       </c>
       <c r="AC3" t="str">
         <f>_xll.RHistory(AE2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AD4)</f>
-        <v>Updated at 11:28:40</v>
+        <v>Updated at 07:43:09</v>
       </c>
       <c r="AG3" t="str">
         <f>_xll.RHistory(AI2,"ECONOMIC.Timestamp;ECONOMIC.Value","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC NULL:NA CH:Fd",AH4)</f>
-        <v>Updated at 11:28:40</v>
+        <v>Updated at 07:43:09</v>
       </c>
       <c r="AK3" t="str">
         <f>_xll.RHistory(AM2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AL4)</f>
-        <v>Updated at 11:28:40</v>
+        <v>Updated at 07:43:09</v>
       </c>
       <c r="AO3" t="str">
         <f>_xll.RHistory(AQ2,".Timestamp;.Close","START:01-Jan-2002 INTERVAL:1MO",,"TSREPEAT:YES SORT:ASC CH:Fd",AP4)</f>
-        <v>Updated at 11:28:41</v>
+        <v>Updated at 07:43:09</v>
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.3">
@@ -5542,7 +5542,7 @@
         <v>44165</v>
       </c>
       <c r="AM75">
-        <v>18521.57</v>
+        <v>18522.61</v>
       </c>
       <c r="AP75" s="2">
         <v>39416</v>
@@ -5610,7 +5610,7 @@
         <v>44196</v>
       </c>
       <c r="AM76">
-        <v>19442.95</v>
+        <v>19572.48</v>
       </c>
       <c r="AP76" s="2">
         <v>39447</v>
@@ -5678,7 +5678,7 @@
         <v>44227</v>
       </c>
       <c r="AM77">
-        <v>18795.36</v>
+        <v>18906.62</v>
       </c>
       <c r="AP77" s="2">
         <v>39478</v>
@@ -5746,7 +5746,7 @@
         <v>44255</v>
       </c>
       <c r="AM78">
-        <v>17470.099999999999</v>
+        <v>18145.150000000001</v>
       </c>
       <c r="AP78" s="2">
         <v>39507</v>
@@ -5810,6 +5810,12 @@
       <c r="AI79">
         <v>1407649</v>
       </c>
+      <c r="AL79" s="2">
+        <v>44286</v>
+      </c>
+      <c r="AM79">
+        <v>17589.669999999998</v>
+      </c>
       <c r="AP79" s="2">
         <v>39538</v>
       </c>
@@ -10546,7 +10552,7 @@
         <v>43890</v>
       </c>
       <c r="K156">
-        <v>2386070000</v>
+        <v>2655820000</v>
       </c>
       <c r="N156" s="2">
         <v>41882</v>
@@ -11228,7 +11234,7 @@
         <v>44227</v>
       </c>
       <c r="K167">
-        <v>1153510000</v>
+        <v>1192130000</v>
       </c>
       <c r="N167" s="2">
         <v>42216</v>
@@ -11286,6 +11292,12 @@
       <c r="G168">
         <v>8710000000</v>
       </c>
+      <c r="J168" s="2">
+        <v>44255</v>
+      </c>
+      <c r="K168">
+        <v>1845230000</v>
+      </c>
       <c r="N168" s="2">
         <v>42247</v>
       </c>
@@ -14910,10 +14922,22 @@
         <v>44196</v>
       </c>
       <c r="AQ232">
-        <v>25.265000000000001</v>
+        <v>25.254999999999999</v>
       </c>
     </row>
     <row r="233" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="B233" s="2">
+        <v>44227</v>
+      </c>
+      <c r="C233">
+        <v>18878000000</v>
+      </c>
+      <c r="F233" s="2">
+        <v>44255</v>
+      </c>
+      <c r="G233">
+        <v>26070000000</v>
+      </c>
       <c r="N233" s="2">
         <v>44227</v>
       </c>
@@ -14954,7 +14978,7 @@
         <v>44227</v>
       </c>
       <c r="AQ233">
-        <v>25.26</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="234" spans="2:43" x14ac:dyDescent="0.3">
@@ -14962,27 +14986,57 @@
         <v>44255</v>
       </c>
       <c r="O234">
-        <v>1727</v>
+        <v>1675</v>
       </c>
       <c r="R234" s="2">
         <v>44255</v>
       </c>
       <c r="S234">
-        <v>1262</v>
+        <v>1278</v>
+      </c>
+      <c r="V234" s="2">
+        <v>44255</v>
+      </c>
+      <c r="W234">
+        <v>60.8</v>
+      </c>
+      <c r="Z234" s="2">
+        <v>44255</v>
+      </c>
+      <c r="AA234">
+        <v>55.3</v>
+      </c>
+      <c r="AD234" s="2">
+        <v>44255</v>
+      </c>
+      <c r="AE234">
+        <v>51.4</v>
       </c>
       <c r="AP234" s="2">
         <v>44255</v>
       </c>
       <c r="AQ234">
-        <v>24.82</v>
+        <v>24.86</v>
       </c>
     </row>
     <row r="235" spans="2:43" x14ac:dyDescent="0.3">
+      <c r="N235" s="2">
+        <v>44286</v>
+      </c>
+      <c r="O235">
+        <v>2271</v>
+      </c>
+      <c r="R235" s="2">
+        <v>44286</v>
+      </c>
+      <c r="S235">
+        <v>1443</v>
+      </c>
       <c r="AP235" s="2">
         <v>44286</v>
       </c>
       <c r="AQ235">
-        <v>24.81</v>
+        <v>25.17</v>
       </c>
     </row>
     <row r="236" spans="2:43" x14ac:dyDescent="0.3">
@@ -14990,7 +15044,7 @@
         <v>44316</v>
       </c>
       <c r="AQ236">
-        <v>26.86</v>
+        <v>25.29</v>
       </c>
     </row>
     <row r="237" spans="2:43" x14ac:dyDescent="0.3">
@@ -14998,7 +15052,7 @@
         <v>44347</v>
       </c>
       <c r="AQ237">
-        <v>27.036826000000001</v>
+        <v>26.646826000000001</v>
       </c>
     </row>
     <row r="238" spans="2:43" x14ac:dyDescent="0.3">
@@ -15006,7 +15060,7 @@
         <v>44377</v>
       </c>
       <c r="AQ238">
-        <v>27.415486000000001</v>
+        <v>27.075486000000001</v>
       </c>
     </row>
     <row r="239" spans="2:43" x14ac:dyDescent="0.3">
@@ -15014,7 +15068,7 @@
         <v>44408</v>
       </c>
       <c r="AQ239">
-        <v>28.169146000000001</v>
+        <v>27.579146000000001</v>
       </c>
     </row>
     <row r="240" spans="2:43" x14ac:dyDescent="0.3">
@@ -15022,7 +15076,7 @@
         <v>44439</v>
       </c>
       <c r="AQ240">
-        <v>28.267806</v>
+        <v>27.777806000000002</v>
       </c>
     </row>
     <row r="241" spans="42:43" x14ac:dyDescent="0.3">
@@ -15030,7 +15084,7 @@
         <v>44469</v>
       </c>
       <c r="AQ241">
-        <v>28.266465</v>
+        <v>27.976465000000001</v>
       </c>
     </row>
     <row r="242" spans="42:43" x14ac:dyDescent="0.3">
@@ -15038,7 +15092,7 @@
         <v>44500</v>
       </c>
       <c r="AQ242">
-        <v>28.265125000000001</v>
+        <v>27.975124999999998</v>
       </c>
     </row>
     <row r="243" spans="42:43" x14ac:dyDescent="0.3">
@@ -15046,7 +15100,7 @@
         <v>44530</v>
       </c>
       <c r="AQ243">
-        <v>28.263784999999999</v>
+        <v>27.973784999999999</v>
       </c>
     </row>
     <row r="244" spans="42:43" x14ac:dyDescent="0.3">
@@ -15054,7 +15108,7 @@
         <v>44561</v>
       </c>
       <c r="AQ244">
-        <v>28.242443999999999</v>
+        <v>27.952444</v>
       </c>
     </row>
     <row r="245" spans="42:43" x14ac:dyDescent="0.3">
@@ -15062,7 +15116,7 @@
         <v>44592</v>
       </c>
       <c r="AQ245">
-        <v>28.187533999999999</v>
+        <v>27.997534000000002</v>
       </c>
     </row>
     <row r="246" spans="42:43" x14ac:dyDescent="0.3">
@@ -15070,7 +15124,7 @@
         <v>44620</v>
       </c>
       <c r="AQ246">
-        <v>28.197194</v>
+        <v>28.007193999999998</v>
       </c>
     </row>
     <row r="247" spans="42:43" x14ac:dyDescent="0.3">
@@ -15078,7 +15132,7 @@
         <v>44651</v>
       </c>
       <c r="AQ247">
-        <v>28.172854000000001</v>
+        <v>27.977854000000001</v>
       </c>
     </row>
     <row r="248" spans="42:43" x14ac:dyDescent="0.3">
@@ -15086,7 +15140,7 @@
         <v>44681</v>
       </c>
       <c r="AQ248">
-        <v>28.166513999999999</v>
+        <v>27.966514</v>
       </c>
     </row>
     <row r="249" spans="42:43" x14ac:dyDescent="0.3">
@@ -15094,7 +15148,7 @@
         <v>44712</v>
       </c>
       <c r="AQ249">
-        <v>28.206536</v>
+        <v>28.001536000000002</v>
       </c>
     </row>
     <row r="250" spans="42:43" x14ac:dyDescent="0.3">
@@ -15102,7 +15156,7 @@
         <v>44742</v>
       </c>
       <c r="AQ250">
-        <v>28.196908000000001</v>
+        <v>27.986908</v>
       </c>
     </row>
     <row r="251" spans="42:43" x14ac:dyDescent="0.3">
@@ -15110,7 +15164,7 @@
         <v>44773</v>
       </c>
       <c r="AQ251">
-        <v>28.207294000000001</v>
+        <v>27.992294000000001</v>
       </c>
     </row>
     <row r="252" spans="42:43" x14ac:dyDescent="0.3">
@@ -15118,7 +15172,7 @@
         <v>44804</v>
       </c>
       <c r="AQ252">
-        <v>28.207692000000002</v>
+        <v>27.987691999999999</v>
       </c>
     </row>
     <row r="253" spans="42:43" x14ac:dyDescent="0.3">
@@ -15126,7 +15180,7 @@
         <v>44834</v>
       </c>
       <c r="AQ253">
-        <v>28.218102999999999</v>
+        <v>27.993103000000001</v>
       </c>
     </row>
     <row r="254" spans="42:43" x14ac:dyDescent="0.3">
@@ -15134,7 +15188,7 @@
         <v>44865</v>
       </c>
       <c r="AQ254">
-        <v>28.228527</v>
+        <v>27.998526999999999</v>
       </c>
     </row>
     <row r="255" spans="42:43" x14ac:dyDescent="0.3">
@@ -15142,7 +15196,7 @@
         <v>44895</v>
       </c>
       <c r="AQ255">
-        <v>28.228963</v>
+        <v>27.993963000000001</v>
       </c>
     </row>
     <row r="256" spans="42:43" x14ac:dyDescent="0.3">
@@ -15150,7 +15204,7 @@
         <v>44926</v>
       </c>
       <c r="AQ256">
-        <v>28.21941</v>
+        <v>27.979410000000001</v>
       </c>
     </row>
   </sheetData>
